--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="2355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7784" uniqueCount="2356">
   <si>
     <t>id</t>
   </si>
@@ -7095,6 +7095,9 @@
   </si>
   <si>
     <t>&lt;--Telefono jefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -7448,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -8407,7 +8410,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8418,6 +8421,7 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="22" max="22" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8471,23 +8475,26 @@
       <c r="T3" t="s">
         <v>63</v>
       </c>
+      <c r="U3" t="s">
+        <v>2355</v>
+      </c>
       <c r="V3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A30" si="0">CONCATENATE($A$2,G4)</f>
+        <f t="shared" ref="A4:A31" si="0">CONCATENATE($A$2,G4)</f>
         <v>Est. Dublin</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -8497,7 +8504,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I30" si="1">CONCATENATE("('",A4,"', ",B4,", ",D4,", ",F4,"),")</f>
-        <v>('Est. Dublin', 28, 2, 10),</v>
+        <v>('Est. Dublin', 1, 11, 10),</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -8509,6 +8516,12 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
       <c r="V4">
         <v>10</v>
       </c>
@@ -8516,8 +8529,8 @@
         <v>23</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" ref="X4" si="2">CONCATENATE("('",P4,"', '",Q4,"', ",R4,");")</f>
-        <v>('Ofi. Dublin', '0', );</v>
+        <f>CONCATENATE("('",P4,"', ",Q4,", ",R4,", ",T4,", ",V4,");")</f>
+        <v>('Ofi. Dublin', 0, 2, null, 10);</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8532,7 +8545,8 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <f>D4+1</f>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -8542,7 +8556,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Cork', 1, 2, 11),</v>
+        <v>('Est. Cork', 1, 12, 11),</v>
       </c>
       <c r="O5">
         <f>O4+1</f>
@@ -8555,6 +8569,13 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R12" si="2">R4+1</f>
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
       <c r="V5">
         <v>13</v>
       </c>
@@ -8562,8 +8583,8 @@
         <v>27</v>
       </c>
       <c r="X5" t="str">
-        <f>CONCATENATE("('",P5,"', '",Q5,"', ",R5,");")</f>
-        <v>('Ofi. Amsterdam', '0', );</v>
+        <f t="shared" ref="X5:X13" si="3">CONCATENATE("('",P5,"', ",Q5,", ",R5,", ",T5,", ",V5,");")</f>
+        <v>('Ofi. Amsterdam', 0, 3, null, 13);</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -8578,7 +8599,8 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <f t="shared" ref="D6:D30" si="4">D5+1</f>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -8588,10 +8610,10 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Galway', 1, 2, 12),</v>
+        <v>('Est. Galway', 1, 13, 12),</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O12" si="3">O5+1</f>
+        <f t="shared" ref="O6:O12" si="5">O5+1</f>
         <v>3</v>
       </c>
       <c r="P6" t="str">
@@ -8601,6 +8623,13 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>9</v>
+      </c>
       <c r="V6">
         <v>16</v>
       </c>
@@ -8608,8 +8637,8 @@
         <v>30</v>
       </c>
       <c r="X6" t="str">
-        <f>CONCATENATE("('",P6,"', '",Q6,"', ",R6,");")</f>
-        <v>('Ofi. Nuuk', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Nuuk', 0, 4, null, 16);</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -8618,13 +8647,15 @@
         <v>Est. Amsterdam</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <f>B4+1</f>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>13</v>
@@ -8634,10 +8665,10 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Amsterdam', 28, 5, 13),</v>
+        <v>('Est. Amsterdam', 2, 14, 13),</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P7" t="str">
@@ -8647,6 +8678,13 @@
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
       <c r="V7">
         <v>19</v>
       </c>
@@ -8654,8 +8692,8 @@
         <v>33</v>
       </c>
       <c r="X7" t="str">
-        <f>CONCATENATE("('",P7,"', '",Q7,"', ",R7,");")</f>
-        <v>('Ofi. Buenos Aires', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Buenos Aires', 0, 5, null, 19);</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -8664,14 +8702,15 @@
         <v>Est. Roterdam</v>
       </c>
       <c r="B8">
-        <f>B5+3</f>
-        <v>4</v>
+        <f>B5+1</f>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>14</v>
@@ -8681,10 +8720,10 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Roterdam', 4, 5, 14),</v>
+        <v>('Est. Roterdam', 2, 15, 14),</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P8" t="str">
@@ -8694,6 +8733,13 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
       <c r="V8">
         <v>22</v>
       </c>
@@ -8701,8 +8747,8 @@
         <v>36</v>
       </c>
       <c r="X8" t="str">
-        <f>CONCATENATE("('",P8,"', '",Q8,"', ",R8,");")</f>
-        <v>('Ofi. Taipei', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Taipei', 0, 6, null, 22);</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8711,14 +8757,15 @@
         <v>Est. Haarlam</v>
       </c>
       <c r="B9">
-        <f>B6+3</f>
-        <v>4</v>
+        <f>B6+1</f>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -8728,10 +8775,10 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Haarlam', 4, 5, 15),</v>
+        <v>('Est. Haarlam', 2, 16, 15),</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P9" t="str">
@@ -8741,7 +8788,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="S9" s="1"/>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
       <c r="V9">
         <v>25</v>
       </c>
@@ -8749,8 +8803,8 @@
         <v>39</v>
       </c>
       <c r="X9" t="str">
-        <f>CONCATENATE("('",P9,"', '",Q9,"', ",R9,");")</f>
-        <v>('Ofi. Kuala Lumpur', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Kuala Lumpur', 0, 7, null, 25);</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8759,13 +8813,15 @@
         <v>Est. Nuuk</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <f t="shared" ref="B10:B30" si="6">B7+1</f>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -8775,10 +8831,10 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Nuuk', 28, 8, 16),</v>
+        <v>('Est. Nuuk', 3, 17, 16),</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P10" t="str">
@@ -8788,7 +8844,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="S10" s="1"/>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
       <c r="V10">
         <v>28</v>
       </c>
@@ -8796,8 +8859,8 @@
         <v>42</v>
       </c>
       <c r="X10" t="str">
-        <f>CONCATENATE("('",P10,"', '",Q10,"', ",R10,");")</f>
-        <v>('Ofi. Kampala', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Kampala', 0, 8, null, 28);</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8806,14 +8869,15 @@
         <v>Est. Qaqortoq</v>
       </c>
       <c r="B11">
-        <f>B8+3</f>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>17</v>
@@ -8823,10 +8887,10 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Qaqortoq', 7, 8, 17),</v>
+        <v>('Est. Qaqortoq', 3, 18, 17),</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P11" t="str">
@@ -8836,7 +8900,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="S11" s="1"/>
+      <c r="T11" t="s">
+        <v>9</v>
+      </c>
       <c r="V11">
         <v>31</v>
       </c>
@@ -8844,8 +8915,8 @@
         <v>45</v>
       </c>
       <c r="X11" t="str">
-        <f>CONCATENATE("('",P11,"', '",Q11,"', ",R11,");")</f>
-        <v>('Ofi. Harare', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Harare', 0, 9, null, 31);</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -8854,14 +8925,15 @@
         <v xml:space="preserve">Est. Sisimiut </v>
       </c>
       <c r="B12">
-        <f>B9+3</f>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>18</v>
@@ -8871,10 +8943,10 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Sisimiut ', 7, 8, 18),</v>
+        <v>('Est. Sisimiut ', 3, 19, 18),</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P12" t="str">
@@ -8884,6 +8956,13 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
       <c r="V12">
         <v>34</v>
       </c>
@@ -8891,8 +8970,8 @@
         <v>48</v>
       </c>
       <c r="X12" t="str">
-        <f>CONCATENATE("('",P12,"', '",Q12,"', ",R12,");")</f>
-        <v>('Ofi. Sidney', '0', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Sidney', 0, 10, null, 34);</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -8901,13 +8980,15 @@
         <v>Est. Buenos Aires</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>19</v>
@@ -8917,7 +8998,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Buenos Aires', 28, 11, 19),</v>
+        <v>('Est. Buenos Aires', 4, 20, 19),</v>
       </c>
       <c r="O13">
         <f>O12+1</f>
@@ -8930,18 +9011,21 @@
       <c r="Q13">
         <v>1</v>
       </c>
-      <c r="S13" t="s">
-        <v>52</v>
+      <c r="R13" t="s">
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>38</v>
       </c>
       <c r="W13" t="s">
         <v>52</v>
       </c>
       <c r="X13" t="str">
-        <f>CONCATENATE("('",P13,"', '",Q13,"', ",R13,");")</f>
-        <v>('Ofi. Ginebra', '1', );</v>
+        <f t="shared" si="3"/>
+        <v>('Ofi. Ginebra', 1, null, 1, 38);</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -8950,14 +9034,15 @@
         <v>Est. Ciudad de Cordoba</v>
       </c>
       <c r="B14">
-        <f>B11+3</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -8967,7 +9052,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Ciudad de Cordoba', 10, 11, 20),</v>
+        <v>('Est. Ciudad de Cordoba', 4, 21, 20),</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -8976,14 +9061,15 @@
         <v>Est. Rosario</v>
       </c>
       <c r="B15">
-        <f>B12+3</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -8993,7 +9079,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Rosario', 10, 11, 21),</v>
+        <v>('Est. Rosario', 4, 22, 21),</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -9002,13 +9088,15 @@
         <v>Est. Taipei</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>22</v>
@@ -9018,7 +9106,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Taipei', 28, 14, 22),</v>
+        <v>('Est. Taipei', 5, 23, 22),</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -9027,14 +9115,15 @@
         <v>Est. Tainan</v>
       </c>
       <c r="B17">
-        <f>B14+3</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>23</v>
@@ -9044,7 +9133,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Tainan', 13, 14, 23),</v>
+        <v>('Est. Tainan', 5, 24, 23),</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9053,14 +9142,15 @@
         <v>Est. Kaohsiung</v>
       </c>
       <c r="B18">
-        <f>B15+3</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>24</v>
@@ -9070,7 +9160,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Kaohsiung', 13, 14, 24),</v>
+        <v>('Est. Kaohsiung', 5, 25, 24),</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9079,13 +9169,15 @@
         <v>Est. Kuala Lumpur</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -9095,7 +9187,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Kuala Lumpur', 28, 17, 25),</v>
+        <v>('Est. Kuala Lumpur', 6, 26, 25),</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9104,14 +9196,15 @@
         <v>Est. Malaca</v>
       </c>
       <c r="B20">
-        <f>B17+3</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>26</v>
@@ -9121,7 +9214,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Malaca', 16, 17, 26),</v>
+        <v>('Est. Malaca', 6, 27, 26),</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9130,14 +9223,15 @@
         <v>Est. Pulau Pinang</v>
       </c>
       <c r="B21">
-        <f>B18+3</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>27</v>
@@ -9147,7 +9241,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Pulau Pinang', 16, 17, 27),</v>
+        <v>('Est. Pulau Pinang', 6, 28, 27),</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9156,13 +9250,15 @@
         <v>Est. Kampala</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>28</v>
@@ -9172,7 +9268,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Kampala', 28, 20, 28),</v>
+        <v>('Est. Kampala', 7, 29, 28),</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -9181,14 +9277,15 @@
         <v>Est. Entebbe</v>
       </c>
       <c r="B23">
-        <f>B20+3</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>29</v>
@@ -9198,7 +9295,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Entebbe', 19, 20, 29),</v>
+        <v>('Est. Entebbe', 7, 30, 29),</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9207,14 +9304,15 @@
         <v>Est. Kasese</v>
       </c>
       <c r="B24">
-        <f>B21+3</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -9224,7 +9322,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Kasese', 19, 20, 30),</v>
+        <v>('Est. Kasese', 7, 31, 30),</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9233,13 +9331,15 @@
         <v>Est. Harare</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>31</v>
@@ -9249,7 +9349,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Harare', 28, 23, 31),</v>
+        <v>('Est. Harare', 8, 32, 31),</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9258,14 +9358,15 @@
         <v>Est. Bulawayo</v>
       </c>
       <c r="B26">
-        <f>B23+3</f>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>32</v>
@@ -9275,7 +9376,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Bulawayo', 22, 23, 32),</v>
+        <v>('Est. Bulawayo', 8, 33, 32),</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -9284,14 +9385,15 @@
         <v>Est. Chitungwiza</v>
       </c>
       <c r="B27">
-        <f>B24+3</f>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>33</v>
@@ -9301,7 +9403,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Chitungwiza', 22, 23, 33),</v>
+        <v>('Est. Chitungwiza', 8, 34, 33),</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -9310,13 +9412,15 @@
         <v>Est. Sidney</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>34</v>
@@ -9326,7 +9430,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Sidney', 28, 26, 34),</v>
+        <v>('Est. Sidney', 9, 35, 34),</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -9335,14 +9439,15 @@
         <v>Est. Perth</v>
       </c>
       <c r="B29">
-        <f>B26+3</f>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="F29">
         <v>35</v>
@@ -9352,7 +9457,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Perth', 25, 26, 35),</v>
+        <v>('Est. Perth', 9, 36, 35),</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -9361,14 +9466,15 @@
         <v>Est. Gold Coast</v>
       </c>
       <c r="B30">
-        <f>B27+3</f>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -9378,7 +9484,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
-        <v>('Est. Gold Coast', 25, 26, 36),</v>
+        <v>('Est. Gold Coast', 9, 37, 36),</v>
       </c>
     </row>
   </sheetData>
@@ -30084,8 +30190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\bases-dos\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7784" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="2354">
   <si>
     <t>id</t>
   </si>
@@ -7064,27 +7064,6 @@
     <t>fk_estacion</t>
   </si>
   <si>
-    <t>INSERT INTO cuenta (año, presupuesto, fk_estacion) VALUES</t>
-  </si>
-  <si>
-    <t>2017/31/12</t>
-  </si>
-  <si>
-    <t>2018/31/12</t>
-  </si>
-  <si>
-    <t>2019/31/12</t>
-  </si>
-  <si>
-    <t>2020/31/12</t>
-  </si>
-  <si>
-    <t>2021/31/12</t>
-  </si>
-  <si>
-    <t>&lt;---TERMINA</t>
-  </si>
-  <si>
     <t>Informante</t>
   </si>
   <si>
@@ -7098,6 +7077,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2034/31/12</t>
+  </si>
+  <si>
+    <t>2035/31/12</t>
+  </si>
+  <si>
+    <t>2036/31/12</t>
+  </si>
+  <si>
+    <t>&lt;--Termina</t>
+  </si>
+  <si>
+    <t>INSERT INTO cuenta (año, presupuesto, fk_estacion, fk_oficina_principal) VALUES</t>
   </si>
 </sst>
 </file>
@@ -8409,7 +8403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -8476,7 +8470,7 @@
         <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
       <c r="V3" t="s">
         <v>64</v>
@@ -8484,7 +8478,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A31" si="0">CONCATENATE($A$2,G4)</f>
+        <f t="shared" ref="A4:A30" si="0">CONCATENATE($A$2,G4)</f>
         <v>Est. Dublin</v>
       </c>
       <c r="B4">
@@ -8510,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="str">
-        <f>CONCATENATE($O$2,W4)</f>
+        <f t="shared" ref="P4:P13" si="2">CONCATENATE($O$2,W4)</f>
         <v>Ofi. Dublin</v>
       </c>
       <c r="Q4">
@@ -8563,14 +8557,14 @@
         <v>2</v>
       </c>
       <c r="P5" t="str">
-        <f>CONCATENATE($O$2,W5)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Amsterdam</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R12" si="2">R4+1</f>
+        <f t="shared" ref="R5:R12" si="3">R4+1</f>
         <v>3</v>
       </c>
       <c r="T5" t="s">
@@ -8583,7 +8577,7 @@
         <v>27</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X13" si="3">CONCATENATE("('",P5,"', ",Q5,", ",R5,", ",T5,", ",V5,");")</f>
+        <f t="shared" ref="X5:X13" si="4">CONCATENATE("('",P5,"', ",Q5,", ",R5,", ",T5,", ",V5,");")</f>
         <v>('Ofi. Amsterdam', 0, 3, null, 13);</v>
       </c>
     </row>
@@ -8599,7 +8593,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D30" si="4">D5+1</f>
+        <f t="shared" ref="D6:D30" si="5">D5+1</f>
         <v>13</v>
       </c>
       <c r="F6">
@@ -8613,18 +8607,18 @@
         <v>('Est. Galway', 1, 13, 12),</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O12" si="5">O5+1</f>
+        <f t="shared" ref="O6:O12" si="6">O5+1</f>
         <v>3</v>
       </c>
       <c r="P6" t="str">
-        <f>CONCATENATE($O$2,W6)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Nuuk</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T6" t="s">
@@ -8637,7 +8631,7 @@
         <v>30</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Nuuk', 0, 4, null, 16);</v>
       </c>
     </row>
@@ -8654,7 +8648,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F7">
@@ -8668,18 +8662,18 @@
         <v>('Est. Amsterdam', 2, 14, 13),</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P7" t="str">
-        <f>CONCATENATE($O$2,W7)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Buenos Aires</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T7" t="s">
@@ -8692,7 +8686,7 @@
         <v>33</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Buenos Aires', 0, 5, null, 19);</v>
       </c>
     </row>
@@ -8709,7 +8703,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="F8">
@@ -8723,18 +8717,18 @@
         <v>('Est. Roterdam', 2, 15, 14),</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P8" t="str">
-        <f>CONCATENATE($O$2,W8)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Taipei</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T8" t="s">
@@ -8747,7 +8741,7 @@
         <v>36</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Taipei', 0, 6, null, 22);</v>
       </c>
     </row>
@@ -8764,7 +8758,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F9">
@@ -8778,18 +8772,18 @@
         <v>('Est. Haarlam', 2, 16, 15),</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P9" t="str">
-        <f>CONCATENATE($O$2,W9)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Kuala Lumpur</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="S9" s="1"/>
@@ -8803,7 +8797,7 @@
         <v>39</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Kuala Lumpur', 0, 7, null, 25);</v>
       </c>
     </row>
@@ -8813,14 +8807,14 @@
         <v>Est. Nuuk</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B30" si="6">B7+1</f>
+        <f t="shared" ref="B10:B30" si="7">B7+1</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="F10">
@@ -8834,18 +8828,18 @@
         <v>('Est. Nuuk', 3, 17, 16),</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P10" t="str">
-        <f>CONCATENATE($O$2,W10)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Kampala</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S10" s="1"/>
@@ -8859,7 +8853,7 @@
         <v>42</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Kampala', 0, 8, null, 28);</v>
       </c>
     </row>
@@ -8869,14 +8863,14 @@
         <v>Est. Qaqortoq</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="F11">
@@ -8890,18 +8884,18 @@
         <v>('Est. Qaqortoq', 3, 18, 17),</v>
       </c>
       <c r="O11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE($O$2,W11)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Harare</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S11" s="1"/>
@@ -8915,7 +8909,7 @@
         <v>45</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Harare', 0, 9, null, 31);</v>
       </c>
     </row>
@@ -8925,14 +8919,14 @@
         <v xml:space="preserve">Est. Sisimiut </v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="F12">
@@ -8946,18 +8940,18 @@
         <v>('Est. Sisimiut ', 3, 19, 18),</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="P12" t="str">
-        <f>CONCATENATE($O$2,W12)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Sidney</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T12" t="s">
@@ -8970,7 +8964,7 @@
         <v>48</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Sidney', 0, 10, null, 34);</v>
       </c>
     </row>
@@ -8980,14 +8974,14 @@
         <v>Est. Buenos Aires</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="F13">
@@ -9005,7 +8999,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="str">
-        <f>CONCATENATE($O$2,W13)</f>
+        <f t="shared" si="2"/>
         <v>Ofi. Ginebra</v>
       </c>
       <c r="Q13">
@@ -9024,7 +9018,7 @@
         <v>52</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('Ofi. Ginebra', 1, null, 1, 38);</v>
       </c>
     </row>
@@ -9034,14 +9028,14 @@
         <v>Est. Ciudad de Cordoba</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="F14">
@@ -9061,14 +9055,14 @@
         <v>Est. Rosario</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="F15">
@@ -9088,14 +9082,14 @@
         <v>Est. Taipei</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="F16">
@@ -9115,14 +9109,14 @@
         <v>Est. Tainan</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="F17">
@@ -9142,14 +9136,14 @@
         <v>Est. Kaohsiung</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="F18">
@@ -9169,14 +9163,14 @@
         <v>Est. Kuala Lumpur</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="F19">
@@ -9196,14 +9190,14 @@
         <v>Est. Malaca</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="F20">
@@ -9223,14 +9217,14 @@
         <v>Est. Pulau Pinang</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="F21">
@@ -9250,14 +9244,14 @@
         <v>Est. Kampala</v>
       </c>
       <c r="B22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="F22">
@@ -9277,14 +9271,14 @@
         <v>Est. Entebbe</v>
       </c>
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F23">
@@ -9304,14 +9298,14 @@
         <v>Est. Kasese</v>
       </c>
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F24">
@@ -9331,14 +9325,14 @@
         <v>Est. Harare</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="F25">
@@ -9358,14 +9352,14 @@
         <v>Est. Bulawayo</v>
       </c>
       <c r="B26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="F26">
@@ -9385,14 +9379,14 @@
         <v>Est. Chitungwiza</v>
       </c>
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="F27">
@@ -9412,14 +9406,14 @@
         <v>Est. Sidney</v>
       </c>
       <c r="B28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="F28">
@@ -9439,14 +9433,14 @@
         <v>Est. Perth</v>
       </c>
       <c r="B29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="F29">
@@ -9466,14 +9460,14 @@
         <v>Est. Gold Coast</v>
       </c>
       <c r="B30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="F30">
@@ -30191,7 +30185,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31238,7 +31232,7 @@
         <v>88</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE($F$2,H32,")")</f>
+        <f t="shared" ref="F32:F40" si="3">CONCATENATE($F$2,H32,")")</f>
         <v>ROW(412,1229016)</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -31251,7 +31245,7 @@
         <v>8</v>
       </c>
       <c r="K32" t="str">
-        <f>CONCATENATE("(",B32,", ", C32,", ", D32,", ", E32, ", ", F32,", ",G32,"),")</f>
+        <f t="shared" ref="K32:K40" si="4">CONCATENATE("(",B32,", ", C32,", ", D32,", ", E32, ", ", F32,", ",G32,"),")</f>
         <v>('Celeste', 'Soledad', 'Chacon', 'Machado', ROW(412,1229016), jefe),</v>
       </c>
     </row>
@@ -31273,7 +31267,7 @@
         <v>102</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE($F$2,H33,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(412,5018092)</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -31286,7 +31280,7 @@
         <v>8</v>
       </c>
       <c r="K33" t="str">
-        <f>CONCATENATE("(",B33,", ", C33,", ", D33,", ", E33, ", ", F33,", ",G33,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Vivaldo', 'Tarsicio', 'Rosas', 'Jackson', ROW(412,5018092), jefe),</v>
       </c>
     </row>
@@ -31308,7 +31302,7 @@
         <v>117</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE($F$2,H34,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(416,3371835)</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -31321,7 +31315,7 @@
         <v>8</v>
       </c>
       <c r="K34" t="str">
-        <f>CONCATENATE("(",B34,", ", C34,", ", D34,", ", E34, ", ", F34,", ",G34,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Mirella', 'Zamira', 'Machuca', 'Magallon', ROW(416,3371835), jefe),</v>
       </c>
     </row>
@@ -31343,7 +31337,7 @@
         <v>130</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE($F$2,H35,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(414,3049959)</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -31356,7 +31350,7 @@
         <v>9</v>
       </c>
       <c r="K35" t="str">
-        <f>CONCATENATE("(",B35,", ", C35,", ", D35,", ", E35, ", ", F35,", ",G35,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Calixtrato', 'Vicente', 'Quintanilla', 'Estrada', ROW(414,3049959), jefe),</v>
       </c>
     </row>
@@ -31378,7 +31372,7 @@
         <v>145</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE($F$2,H36,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(414,8123924)</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -31391,7 +31385,7 @@
         <v>9</v>
       </c>
       <c r="K36" t="str">
-        <f>CONCATENATE("(",B36,", ", C36,", ", D36,", ", E36, ", ", F36,", ",G36,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Libertad', 'Eliana', 'Garces', 'Casanova', ROW(414,8123924), jefe),</v>
       </c>
     </row>
@@ -31413,7 +31407,7 @@
         <v>159</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE($F$2,H37,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(4148,999846)</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -31426,7 +31420,7 @@
         <v>9</v>
       </c>
       <c r="K37" t="str">
-        <f>CONCATENATE("(",B37,", ", C37,", ", D37,", ", E37, ", ", F37,", ",G37,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Emperatriz', 'Myriam', 'Angulo', 'Valdivia', ROW(4148,999846), jefe),</v>
       </c>
     </row>
@@ -31448,7 +31442,7 @@
         <v>174</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE($F$2,H38,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(416,1450123)</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -31461,7 +31455,7 @@
         <v>10</v>
       </c>
       <c r="K38" t="str">
-        <f>CONCATENATE("(",B38,", ", C38,", ", D38,", ", E38, ", ", F38,", ",G38,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Hugo', 'Adan', 'Serrato', 'Barrios', ROW(416,1450123), jefe),</v>
       </c>
     </row>
@@ -31483,7 +31477,7 @@
         <v>188</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE($F$2,H39,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(414,1292334)</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -31496,7 +31490,7 @@
         <v>10</v>
       </c>
       <c r="K39" t="str">
-        <f>CONCATENATE("(",B39,", ", C39,", ", D39,", ", E39, ", ", F39,", ",G39,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Rosalia', 'Pilar', 'Valles', 'Montes', ROW(414,1292334), jefe),</v>
       </c>
     </row>
@@ -31518,7 +31512,7 @@
         <v>139</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE($F$2,H40,")")</f>
+        <f t="shared" si="3"/>
         <v>ROW(412,1948734)</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -31531,7 +31525,7 @@
         <v>10</v>
       </c>
       <c r="K40" t="str">
-        <f>CONCATENATE("(",B40,", ", C40,", ", D40,", ", E40, ", ", F40,", ",G40,"),")</f>
+        <f t="shared" si="4"/>
         <v>('Claudio', 'Lincoln', 'Sullivan', 'Tafoya', ROW(412,1948734), jefe),</v>
       </c>
     </row>
@@ -32031,7 +32025,7 @@
         <v>1778</v>
       </c>
       <c r="F29" t="s">
-        <v>2353</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -32476,7 +32470,7 @@
         <v>1804</v>
       </c>
       <c r="F55" t="s">
-        <v>2354</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -41599,22 +41593,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L147"/>
+  <dimension ref="A3:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2341</v>
       </c>
@@ -41627,13 +41621,13 @@
       <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -41644,26 +41638,17 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G35" si="0">CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
-        <v>('2017/31/12',  10000, 1, 28),</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H35" si="0">CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
+        <v>('2034/31/12',  10000, 1, 1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="B5">
         <v>10500</v>
@@ -41674,27 +41659,17 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E30" si="1">E4+1</f>
-        <v>2</v>
-      </c>
       <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>('2018/31/12',  10500, 1, 28),</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>('2035/31/12',  10500, 1, 1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="B6">
         <v>11000</v>
@@ -41705,2633 +41680,2106 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11000, 1, 1),</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B7">
+        <v>12000</v>
+      </c>
+      <c r="C7">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034/31/12',  12000, 2, 1),</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B8">
+        <v>13000</v>
+      </c>
+      <c r="C8">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  13000, 2, 1),</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  10000, 2, 1),</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B10">
+        <v>10500</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C73" si="1">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034/31/12',  10500, 3, 1),</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B11">
+        <v>11000</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>28</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>('2019/31/12',  11000, 1, 28),</v>
-      </c>
-      <c r="K6">
+        <v>('2035/31/12',  11000, 3, 1),</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B12">
+        <v>11500</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B7">
-        <v>12000</v>
-      </c>
-      <c r="C7">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11500, 3, 1),</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>F4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>('2020/31/12',  12000, 1, 28),</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>A4</f>
-        <v>2017/31/12</v>
-      </c>
-      <c r="K7">
+        <v>('2034/31/12',  10000, 4, 2),</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B14">
+        <v>10500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F14">
+        <f>F5+1</f>
+        <v>2</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  10500, 4, 2),</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B15">
+        <v>11000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>F6+1</f>
+        <v>2</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11000, 4, 2),</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B8">
-        <v>13000</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F16">
+        <f>F7+1</f>
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>('2021/31/12',  13000, 1, 28),</v>
-      </c>
-      <c r="K8">
+        <v>('2034/31/12',  10000, 5, 2),</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B17">
+        <v>10500</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L8" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9">
+      <c r="F17">
+        <f>F8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  10500, 5, 2),</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B18">
+        <v>11000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <f>F9+1</f>
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11000, 5, 2),</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B19">
+        <v>12000</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <f>F10+1</f>
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>('2018/31/12',  10000, 2, 1),</v>
-      </c>
-      <c r="J9" t="str">
-        <f>CONCATENATE("('", A4,"',  ",B4,", ",C4,"),")</f>
-        <v>('2017/31/12',  10000, 1),</v>
-      </c>
-      <c r="K9">
+        <v>('2034/31/12',  12000, 6, 2),</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B20">
+        <v>13000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B10">
+      <c r="F20">
+        <f>F11+1</f>
+        <v>2</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  13000, 6, 2),</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <f>F12+1</f>
+        <v>2</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  10000, 6, 2),</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B22">
         <v>10500</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F85" si="2">F13+1</f>
+        <v>3</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>('2019/31/12',  10500, 2, 1),</v>
-      </c>
-      <c r="K10">
+        <v>('2034/31/12',  10500, 7, 3),</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B23">
+        <v>11000</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B11">
-        <v>11000</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  11000, 7, 3),</v>
+      </c>
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B24">
+        <v>11500</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11500, 7, 3),</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>('2020/31/12',  11000, 2, 1),</v>
-      </c>
-      <c r="K11">
+        <v>('2034/31/12',  10000, 8, 3),</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B26">
+        <v>10500</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="D26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  10500, 8, 3),</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B27">
+        <v>11000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11000, 8, 3),</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B12">
-        <v>11500</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>('2021/31/12',  11500, 2, 1),</v>
-      </c>
-      <c r="K12">
+        <v>('2034/31/12',  10000, 9, 3),</v>
+      </c>
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B29">
+        <v>10500</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L12" t="s">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13">
+      <c r="F29">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  10500, 9, 3),</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B30">
+        <v>11000</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  11000, 9, 3),</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B31">
+        <v>12000</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>('2019/31/12',  10000, 3, 1),</v>
-      </c>
-      <c r="K13">
+        <v>('2034/31/12',  12000, 10, 4),</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B32">
+        <v>13000</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L13" t="s">
+      <c r="D32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B14">
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  13000, 10, 4),</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036/31/12',  10000, 10, 4),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B34">
         <v>10500</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>('2020/31/12',  10500, 3, 1),</v>
-      </c>
-      <c r="K14">
+        <v>('2034/31/12',  10500, 11, 4),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B35">
+        <v>11000</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L14" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035/31/12',  11000, 11, 4),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B36">
+        <v>11500</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36:H67" si="3">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
+        <v>('2036/31/12',  11500, 11, 4),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B15">
-        <v>11000</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021/31/12',  11000, 3, 1),</v>
-      </c>
-      <c r="K15">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 12, 4),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B38">
+        <v>10500</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L15" t="s">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B16">
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 12, 4),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B39">
+        <v>11000</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 12, 4),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B40">
         <v>10000</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C47" si="2">3+C4</f>
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>('2017/31/12',  10000, 4, 28),</v>
-      </c>
-      <c r="K16">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 13, 5),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B41">
+        <v>10500</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="D41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B17">
-        <v>10500</v>
-      </c>
-      <c r="C17">
+      <c r="F41">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 13, 5),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B42">
+        <v>11000</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 13, 5),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B43">
+        <v>12000</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F17">
-        <v>28</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>('2018/31/12',  10500, 4, 28),</v>
-      </c>
-      <c r="K17">
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  12000, 14, 5),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B44">
+        <v>13000</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L17" t="s">
+      <c r="D44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B18">
-        <v>11000</v>
-      </c>
-      <c r="C18">
+      <c r="F44">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  13000, 14, 5),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  10000, 14, 5),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B46">
+        <v>10500</v>
+      </c>
+      <c r="C46">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F18">
-        <v>28</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>('2019/31/12',  11000, 4, 28),</v>
-      </c>
-      <c r="K18">
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10500, 15, 5),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B47">
+        <v>11000</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B19">
-        <v>12000</v>
-      </c>
-      <c r="C19">
+      <c r="F47">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  11000, 15, 5),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B48">
+        <v>11500</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11500, 15, 5),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B49">
+        <v>10000</v>
+      </c>
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F19">
-        <v>28</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>('2020/31/12',  12000, 4, 28),</v>
-      </c>
-      <c r="K19">
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 16, 6),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B50">
+        <v>10500</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 16, 6),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B51">
+        <v>11000</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 16, 6),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B20">
-        <v>13000</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>28</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021/31/12',  13000, 4, 28),</v>
-      </c>
-      <c r="K20">
+      <c r="D52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 17, 6),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B53">
+        <v>10500</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
+      <c r="F53">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 17, 6),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B54">
+        <v>11000</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 17, 6),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B55">
+        <v>12000</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>('2018/31/12',  10000, 5, 4),</v>
-      </c>
-      <c r="K21">
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  12000, 18, 6),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B56">
+        <v>13000</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B22">
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  13000, 18, 6),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B57">
+        <v>10000</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  10000, 18, 6),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B58">
         <v>10500</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22">
+      <c r="C58">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>('2019/31/12',  10500, 5, 4),</v>
-      </c>
-      <c r="K22">
+      <c r="D58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10500, 19, 7),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B59">
+        <v>11000</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B23">
-        <v>11000</v>
-      </c>
-      <c r="C23">
+      <c r="F59">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  11000, 19, 7),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B60">
+        <v>11500</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11500, 19, 7),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>('2020/31/12',  11000, 5, 4),</v>
-      </c>
-      <c r="K23">
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 20, 7),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B62">
+        <v>10500</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L23" t="s">
+      <c r="D62" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 20, 7),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B63">
+        <v>11000</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 20, 7),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B24">
-        <v>11500</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24">
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021/31/12',  11500, 5, 4),</v>
-      </c>
-      <c r="K24">
+      <c r="D64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  10000, 21, 7),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B65">
+        <v>10500</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-      <c r="C25">
+      <c r="F65">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="3"/>
+        <v>('2035/31/12',  10500, 21, 7),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B66">
+        <v>11000</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="3"/>
+        <v>('2036/31/12',  11000, 21, 7),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B67">
+        <v>12000</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>('2019/31/12',  10000, 6, 4),</v>
-      </c>
-      <c r="K25">
+      <c r="D67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="3"/>
+        <v>('2034/31/12',  12000, 22, 8),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B68">
+        <v>13000</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B26">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H68" t="str">
+        <f>CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
+        <v>('2035/31/12',  13000, 22, 8),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B69">
+        <v>10000</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H69" t="str">
+        <f>CONCATENATE("('", A69,"',  ",B69,", ",C69,", ",F69,"),")</f>
+        <v>('2036/31/12',  10000, 22, 8),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B70">
         <v>10500</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26">
+      <c r="C70">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>('2020/31/12',  10500, 6, 4),</v>
-      </c>
-      <c r="K26">
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H70" t="str">
+        <f>CONCATENATE("('", A70,"',  ",B70,", ",C70,", ",F70,"),")</f>
+        <v>('2034/31/12',  10500, 23, 8),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B71">
+        <v>11000</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="D71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H71" t="str">
+        <f>CONCATENATE("('", A71,"',  ",B71,", ",C71,", ",F71,"),")</f>
+        <v>('2035/31/12',  11000, 23, 8),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B72">
+        <v>11500</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H72" t="str">
+        <f>CONCATENATE("('", A72,"',  ",B72,", ",C72,", ",F72,"),")</f>
+        <v>('2036/31/12',  11500, 23, 8),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B27">
-        <v>11000</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
+      <c r="B73">
+        <v>10000</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021/31/12',  11000, 6, 4),</v>
-      </c>
-      <c r="K27">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="D73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B28">
-        <v>10000</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>('2017/31/12',  10000, 7, 28),</v>
-      </c>
-      <c r="K28">
-        <v>25</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B29">
-        <v>10500</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>('2018/31/12',  10500, 7, 28),</v>
-      </c>
-      <c r="K29">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B30">
-        <v>11000</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F30">
-        <v>28</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>('2019/31/12',  11000, 7, 28),</v>
-      </c>
-      <c r="K30">
-        <v>27</v>
-      </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B31">
-        <v>12000</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>28</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>('2020/31/12',  12000, 7, 28),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B32">
-        <v>13000</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>28</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021/31/12',  13000, 7, 28),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B33">
-        <v>10000</v>
-      </c>
-      <c r="C33">
+      <c r="F73">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>('2018/31/12',  10000, 8, 7),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B34">
+      <c r="H73" t="str">
+        <f>CONCATENATE("('", A73,"',  ",B73,", ",C73,", ",F73,"),")</f>
+        <v>('2034/31/12',  10000, 24, 8),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B74">
         <v>10500</v>
       </c>
-      <c r="C34">
+      <c r="C74">
+        <f t="shared" ref="C74:C90" si="4">C71+1</f>
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>('2019/31/12',  10500, 8, 7),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B35">
+      <c r="H74" t="str">
+        <f>CONCATENATE("('", A74,"',  ",B74,", ",C74,", ",F74,"),")</f>
+        <v>('2035/31/12',  10500, 24, 8),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B75">
         <v>11000</v>
       </c>
-      <c r="C35">
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>('2020/31/12',  11000, 8, 7),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="H75" t="str">
+        <f>CONCATENATE("('", A75,"',  ",B75,", ",C75,", ",F75,"),")</f>
+        <v>('2036/31/12',  11000, 24, 8),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="B36">
-        <v>11500</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" ref="G36:G67" si="3">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
-        <v>('2021/31/12',  11500, 8, 7),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B37">
+      <c r="B76">
         <v>10000</v>
       </c>
-      <c r="C37">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  10000, 9, 7),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B38">
+      <c r="H76" t="str">
+        <f>CONCATENATE("('", A76,"',  ",B76,", ",C76,", ",F76,"),")</f>
+        <v>('2034/31/12',  10000, 25, 9),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B77">
         <v>10500</v>
       </c>
-      <c r="C38">
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  10500, 9, 7),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B39">
+      <c r="H77" t="str">
+        <f>CONCATENATE("('", A77,"',  ",B77,", ",C77,", ",F77,"),")</f>
+        <v>('2035/31/12',  10500, 25, 9),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B78">
         <v>11000</v>
       </c>
-      <c r="C39">
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39">
-        <v>7</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  11000, 9, 7),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B40">
-        <v>10000</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40">
-        <v>28</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="3"/>
-        <v>('2017/31/12',  10000, 10, 28),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B41">
-        <v>10500</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41">
-        <v>28</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="3"/>
-        <v>('2018/31/12',  10500, 10, 28),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B42">
-        <v>11000</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42">
-        <v>28</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  11000, 10, 28),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B43">
-        <v>12000</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43">
-        <v>28</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  12000, 10, 28),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="H78" t="str">
+        <f>CONCATENATE("('", A78,"',  ",B78,", ",C78,", ",F78,"),")</f>
+        <v>('2036/31/12',  11000, 25, 9),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>2349</v>
-      </c>
-      <c r="B44">
-        <v>13000</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44">
-        <v>28</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  13000, 10, 28),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B45">
-        <v>10000</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="3"/>
-        <v>('2018/31/12',  10000, 11, 10),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B46">
-        <v>10500</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  10500, 11, 10),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B47">
-        <v>11000</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  11000, 11, 10),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B48">
-        <v>11500</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:C79" si="4">3+C36</f>
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  11500, 11, 10),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B49">
-        <v>10000</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  10000, 12, 10),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B50">
-        <v>10500</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  10500, 12, 10),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B51">
-        <v>11000</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  11000, 12, 10),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B52">
-        <v>10000</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52">
-        <v>28</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="3"/>
-        <v>('2017/31/12',  10000, 13, 28),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B53">
-        <v>10500</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53">
-        <v>28</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="3"/>
-        <v>('2018/31/12',  10500, 13, 28),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B54">
-        <v>11000</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54">
-        <v>28</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  11000, 13, 28),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B55">
-        <v>12000</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55">
-        <v>28</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  12000, 13, 28),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B56">
-        <v>13000</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56">
-        <v>28</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  13000, 13, 28),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B57">
-        <v>10000</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57">
-        <v>13</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="3"/>
-        <v>('2018/31/12',  10000, 14, 13),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B58">
-        <v>10500</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58">
-        <v>13</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  10500, 14, 13),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B59">
-        <v>11000</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59">
-        <v>13</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  11000, 14, 13),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B60">
-        <v>11500</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60">
-        <v>13</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  11500, 14, 13),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B61">
-        <v>10000</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61">
-        <v>13</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  10000, 15, 13),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B62">
-        <v>10500</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62">
-        <v>13</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  10500, 15, 13),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B63">
-        <v>11000</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63">
-        <v>13</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="3"/>
-        <v>('2021/31/12',  11000, 15, 13),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B64">
-        <v>10000</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64">
-        <v>28</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="3"/>
-        <v>('2017/31/12',  10000, 16, 28),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B65">
-        <v>10500</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65">
-        <v>28</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="3"/>
-        <v>('2018/31/12',  10500, 16, 28),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B66">
-        <v>11000</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66">
-        <v>28</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="3"/>
-        <v>('2019/31/12',  11000, 16, 28),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B67">
-        <v>12000</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67">
-        <v>28</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="3"/>
-        <v>('2020/31/12',  12000, 16, 28),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B68">
-        <v>13000</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68">
-        <v>28</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" ref="G68:G99" si="5">CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
-        <v>('2021/31/12',  13000, 16, 28),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B69">
-        <v>10000</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69">
-        <v>16</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="5"/>
-        <v>('2018/31/12',  10000, 17, 16),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B70">
-        <v>10500</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70">
-        <v>16</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10500, 17, 16),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B71">
-        <v>11000</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71">
-        <v>16</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  11000, 17, 16),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B72">
-        <v>11500</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72">
-        <v>16</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11500, 17, 16),</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B73">
-        <v>10000</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73">
-        <v>16</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10000, 18, 16),</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B74">
-        <v>10500</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74">
-        <v>16</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  10500, 18, 16),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B75">
-        <v>11000</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75">
-        <v>16</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11000, 18, 16),</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B76">
-        <v>10000</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76">
-        <v>28</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="5"/>
-        <v>('2017/31/12',  10000, 19, 28),</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B77">
-        <v>10500</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77">
-        <v>28</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="5"/>
-        <v>('2018/31/12',  10500, 19, 28),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B78">
-        <v>11000</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78">
-        <v>28</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  11000, 19, 28),</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>2348</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
       </c>
       <c r="F79">
-        <v>28</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  12000, 19, 28),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H79" t="str">
+        <f>CONCATENATE("('", A79,"',  ",B79,", ",C79,", ",F79,"),")</f>
+        <v>('2034/31/12',  12000, 26, 9),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="B80">
         <v>13000</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C111" si="6">3+C68</f>
-        <v>19</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
       </c>
       <c r="F80">
-        <v>28</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  13000, 19, 28),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H80" t="str">
+        <f>CONCATENATE("('", A80,"',  ",B80,", ",C80,", ",F80,"),")</f>
+        <v>('2035/31/12',  13000, 26, 9),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="B81">
         <v>10000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F81">
-        <v>19</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="5"/>
-        <v>('2018/31/12',  10000, 20, 19),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>2347</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H81" t="str">
+        <f>CONCATENATE("('", A81,"',  ",B81,", ",C81,", ",F81,"),")</f>
+        <v>('2036/31/12',  10000, 26, 9),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>2349</v>
       </c>
       <c r="B82">
         <v>10500</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F82">
-        <v>19</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10500, 20, 19),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H82" t="str">
+        <f>CONCATENATE("('", A82,"',  ",B82,", ",C82,", ",F82,"),")</f>
+        <v>('2034/31/12',  10500, 27, 9),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="B83">
         <v>11000</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F83">
-        <v>19</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  11000, 20, 19),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H83" t="str">
+        <f>CONCATENATE("('", A83,"',  ",B83,", ",C83,", ",F83,"),")</f>
+        <v>('2035/31/12',  11000, 27, 9),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="B84">
         <v>11500</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F84">
-        <v>19</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11500, 20, 19),</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B85">
-        <v>10000</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85">
-        <v>19</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10000, 21, 19),</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B86">
-        <v>10500</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86">
-        <v>19</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  10500, 21, 19),</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B87">
-        <v>11000</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87">
-        <v>19</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11000, 21, 19),</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B88">
-        <v>10000</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88">
-        <v>28</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="5"/>
-        <v>('2017/31/12',  10000, 22, 28),</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B89">
-        <v>10500</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89">
-        <v>28</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="5"/>
-        <v>('2018/31/12',  10500, 22, 28),</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B90">
-        <v>11000</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90">
-        <v>28</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  11000, 22, 28),</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B91">
-        <v>12000</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91">
-        <v>28</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  12000, 22, 28),</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B92">
-        <v>13000</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F92">
-        <v>28</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  13000, 22, 28),</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B93">
-        <v>10000</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>46</v>
-      </c>
-      <c r="F93">
-        <v>22</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="5"/>
-        <v>('2018/31/12',  10000, 23, 22),</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B94">
-        <v>10500</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="D94" t="s">
-        <v>46</v>
-      </c>
-      <c r="F94">
-        <v>22</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10500, 23, 22),</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B95">
-        <v>11000</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95">
-        <v>22</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  11000, 23, 22),</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B96">
-        <v>11500</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="D96" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96">
-        <v>22</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11500, 23, 22),</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B97">
-        <v>10000</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="D97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97">
-        <v>22</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="5"/>
-        <v>('2019/31/12',  10000, 24, 22),</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B98">
-        <v>10500</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="D98" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98">
-        <v>22</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="5"/>
-        <v>('2020/31/12',  10500, 24, 22),</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B99">
-        <v>11000</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="D99" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99">
-        <v>22</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="5"/>
-        <v>('2021/31/12',  11000, 24, 22),</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B100">
-        <v>10000</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="D100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100">
-        <v>28</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" ref="G100:G131" si="7">CONCATENATE("('", A100,"',  ",B100,", ",C100,", ",F100,"),")</f>
-        <v>('2017/31/12',  10000, 25, 28),</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B101">
-        <v>10500</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="D101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101">
-        <v>28</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="7"/>
-        <v>('2018/31/12',  10500, 25, 28),</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B102">
-        <v>11000</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="D102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102">
-        <v>28</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="7"/>
-        <v>('2019/31/12',  11000, 25, 28),</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B103">
-        <v>12000</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="D103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103">
-        <v>28</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="7"/>
-        <v>('2020/31/12',  12000, 25, 28),</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B104">
-        <v>13000</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="D104" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104">
-        <v>28</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="7"/>
-        <v>('2021/31/12',  13000, 25, 28),</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B105">
-        <v>10000</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="D105" t="s">
-        <v>49</v>
-      </c>
-      <c r="F105">
-        <v>25</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="7"/>
-        <v>('2018/31/12',  10000, 26, 25),</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B106">
-        <v>10500</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="D106" t="s">
-        <v>49</v>
-      </c>
-      <c r="F106">
-        <v>25</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="7"/>
-        <v>('2019/31/12',  10500, 26, 25),</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B107">
-        <v>11000</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="D107" t="s">
-        <v>49</v>
-      </c>
-      <c r="F107">
-        <v>25</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="7"/>
-        <v>('2020/31/12',  11000, 26, 25),</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B108">
-        <v>11500</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="D108" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108">
-        <v>25</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="7"/>
-        <v>('2021/31/12',  11500, 26, 25),</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B109">
-        <v>10000</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="D109" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109">
-        <v>25</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="7"/>
-        <v>('2019/31/12',  10000, 27, 25),</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B110">
-        <v>10500</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="D110" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110">
-        <v>25</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="7"/>
-        <v>('2020/31/12',  10500, 27, 25),</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B111">
-        <v>11000</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="D111" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111">
-        <v>25</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="7"/>
-        <v>('2021/31/12',  11000, 27, 25),</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H84" t="str">
+        <f>CONCATENATE("('", A84,"',  ",B84,", ",C84,", ",F84,"),")</f>
+        <v>('2036/31/12',  11500, 27, 9),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="C112">
-        <f t="shared" ref="C112:C143" si="8">3+C100</f>
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="C113">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -44409,12 +43857,12 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2351</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="2354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7741" uniqueCount="2356">
   <si>
     <t>id</t>
   </si>
@@ -7092,6 +7092,12 @@
   </si>
   <si>
     <t>INSERT INTO cuenta (año, presupuesto, fk_estacion, fk_oficina_principal) VALUES</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -8403,8 +8409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8507,8 +8513,8 @@
         <f t="shared" ref="P4:P13" si="2">CONCATENATE($O$2,W4)</f>
         <v>Ofi. Dublin</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
+      <c r="Q4" t="s">
+        <v>2355</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -8524,7 +8530,7 @@
       </c>
       <c r="X4" t="str">
         <f>CONCATENATE("('",P4,"', ",Q4,", ",R4,", ",T4,", ",V4,");")</f>
-        <v>('Ofi. Dublin', 0, 2, null, 10);</v>
+        <v>('Ofi. Dublin', false, 2, null, 10);</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8560,8 +8566,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Amsterdam</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
+      <c r="Q5" t="s">
+        <v>2355</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R12" si="3">R4+1</f>
@@ -8578,7 +8584,7 @@
       </c>
       <c r="X5" t="str">
         <f t="shared" ref="X5:X13" si="4">CONCATENATE("('",P5,"', ",Q5,", ",R5,", ",T5,", ",V5,");")</f>
-        <v>('Ofi. Amsterdam', 0, 3, null, 13);</v>
+        <v>('Ofi. Amsterdam', false, 3, null, 13);</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -8614,8 +8620,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Nuuk</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
+      <c r="Q6" t="s">
+        <v>2355</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
@@ -8632,7 +8638,7 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Nuuk', 0, 4, null, 16);</v>
+        <v>('Ofi. Nuuk', false, 4, null, 16);</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -8669,8 +8675,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Buenos Aires</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
+      <c r="Q7" t="s">
+        <v>2355</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
@@ -8687,7 +8693,7 @@
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Buenos Aires', 0, 5, null, 19);</v>
+        <v>('Ofi. Buenos Aires', false, 5, null, 19);</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -8724,8 +8730,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Taipei</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
+      <c r="Q8" t="s">
+        <v>2355</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
@@ -8742,7 +8748,7 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Taipei', 0, 6, null, 22);</v>
+        <v>('Ofi. Taipei', false, 6, null, 22);</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8779,8 +8785,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Kuala Lumpur</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
+      <c r="Q9" t="s">
+        <v>2355</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
@@ -8798,7 +8804,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Kuala Lumpur', 0, 7, null, 25);</v>
+        <v>('Ofi. Kuala Lumpur', false, 7, null, 25);</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8835,8 +8841,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Kampala</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
+      <c r="Q10" t="s">
+        <v>2355</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
@@ -8854,7 +8860,7 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Kampala', 0, 8, null, 28);</v>
+        <v>('Ofi. Kampala', false, 8, null, 28);</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8891,8 +8897,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Harare</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
+      <c r="Q11" t="s">
+        <v>2355</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
@@ -8910,7 +8916,7 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Harare', 0, 9, null, 31);</v>
+        <v>('Ofi. Harare', false, 9, null, 31);</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -8947,8 +8953,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Sidney</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
+      <c r="Q12" t="s">
+        <v>2355</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
@@ -8965,7 +8971,7 @@
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Sidney', 0, 10, null, 34);</v>
+        <v>('Ofi. Sidney', false, 10, null, 34);</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -9002,8 +9008,8 @@
         <f t="shared" si="2"/>
         <v>Ofi. Ginebra</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
+      <c r="Q13" t="s">
+        <v>2354</v>
       </c>
       <c r="R13" t="s">
         <v>9</v>
@@ -9019,7 +9025,7 @@
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>('Ofi. Ginebra', 1, null, 1, 38);</v>
+        <v>('Ofi. Ginebra', true, null, 1, 38);</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -30184,8 +30190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30264,9 +30270,12 @@
       <c r="H4">
         <v>412.23900209999999</v>
       </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
       <c r="K4" t="str">
-        <f>CONCATENATE("(",B4,", ", C4,", ", D4,", ", E4, ", ", F4,", ",G4,"),")</f>
-        <v>('Brandon', 'Constantino', 'Razo', 'Casillas', ROW(412,2390021), director_ejecutivo),</v>
+        <f>CONCATENATE("(",B4,", ", C4,", ", D4,", ", E4, ", ", F4,", ",G4,", ",I4,"),")</f>
+        <v>('Brandon', 'Constantino', 'Razo', 'Casillas', ROW(412,2390021), director_ejecutivo, null),</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -30300,8 +30309,8 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K31" si="1">CONCATENATE("(",B5,", ", C5,", ", D5,", ", E5, ", ", F5,", ",G5,"),")</f>
-        <v>('Elian', 'Maximo', 'Carter', 'Silva', ROW(412,6699623), director_area),</v>
+        <f t="shared" ref="K5:K40" si="1">CONCATENATE("(",B5,", ", C5,", ", D5,", ", E5, ", ", F5,", ",G5,", ",I5,"),")</f>
+        <v>('Elian', 'Maximo', 'Carter', 'Silva', ROW(412,6699623), director_area, 1),</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -30336,7 +30345,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
-        <v>('Fabiano', 'Tarsicio', 'Santamaria', 'Jaquez', ROW(412,3948307), director_area),</v>
+        <v>('Fabiano', 'Tarsicio', 'Santamaria', 'Jaquez', ROW(412,3948307), director_area, 1),</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -30371,7 +30380,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>('Esperanza', 'Ana', 'Corona', 'Granados', ROW(412,1189159), director_area),</v>
+        <v>('Esperanza', 'Ana', 'Corona', 'Granados', ROW(412,1189159), director_area, 1),</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -30406,7 +30415,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>('Octavia', 'Eduviges', 'Mena', 'Alcantara', ROW(412,3974651), director_area),</v>
+        <v>('Octavia', 'Eduviges', 'Mena', 'Alcantara', ROW(412,3974651), director_area, 1),</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -30441,7 +30450,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>('Anthony', 'Amilcar', 'Tafoya', 'Buenrostro', ROW(414,1319978), director_area),</v>
+        <v>('Anthony', 'Amilcar', 'Tafoya', 'Buenrostro', ROW(414,1319978), director_area, 1),</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -30476,7 +30485,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>('Fidel', 'Juan', 'Regalado', 'Machuca', ROW(416,7319514), director_area),</v>
+        <v>('Fidel', 'Juan', 'Regalado', 'Machuca', ROW(416,7319514), director_area, 1),</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -30511,7 +30520,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>('Luna', 'Judith', 'Castrejon', 'Narvaez', ROW(412,6345573), director_area),</v>
+        <v>('Luna', 'Judith', 'Castrejon', 'Narvaez', ROW(412,6345573), director_area, 1),</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -30546,7 +30555,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>('Klement', 'Klement', 'Montiel', 'Salguero', ROW(414,3977631), director_area),</v>
+        <v>('Klement', 'Klement', 'Montiel', 'Salguero', ROW(414,3977631), director_area, 1),</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -30581,7 +30590,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>('Daniel', 'Italo', 'Price', 'Gallardo', ROW(414,3609837), director_area),</v>
+        <v>('Daniel', 'Italo', 'Price', 'Gallardo', ROW(414,3609837), director_area, 1),</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -30616,7 +30625,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>('Silvester', 'Vitalicio', 'Morris', 'Serrato', ROW(412,5343364), jefe),</v>
+        <v>('Silvester', 'Vitalicio', 'Morris', 'Serrato', ROW(412,5343364), jefe, 2),</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -30651,7 +30660,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>('Pamela', 'Irma', 'Guevara', 'Zapata', ROW(424,2908908), jefe),</v>
+        <v>('Pamela', 'Irma', 'Guevara', 'Zapata', ROW(424,2908908), jefe, 2),</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -30686,7 +30695,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>('Feliciano', 'Jaime', 'Hurtado', 'Baca', ROW(424,2109538), jefe),</v>
+        <v>('Feliciano', 'Jaime', 'Hurtado', 'Baca', ROW(424,2109538), jefe, 2),</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -30721,7 +30730,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>('Eloisa', 'Petronila', 'Nolasco', 'White', ROW(414,6830298), jefe),</v>
+        <v>('Eloisa', 'Petronila', 'Nolasco', 'White', ROW(414,6830298), jefe, 3),</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -30756,7 +30765,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>('Cayetano', 'Paulo', 'Guillen', 'Miramontes', ROW(412,4866865), jefe),</v>
+        <v>('Cayetano', 'Paulo', 'Guillen', 'Miramontes', ROW(412,4866865), jefe, 3),</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -30791,7 +30800,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>('Constantino', 'Adolfo', 'Bustos', 'Lima', ROW(412,2392031), jefe),</v>
+        <v>('Constantino', 'Adolfo', 'Bustos', 'Lima', ROW(412,2392031), jefe, 3),</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -30826,7 +30835,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>('Antonio', 'Tulio', 'Pinto', 'Cordero', ROW(416,3952857), jefe),</v>
+        <v>('Antonio', 'Tulio', 'Pinto', 'Cordero', ROW(416,3952857), jefe, 4),</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -30861,7 +30870,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>('Dulcinea', 'Consuelo', 'Pizarro', 'Santiago', ROW(416,7676921), jefe),</v>
+        <v>('Dulcinea', 'Consuelo', 'Pizarro', 'Santiago', ROW(416,7676921), jefe, 4),</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -30896,7 +30905,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>('Marsello', 'Alan', 'Carpio', 'Thomas', ROW(414,7291221), jefe),</v>
+        <v>('Marsello', 'Alan', 'Carpio', 'Thomas', ROW(414,7291221), jefe, 4),</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -30931,7 +30940,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>('Antonio', 'Diego', 'Recinos', 'Santacruz', ROW(414,4392478), jefe),</v>
+        <v>('Antonio', 'Diego', 'Recinos', 'Santacruz', ROW(414,4392478), jefe, 5),</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -30966,7 +30975,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>('Greta', 'Rosaura', 'Valdivia', 'Cruz', ROW(416,1080469), jefe),</v>
+        <v>('Greta', 'Rosaura', 'Valdivia', 'Cruz', ROW(416,1080469), jefe, 5),</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -31001,7 +31010,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>('Marcela', 'Amelia', 'Galdamez', 'Rogers', ROW(412,6909353), jefe),</v>
+        <v>('Marcela', 'Amelia', 'Galdamez', 'Rogers', ROW(412,6909353), jefe, 5),</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -31036,7 +31045,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>('Pamela', 'Veronica', 'Torres', 'Diaz', ROW(414,1416359), jefe),</v>
+        <v>('Pamela', 'Veronica', 'Torres', 'Diaz', ROW(414,1416359), jefe, 6),</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -31071,7 +31080,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>('Cayetano', 'Fulgencio', 'Marquez', 'Infante', ROW(424,9630352), jefe),</v>
+        <v>('Cayetano', 'Fulgencio', 'Marquez', 'Infante', ROW(424,9630352), jefe, 6),</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -31106,7 +31115,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
-        <v>('Jhoan', 'Dante', 'Lucero', 'Orona', ROW(424,6170815), jefe),</v>
+        <v>('Jhoan', 'Dante', 'Lucero', 'Orona', ROW(424,6170815), jefe, 6),</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -31141,7 +31150,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>('Elidio', 'Jonathan', 'Puentes', 'Ozuna', ROW(416,7058298), jefe),</v>
+        <v>('Elidio', 'Jonathan', 'Puentes', 'Ozuna', ROW(416,7058298), jefe, 7),</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -31176,7 +31185,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>('Gloria', 'Eneida', 'Duque', 'Uribe', ROW(412,4224557), jefe),</v>
+        <v>('Gloria', 'Eneida', 'Duque', 'Uribe', ROW(412,4224557), jefe, 7),</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -31211,7 +31220,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
-        <v>('Jennifer', 'Valentina', 'Vigil', 'Aviles', ROW(424,9270841), jefe),</v>
+        <v>('Jennifer', 'Valentina', 'Vigil', 'Aviles', ROW(424,9270841), jefe, 7),</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -31245,8 +31254,8 @@
         <v>8</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:K40" si="4">CONCATENATE("(",B32,", ", C32,", ", D32,", ", E32, ", ", F32,", ",G32,"),")</f>
-        <v>('Celeste', 'Soledad', 'Chacon', 'Machado', ROW(412,1229016), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Celeste', 'Soledad', 'Chacon', 'Machado', ROW(412,1229016), jefe, 8),</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -31280,8 +31289,8 @@
         <v>8</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="4"/>
-        <v>('Vivaldo', 'Tarsicio', 'Rosas', 'Jackson', ROW(412,5018092), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Vivaldo', 'Tarsicio', 'Rosas', 'Jackson', ROW(412,5018092), jefe, 8),</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -31315,8 +31324,8 @@
         <v>8</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="4"/>
-        <v>('Mirella', 'Zamira', 'Machuca', 'Magallon', ROW(416,3371835), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Mirella', 'Zamira', 'Machuca', 'Magallon', ROW(416,3371835), jefe, 8),</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -31350,8 +31359,8 @@
         <v>9</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="4"/>
-        <v>('Calixtrato', 'Vicente', 'Quintanilla', 'Estrada', ROW(414,3049959), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Calixtrato', 'Vicente', 'Quintanilla', 'Estrada', ROW(414,3049959), jefe, 9),</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -31385,8 +31394,8 @@
         <v>9</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="4"/>
-        <v>('Libertad', 'Eliana', 'Garces', 'Casanova', ROW(414,8123924), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Libertad', 'Eliana', 'Garces', 'Casanova', ROW(414,8123924), jefe, 9),</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -31420,8 +31429,8 @@
         <v>9</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="4"/>
-        <v>('Emperatriz', 'Myriam', 'Angulo', 'Valdivia', ROW(4148,999846), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Emperatriz', 'Myriam', 'Angulo', 'Valdivia', ROW(4148,999846), jefe, 9),</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -31455,8 +31464,8 @@
         <v>10</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="4"/>
-        <v>('Hugo', 'Adan', 'Serrato', 'Barrios', ROW(416,1450123), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Hugo', 'Adan', 'Serrato', 'Barrios', ROW(416,1450123), jefe, 10),</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -31490,8 +31499,8 @@
         <v>10</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="4"/>
-        <v>('Rosalia', 'Pilar', 'Valles', 'Montes', ROW(414,1292334), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Rosalia', 'Pilar', 'Valles', 'Montes', ROW(414,1292334), jefe, 10),</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -31525,8 +31534,8 @@
         <v>10</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="4"/>
-        <v>('Claudio', 'Lincoln', 'Sullivan', 'Tafoya', ROW(412,1948734), jefe),</v>
+        <f t="shared" si="1"/>
+        <v>('Claudio', 'Lincoln', 'Sullivan', 'Tafoya', ROW(412,1948734), jefe, 10),</v>
       </c>
     </row>
   </sheetData>
@@ -41595,7 +41604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -41878,7 +41887,7 @@
         <v>27</v>
       </c>
       <c r="F13">
-        <f>F4+1</f>
+        <f t="shared" ref="F13:F21" si="2">F4+1</f>
         <v>2</v>
       </c>
       <c r="H13" t="str">
@@ -41907,7 +41916,7 @@
         <v>27</v>
       </c>
       <c r="F14">
-        <f>F5+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H14" t="str">
@@ -41936,7 +41945,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <f>F6+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H15" t="str">
@@ -41965,7 +41974,7 @@
         <v>28</v>
       </c>
       <c r="F16">
-        <f>F7+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H16" t="str">
@@ -41994,7 +42003,7 @@
         <v>28</v>
       </c>
       <c r="F17">
-        <f>F8+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H17" t="str">
@@ -42023,7 +42032,7 @@
         <v>28</v>
       </c>
       <c r="F18">
-        <f>F9+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H18" t="str">
@@ -42052,7 +42061,7 @@
         <v>29</v>
       </c>
       <c r="F19">
-        <f>F10+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H19" t="str">
@@ -42081,7 +42090,7 @@
         <v>29</v>
       </c>
       <c r="F20">
-        <f>F11+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H20" t="str">
@@ -42110,7 +42119,7 @@
         <v>29</v>
       </c>
       <c r="F21">
-        <f>F12+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H21" t="str">
@@ -42139,7 +42148,7 @@
         <v>30</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F85" si="2">F13+1</f>
+        <f t="shared" ref="F22:F84" si="3">F13+1</f>
         <v>3</v>
       </c>
       <c r="H22" t="str">
@@ -42168,7 +42177,7 @@
         <v>30</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H23" t="str">
@@ -42197,7 +42206,7 @@
         <v>30</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H24" t="str">
@@ -42226,7 +42235,7 @@
         <v>31</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H25" t="str">
@@ -42255,7 +42264,7 @@
         <v>31</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H26" t="str">
@@ -42284,7 +42293,7 @@
         <v>31</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H27" t="str">
@@ -42313,7 +42322,7 @@
         <v>32</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H28" t="str">
@@ -42342,7 +42351,7 @@
         <v>32</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H29" t="str">
@@ -42371,7 +42380,7 @@
         <v>32</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H30" t="str">
@@ -42400,7 +42409,7 @@
         <v>33</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H31" t="str">
@@ -42429,7 +42438,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H32" t="str">
@@ -42458,7 +42467,7 @@
         <v>33</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H33" t="str">
@@ -42481,7 +42490,7 @@
         <v>34</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H34" t="str">
@@ -42504,7 +42513,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H35" t="str">
@@ -42527,11 +42536,11 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:H67" si="3">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
+        <f t="shared" ref="H36:H67" si="4">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
         <v>('2036/31/12',  11500, 11, 4),</v>
       </c>
     </row>
@@ -42550,11 +42559,11 @@
         <v>35</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 12, 4),</v>
       </c>
     </row>
@@ -42573,11 +42582,11 @@
         <v>35</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 12, 4),</v>
       </c>
     </row>
@@ -42596,11 +42605,11 @@
         <v>35</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 12, 4),</v>
       </c>
     </row>
@@ -42619,11 +42628,11 @@
         <v>36</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 13, 5),</v>
       </c>
     </row>
@@ -42642,11 +42651,11 @@
         <v>36</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 13, 5),</v>
       </c>
     </row>
@@ -42665,11 +42674,11 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 13, 5),</v>
       </c>
     </row>
@@ -42688,11 +42697,11 @@
         <v>37</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  12000, 14, 5),</v>
       </c>
     </row>
@@ -42711,11 +42720,11 @@
         <v>37</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  13000, 14, 5),</v>
       </c>
     </row>
@@ -42734,11 +42743,11 @@
         <v>37</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  10000, 14, 5),</v>
       </c>
     </row>
@@ -42757,11 +42766,11 @@
         <v>38</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10500, 15, 5),</v>
       </c>
     </row>
@@ -42780,11 +42789,11 @@
         <v>38</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  11000, 15, 5),</v>
       </c>
     </row>
@@ -42803,11 +42812,11 @@
         <v>38</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11500, 15, 5),</v>
       </c>
     </row>
@@ -42826,11 +42835,11 @@
         <v>39</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 16, 6),</v>
       </c>
     </row>
@@ -42849,11 +42858,11 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 16, 6),</v>
       </c>
     </row>
@@ -42872,11 +42881,11 @@
         <v>39</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 16, 6),</v>
       </c>
     </row>
@@ -42895,11 +42904,11 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 17, 6),</v>
       </c>
     </row>
@@ -42918,11 +42927,11 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 17, 6),</v>
       </c>
     </row>
@@ -42941,11 +42950,11 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 17, 6),</v>
       </c>
     </row>
@@ -42964,11 +42973,11 @@
         <v>41</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  12000, 18, 6),</v>
       </c>
     </row>
@@ -42987,11 +42996,11 @@
         <v>41</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  13000, 18, 6),</v>
       </c>
     </row>
@@ -43010,11 +43019,11 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  10000, 18, 6),</v>
       </c>
     </row>
@@ -43033,11 +43042,11 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10500, 19, 7),</v>
       </c>
     </row>
@@ -43056,11 +43065,11 @@
         <v>42</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  11000, 19, 7),</v>
       </c>
     </row>
@@ -43079,11 +43088,11 @@
         <v>42</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11500, 19, 7),</v>
       </c>
     </row>
@@ -43102,11 +43111,11 @@
         <v>43</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 20, 7),</v>
       </c>
     </row>
@@ -43125,11 +43134,11 @@
         <v>43</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 20, 7),</v>
       </c>
     </row>
@@ -43148,11 +43157,11 @@
         <v>43</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 20, 7),</v>
       </c>
     </row>
@@ -43171,11 +43180,11 @@
         <v>44</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  10000, 21, 7),</v>
       </c>
     </row>
@@ -43194,11 +43203,11 @@
         <v>44</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2035/31/12',  10500, 21, 7),</v>
       </c>
     </row>
@@ -43217,11 +43226,11 @@
         <v>44</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2036/31/12',  11000, 21, 7),</v>
       </c>
     </row>
@@ -43240,11 +43249,11 @@
         <v>45</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>('2034/31/12',  12000, 22, 8),</v>
       </c>
     </row>
@@ -43263,11 +43272,11 @@
         <v>45</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H68" t="str">
-        <f>CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
+        <f t="shared" ref="H68:H84" si="5">CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
         <v>('2035/31/12',  13000, 22, 8),</v>
       </c>
     </row>
@@ -43286,11 +43295,11 @@
         <v>45</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H69" t="str">
-        <f>CONCATENATE("('", A69,"',  ",B69,", ",C69,", ",F69,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  10000, 22, 8),</v>
       </c>
     </row>
@@ -43309,11 +43318,11 @@
         <v>46</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H70" t="str">
-        <f>CONCATENATE("('", A70,"',  ",B70,", ",C70,", ",F70,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2034/31/12',  10500, 23, 8),</v>
       </c>
     </row>
@@ -43332,11 +43341,11 @@
         <v>46</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H71" t="str">
-        <f>CONCATENATE("('", A71,"',  ",B71,", ",C71,", ",F71,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2035/31/12',  11000, 23, 8),</v>
       </c>
     </row>
@@ -43355,11 +43364,11 @@
         <v>46</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE("('", A72,"',  ",B72,", ",C72,", ",F72,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  11500, 23, 8),</v>
       </c>
     </row>
@@ -43378,11 +43387,11 @@
         <v>47</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE("('", A73,"',  ",B73,", ",C73,", ",F73,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2034/31/12',  10000, 24, 8),</v>
       </c>
     </row>
@@ -43394,18 +43403,18 @@
         <v>10500</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C90" si="4">C71+1</f>
+        <f t="shared" ref="C74:C84" si="6">C71+1</f>
         <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>47</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE("('", A74,"',  ",B74,", ",C74,", ",F74,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2035/31/12',  10500, 24, 8),</v>
       </c>
     </row>
@@ -43417,18 +43426,18 @@
         <v>11000</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>47</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE("('", A75,"',  ",B75,", ",C75,", ",F75,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  11000, 24, 8),</v>
       </c>
     </row>
@@ -43440,18 +43449,18 @@
         <v>10000</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D76" t="s">
         <v>48</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE("('", A76,"',  ",B76,", ",C76,", ",F76,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2034/31/12',  10000, 25, 9),</v>
       </c>
     </row>
@@ -43463,18 +43472,18 @@
         <v>10500</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D77" t="s">
         <v>48</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE("('", A77,"',  ",B77,", ",C77,", ",F77,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2035/31/12',  10500, 25, 9),</v>
       </c>
     </row>
@@ -43486,18 +43495,18 @@
         <v>11000</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>48</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE("('", A78,"',  ",B78,", ",C78,", ",F78,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  11000, 25, 9),</v>
       </c>
     </row>
@@ -43509,18 +43518,18 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE("('", A79,"',  ",B79,", ",C79,", ",F79,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2034/31/12',  12000, 26, 9),</v>
       </c>
     </row>
@@ -43532,18 +43541,18 @@
         <v>13000</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE("('", A80,"',  ",B80,", ",C80,", ",F80,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2035/31/12',  13000, 26, 9),</v>
       </c>
     </row>
@@ -43555,18 +43564,18 @@
         <v>10000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D81" t="s">
         <v>49</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE("('", A81,"',  ",B81,", ",C81,", ",F81,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  10000, 26, 9),</v>
       </c>
     </row>
@@ -43578,18 +43587,18 @@
         <v>10500</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D82" t="s">
         <v>50</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE("('", A82,"',  ",B82,", ",C82,", ",F82,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2034/31/12',  10500, 27, 9),</v>
       </c>
     </row>
@@ -43601,18 +43610,18 @@
         <v>11000</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D83" t="s">
         <v>50</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE("('", A83,"',  ",B83,", ",C83,", ",F83,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2035/31/12',  11000, 27, 9),</v>
       </c>
     </row>
@@ -43624,18 +43633,18 @@
         <v>11500</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>50</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE("('", A84,"',  ",B84,", ",C84,", ",F84,"),")</f>
+        <f t="shared" si="5"/>
         <v>('2036/31/12',  11500, 27, 9),</v>
       </c>
     </row>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -7079,15 +7079,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2034/31/12</t>
-  </si>
-  <si>
-    <t>2035/31/12</t>
-  </si>
-  <si>
-    <t>2036/31/12</t>
-  </si>
-  <si>
     <t>&lt;--Termina</t>
   </si>
   <si>
@@ -7098,6 +7089,15 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>2034-31-12</t>
+  </si>
+  <si>
+    <t>2035-31-12</t>
+  </si>
+  <si>
+    <t>2036-31-12</t>
   </si>
 </sst>
 </file>
@@ -8514,7 +8514,7 @@
         <v>Ofi. Dublin</v>
       </c>
       <c r="Q4" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -8567,7 +8567,7 @@
         <v>Ofi. Amsterdam</v>
       </c>
       <c r="Q5" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R12" si="3">R4+1</f>
@@ -8621,7 +8621,7 @@
         <v>Ofi. Nuuk</v>
       </c>
       <c r="Q6" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
@@ -8676,7 +8676,7 @@
         <v>Ofi. Buenos Aires</v>
       </c>
       <c r="Q7" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
@@ -8731,7 +8731,7 @@
         <v>Ofi. Taipei</v>
       </c>
       <c r="Q8" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
@@ -8786,7 +8786,7 @@
         <v>Ofi. Kuala Lumpur</v>
       </c>
       <c r="Q9" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
@@ -8842,7 +8842,7 @@
         <v>Ofi. Kampala</v>
       </c>
       <c r="Q10" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
@@ -8898,7 +8898,7 @@
         <v>Ofi. Harare</v>
       </c>
       <c r="Q11" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
@@ -8954,7 +8954,7 @@
         <v>Ofi. Sidney</v>
       </c>
       <c r="Q12" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
@@ -9009,7 +9009,7 @@
         <v>Ofi. Ginebra</v>
       </c>
       <c r="Q13" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="R13" t="s">
         <v>9</v>
@@ -30190,7 +30190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -41604,8 +41604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41631,12 +41631,12 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -41652,12 +41652,12 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H35" si="0">CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
-        <v>('2034/31/12',  10000, 1, 1),</v>
+        <v>('2034-31-12',  10000, 1, 1),</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B5">
         <v>10500</v>
@@ -41673,12 +41673,12 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  10500, 1, 1),</v>
+        <v>('2035-31-12',  10500, 1, 1),</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B6">
         <v>11000</v>
@@ -41694,7 +41694,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11000, 1, 1),</v>
+        <v>('2036-31-12',  11000, 1, 1),</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -41705,7 +41705,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B7">
         <v>12000</v>
@@ -41722,7 +41722,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  12000, 2, 1),</v>
+        <v>('2034-31-12',  12000, 2, 1),</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7">
@@ -41734,7 +41734,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B8">
         <v>13000</v>
@@ -41751,7 +41751,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  13000, 2, 1),</v>
+        <v>('2035-31-12',  13000, 2, 1),</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -41762,7 +41762,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -41779,7 +41779,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  10000, 2, 1),</v>
+        <v>('2036-31-12',  10000, 2, 1),</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -41790,7 +41790,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B10">
         <v>10500</v>
@@ -41807,7 +41807,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10500, 3, 1),</v>
+        <v>('2034-31-12',  10500, 3, 1),</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -41818,7 +41818,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B11">
         <v>11000</v>
@@ -41835,7 +41835,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  11000, 3, 1),</v>
+        <v>('2035-31-12',  11000, 3, 1),</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -41846,7 +41846,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B12">
         <v>11500</v>
@@ -41863,7 +41863,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11500, 3, 1),</v>
+        <v>('2036-31-12',  11500, 3, 1),</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -41874,7 +41874,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10000, 4, 2),</v>
+        <v>('2034-31-12',  10000, 4, 2),</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -41903,7 +41903,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B14">
         <v>10500</v>
@@ -41921,7 +41921,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  10500, 4, 2),</v>
+        <v>('2035-31-12',  10500, 4, 2),</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -41932,7 +41932,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B15">
         <v>11000</v>
@@ -41950,7 +41950,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11000, 4, 2),</v>
+        <v>('2036-31-12',  11000, 4, 2),</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -41961,7 +41961,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -41979,7 +41979,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10000, 5, 2),</v>
+        <v>('2034-31-12',  10000, 5, 2),</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -41990,7 +41990,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B17">
         <v>10500</v>
@@ -42008,7 +42008,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  10500, 5, 2),</v>
+        <v>('2035-31-12',  10500, 5, 2),</v>
       </c>
       <c r="L17">
         <v>12</v>
@@ -42019,7 +42019,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B18">
         <v>11000</v>
@@ -42037,7 +42037,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11000, 5, 2),</v>
+        <v>('2036-31-12',  11000, 5, 2),</v>
       </c>
       <c r="L18">
         <v>13</v>
@@ -42048,7 +42048,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -42066,7 +42066,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  12000, 6, 2),</v>
+        <v>('2034-31-12',  12000, 6, 2),</v>
       </c>
       <c r="L19">
         <v>14</v>
@@ -42077,7 +42077,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B20">
         <v>13000</v>
@@ -42095,7 +42095,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  13000, 6, 2),</v>
+        <v>('2035-31-12',  13000, 6, 2),</v>
       </c>
       <c r="L20">
         <v>15</v>
@@ -42106,7 +42106,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B21">
         <v>10000</v>
@@ -42124,7 +42124,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  10000, 6, 2),</v>
+        <v>('2036-31-12',  10000, 6, 2),</v>
       </c>
       <c r="L21">
         <v>16</v>
@@ -42135,7 +42135,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B22">
         <v>10500</v>
@@ -42153,7 +42153,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10500, 7, 3),</v>
+        <v>('2034-31-12',  10500, 7, 3),</v>
       </c>
       <c r="L22">
         <v>17</v>
@@ -42164,7 +42164,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B23">
         <v>11000</v>
@@ -42182,7 +42182,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  11000, 7, 3),</v>
+        <v>('2035-31-12',  11000, 7, 3),</v>
       </c>
       <c r="L23">
         <v>18</v>
@@ -42193,7 +42193,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B24">
         <v>11500</v>
@@ -42211,7 +42211,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11500, 7, 3),</v>
+        <v>('2036-31-12',  11500, 7, 3),</v>
       </c>
       <c r="L24">
         <v>19</v>
@@ -42222,7 +42222,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -42240,7 +42240,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10000, 8, 3),</v>
+        <v>('2034-31-12',  10000, 8, 3),</v>
       </c>
       <c r="L25">
         <v>20</v>
@@ -42251,7 +42251,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B26">
         <v>10500</v>
@@ -42269,7 +42269,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  10500, 8, 3),</v>
+        <v>('2035-31-12',  10500, 8, 3),</v>
       </c>
       <c r="L26">
         <v>21</v>
@@ -42280,7 +42280,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B27">
         <v>11000</v>
@@ -42298,7 +42298,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11000, 8, 3),</v>
+        <v>('2036-31-12',  11000, 8, 3),</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -42309,7 +42309,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B28">
         <v>10000</v>
@@ -42327,7 +42327,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10000, 9, 3),</v>
+        <v>('2034-31-12',  10000, 9, 3),</v>
       </c>
       <c r="L28">
         <v>23</v>
@@ -42338,7 +42338,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B29">
         <v>10500</v>
@@ -42356,7 +42356,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  10500, 9, 3),</v>
+        <v>('2035-31-12',  10500, 9, 3),</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -42367,7 +42367,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B30">
         <v>11000</v>
@@ -42385,7 +42385,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  11000, 9, 3),</v>
+        <v>('2036-31-12',  11000, 9, 3),</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -42396,7 +42396,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -42414,7 +42414,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  12000, 10, 4),</v>
+        <v>('2034-31-12',  12000, 10, 4),</v>
       </c>
       <c r="L31">
         <v>26</v>
@@ -42425,7 +42425,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B32">
         <v>13000</v>
@@ -42443,7 +42443,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  13000, 10, 4),</v>
+        <v>('2035-31-12',  13000, 10, 4),</v>
       </c>
       <c r="L32">
         <v>27</v>
@@ -42454,7 +42454,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B33">
         <v>10000</v>
@@ -42472,12 +42472,12 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>('2036/31/12',  10000, 10, 4),</v>
+        <v>('2036-31-12',  10000, 10, 4),</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B34">
         <v>10500</v>
@@ -42495,12 +42495,12 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>('2034/31/12',  10500, 11, 4),</v>
+        <v>('2034-31-12',  10500, 11, 4),</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B35">
         <v>11000</v>
@@ -42518,12 +42518,12 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>('2035/31/12',  11000, 11, 4),</v>
+        <v>('2035-31-12',  11000, 11, 4),</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B36">
         <v>11500</v>
@@ -42541,12 +42541,12 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:H67" si="4">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
-        <v>('2036/31/12',  11500, 11, 4),</v>
+        <v>('2036-31-12',  11500, 11, 4),</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B37">
         <v>10000</v>
@@ -42564,12 +42564,12 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 12, 4),</v>
+        <v>('2034-31-12',  10000, 12, 4),</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B38">
         <v>10500</v>
@@ -42587,12 +42587,12 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 12, 4),</v>
+        <v>('2035-31-12',  10500, 12, 4),</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B39">
         <v>11000</v>
@@ -42610,12 +42610,12 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 12, 4),</v>
+        <v>('2036-31-12',  11000, 12, 4),</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B40">
         <v>10000</v>
@@ -42633,12 +42633,12 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 13, 5),</v>
+        <v>('2034-31-12',  10000, 13, 5),</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B41">
         <v>10500</v>
@@ -42656,12 +42656,12 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 13, 5),</v>
+        <v>('2035-31-12',  10500, 13, 5),</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B42">
         <v>11000</v>
@@ -42679,12 +42679,12 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 13, 5),</v>
+        <v>('2036-31-12',  11000, 13, 5),</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B43">
         <v>12000</v>
@@ -42702,12 +42702,12 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  12000, 14, 5),</v>
+        <v>('2034-31-12',  12000, 14, 5),</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B44">
         <v>13000</v>
@@ -42725,12 +42725,12 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  13000, 14, 5),</v>
+        <v>('2035-31-12',  13000, 14, 5),</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B45">
         <v>10000</v>
@@ -42748,12 +42748,12 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  10000, 14, 5),</v>
+        <v>('2036-31-12',  10000, 14, 5),</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B46">
         <v>10500</v>
@@ -42771,12 +42771,12 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10500, 15, 5),</v>
+        <v>('2034-31-12',  10500, 15, 5),</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B47">
         <v>11000</v>
@@ -42794,12 +42794,12 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  11000, 15, 5),</v>
+        <v>('2035-31-12',  11000, 15, 5),</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B48">
         <v>11500</v>
@@ -42817,12 +42817,12 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11500, 15, 5),</v>
+        <v>('2036-31-12',  11500, 15, 5),</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B49">
         <v>10000</v>
@@ -42840,12 +42840,12 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 16, 6),</v>
+        <v>('2034-31-12',  10000, 16, 6),</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B50">
         <v>10500</v>
@@ -42863,12 +42863,12 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 16, 6),</v>
+        <v>('2035-31-12',  10500, 16, 6),</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B51">
         <v>11000</v>
@@ -42886,12 +42886,12 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 16, 6),</v>
+        <v>('2036-31-12',  11000, 16, 6),</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B52">
         <v>10000</v>
@@ -42909,12 +42909,12 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 17, 6),</v>
+        <v>('2034-31-12',  10000, 17, 6),</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B53">
         <v>10500</v>
@@ -42932,12 +42932,12 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 17, 6),</v>
+        <v>('2035-31-12',  10500, 17, 6),</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B54">
         <v>11000</v>
@@ -42955,12 +42955,12 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 17, 6),</v>
+        <v>('2036-31-12',  11000, 17, 6),</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B55">
         <v>12000</v>
@@ -42978,12 +42978,12 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  12000, 18, 6),</v>
+        <v>('2034-31-12',  12000, 18, 6),</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B56">
         <v>13000</v>
@@ -43001,12 +43001,12 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  13000, 18, 6),</v>
+        <v>('2035-31-12',  13000, 18, 6),</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B57">
         <v>10000</v>
@@ -43024,12 +43024,12 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  10000, 18, 6),</v>
+        <v>('2036-31-12',  10000, 18, 6),</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B58">
         <v>10500</v>
@@ -43047,12 +43047,12 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10500, 19, 7),</v>
+        <v>('2034-31-12',  10500, 19, 7),</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B59">
         <v>11000</v>
@@ -43070,12 +43070,12 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  11000, 19, 7),</v>
+        <v>('2035-31-12',  11000, 19, 7),</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B60">
         <v>11500</v>
@@ -43093,12 +43093,12 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11500, 19, 7),</v>
+        <v>('2036-31-12',  11500, 19, 7),</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B61">
         <v>10000</v>
@@ -43116,12 +43116,12 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 20, 7),</v>
+        <v>('2034-31-12',  10000, 20, 7),</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B62">
         <v>10500</v>
@@ -43139,12 +43139,12 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 20, 7),</v>
+        <v>('2035-31-12',  10500, 20, 7),</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B63">
         <v>11000</v>
@@ -43162,12 +43162,12 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 20, 7),</v>
+        <v>('2036-31-12',  11000, 20, 7),</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B64">
         <v>10000</v>
@@ -43185,12 +43185,12 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  10000, 21, 7),</v>
+        <v>('2034-31-12',  10000, 21, 7),</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B65">
         <v>10500</v>
@@ -43208,12 +43208,12 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="4"/>
-        <v>('2035/31/12',  10500, 21, 7),</v>
+        <v>('2035-31-12',  10500, 21, 7),</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B66">
         <v>11000</v>
@@ -43231,12 +43231,12 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="4"/>
-        <v>('2036/31/12',  11000, 21, 7),</v>
+        <v>('2036-31-12',  11000, 21, 7),</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B67">
         <v>12000</v>
@@ -43254,12 +43254,12 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="4"/>
-        <v>('2034/31/12',  12000, 22, 8),</v>
+        <v>('2034-31-12',  12000, 22, 8),</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B68">
         <v>13000</v>
@@ -43277,12 +43277,12 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H84" si="5">CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
-        <v>('2035/31/12',  13000, 22, 8),</v>
+        <v>('2035-31-12',  13000, 22, 8),</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B69">
         <v>10000</v>
@@ -43300,12 +43300,12 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  10000, 22, 8),</v>
+        <v>('2036-31-12',  10000, 22, 8),</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B70">
         <v>10500</v>
@@ -43323,12 +43323,12 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="5"/>
-        <v>('2034/31/12',  10500, 23, 8),</v>
+        <v>('2034-31-12',  10500, 23, 8),</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B71">
         <v>11000</v>
@@ -43346,12 +43346,12 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="5"/>
-        <v>('2035/31/12',  11000, 23, 8),</v>
+        <v>('2035-31-12',  11000, 23, 8),</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B72">
         <v>11500</v>
@@ -43369,12 +43369,12 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  11500, 23, 8),</v>
+        <v>('2036-31-12',  11500, 23, 8),</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B73">
         <v>10000</v>
@@ -43392,12 +43392,12 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="5"/>
-        <v>('2034/31/12',  10000, 24, 8),</v>
+        <v>('2034-31-12',  10000, 24, 8),</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B74">
         <v>10500</v>
@@ -43415,12 +43415,12 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="5"/>
-        <v>('2035/31/12',  10500, 24, 8),</v>
+        <v>('2035-31-12',  10500, 24, 8),</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B75">
         <v>11000</v>
@@ -43438,12 +43438,12 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  11000, 24, 8),</v>
+        <v>('2036-31-12',  11000, 24, 8),</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B76">
         <v>10000</v>
@@ -43461,12 +43461,12 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="5"/>
-        <v>('2034/31/12',  10000, 25, 9),</v>
+        <v>('2034-31-12',  10000, 25, 9),</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B77">
         <v>10500</v>
@@ -43484,12 +43484,12 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="5"/>
-        <v>('2035/31/12',  10500, 25, 9),</v>
+        <v>('2035-31-12',  10500, 25, 9),</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B78">
         <v>11000</v>
@@ -43507,12 +43507,12 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  11000, 25, 9),</v>
+        <v>('2036-31-12',  11000, 25, 9),</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B79">
         <v>12000</v>
@@ -43530,12 +43530,12 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="5"/>
-        <v>('2034/31/12',  12000, 26, 9),</v>
+        <v>('2034-31-12',  12000, 26, 9),</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B80">
         <v>13000</v>
@@ -43553,12 +43553,12 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="5"/>
-        <v>('2035/31/12',  13000, 26, 9),</v>
+        <v>('2035-31-12',  13000, 26, 9),</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B81">
         <v>10000</v>
@@ -43576,12 +43576,12 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  10000, 26, 9),</v>
+        <v>('2036-31-12',  10000, 26, 9),</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="B82">
         <v>10500</v>
@@ -43599,12 +43599,12 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="5"/>
-        <v>('2034/31/12',  10500, 27, 9),</v>
+        <v>('2034-31-12',  10500, 27, 9),</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B83">
         <v>11000</v>
@@ -43622,12 +43622,12 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="5"/>
-        <v>('2035/31/12',  11000, 27, 9),</v>
+        <v>('2035-31-12',  11000, 27, 9),</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="B84">
         <v>11500</v>
@@ -43645,13 +43645,13 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>('2036/31/12',  11500, 27, 9),</v>
+        <v>('2036-31-12',  11500, 27, 9),</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="D85" s="1"/>
     </row>
@@ -43676,7 +43676,7 @@
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="4"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -30190,8 +30190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41604,8 +41604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7741" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="2353">
   <si>
     <t>id</t>
   </si>
@@ -7089,23 +7089,15 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>2034-31-12</t>
-  </si>
-  <si>
-    <t>2035-31-12</t>
-  </si>
-  <si>
-    <t>2036-31-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -7160,7 +7152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7169,6 +7161,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -41604,8 +41598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41635,8 +41629,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2353</v>
+      <c r="A4" s="6">
+        <v>48945</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -41650,14 +41644,14 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H35" si="0">CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
-        <v>('2034-31-12',  10000, 1, 1),</v>
+      <c r="H4" s="7" t="str">
+        <f>CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
+        <v>('48945',  10000, 1, 1),</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2354</v>
+      <c r="A5" s="6">
+        <v>49310</v>
       </c>
       <c r="B5">
         <v>10500</v>
@@ -41671,14 +41665,14 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>('2035-31-12',  10500, 1, 1),</v>
+      <c r="H5" s="7" t="str">
+        <f t="shared" ref="H4:H35" si="0">CONCATENATE("('", A5,"',  ",B5,", ",C5,", ",F5,"),")</f>
+        <v>('49310',  10500, 1, 1),</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2355</v>
+      <c r="A6" s="6">
+        <v>49675</v>
       </c>
       <c r="B6">
         <v>11000</v>
@@ -41692,9 +41686,9 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11000, 1, 1),</v>
+        <v>('49675',  11000, 1, 1),</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -41704,8 +41698,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2353</v>
+      <c r="A7" s="6">
+        <v>48945</v>
       </c>
       <c r="B7">
         <v>12000</v>
@@ -41720,9 +41714,9 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  12000, 2, 1),</v>
+        <v>('48945',  12000, 2, 1),</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7">
@@ -41733,8 +41727,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>2354</v>
+      <c r="A8" s="6">
+        <v>49310</v>
       </c>
       <c r="B8">
         <v>13000</v>
@@ -41749,9 +41743,9 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  13000, 2, 1),</v>
+        <v>('49310',  13000, 2, 1),</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -41761,8 +41755,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>2355</v>
+      <c r="A9" s="6">
+        <v>49675</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -41777,9 +41771,9 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  10000, 2, 1),</v>
+        <v>('49675',  10000, 2, 1),</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -41789,8 +41783,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>2353</v>
+      <c r="A10" s="6">
+        <v>48945</v>
       </c>
       <c r="B10">
         <v>10500</v>
@@ -41805,9 +41799,9 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10500, 3, 1),</v>
+        <v>('48945',  10500, 3, 1),</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -41817,8 +41811,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>2354</v>
+      <c r="A11" s="6">
+        <v>49310</v>
       </c>
       <c r="B11">
         <v>11000</v>
@@ -41833,9 +41827,9 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  11000, 3, 1),</v>
+        <v>('49310',  11000, 3, 1),</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -41845,8 +41839,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>2355</v>
+      <c r="A12" s="6">
+        <v>49675</v>
       </c>
       <c r="B12">
         <v>11500</v>
@@ -41861,9 +41855,9 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11500, 3, 1),</v>
+        <v>('49675',  11500, 3, 1),</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -41873,8 +41867,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2353</v>
+      <c r="A13" s="6">
+        <v>48945</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -41890,9 +41884,9 @@
         <f t="shared" ref="F13:F21" si="2">F4+1</f>
         <v>2</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10000, 4, 2),</v>
+        <v>('48945',  10000, 4, 2),</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -41902,8 +41896,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>2354</v>
+      <c r="A14" s="6">
+        <v>49310</v>
       </c>
       <c r="B14">
         <v>10500</v>
@@ -41919,9 +41913,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  10500, 4, 2),</v>
+        <v>('49310',  10500, 4, 2),</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -41931,8 +41925,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>2355</v>
+      <c r="A15" s="6">
+        <v>49675</v>
       </c>
       <c r="B15">
         <v>11000</v>
@@ -41948,9 +41942,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11000, 4, 2),</v>
+        <v>('49675',  11000, 4, 2),</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -41960,8 +41954,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2353</v>
+      <c r="A16" s="6">
+        <v>48945</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -41977,9 +41971,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10000, 5, 2),</v>
+        <v>('48945',  10000, 5, 2),</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -41989,8 +41983,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>2354</v>
+      <c r="A17" s="6">
+        <v>49310</v>
       </c>
       <c r="B17">
         <v>10500</v>
@@ -42006,9 +42000,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  10500, 5, 2),</v>
+        <v>('49310',  10500, 5, 2),</v>
       </c>
       <c r="L17">
         <v>12</v>
@@ -42018,8 +42012,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>2355</v>
+      <c r="A18" s="6">
+        <v>49675</v>
       </c>
       <c r="B18">
         <v>11000</v>
@@ -42035,9 +42029,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11000, 5, 2),</v>
+        <v>('49675',  11000, 5, 2),</v>
       </c>
       <c r="L18">
         <v>13</v>
@@ -42047,8 +42041,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2353</v>
+      <c r="A19" s="6">
+        <v>48945</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -42064,9 +42058,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  12000, 6, 2),</v>
+        <v>('48945',  12000, 6, 2),</v>
       </c>
       <c r="L19">
         <v>14</v>
@@ -42076,8 +42070,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>2354</v>
+      <c r="A20" s="6">
+        <v>49310</v>
       </c>
       <c r="B20">
         <v>13000</v>
@@ -42093,9 +42087,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  13000, 6, 2),</v>
+        <v>('49310',  13000, 6, 2),</v>
       </c>
       <c r="L20">
         <v>15</v>
@@ -42105,8 +42099,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>2355</v>
+      <c r="A21" s="6">
+        <v>49675</v>
       </c>
       <c r="B21">
         <v>10000</v>
@@ -42122,9 +42116,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  10000, 6, 2),</v>
+        <v>('49675',  10000, 6, 2),</v>
       </c>
       <c r="L21">
         <v>16</v>
@@ -42134,8 +42128,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2353</v>
+      <c r="A22" s="6">
+        <v>48945</v>
       </c>
       <c r="B22">
         <v>10500</v>
@@ -42151,9 +42145,9 @@
         <f t="shared" ref="F22:F84" si="3">F13+1</f>
         <v>3</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10500, 7, 3),</v>
+        <v>('48945',  10500, 7, 3),</v>
       </c>
       <c r="L22">
         <v>17</v>
@@ -42163,8 +42157,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2354</v>
+      <c r="A23" s="6">
+        <v>49310</v>
       </c>
       <c r="B23">
         <v>11000</v>
@@ -42180,9 +42174,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  11000, 7, 3),</v>
+        <v>('49310',  11000, 7, 3),</v>
       </c>
       <c r="L23">
         <v>18</v>
@@ -42192,8 +42186,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>2355</v>
+      <c r="A24" s="6">
+        <v>49675</v>
       </c>
       <c r="B24">
         <v>11500</v>
@@ -42209,9 +42203,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11500, 7, 3),</v>
+        <v>('49675',  11500, 7, 3),</v>
       </c>
       <c r="L24">
         <v>19</v>
@@ -42221,8 +42215,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>2353</v>
+      <c r="A25" s="6">
+        <v>48945</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -42238,9 +42232,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10000, 8, 3),</v>
+        <v>('48945',  10000, 8, 3),</v>
       </c>
       <c r="L25">
         <v>20</v>
@@ -42250,8 +42244,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>2354</v>
+      <c r="A26" s="6">
+        <v>49310</v>
       </c>
       <c r="B26">
         <v>10500</v>
@@ -42267,9 +42261,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  10500, 8, 3),</v>
+        <v>('49310',  10500, 8, 3),</v>
       </c>
       <c r="L26">
         <v>21</v>
@@ -42279,8 +42273,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>2355</v>
+      <c r="A27" s="6">
+        <v>49675</v>
       </c>
       <c r="B27">
         <v>11000</v>
@@ -42296,9 +42290,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11000, 8, 3),</v>
+        <v>('49675',  11000, 8, 3),</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -42308,8 +42302,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>2353</v>
+      <c r="A28" s="6">
+        <v>48945</v>
       </c>
       <c r="B28">
         <v>10000</v>
@@ -42325,9 +42319,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10000, 9, 3),</v>
+        <v>('48945',  10000, 9, 3),</v>
       </c>
       <c r="L28">
         <v>23</v>
@@ -42337,8 +42331,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>2354</v>
+      <c r="A29" s="6">
+        <v>49310</v>
       </c>
       <c r="B29">
         <v>10500</v>
@@ -42354,9 +42348,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  10500, 9, 3),</v>
+        <v>('49310',  10500, 9, 3),</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -42366,8 +42360,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>2355</v>
+      <c r="A30" s="6">
+        <v>49675</v>
       </c>
       <c r="B30">
         <v>11000</v>
@@ -42383,9 +42377,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  11000, 9, 3),</v>
+        <v>('49675',  11000, 9, 3),</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -42395,8 +42389,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>2353</v>
+      <c r="A31" s="6">
+        <v>48945</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -42412,9 +42406,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  12000, 10, 4),</v>
+        <v>('48945',  12000, 10, 4),</v>
       </c>
       <c r="L31">
         <v>26</v>
@@ -42424,8 +42418,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>2354</v>
+      <c r="A32" s="6">
+        <v>49310</v>
       </c>
       <c r="B32">
         <v>13000</v>
@@ -42441,9 +42435,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  13000, 10, 4),</v>
+        <v>('49310',  13000, 10, 4),</v>
       </c>
       <c r="L32">
         <v>27</v>
@@ -42453,8 +42447,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>2355</v>
+      <c r="A33" s="6">
+        <v>49675</v>
       </c>
       <c r="B33">
         <v>10000</v>
@@ -42470,14 +42464,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-31-12',  10000, 10, 4),</v>
+        <v>('49675',  10000, 10, 4),</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>2353</v>
+      <c r="A34" s="6">
+        <v>48945</v>
       </c>
       <c r="B34">
         <v>10500</v>
@@ -42493,14 +42487,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-31-12',  10500, 11, 4),</v>
+        <v>('48945',  10500, 11, 4),</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>2354</v>
+      <c r="A35" s="6">
+        <v>49310</v>
       </c>
       <c r="B35">
         <v>11000</v>
@@ -42516,14 +42510,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-31-12',  11000, 11, 4),</v>
+        <v>('49310',  11000, 11, 4),</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>2355</v>
+      <c r="A36" s="6">
+        <v>49675</v>
       </c>
       <c r="B36">
         <v>11500</v>
@@ -42539,14 +42533,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="7" t="str">
         <f t="shared" ref="H36:H67" si="4">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
-        <v>('2036-31-12',  11500, 11, 4),</v>
+        <v>('49675',  11500, 11, 4),</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>2353</v>
+      <c r="A37" s="6">
+        <v>48945</v>
       </c>
       <c r="B37">
         <v>10000</v>
@@ -42562,14 +42556,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 12, 4),</v>
+        <v>('48945',  10000, 12, 4),</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>2354</v>
+      <c r="A38" s="6">
+        <v>49310</v>
       </c>
       <c r="B38">
         <v>10500</v>
@@ -42585,14 +42579,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 12, 4),</v>
+        <v>('49310',  10500, 12, 4),</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>2355</v>
+      <c r="A39" s="6">
+        <v>49675</v>
       </c>
       <c r="B39">
         <v>11000</v>
@@ -42608,14 +42602,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 12, 4),</v>
+        <v>('49675',  11000, 12, 4),</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>2353</v>
+      <c r="A40" s="6">
+        <v>48945</v>
       </c>
       <c r="B40">
         <v>10000</v>
@@ -42631,14 +42625,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 13, 5),</v>
+        <v>('48945',  10000, 13, 5),</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>2354</v>
+      <c r="A41" s="6">
+        <v>49310</v>
       </c>
       <c r="B41">
         <v>10500</v>
@@ -42654,14 +42648,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 13, 5),</v>
+        <v>('49310',  10500, 13, 5),</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>2355</v>
+      <c r="A42" s="6">
+        <v>49675</v>
       </c>
       <c r="B42">
         <v>11000</v>
@@ -42677,14 +42671,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 13, 5),</v>
+        <v>('49675',  11000, 13, 5),</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>2353</v>
+      <c r="A43" s="6">
+        <v>48945</v>
       </c>
       <c r="B43">
         <v>12000</v>
@@ -42700,14 +42694,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  12000, 14, 5),</v>
+        <v>('48945',  12000, 14, 5),</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>2354</v>
+      <c r="A44" s="6">
+        <v>49310</v>
       </c>
       <c r="B44">
         <v>13000</v>
@@ -42723,14 +42717,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  13000, 14, 5),</v>
+        <v>('49310',  13000, 14, 5),</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>2355</v>
+      <c r="A45" s="6">
+        <v>49675</v>
       </c>
       <c r="B45">
         <v>10000</v>
@@ -42746,14 +42740,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  10000, 14, 5),</v>
+        <v>('49675',  10000, 14, 5),</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>2353</v>
+      <c r="A46" s="6">
+        <v>48945</v>
       </c>
       <c r="B46">
         <v>10500</v>
@@ -42769,14 +42763,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10500, 15, 5),</v>
+        <v>('48945',  10500, 15, 5),</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>2354</v>
+      <c r="A47" s="6">
+        <v>49310</v>
       </c>
       <c r="B47">
         <v>11000</v>
@@ -42792,14 +42786,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  11000, 15, 5),</v>
+        <v>('49310',  11000, 15, 5),</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>2355</v>
+      <c r="A48" s="6">
+        <v>49675</v>
       </c>
       <c r="B48">
         <v>11500</v>
@@ -42815,14 +42809,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11500, 15, 5),</v>
+        <v>('49675',  11500, 15, 5),</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>2353</v>
+      <c r="A49" s="6">
+        <v>48945</v>
       </c>
       <c r="B49">
         <v>10000</v>
@@ -42838,14 +42832,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 16, 6),</v>
+        <v>('48945',  10000, 16, 6),</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>2354</v>
+      <c r="A50" s="6">
+        <v>49310</v>
       </c>
       <c r="B50">
         <v>10500</v>
@@ -42861,14 +42855,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 16, 6),</v>
+        <v>('49310',  10500, 16, 6),</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>2355</v>
+      <c r="A51" s="6">
+        <v>49675</v>
       </c>
       <c r="B51">
         <v>11000</v>
@@ -42884,14 +42878,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 16, 6),</v>
+        <v>('49675',  11000, 16, 6),</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>2353</v>
+      <c r="A52" s="6">
+        <v>48945</v>
       </c>
       <c r="B52">
         <v>10000</v>
@@ -42907,14 +42901,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 17, 6),</v>
+        <v>('48945',  10000, 17, 6),</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>2354</v>
+      <c r="A53" s="6">
+        <v>49310</v>
       </c>
       <c r="B53">
         <v>10500</v>
@@ -42930,14 +42924,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 17, 6),</v>
+        <v>('49310',  10500, 17, 6),</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>2355</v>
+      <c r="A54" s="6">
+        <v>49675</v>
       </c>
       <c r="B54">
         <v>11000</v>
@@ -42953,14 +42947,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 17, 6),</v>
+        <v>('49675',  11000, 17, 6),</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>2353</v>
+      <c r="A55" s="6">
+        <v>48945</v>
       </c>
       <c r="B55">
         <v>12000</v>
@@ -42976,14 +42970,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  12000, 18, 6),</v>
+        <v>('48945',  12000, 18, 6),</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>2354</v>
+      <c r="A56" s="6">
+        <v>49310</v>
       </c>
       <c r="B56">
         <v>13000</v>
@@ -42999,14 +42993,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  13000, 18, 6),</v>
+        <v>('49310',  13000, 18, 6),</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>2355</v>
+      <c r="A57" s="6">
+        <v>49675</v>
       </c>
       <c r="B57">
         <v>10000</v>
@@ -43022,14 +43016,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H57" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  10000, 18, 6),</v>
+        <v>('49675',  10000, 18, 6),</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>2353</v>
+      <c r="A58" s="6">
+        <v>48945</v>
       </c>
       <c r="B58">
         <v>10500</v>
@@ -43045,14 +43039,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10500, 19, 7),</v>
+        <v>('48945',  10500, 19, 7),</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>2354</v>
+      <c r="A59" s="6">
+        <v>49310</v>
       </c>
       <c r="B59">
         <v>11000</v>
@@ -43068,14 +43062,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  11000, 19, 7),</v>
+        <v>('49310',  11000, 19, 7),</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>2355</v>
+      <c r="A60" s="6">
+        <v>49675</v>
       </c>
       <c r="B60">
         <v>11500</v>
@@ -43091,14 +43085,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11500, 19, 7),</v>
+        <v>('49675',  11500, 19, 7),</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>2353</v>
+      <c r="A61" s="6">
+        <v>48945</v>
       </c>
       <c r="B61">
         <v>10000</v>
@@ -43114,14 +43108,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 20, 7),</v>
+        <v>('48945',  10000, 20, 7),</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>2354</v>
+      <c r="A62" s="6">
+        <v>49310</v>
       </c>
       <c r="B62">
         <v>10500</v>
@@ -43137,14 +43131,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H62" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 20, 7),</v>
+        <v>('49310',  10500, 20, 7),</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>2355</v>
+      <c r="A63" s="6">
+        <v>49675</v>
       </c>
       <c r="B63">
         <v>11000</v>
@@ -43160,14 +43154,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 20, 7),</v>
+        <v>('49675',  11000, 20, 7),</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>2353</v>
+      <c r="A64" s="6">
+        <v>48945</v>
       </c>
       <c r="B64">
         <v>10000</v>
@@ -43183,14 +43177,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H64" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  10000, 21, 7),</v>
+        <v>('48945',  10000, 21, 7),</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>2354</v>
+      <c r="A65" s="6">
+        <v>49310</v>
       </c>
       <c r="B65">
         <v>10500</v>
@@ -43206,14 +43200,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H65" t="str">
+      <c r="H65" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2035-31-12',  10500, 21, 7),</v>
+        <v>('49310',  10500, 21, 7),</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>2355</v>
+      <c r="A66" s="6">
+        <v>49675</v>
       </c>
       <c r="B66">
         <v>11000</v>
@@ -43229,14 +43223,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H66" t="str">
+      <c r="H66" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2036-31-12',  11000, 21, 7),</v>
+        <v>('49675',  11000, 21, 7),</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>2353</v>
+      <c r="A67" s="6">
+        <v>48945</v>
       </c>
       <c r="B67">
         <v>12000</v>
@@ -43252,14 +43246,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H67" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>('2034-31-12',  12000, 22, 8),</v>
+        <v>('48945',  12000, 22, 8),</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>2354</v>
+      <c r="A68" s="6">
+        <v>49310</v>
       </c>
       <c r="B68">
         <v>13000</v>
@@ -43275,14 +43269,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="7" t="str">
         <f t="shared" ref="H68:H84" si="5">CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
-        <v>('2035-31-12',  13000, 22, 8),</v>
+        <v>('49310',  13000, 22, 8),</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>2355</v>
+      <c r="A69" s="6">
+        <v>49675</v>
       </c>
       <c r="B69">
         <v>10000</v>
@@ -43298,14 +43292,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  10000, 22, 8),</v>
+        <v>('49675',  10000, 22, 8),</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>2353</v>
+      <c r="A70" s="6">
+        <v>48945</v>
       </c>
       <c r="B70">
         <v>10500</v>
@@ -43321,14 +43315,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H70" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2034-31-12',  10500, 23, 8),</v>
+        <v>('48945',  10500, 23, 8),</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>2354</v>
+      <c r="A71" s="6">
+        <v>49310</v>
       </c>
       <c r="B71">
         <v>11000</v>
@@ -43344,14 +43338,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H71" t="str">
+      <c r="H71" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2035-31-12',  11000, 23, 8),</v>
+        <v>('49310',  11000, 23, 8),</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>2355</v>
+      <c r="A72" s="6">
+        <v>49675</v>
       </c>
       <c r="B72">
         <v>11500</v>
@@ -43367,14 +43361,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H72" t="str">
+      <c r="H72" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  11500, 23, 8),</v>
+        <v>('49675',  11500, 23, 8),</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>2353</v>
+      <c r="A73" s="6">
+        <v>48945</v>
       </c>
       <c r="B73">
         <v>10000</v>
@@ -43390,14 +43384,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H73" t="str">
+      <c r="H73" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2034-31-12',  10000, 24, 8),</v>
+        <v>('48945',  10000, 24, 8),</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>2354</v>
+      <c r="A74" s="6">
+        <v>49310</v>
       </c>
       <c r="B74">
         <v>10500</v>
@@ -43413,14 +43407,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2035-31-12',  10500, 24, 8),</v>
+        <v>('49310',  10500, 24, 8),</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>2355</v>
+      <c r="A75" s="6">
+        <v>49675</v>
       </c>
       <c r="B75">
         <v>11000</v>
@@ -43436,14 +43430,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  11000, 24, 8),</v>
+        <v>('49675',  11000, 24, 8),</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>2353</v>
+      <c r="A76" s="6">
+        <v>48945</v>
       </c>
       <c r="B76">
         <v>10000</v>
@@ -43459,14 +43453,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H76" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2034-31-12',  10000, 25, 9),</v>
+        <v>('48945',  10000, 25, 9),</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>2354</v>
+      <c r="A77" s="6">
+        <v>49310</v>
       </c>
       <c r="B77">
         <v>10500</v>
@@ -43482,14 +43476,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H77" t="str">
+      <c r="H77" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2035-31-12',  10500, 25, 9),</v>
+        <v>('49310',  10500, 25, 9),</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>2355</v>
+      <c r="A78" s="6">
+        <v>49675</v>
       </c>
       <c r="B78">
         <v>11000</v>
@@ -43505,14 +43499,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H78" t="str">
+      <c r="H78" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  11000, 25, 9),</v>
+        <v>('49675',  11000, 25, 9),</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>2353</v>
+      <c r="A79" s="6">
+        <v>48945</v>
       </c>
       <c r="B79">
         <v>12000</v>
@@ -43528,14 +43522,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H79" t="str">
+      <c r="H79" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2034-31-12',  12000, 26, 9),</v>
+        <v>('48945',  12000, 26, 9),</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>2354</v>
+      <c r="A80" s="6">
+        <v>49310</v>
       </c>
       <c r="B80">
         <v>13000</v>
@@ -43551,14 +43545,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2035-31-12',  13000, 26, 9),</v>
+        <v>('49310',  13000, 26, 9),</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>2355</v>
+      <c r="A81" s="6">
+        <v>49675</v>
       </c>
       <c r="B81">
         <v>10000</v>
@@ -43574,14 +43568,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H81" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  10000, 26, 9),</v>
+        <v>('49675',  10000, 26, 9),</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>2353</v>
+      <c r="A82" s="6">
+        <v>48945</v>
       </c>
       <c r="B82">
         <v>10500</v>
@@ -43597,14 +43591,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2034-31-12',  10500, 27, 9),</v>
+        <v>('48945',  10500, 27, 9),</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>2354</v>
+      <c r="A83" s="6">
+        <v>49310</v>
       </c>
       <c r="B83">
         <v>11000</v>
@@ -43620,14 +43614,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2035-31-12',  11000, 27, 9),</v>
+        <v>('49310',  11000, 27, 9),</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>2355</v>
+      <c r="A84" s="6">
+        <v>49675</v>
       </c>
       <c r="B84">
         <v>11500</v>
@@ -43643,48 +43637,48 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>('2036-31-12',  11500, 27, 9),</v>
+        <v>('49675',  11500, 27, 9),</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="6"/>
       <c r="B85" t="s">
         <v>2349</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="6"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="6"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="6"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -43850,7 +43844,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="2353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7741" uniqueCount="2356">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -7076,6 +7076,15 @@
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO cuenta (año, presupuesto, fk_estacion, fk_oficina_principal) VALUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034/01/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035/01/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2036/01/01</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--Termina</t>
@@ -7091,12 +7100,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -7188,7 +7196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7217,10 +7225,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7241,10 +7245,10 @@
   <dimension ref="A3:J41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="1" sqref="A5:A84 I39"/>
+      <selection pane="topLeft" activeCell="I39" activeCellId="1" sqref="A7:A84 I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
@@ -8207,10 +8211,10 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="1" sqref="A5:A84 Q13"/>
+      <selection pane="topLeft" activeCell="Q13" activeCellId="1" sqref="A7:A84 Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -9303,10 +9307,10 @@
   <dimension ref="A1:L591"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="1" sqref="A5:A84 D47"/>
+      <selection pane="topLeft" activeCell="D47" activeCellId="1" sqref="A7:A84 D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.85"/>
@@ -30004,10 +30008,10 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="A5:A84 I23"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="A7:A84 I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
@@ -31370,10 +31374,10 @@
   <dimension ref="A2:F591"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="1" sqref="A5:A84 D38"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="1" sqref="A7:A84 D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
@@ -41434,10 +41438,10 @@
   <dimension ref="A3:M147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:A84"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.43"/>
@@ -41464,8 +41468,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>48945</v>
+      <c r="A4" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>10000</v>
@@ -41481,12 +41485,12 @@
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">CONCATENATE("('", A4,"',  ",B4,", ",C4,", ",F4,"),")</f>
-        <v>('48945',  10000, 1, 1),</v>
+        <v>('2034/01/01',  10000, 1, 1),</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>49310</v>
+      <c r="A5" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10500</v>
@@ -41502,12 +41506,12 @@
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">CONCATENATE("('", A5,"',  ",B5,", ",C5,", ",F5,"),")</f>
-        <v>('49310',  10500, 1, 1),</v>
+        <v>('2035/01/01',  10500, 1, 1),</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>49675</v>
+      <c r="A6" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>11000</v>
@@ -41523,7 +41527,7 @@
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">CONCATENATE("('", A6,"',  ",B6,", ",C6,", ",F6,"),")</f>
-        <v>('49675',  11000, 1, 1),</v>
+        <v>('2036/01/01',  11000, 1, 1),</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
@@ -41533,8 +41537,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>48945</v>
+      <c r="A7" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>12000</v>
@@ -41551,9 +41555,9 @@
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">CONCATENATE("('", A7,"',  ",B7,", ",C7,", ",F7,"),")</f>
-        <v>('48945',  12000, 2, 1),</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>('2034/01/01',  12000, 2, 1),</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="0" t="n">
         <v>2</v>
       </c>
@@ -41562,8 +41566,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>49310</v>
+      <c r="A8" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>13000</v>
@@ -41580,7 +41584,7 @@
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">CONCATENATE("('", A8,"',  ",B8,", ",C8,", ",F8,"),")</f>
-        <v>('49310',  13000, 2, 1),</v>
+        <v>('2035/01/01',  13000, 2, 1),</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>3</v>
@@ -41590,8 +41594,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>49675</v>
+      <c r="A9" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>10000</v>
@@ -41608,7 +41612,7 @@
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">CONCATENATE("('", A9,"',  ",B9,", ",C9,", ",F9,"),")</f>
-        <v>('49675',  10000, 2, 1),</v>
+        <v>('2036/01/01',  10000, 2, 1),</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>4</v>
@@ -41618,8 +41622,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>48945</v>
+      <c r="A10" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10500</v>
@@ -41636,7 +41640,7 @@
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">CONCATENATE("('", A10,"',  ",B10,", ",C10,", ",F10,"),")</f>
-        <v>('48945',  10500, 3, 1),</v>
+        <v>('2034/01/01',  10500, 3, 1),</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>5</v>
@@ -41646,8 +41650,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>49310</v>
+      <c r="A11" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>11000</v>
@@ -41664,7 +41668,7 @@
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">CONCATENATE("('", A11,"',  ",B11,", ",C11,", ",F11,"),")</f>
-        <v>('49310',  11000, 3, 1),</v>
+        <v>('2035/01/01',  11000, 3, 1),</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>6</v>
@@ -41674,8 +41678,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>49675</v>
+      <c r="A12" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11500</v>
@@ -41692,7 +41696,7 @@
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">CONCATENATE("('", A12,"',  ",B12,", ",C12,", ",F12,"),")</f>
-        <v>('49675',  11500, 3, 1),</v>
+        <v>('2036/01/01',  11500, 3, 1),</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>7</v>
@@ -41702,8 +41706,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>48945</v>
+      <c r="A13" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>10000</v>
@@ -41721,7 +41725,7 @@
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">CONCATENATE("('", A13,"',  ",B13,", ",C13,", ",F13,"),")</f>
-        <v>('48945',  10000, 4, 2),</v>
+        <v>('2034/01/01',  10000, 4, 2),</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>8</v>
@@ -41731,8 +41735,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>49310</v>
+      <c r="A14" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10500</v>
@@ -41750,7 +41754,7 @@
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">CONCATENATE("('", A14,"',  ",B14,", ",C14,", ",F14,"),")</f>
-        <v>('49310',  10500, 4, 2),</v>
+        <v>('2035/01/01',  10500, 4, 2),</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>9</v>
@@ -41760,8 +41764,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>49675</v>
+      <c r="A15" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>11000</v>
@@ -41779,7 +41783,7 @@
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">CONCATENATE("('", A15,"',  ",B15,", ",C15,", ",F15,"),")</f>
-        <v>('49675',  11000, 4, 2),</v>
+        <v>('2036/01/01',  11000, 4, 2),</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>10</v>
@@ -41789,8 +41793,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>48945</v>
+      <c r="A16" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10000</v>
@@ -41808,7 +41812,7 @@
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">CONCATENATE("('", A16,"',  ",B16,", ",C16,", ",F16,"),")</f>
-        <v>('48945',  10000, 5, 2),</v>
+        <v>('2034/01/01',  10000, 5, 2),</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>11</v>
@@ -41818,8 +41822,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>49310</v>
+      <c r="A17" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10500</v>
@@ -41837,7 +41841,7 @@
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">CONCATENATE("('", A17,"',  ",B17,", ",C17,", ",F17,"),")</f>
-        <v>('49310',  10500, 5, 2),</v>
+        <v>('2035/01/01',  10500, 5, 2),</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>12</v>
@@ -41847,8 +41851,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>49675</v>
+      <c r="A18" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>11000</v>
@@ -41866,7 +41870,7 @@
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">CONCATENATE("('", A18,"',  ",B18,", ",C18,", ",F18,"),")</f>
-        <v>('49675',  11000, 5, 2),</v>
+        <v>('2036/01/01',  11000, 5, 2),</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>13</v>
@@ -41876,8 +41880,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>48945</v>
+      <c r="A19" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>12000</v>
@@ -41895,7 +41899,7 @@
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">CONCATENATE("('", A19,"',  ",B19,", ",C19,", ",F19,"),")</f>
-        <v>('48945',  12000, 6, 2),</v>
+        <v>('2034/01/01',  12000, 6, 2),</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>14</v>
@@ -41905,8 +41909,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>49310</v>
+      <c r="A20" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13000</v>
@@ -41924,7 +41928,7 @@
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">CONCATENATE("('", A20,"',  ",B20,", ",C20,", ",F20,"),")</f>
-        <v>('49310',  13000, 6, 2),</v>
+        <v>('2035/01/01',  13000, 6, 2),</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>15</v>
@@ -41934,8 +41938,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>49675</v>
+      <c r="A21" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10000</v>
@@ -41953,7 +41957,7 @@
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">CONCATENATE("('", A21,"',  ",B21,", ",C21,", ",F21,"),")</f>
-        <v>('49675',  10000, 6, 2),</v>
+        <v>('2036/01/01',  10000, 6, 2),</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>16</v>
@@ -41963,8 +41967,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>48945</v>
+      <c r="A22" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10500</v>
@@ -41982,7 +41986,7 @@
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">CONCATENATE("('", A22,"',  ",B22,", ",C22,", ",F22,"),")</f>
-        <v>('48945',  10500, 7, 3),</v>
+        <v>('2034/01/01',  10500, 7, 3),</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>17</v>
@@ -41992,8 +41996,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>49310</v>
+      <c r="A23" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>11000</v>
@@ -42011,7 +42015,7 @@
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">CONCATENATE("('", A23,"',  ",B23,", ",C23,", ",F23,"),")</f>
-        <v>('49310',  11000, 7, 3),</v>
+        <v>('2035/01/01',  11000, 7, 3),</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>18</v>
@@ -42021,8 +42025,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>49675</v>
+      <c r="A24" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11500</v>
@@ -42040,7 +42044,7 @@
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">CONCATENATE("('", A24,"',  ",B24,", ",C24,", ",F24,"),")</f>
-        <v>('49675',  11500, 7, 3),</v>
+        <v>('2036/01/01',  11500, 7, 3),</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>19</v>
@@ -42050,8 +42054,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>48945</v>
+      <c r="A25" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10000</v>
@@ -42069,7 +42073,7 @@
       </c>
       <c r="H25" s="0" t="str">
         <f aca="false">CONCATENATE("('", A25,"',  ",B25,", ",C25,", ",F25,"),")</f>
-        <v>('48945',  10000, 8, 3),</v>
+        <v>('2034/01/01',  10000, 8, 3),</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>20</v>
@@ -42079,8 +42083,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>49310</v>
+      <c r="A26" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>10500</v>
@@ -42098,7 +42102,7 @@
       </c>
       <c r="H26" s="0" t="str">
         <f aca="false">CONCATENATE("('", A26,"',  ",B26,", ",C26,", ",F26,"),")</f>
-        <v>('49310',  10500, 8, 3),</v>
+        <v>('2035/01/01',  10500, 8, 3),</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>21</v>
@@ -42108,8 +42112,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>49675</v>
+      <c r="A27" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11000</v>
@@ -42127,7 +42131,7 @@
       </c>
       <c r="H27" s="0" t="str">
         <f aca="false">CONCATENATE("('", A27,"',  ",B27,", ",C27,", ",F27,"),")</f>
-        <v>('49675',  11000, 8, 3),</v>
+        <v>('2036/01/01',  11000, 8, 3),</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>22</v>
@@ -42137,8 +42141,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <v>48945</v>
+      <c r="A28" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10000</v>
@@ -42156,7 +42160,7 @@
       </c>
       <c r="H28" s="0" t="str">
         <f aca="false">CONCATENATE("('", A28,"',  ",B28,", ",C28,", ",F28,"),")</f>
-        <v>('48945',  10000, 9, 3),</v>
+        <v>('2034/01/01',  10000, 9, 3),</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>23</v>
@@ -42166,8 +42170,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>49310</v>
+      <c r="A29" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>10500</v>
@@ -42185,7 +42189,7 @@
       </c>
       <c r="H29" s="0" t="str">
         <f aca="false">CONCATENATE("('", A29,"',  ",B29,", ",C29,", ",F29,"),")</f>
-        <v>('49310',  10500, 9, 3),</v>
+        <v>('2035/01/01',  10500, 9, 3),</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>24</v>
@@ -42195,8 +42199,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>49675</v>
+      <c r="A30" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>11000</v>
@@ -42214,7 +42218,7 @@
       </c>
       <c r="H30" s="0" t="str">
         <f aca="false">CONCATENATE("('", A30,"',  ",B30,", ",C30,", ",F30,"),")</f>
-        <v>('49675',  11000, 9, 3),</v>
+        <v>('2036/01/01',  11000, 9, 3),</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>25</v>
@@ -42224,8 +42228,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>48945</v>
+      <c r="A31" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>12000</v>
@@ -42243,7 +42247,7 @@
       </c>
       <c r="H31" s="0" t="str">
         <f aca="false">CONCATENATE("('", A31,"',  ",B31,", ",C31,", ",F31,"),")</f>
-        <v>('48945',  12000, 10, 4),</v>
+        <v>('2034/01/01',  12000, 10, 4),</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>26</v>
@@ -42253,8 +42257,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <v>49310</v>
+      <c r="A32" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>13000</v>
@@ -42272,7 +42276,7 @@
       </c>
       <c r="H32" s="0" t="str">
         <f aca="false">CONCATENATE("('", A32,"',  ",B32,", ",C32,", ",F32,"),")</f>
-        <v>('49310',  13000, 10, 4),</v>
+        <v>('2035/01/01',  13000, 10, 4),</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>27</v>
@@ -42282,8 +42286,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <v>49675</v>
+      <c r="A33" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>10000</v>
@@ -42301,12 +42305,12 @@
       </c>
       <c r="H33" s="0" t="str">
         <f aca="false">CONCATENATE("('", A33,"',  ",B33,", ",C33,", ",F33,"),")</f>
-        <v>('49675',  10000, 10, 4),</v>
+        <v>('2036/01/01',  10000, 10, 4),</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>48945</v>
+      <c r="A34" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>10500</v>
@@ -42324,12 +42328,12 @@
       </c>
       <c r="H34" s="0" t="str">
         <f aca="false">CONCATENATE("('", A34,"',  ",B34,", ",C34,", ",F34,"),")</f>
-        <v>('48945',  10500, 11, 4),</v>
+        <v>('2034/01/01',  10500, 11, 4),</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>49310</v>
+      <c r="A35" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>11000</v>
@@ -42347,12 +42351,12 @@
       </c>
       <c r="H35" s="0" t="str">
         <f aca="false">CONCATENATE("('", A35,"',  ",B35,", ",C35,", ",F35,"),")</f>
-        <v>('49310',  11000, 11, 4),</v>
+        <v>('2035/01/01',  11000, 11, 4),</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>49675</v>
+      <c r="A36" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>11500</v>
@@ -42370,12 +42374,12 @@
       </c>
       <c r="H36" s="0" t="str">
         <f aca="false">CONCATENATE("('", A36,"',  ",B36,", ",C36,", ",F36,"),")</f>
-        <v>('49675',  11500, 11, 4),</v>
+        <v>('2036/01/01',  11500, 11, 4),</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>48945</v>
+      <c r="A37" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10000</v>
@@ -42393,12 +42397,12 @@
       </c>
       <c r="H37" s="0" t="str">
         <f aca="false">CONCATENATE("('", A37,"',  ",B37,", ",C37,", ",F37,"),")</f>
-        <v>('48945',  10000, 12, 4),</v>
+        <v>('2034/01/01',  10000, 12, 4),</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>49310</v>
+      <c r="A38" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10500</v>
@@ -42416,12 +42420,12 @@
       </c>
       <c r="H38" s="0" t="str">
         <f aca="false">CONCATENATE("('", A38,"',  ",B38,", ",C38,", ",F38,"),")</f>
-        <v>('49310',  10500, 12, 4),</v>
+        <v>('2035/01/01',  10500, 12, 4),</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>49675</v>
+      <c r="A39" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>11000</v>
@@ -42439,12 +42443,12 @@
       </c>
       <c r="H39" s="0" t="str">
         <f aca="false">CONCATENATE("('", A39,"',  ",B39,", ",C39,", ",F39,"),")</f>
-        <v>('49675',  11000, 12, 4),</v>
+        <v>('2036/01/01',  11000, 12, 4),</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>48945</v>
+      <c r="A40" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -42462,12 +42466,12 @@
       </c>
       <c r="H40" s="0" t="str">
         <f aca="false">CONCATENATE("('", A40,"',  ",B40,", ",C40,", ",F40,"),")</f>
-        <v>('48945',  10000, 13, 5),</v>
+        <v>('2034/01/01',  10000, 13, 5),</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>49310</v>
+      <c r="A41" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>10500</v>
@@ -42485,12 +42489,12 @@
       </c>
       <c r="H41" s="0" t="str">
         <f aca="false">CONCATENATE("('", A41,"',  ",B41,", ",C41,", ",F41,"),")</f>
-        <v>('49310',  10500, 13, 5),</v>
+        <v>('2035/01/01',  10500, 13, 5),</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>49675</v>
+      <c r="A42" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>11000</v>
@@ -42508,12 +42512,12 @@
       </c>
       <c r="H42" s="0" t="str">
         <f aca="false">CONCATENATE("('", A42,"',  ",B42,", ",C42,", ",F42,"),")</f>
-        <v>('49675',  11000, 13, 5),</v>
+        <v>('2036/01/01',  11000, 13, 5),</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>48945</v>
+      <c r="A43" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>12000</v>
@@ -42531,12 +42535,12 @@
       </c>
       <c r="H43" s="0" t="str">
         <f aca="false">CONCATENATE("('", A43,"',  ",B43,", ",C43,", ",F43,"),")</f>
-        <v>('48945',  12000, 14, 5),</v>
+        <v>('2034/01/01',  12000, 14, 5),</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>49310</v>
+      <c r="A44" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>13000</v>
@@ -42554,12 +42558,12 @@
       </c>
       <c r="H44" s="0" t="str">
         <f aca="false">CONCATENATE("('", A44,"',  ",B44,", ",C44,", ",F44,"),")</f>
-        <v>('49310',  13000, 14, 5),</v>
+        <v>('2035/01/01',  13000, 14, 5),</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>49675</v>
+      <c r="A45" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10000</v>
@@ -42577,12 +42581,12 @@
       </c>
       <c r="H45" s="0" t="str">
         <f aca="false">CONCATENATE("('", A45,"',  ",B45,", ",C45,", ",F45,"),")</f>
-        <v>('49675',  10000, 14, 5),</v>
+        <v>('2036/01/01',  10000, 14, 5),</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>48945</v>
+      <c r="A46" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10500</v>
@@ -42600,12 +42604,12 @@
       </c>
       <c r="H46" s="0" t="str">
         <f aca="false">CONCATENATE("('", A46,"',  ",B46,", ",C46,", ",F46,"),")</f>
-        <v>('48945',  10500, 15, 5),</v>
+        <v>('2034/01/01',  10500, 15, 5),</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>49310</v>
+      <c r="A47" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>11000</v>
@@ -42623,12 +42627,12 @@
       </c>
       <c r="H47" s="0" t="str">
         <f aca="false">CONCATENATE("('", A47,"',  ",B47,", ",C47,", ",F47,"),")</f>
-        <v>('49310',  11000, 15, 5),</v>
+        <v>('2035/01/01',  11000, 15, 5),</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>49675</v>
+      <c r="A48" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>11500</v>
@@ -42646,12 +42650,12 @@
       </c>
       <c r="H48" s="0" t="str">
         <f aca="false">CONCATENATE("('", A48,"',  ",B48,", ",C48,", ",F48,"),")</f>
-        <v>('49675',  11500, 15, 5),</v>
+        <v>('2036/01/01',  11500, 15, 5),</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>48945</v>
+      <c r="A49" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>10000</v>
@@ -42669,12 +42673,12 @@
       </c>
       <c r="H49" s="0" t="str">
         <f aca="false">CONCATENATE("('", A49,"',  ",B49,", ",C49,", ",F49,"),")</f>
-        <v>('48945',  10000, 16, 6),</v>
+        <v>('2034/01/01',  10000, 16, 6),</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>49310</v>
+      <c r="A50" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>10500</v>
@@ -42692,12 +42696,12 @@
       </c>
       <c r="H50" s="0" t="str">
         <f aca="false">CONCATENATE("('", A50,"',  ",B50,", ",C50,", ",F50,"),")</f>
-        <v>('49310',  10500, 16, 6),</v>
+        <v>('2035/01/01',  10500, 16, 6),</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>49675</v>
+      <c r="A51" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>11000</v>
@@ -42715,12 +42719,12 @@
       </c>
       <c r="H51" s="0" t="str">
         <f aca="false">CONCATENATE("('", A51,"',  ",B51,", ",C51,", ",F51,"),")</f>
-        <v>('49675',  11000, 16, 6),</v>
+        <v>('2036/01/01',  11000, 16, 6),</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>48945</v>
+      <c r="A52" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>10000</v>
@@ -42738,12 +42742,12 @@
       </c>
       <c r="H52" s="0" t="str">
         <f aca="false">CONCATENATE("('", A52,"',  ",B52,", ",C52,", ",F52,"),")</f>
-        <v>('48945',  10000, 17, 6),</v>
+        <v>('2034/01/01',  10000, 17, 6),</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <v>49310</v>
+      <c r="A53" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>10500</v>
@@ -42761,12 +42765,12 @@
       </c>
       <c r="H53" s="0" t="str">
         <f aca="false">CONCATENATE("('", A53,"',  ",B53,", ",C53,", ",F53,"),")</f>
-        <v>('49310',  10500, 17, 6),</v>
+        <v>('2035/01/01',  10500, 17, 6),</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>49675</v>
+      <c r="A54" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>11000</v>
@@ -42784,12 +42788,12 @@
       </c>
       <c r="H54" s="0" t="str">
         <f aca="false">CONCATENATE("('", A54,"',  ",B54,", ",C54,", ",F54,"),")</f>
-        <v>('49675',  11000, 17, 6),</v>
+        <v>('2036/01/01',  11000, 17, 6),</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>48945</v>
+      <c r="A55" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>12000</v>
@@ -42807,12 +42811,12 @@
       </c>
       <c r="H55" s="0" t="str">
         <f aca="false">CONCATENATE("('", A55,"',  ",B55,", ",C55,", ",F55,"),")</f>
-        <v>('48945',  12000, 18, 6),</v>
+        <v>('2034/01/01',  12000, 18, 6),</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>49310</v>
+      <c r="A56" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>13000</v>
@@ -42830,12 +42834,12 @@
       </c>
       <c r="H56" s="0" t="str">
         <f aca="false">CONCATENATE("('", A56,"',  ",B56,", ",C56,", ",F56,"),")</f>
-        <v>('49310',  13000, 18, 6),</v>
+        <v>('2035/01/01',  13000, 18, 6),</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>49675</v>
+      <c r="A57" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>10000</v>
@@ -42853,12 +42857,12 @@
       </c>
       <c r="H57" s="0" t="str">
         <f aca="false">CONCATENATE("('", A57,"',  ",B57,", ",C57,", ",F57,"),")</f>
-        <v>('49675',  10000, 18, 6),</v>
+        <v>('2036/01/01',  10000, 18, 6),</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>48945</v>
+      <c r="A58" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>10500</v>
@@ -42876,12 +42880,12 @@
       </c>
       <c r="H58" s="0" t="str">
         <f aca="false">CONCATENATE("('", A58,"',  ",B58,", ",C58,", ",F58,"),")</f>
-        <v>('48945',  10500, 19, 7),</v>
+        <v>('2034/01/01',  10500, 19, 7),</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>49310</v>
+      <c r="A59" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>11000</v>
@@ -42899,12 +42903,12 @@
       </c>
       <c r="H59" s="0" t="str">
         <f aca="false">CONCATENATE("('", A59,"',  ",B59,", ",C59,", ",F59,"),")</f>
-        <v>('49310',  11000, 19, 7),</v>
+        <v>('2035/01/01',  11000, 19, 7),</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
-        <v>49675</v>
+      <c r="A60" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>11500</v>
@@ -42922,12 +42926,12 @@
       </c>
       <c r="H60" s="0" t="str">
         <f aca="false">CONCATENATE("('", A60,"',  ",B60,", ",C60,", ",F60,"),")</f>
-        <v>('49675',  11500, 19, 7),</v>
+        <v>('2036/01/01',  11500, 19, 7),</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
-        <v>48945</v>
+      <c r="A61" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>10000</v>
@@ -42945,12 +42949,12 @@
       </c>
       <c r="H61" s="0" t="str">
         <f aca="false">CONCATENATE("('", A61,"',  ",B61,", ",C61,", ",F61,"),")</f>
-        <v>('48945',  10000, 20, 7),</v>
+        <v>('2034/01/01',  10000, 20, 7),</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>49310</v>
+      <c r="A62" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>10500</v>
@@ -42968,12 +42972,12 @@
       </c>
       <c r="H62" s="0" t="str">
         <f aca="false">CONCATENATE("('", A62,"',  ",B62,", ",C62,", ",F62,"),")</f>
-        <v>('49310',  10500, 20, 7),</v>
+        <v>('2035/01/01',  10500, 20, 7),</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>49675</v>
+      <c r="A63" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>11000</v>
@@ -42991,12 +42995,12 @@
       </c>
       <c r="H63" s="0" t="str">
         <f aca="false">CONCATENATE("('", A63,"',  ",B63,", ",C63,", ",F63,"),")</f>
-        <v>('49675',  11000, 20, 7),</v>
+        <v>('2036/01/01',  11000, 20, 7),</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
-        <v>48945</v>
+      <c r="A64" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>10000</v>
@@ -43014,12 +43018,12 @@
       </c>
       <c r="H64" s="0" t="str">
         <f aca="false">CONCATENATE("('", A64,"',  ",B64,", ",C64,", ",F64,"),")</f>
-        <v>('48945',  10000, 21, 7),</v>
+        <v>('2034/01/01',  10000, 21, 7),</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
-        <v>49310</v>
+      <c r="A65" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>10500</v>
@@ -43037,12 +43041,12 @@
       </c>
       <c r="H65" s="0" t="str">
         <f aca="false">CONCATENATE("('", A65,"',  ",B65,", ",C65,", ",F65,"),")</f>
-        <v>('49310',  10500, 21, 7),</v>
+        <v>('2035/01/01',  10500, 21, 7),</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
-        <v>49675</v>
+      <c r="A66" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>11000</v>
@@ -43060,12 +43064,12 @@
       </c>
       <c r="H66" s="0" t="str">
         <f aca="false">CONCATENATE("('", A66,"',  ",B66,", ",C66,", ",F66,"),")</f>
-        <v>('49675',  11000, 21, 7),</v>
+        <v>('2036/01/01',  11000, 21, 7),</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
-        <v>48945</v>
+      <c r="A67" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>12000</v>
@@ -43083,12 +43087,12 @@
       </c>
       <c r="H67" s="0" t="str">
         <f aca="false">CONCATENATE("('", A67,"',  ",B67,", ",C67,", ",F67,"),")</f>
-        <v>('48945',  12000, 22, 8),</v>
+        <v>('2034/01/01',  12000, 22, 8),</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
-        <v>49310</v>
+      <c r="A68" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>13000</v>
@@ -43106,12 +43110,12 @@
       </c>
       <c r="H68" s="0" t="str">
         <f aca="false">CONCATENATE("('", A68,"',  ",B68,", ",C68,", ",F68,"),")</f>
-        <v>('49310',  13000, 22, 8),</v>
+        <v>('2035/01/01',  13000, 22, 8),</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
-        <v>49675</v>
+      <c r="A69" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>10000</v>
@@ -43129,12 +43133,12 @@
       </c>
       <c r="H69" s="0" t="str">
         <f aca="false">CONCATENATE("('", A69,"',  ",B69,", ",C69,", ",F69,"),")</f>
-        <v>('49675',  10000, 22, 8),</v>
+        <v>('2036/01/01',  10000, 22, 8),</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
-        <v>48945</v>
+      <c r="A70" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>10500</v>
@@ -43152,12 +43156,12 @@
       </c>
       <c r="H70" s="0" t="str">
         <f aca="false">CONCATENATE("('", A70,"',  ",B70,", ",C70,", ",F70,"),")</f>
-        <v>('48945',  10500, 23, 8),</v>
+        <v>('2034/01/01',  10500, 23, 8),</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
-        <v>49310</v>
+      <c r="A71" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>11000</v>
@@ -43175,12 +43179,12 @@
       </c>
       <c r="H71" s="0" t="str">
         <f aca="false">CONCATENATE("('", A71,"',  ",B71,", ",C71,", ",F71,"),")</f>
-        <v>('49310',  11000, 23, 8),</v>
+        <v>('2035/01/01',  11000, 23, 8),</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>49675</v>
+      <c r="A72" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>11500</v>
@@ -43198,12 +43202,12 @@
       </c>
       <c r="H72" s="0" t="str">
         <f aca="false">CONCATENATE("('", A72,"',  ",B72,", ",C72,", ",F72,"),")</f>
-        <v>('49675',  11500, 23, 8),</v>
+        <v>('2036/01/01',  11500, 23, 8),</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>48945</v>
+      <c r="A73" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>10000</v>
@@ -43221,12 +43225,12 @@
       </c>
       <c r="H73" s="0" t="str">
         <f aca="false">CONCATENATE("('", A73,"',  ",B73,", ",C73,", ",F73,"),")</f>
-        <v>('48945',  10000, 24, 8),</v>
+        <v>('2034/01/01',  10000, 24, 8),</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>49310</v>
+      <c r="A74" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>10500</v>
@@ -43244,12 +43248,12 @@
       </c>
       <c r="H74" s="0" t="str">
         <f aca="false">CONCATENATE("('", A74,"',  ",B74,", ",C74,", ",F74,"),")</f>
-        <v>('49310',  10500, 24, 8),</v>
+        <v>('2035/01/01',  10500, 24, 8),</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
-        <v>49675</v>
+      <c r="A75" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>11000</v>
@@ -43267,12 +43271,12 @@
       </c>
       <c r="H75" s="0" t="str">
         <f aca="false">CONCATENATE("('", A75,"',  ",B75,", ",C75,", ",F75,"),")</f>
-        <v>('49675',  11000, 24, 8),</v>
+        <v>('2036/01/01',  11000, 24, 8),</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
-        <v>48945</v>
+      <c r="A76" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>10000</v>
@@ -43290,12 +43294,12 @@
       </c>
       <c r="H76" s="0" t="str">
         <f aca="false">CONCATENATE("('", A76,"',  ",B76,", ",C76,", ",F76,"),")</f>
-        <v>('48945',  10000, 25, 9),</v>
+        <v>('2034/01/01',  10000, 25, 9),</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
-        <v>49310</v>
+      <c r="A77" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>10500</v>
@@ -43313,12 +43317,12 @@
       </c>
       <c r="H77" s="0" t="str">
         <f aca="false">CONCATENATE("('", A77,"',  ",B77,", ",C77,", ",F77,"),")</f>
-        <v>('49310',  10500, 25, 9),</v>
+        <v>('2035/01/01',  10500, 25, 9),</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
-        <v>49675</v>
+      <c r="A78" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>11000</v>
@@ -43336,12 +43340,12 @@
       </c>
       <c r="H78" s="0" t="str">
         <f aca="false">CONCATENATE("('", A78,"',  ",B78,", ",C78,", ",F78,"),")</f>
-        <v>('49675',  11000, 25, 9),</v>
+        <v>('2036/01/01',  11000, 25, 9),</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
-        <v>48945</v>
+      <c r="A79" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>12000</v>
@@ -43359,12 +43363,12 @@
       </c>
       <c r="H79" s="0" t="str">
         <f aca="false">CONCATENATE("('", A79,"',  ",B79,", ",C79,", ",F79,"),")</f>
-        <v>('48945',  12000, 26, 9),</v>
+        <v>('2034/01/01',  12000, 26, 9),</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
-        <v>49310</v>
+      <c r="A80" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>13000</v>
@@ -43382,12 +43386,12 @@
       </c>
       <c r="H80" s="0" t="str">
         <f aca="false">CONCATENATE("('", A80,"',  ",B80,", ",C80,", ",F80,"),")</f>
-        <v>('49310',  13000, 26, 9),</v>
+        <v>('2035/01/01',  13000, 26, 9),</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
-        <v>49675</v>
+      <c r="A81" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>10000</v>
@@ -43405,12 +43409,12 @@
       </c>
       <c r="H81" s="0" t="str">
         <f aca="false">CONCATENATE("('", A81,"',  ",B81,", ",C81,", ",F81,"),")</f>
-        <v>('49675',  10000, 26, 9),</v>
+        <v>('2036/01/01',  10000, 26, 9),</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>48945</v>
+      <c r="A82" s="0" t="s">
+        <v>2350</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>10500</v>
@@ -43428,12 +43432,12 @@
       </c>
       <c r="H82" s="0" t="str">
         <f aca="false">CONCATENATE("('", A82,"',  ",B82,", ",C82,", ",F82,"),")</f>
-        <v>('48945',  10500, 27, 9),</v>
+        <v>('2034/01/01',  10500, 27, 9),</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
-        <v>49310</v>
+      <c r="A83" s="0" t="s">
+        <v>2351</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>11000</v>
@@ -43451,12 +43455,12 @@
       </c>
       <c r="H83" s="0" t="str">
         <f aca="false">CONCATENATE("('", A83,"',  ",B83,", ",C83,", ",F83,"),")</f>
-        <v>('49310',  11000, 27, 9),</v>
+        <v>('2035/01/01',  11000, 27, 9),</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
-        <v>49675</v>
+      <c r="A84" s="0" t="s">
+        <v>2352</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>11500</v>
@@ -43474,208 +43478,208 @@
       </c>
       <c r="H84" s="0" t="str">
         <f aca="false">CONCATENATE("('", A84,"',  ",B84,", ",C84,", ",F84,"),")</f>
-        <v>('49675',  11500, 27, 9),</v>
+        <v>('2036/01/01',  11500, 27, 9),</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="0" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
+      <c r="A87" s="5"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
+      <c r="A89" s="5"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
+      <c r="A90" s="5"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
+      <c r="A91" s="5"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7"/>
+      <c r="A97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5"/>
+      <c r="A124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
+      <c r="A136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7"/>
+      <c r="A147" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -43696,19 +43700,19 @@
   <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="A5:A84 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="A7:A84 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="0" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Crudo" sheetId="8" r:id="rId8"/>
     <sheet name="clas_tema" sheetId="9" r:id="rId9"/>
     <sheet name="Cliente" sheetId="10" r:id="rId10"/>
+    <sheet name="Area_interes" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8097" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8113" uniqueCount="2504">
   <si>
     <t>id</t>
   </si>
@@ -7556,6 +7557,18 @@
   </si>
   <si>
     <t>ARRAY[CAST((</t>
+  </si>
+  <si>
+    <t>Area_interes</t>
+  </si>
+  <si>
+    <t>fk_clas_tema</t>
+  </si>
+  <si>
+    <t>INSERT INTO area_interes (fk_clas_tema, fk_cliente) VALUES</t>
+  </si>
+  <si>
+    <t>fk_cliente</t>
   </si>
 </sst>
 </file>
@@ -7620,7 +7633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7634,6 +7647,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8874,8 +8890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C46"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10617,18 +10633,6 @@
         <v>(' sloquest', 'sloquest.com' ,false, ARRAY[CAST((58,4162833863) as telefono_ty), CAST((58,4144556851)as telefono_ty)],  ARRAY[ ROW('Flor', 'Esperanza', 'Peterson', 'Sarmiento', '49 W. Lees Creek Ave. Pickerington, OH 43147',  ROW(58,4165511783)), ROW('Perla', 'Gloria', 'Lima', 'Valentin', '78 Clay St. Uniondale, NY 11553', ROW(58,4124743278))]::contacto_ty[], 6),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="8" t="str">
-        <f>CONCATENATE("(' ",B24,"', '",C24,"' ,",D24,", ",E24,", ",F24,", ",G24,"),")</f>
-        <v>(' ', '' ,, , , ),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>(' ', '' ,, , , ),</v>
-      </c>
-    </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M52">
         <v>412.17057010000002</v>
@@ -11310,6 +11314,471 @@
   <ignoredErrors>
     <ignoredError sqref="C5 C7 C9 C11 C13 C15 C17 C19 C21" formula="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="I3" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("(",B4,", ",C4,"),")</f>
+        <v>(1, 1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>E4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I23" si="0">CONCATENATE("(",B5,", ",C5,"),")</f>
+        <v>(2, 2),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B23" si="1">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C23" si="2">C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E12" si="3">E5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2404</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 3),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 4),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 5),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 6),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 7),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2402</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 8),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>(9, 9),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 10),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 11),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 12),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 13),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 14),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 15),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 16),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 17),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>(9, 18),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 19),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 20),</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47381,7 +47850,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="A5" sqref="A5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -8890,7 +8890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC186"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:C46"/>
     </sheetView>
   </sheetViews>
@@ -10439,8 +10439,8 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f>CONCATENATE("(' ",B4,"', '",C4,"' ,",D4,", ",E4,", ",F4,", ",G4,"),")</f>
-        <v>(' mexicaso', 'mexicaso.org.ve' ,true, ARRAY[CAST((58,4126909353) as telefono_ty), CAST((58,4165420879)as telefono_ty)],  ARRAY[ ROW('Eloisa', 'Petronila', 'Nolasco', 'White', '91 Sage Ave. Colorado Springs, CO 80911',  ROW(58,4121705701)), ROW('Nicolas', 'Abelardo', 'Tafoya', 'Peralta', '8370 Euclid Lane Harrisburg, PA 17109', ROW(58,4127728311))]::contacto_ty[], 4),</v>
+        <f>CONCATENATE("('",B4,"', '",C4,"' ,",D4,", ",E4,", ",F4,", ",G4,"),")</f>
+        <v>('mexicaso', 'mexicaso.org.ve' ,true, ARRAY[CAST((58,4126909353) as telefono_ty), CAST((58,4165420879)as telefono_ty)],  ARRAY[ ROW('Eloisa', 'Petronila', 'Nolasco', 'White', '91 Sage Ave. Colorado Springs, CO 80911',  ROW(58,4121705701)), ROW('Nicolas', 'Abelardo', 'Tafoya', 'Peralta', '8370 Euclid Lane Harrisburg, PA 17109', ROW(58,4127728311))]::contacto_ty[], 4),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -10449,8 +10449,8 @@
         <v>25</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f t="shared" ref="C28:C48" si="21">CONCATENATE("(' ",B5,"', '",C5,"' ,",D5,", ",E5,", ",F5,", ",G5,"),")</f>
-        <v>(' exibera', 'exibera.com' ,true, ARRAY[CAST((58,4141416359) as telefono_ty), CAST((58,4124647938)as telefono_ty)],  ARRAY[ ROW('Cayetano', 'Paulo', 'Guillen', 'Miramontes', '260 Griffin Ave. Saint Joseph, MI 49085',  ROW(58,4147468253)), ROW('Aidana', 'Consuelo', 'Hidalgo', 'Rodrigues', '421A El Dorado St. Pittsburgh, PA 15206', ROW(58,4145897204))]::contacto_ty[], 1),</v>
+        <f t="shared" ref="C28:C46" si="21">CONCATENATE("('",B5,"', '",C5,"' ,",D5,", ",E5,", ",F5,", ",G5,"),")</f>
+        <v>('exibera', 'exibera.com' ,true, ARRAY[CAST((58,4141416359) as telefono_ty), CAST((58,4124647938)as telefono_ty)],  ARRAY[ ROW('Cayetano', 'Paulo', 'Guillen', 'Miramontes', '260 Griffin Ave. Saint Joseph, MI 49085',  ROW(58,4147468253)), ROW('Aidana', 'Consuelo', 'Hidalgo', 'Rodrigues', '421A El Dorado St. Pittsburgh, PA 15206', ROW(58,4145897204))]::contacto_ty[], 1),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="C29" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' ecuario', 'ecuario.org.ve' ,false, ARRAY[CAST((58,4249630352) as telefono_ty), CAST((58,4125063079)as telefono_ty)],  ARRAY[ ROW('Constantino', 'Adolfo', 'Bustos', 'Lima', '7630 Race Drive Chippewa Falls, WI 54729',  ROW(58,4148881705)), ROW('Juan', 'Gregorio', 'Madrid', 'Larios', '9248 S. Myers Dr. Barrington, IL 60010', ROW(58,4125199193))]::contacto_ty[], 2),</v>
+        <v>('ecuario', 'ecuario.org.ve' ,false, ARRAY[CAST((58,4249630352) as telefono_ty), CAST((58,4125063079)as telefono_ty)],  ARRAY[ ROW('Constantino', 'Adolfo', 'Bustos', 'Lima', '7630 Race Drive Chippewa Falls, WI 54729',  ROW(58,4148881705)), ROW('Juan', 'Gregorio', 'Madrid', 'Larios', '9248 S. Myers Dr. Barrington, IL 60010', ROW(58,4125199193))]::contacto_ty[], 2),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="C30" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' wavian', 'wavian.com' ,false, ARRAY[CAST((58,4246170813) as telefono_ty), CAST((58,4243008369)as telefono_ty)],  ARRAY[ ROW('Antonio', 'Tulio', 'Pinto', 'Cordero', '67 Purple Finch St. Battle Ground, WA 98604',  ROW(58,4124534802)), ROW('Ivan', 'Vivaldo', 'Monge', 'Orozco', '8 Wood St. Lawndale, CA 90260', ROW(58,4147759286))]::contacto_ty[], 3),</v>
+        <v>('wavian', 'wavian.com' ,false, ARRAY[CAST((58,4246170813) as telefono_ty), CAST((58,4243008369)as telefono_ty)],  ARRAY[ ROW('Antonio', 'Tulio', 'Pinto', 'Cordero', '67 Purple Finch St. Battle Ground, WA 98604',  ROW(58,4124534802)), ROW('Ivan', 'Vivaldo', 'Monge', 'Orozco', '8 Wood St. Lawndale, CA 90260', ROW(58,4147759286))]::contacto_ty[], 3),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="C31" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' zuerteto', 'zuerteto.org.ve' ,true, ARRAY[CAST((58,4167058294) as telefono_ty), CAST((58,4164227118)as telefono_ty)],  ARRAY[ ROW('Dulcinea', 'Consuelo', 'Pizarro', 'Santiago', '2 Arnold Rd. Clementon, NJ 08021',  ROW(58,4149820142)), ROW('Andres', 'Caligula', 'Salguero', 'Cantu', '387 Corona Ave. Council Bluffs, IA 51501', ROW(58,4127896106))]::contacto_ty[], 5),</v>
+        <v>('zuerteto', 'zuerteto.org.ve' ,true, ARRAY[CAST((58,4167058294) as telefono_ty), CAST((58,4164227118)as telefono_ty)],  ARRAY[ ROW('Dulcinea', 'Consuelo', 'Pizarro', 'Santiago', '2 Arnold Rd. Clementon, NJ 08021',  ROW(58,4149820142)), ROW('Andres', 'Caligula', 'Salguero', 'Cantu', '387 Corona Ave. Council Bluffs, IA 51501', ROW(58,4127896106))]::contacto_ty[], 5),</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="C32" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' namelix', 'namelix.com' ,true, ARRAY[CAST((58,4124224557) as telefono_ty), CAST((58,4149275489)as telefono_ty)],  ARRAY[ ROW('Marsello', 'Alan', 'Carpio', 'Thomas', '5 Summerhouse Dr. Winston Salem, NC 27103',  ROW(58,4167928205)), ROW('Mia', 'Caridad', 'Avalos', 'Castaneda', '7014 Beacon Road Stratford, CT 06614', ROW(58,416559594))]::contacto_ty[], 6),</v>
+        <v>('namelix', 'namelix.com' ,true, ARRAY[CAST((58,4124224557) as telefono_ty), CAST((58,4149275489)as telefono_ty)],  ARRAY[ ROW('Marsello', 'Alan', 'Carpio', 'Thomas', '5 Summerhouse Dr. Winston Salem, NC 27103',  ROW(58,4167928205)), ROW('Mia', 'Caridad', 'Avalos', 'Castaneda', '7014 Beacon Road Stratford, CT 06614', ROW(58,416559594))]::contacto_ty[], 6),</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C33" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' maxure', 'maxure.org.ve' ,false, ARRAY[CAST((58,4249270841) as telefono_ty), CAST((58,4161697839)as telefono_ty)],  ARRAY[ ROW('Antonio', 'Diego', 'Recinos', 'Santacruz', '14 Pulaski Street Dalton, GA 30721',  ROW(58,4125874357)), ROW('Camilo', 'Breno', 'Larios', 'Irizarry', '250 East Brewery Ave. Hattiesburg, MS 39401', ROW(58,4167713892))]::contacto_ty[], 7),</v>
+        <v>('maxure', 'maxure.org.ve' ,false, ARRAY[CAST((58,4249270841) as telefono_ty), CAST((58,4161697839)as telefono_ty)],  ARRAY[ ROW('Antonio', 'Diego', 'Recinos', 'Santacruz', '14 Pulaski Street Dalton, GA 30721',  ROW(58,4125874357)), ROW('Camilo', 'Breno', 'Larios', 'Irizarry', '250 East Brewery Ave. Hattiesburg, MS 39401', ROW(58,4167713892))]::contacto_ty[], 7),</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' critine', 'critine.com' ,false, ARRAY[CAST((58,4121948734) as telefono_ty), CAST((58,4142669811)as telefono_ty)],  ARRAY[ ROW('Greta', 'Rosaura', 'Valdivia', 'Cruz', '7044C Bellevue Avenue Sylvania, OH 43560',  ROW(58,4128117935)), ROW('Foster', 'Hercules', 'Palma', 'Palomino', '405 Division St. Long Beach, NY 11561', ROW(58,4142206919))]::contacto_ty[], 8),</v>
+        <v>('critine', 'critine.com' ,false, ARRAY[CAST((58,4121948734) as telefono_ty), CAST((58,4142669811)as telefono_ty)],  ARRAY[ ROW('Greta', 'Rosaura', 'Valdivia', 'Cruz', '7044C Bellevue Avenue Sylvania, OH 43560',  ROW(58,4128117935)), ROW('Foster', 'Hercules', 'Palma', 'Palomino', '405 Division St. Long Beach, NY 11561', ROW(58,4142206919))]::contacto_ty[], 8),</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' strise', 'strise.org.ve' ,true, ARRAY[CAST((58,4128375628) as telefono_ty), CAST((58,4129566333)as telefono_ty)],  ARRAY[ ROW('Marcela', 'Amelia', 'Galdamez', 'Rogers', '8561 Woodsman St. Soddy Daisy, TN 37379',  ROW(58,4125871125)), ROW('Ophelia', 'Genesis', 'Roman', 'Reza', '8680 Vermont Avenue Fayetteville, NC 28303', ROW(58,4129331604))]::contacto_ty[], 9),</v>
+        <v>('strise', 'strise.org.ve' ,true, ARRAY[CAST((58,4128375628) as telefono_ty), CAST((58,4129566333)as telefono_ty)],  ARRAY[ ROW('Marcela', 'Amelia', 'Galdamez', 'Rogers', '8561 Woodsman St. Soddy Daisy, TN 37379',  ROW(58,4125871125)), ROW('Ophelia', 'Genesis', 'Roman', 'Reza', '8680 Vermont Avenue Fayetteville, NC 28303', ROW(58,4129331604))]::contacto_ty[], 9),</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="C36" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' finess', 'finess.com' ,true, ARRAY[CAST((58,4145172324) as telefono_ty), CAST((58,4148423998)as telefono_ty)],  ARRAY[ ROW('Pamela', 'Veronica', 'Torres', 'Diaz', '7003 North Pin Oak Drive Southfield, MI 48076',  ROW(58,4167261669)), ROW('Gladys', 'Guadalupe', 'Nelson', 'Collazo', '6 Nichols St. Sidney, OH 45365', ROW(58,412210943))]::contacto_ty[], 1),</v>
+        <v>('finess', 'finess.com' ,true, ARRAY[CAST((58,4145172324) as telefono_ty), CAST((58,4148423998)as telefono_ty)],  ARRAY[ ROW('Pamela', 'Veronica', 'Torres', 'Diaz', '7003 North Pin Oak Drive Southfield, MI 48076',  ROW(58,4167261669)), ROW('Gladys', 'Guadalupe', 'Nelson', 'Collazo', '6 Nichols St. Sidney, OH 45365', ROW(58,412210943))]::contacto_ty[], 1),</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' spirate', 'spirate.org.ve' ,false, ARRAY[CAST((58,4143941547) as telefono_ty), CAST((58,4148656594)as telefono_ty)],  ARRAY[ ROW('Cayetano', 'Fulgencio', 'Marquez', 'Infante', '8864 West Grant Ave. Gastonia, NC 28052',  ROW(58,4123559954)), ROW('Dulce', 'Aleyda', 'Jacobo', 'Farias', '9630 Sage Avenue Virginia Beach, VA 23451', ROW(58,4142338258))]::contacto_ty[], 2),</v>
+        <v>('spirate', 'spirate.org.ve' ,false, ARRAY[CAST((58,4143941547) as telefono_ty), CAST((58,4148656594)as telefono_ty)],  ARRAY[ ROW('Cayetano', 'Fulgencio', 'Marquez', 'Infante', '8864 West Grant Ave. Gastonia, NC 28052',  ROW(58,4123559954)), ROW('Dulce', 'Aleyda', 'Jacobo', 'Farias', '9630 Sage Avenue Virginia Beach, VA 23451', ROW(58,4142338258))]::contacto_ty[], 2),</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="C38" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' tratone', 'tratone.com' ,false, ARRAY[CAST((58,4127166191) as telefono_ty), CAST((58,4167339412)as telefono_ty)],  ARRAY[ ROW('Jhoan', 'Dante', 'Lucero', 'Orona', '1 Tunnel Dr. Havertown, PA 19083',  ROW(58,4124168039)), ROW('Ramon', 'Cesar', 'Soliz', 'Alvarenga', '9700 Fremont Street Oak Lawn, IL 60453', ROW(58,4166551066))]::contacto_ty[], 3),</v>
+        <v>('tratone', 'tratone.com' ,false, ARRAY[CAST((58,4127166191) as telefono_ty), CAST((58,4167339412)as telefono_ty)],  ARRAY[ ROW('Jhoan', 'Dante', 'Lucero', 'Orona', '1 Tunnel Dr. Havertown, PA 19083',  ROW(58,4124168039)), ROW('Ramon', 'Cesar', 'Soliz', 'Alvarenga', '9700 Fremont Street Oak Lawn, IL 60453', ROW(58,4166551066))]::contacto_ty[], 3),</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="C39" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' restra', 'restra.org.ve' ,true, ARRAY[CAST((58,4128656384) as telefono_ty), CAST((58,4141393239)as telefono_ty)],  ARRAY[ ROW('Elidio', 'Jonathan', 'Puentes', 'Ozuna', '87 Aspen Street Seattle, WA 98144',  ROW(58,4167372066)), ROW('Margarito', 'Leopoldo', 'Araujo', 'Villarreal', '722 Young Ave. Green Bay, WI 54302', ROW(58,4247562597))]::contacto_ty[], 4),</v>
+        <v>('restra', 'restra.org.ve' ,true, ARRAY[CAST((58,4128656384) as telefono_ty), CAST((58,4141393239)as telefono_ty)],  ARRAY[ ROW('Elidio', 'Jonathan', 'Puentes', 'Ozuna', '87 Aspen Street Seattle, WA 98144',  ROW(58,4167372066)), ROW('Margarito', 'Leopoldo', 'Araujo', 'Villarreal', '722 Young Ave. Green Bay, WI 54302', ROW(58,4247562597))]::contacto_ty[], 4),</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C40" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' stedwork', 'stedwork.com' ,true, ARRAY[CAST((58,4144533212) as telefono_ty), CAST((58,4167169159)as telefono_ty)],  ARRAY[ ROW('Gloria', 'Eneida', 'Duque', 'Uribe', '77 East Saxton Circle Royal Oak, MI 48067',  ROW(58,4166612681)), ROW('Vitalicio', 'Calixtrato', 'Medina', 'Sanabria', '226 Dogwood Ave. Loxahatchee, FL 33470', ROW(58,4241393767))]::contacto_ty[], 5),</v>
+        <v>('stedwork', 'stedwork.com' ,true, ARRAY[CAST((58,4144533212) as telefono_ty), CAST((58,4167169159)as telefono_ty)],  ARRAY[ ROW('Gloria', 'Eneida', 'Duque', 'Uribe', '77 East Saxton Circle Royal Oak, MI 48067',  ROW(58,4166612681)), ROW('Vitalicio', 'Calixtrato', 'Medina', 'Sanabria', '226 Dogwood Ave. Loxahatchee, FL 33470', ROW(58,4241393767))]::contacto_ty[], 5),</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="C41" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' rampact', 'rampact.org.ve' ,false, ARRAY[CAST((58,4162219883) as telefono_ty), CAST((58,4149417666)as telefono_ty)],  ARRAY[ ROW('Jennifer', 'Valentina', 'Vigil', 'Aviles', '947 Harvey Rd. Erlanger, KY 41018',  ROW(58,4248900652)), ROW('Elba', 'Amparo', 'Bejarano', 'Barboza', '37 Foster Avenue Powhatan, VA 23139', ROW(58,4129348253))]::contacto_ty[], 6),</v>
+        <v>('rampact', 'rampact.org.ve' ,false, ARRAY[CAST((58,4162219883) as telefono_ty), CAST((58,4149417666)as telefono_ty)],  ARRAY[ ROW('Jennifer', 'Valentina', 'Vigil', 'Aviles', '947 Harvey Rd. Erlanger, KY 41018',  ROW(58,4248900652)), ROW('Elba', 'Amparo', 'Bejarano', 'Barboza', '37 Foster Avenue Powhatan, VA 23139', ROW(58,4129348253))]::contacto_ty[], 6),</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="C42" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' disconse', 'disconse.com' ,false, ARRAY[CAST((58,4141415929) as telefono_ty), CAST((58,4122793317)as telefono_ty)],  ARRAY[ ROW('Claudio', 'Lincoln', 'Sullivan', 'Tafoya', '936 Amerige Ave. Manchester, NH 03102',  ROW(58,4148438619)), ROW('Damaris', 'Corania', 'Benavides', 'Cook', '339 Devon Dr. Old Bridge, NJ 08857', ROW(58,4242480061))]::contacto_ty[], 7),</v>
+        <v>('disconse', 'disconse.com' ,false, ARRAY[CAST((58,4141415929) as telefono_ty), CAST((58,4122793317)as telefono_ty)],  ARRAY[ ROW('Claudio', 'Lincoln', 'Sullivan', 'Tafoya', '936 Amerige Ave. Manchester, NH 03102',  ROW(58,4148438619)), ROW('Damaris', 'Corania', 'Benavides', 'Cook', '339 Devon Dr. Old Bridge, NJ 08857', ROW(58,4242480061))]::contacto_ty[], 7),</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="C43" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' restricp', 'restricp.org.ve' ,true, ARRAY[CAST((58,4242584943) as telefono_ty), CAST((58,4244832665)as telefono_ty)],  ARRAY[ ROW('Fabian', 'Melchor', 'Deltoro', 'Lucero', '8963 Buckingham Street Roslindale, MA 02131',  ROW(58,4243181758)), ROW('Victor', 'Leon', 'Sorto', 'Velasquez', '67 Inverness Ave. East Stroudsburg, PA 18301', ROW(58,4167211111))]::contacto_ty[], 8),</v>
+        <v>('restricp', 'restricp.org.ve' ,true, ARRAY[CAST((58,4242584943) as telefono_ty), CAST((58,4244832665)as telefono_ty)],  ARRAY[ ROW('Fabian', 'Melchor', 'Deltoro', 'Lucero', '8963 Buckingham Street Roslindale, MA 02131',  ROW(58,4243181758)), ROW('Victor', 'Leon', 'Sorto', 'Velasquez', '67 Inverness Ave. East Stroudsburg, PA 18301', ROW(58,4167211111))]::contacto_ty[], 8),</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="C44" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' devflair', 'devflair.com' ,true, ARRAY[CAST((58,4167026825) as telefono_ty), CAST((58,4166388369)as telefono_ty)],  ARRAY[ ROW('Daniela', 'Aidana', 'Avelar', 'Recinos', '23 Monroe St. Maryville, TN 37803',  ROW(58,4167709376)), ROW('Silvio', 'Maximiliano', 'Granados', 'Cordova', '9 South Hilltop Road Bethel Park, PA 15102', ROW(58,4166783921))]::contacto_ty[], 9),</v>
+        <v>('devflair', 'devflair.com' ,true, ARRAY[CAST((58,4167026825) as telefono_ty), CAST((58,4166388369)as telefono_ty)],  ARRAY[ ROW('Daniela', 'Aidana', 'Avelar', 'Recinos', '23 Monroe St. Maryville, TN 37803',  ROW(58,4167709376)), ROW('Silvio', 'Maximiliano', 'Granados', 'Cordova', '9 South Hilltop Road Bethel Park, PA 15102', ROW(58,4166783921))]::contacto_ty[], 9),</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="C45" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' inconce', 'inconce.org.ve' ,false, ARRAY[CAST((58,4247453786) as telefono_ty), CAST((58,4143307715)as telefono_ty)],  ARRAY[ ROW('Pilar', 'Inocencia', 'Antonio', 'Cepeda', '9241 Blackburn St. Oak Creek, WI 53154',  ROW(58,4243443197)), ROW('Ayala', 'Adria', 'Arriaga', 'Cota', '114 Lookout Court Egg Harbor Township, NJ 08234', ROW(58,4144959888))]::contacto_ty[], 4),</v>
+        <v>('inconce', 'inconce.org.ve' ,false, ARRAY[CAST((58,4247453786) as telefono_ty), CAST((58,4143307715)as telefono_ty)],  ARRAY[ ROW('Pilar', 'Inocencia', 'Antonio', 'Cepeda', '9241 Blackburn St. Oak Creek, WI 53154',  ROW(58,4243443197)), ROW('Ayala', 'Adria', 'Arriaga', 'Cota', '114 Lookout Court Egg Harbor Township, NJ 08234', ROW(58,4144959888))]::contacto_ty[], 4),</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="C46" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>(' sloquest', 'sloquest.com' ,false, ARRAY[CAST((58,4162833863) as telefono_ty), CAST((58,4144556851)as telefono_ty)],  ARRAY[ ROW('Flor', 'Esperanza', 'Peterson', 'Sarmiento', '49 W. Lees Creek Ave. Pickerington, OH 43147',  ROW(58,4165511783)), ROW('Perla', 'Gloria', 'Lima', 'Valentin', '78 Clay St. Uniondale, NY 11553', ROW(58,4124743278))]::contacto_ty[], 6),</v>
+        <v>('sloquest', 'sloquest.com' ,false, ARRAY[CAST((58,4162833863) as telefono_ty), CAST((58,4144556851)as telefono_ty)],  ARRAY[ ROW('Flor', 'Esperanza', 'Peterson', 'Sarmiento', '49 W. Lees Creek Ave. Pickerington, OH 43147',  ROW(58,4165511783)), ROW('Perla', 'Gloria', 'Lima', 'Valentin', '78 Clay St. Uniondale, NY 11553', ROW(58,4124743278))]::contacto_ty[], 6),</v>
       </c>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.25">
@@ -11321,8 +11321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\bases-dos\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8113" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8433" uniqueCount="2711">
   <si>
     <t>id</t>
   </si>
@@ -7569,6 +7569,627 @@
   </si>
   <si>
     <t>fk_cliente</t>
+  </si>
+  <si>
+    <t>Cuente</t>
+  </si>
+  <si>
+    <t>Tipini</t>
+  </si>
+  <si>
+    <t>Matella</t>
+  </si>
+  <si>
+    <t>Criola</t>
+  </si>
+  <si>
+    <t>Mentino</t>
+  </si>
+  <si>
+    <t>Traccion</t>
+  </si>
+  <si>
+    <t>Oversta</t>
+  </si>
+  <si>
+    <t>Inforaza</t>
+  </si>
+  <si>
+    <t>Endora</t>
+  </si>
+  <si>
+    <t>Chalida</t>
+  </si>
+  <si>
+    <t>Trustora</t>
+  </si>
+  <si>
+    <t>Impaza</t>
+  </si>
+  <si>
+    <t>Clari</t>
+  </si>
+  <si>
+    <t>Monerte</t>
+  </si>
+  <si>
+    <t>Accuenti</t>
+  </si>
+  <si>
+    <t>Advazon</t>
+  </si>
+  <si>
+    <t>Promante</t>
+  </si>
+  <si>
+    <t>Evantino</t>
+  </si>
+  <si>
+    <t>Advinco</t>
+  </si>
+  <si>
+    <t>Inforwer</t>
+  </si>
+  <si>
+    <t>('Emilio','Jaime','Quiles','Amezcua','1983-03-26',163,69,'azul claro','20/200','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4129164747) ,ROW('39930757','Irlanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Irma','Nieves','Roque','Urias','1940-04-13','primo',ROW(58,4128168560) ), ROW('Celeste','Soledad','Chacon','Machado','1940-04-13','hermano',ROW(58,4122952275) )]::familiar_ty[], ARRAY[ ROW('14959636','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática','Máster','Inteligencia Artificial')]::nivel_educativo_ty[],null,'1'),</t>
+  </si>
+  <si>
+    <t>('Delfina','Ligia','Carpio','Buenrostro','1984-01-23',177,72,'marrón claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2124296657) ,ROW('89191815','Irlanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Teodora','Libertad','Montero','Aparicio','1940-09-24','tío',ROW(58,2125926764) ), ROW('Marlene','Donatila','Rosa','Almazan','1940-09-24','hermano',ROW(58,2121337905) )]::familiar_ty[], ARRAY[ ROW('79345639','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Comunicación','Máster','Comunicación Intercultural')]::nivel_educativo_ty[],null,'2'),</t>
+  </si>
+  <si>
+    <t>('Felicia','Emiliana','Pacheco','Munoz','1986-03-28',176,82,'marrón oscuro','20/125','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4242024957) ,ROW('51835003','Irlanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Marcelo','Tulio','Paredes','Heredia','1943-12-14','padre',ROW(58,4245381923) ), ROW('Fabiano','Tarsicio','Santamaria','Jaquez','1943-12-14','abuelo',ROW(58,4243525559) )]::familiar_ty[], ARRAY[ ROW('93543081','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial','Máster','Dirección de Empresas')]::nivel_educativo_ty[],null,'3'),</t>
+  </si>
+  <si>
+    <t>('Alana','Erika','Nevarez','Deanda','1988-02-06',150,74,'verde claro','20/100','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2878205622) ,ROW('69638007','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Ignacio','Ulises','Cartagena','Roman','1944-01-18','madre',ROW(58,2876632735) ), ROW('Vivaldo','Tarsicio','Rosas','Jackson','1944-01-18','abuelo',ROW(58,2875691815) )]::familiar_ty[], ARRAY[ ROW('82990909','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Derecho','Máster','Abogacía')]::nivel_educativo_ty[],null,'4'),</t>
+  </si>
+  <si>
+    <t>('Judas','Faustiniano','Cerda','Villa','1988-05-07',173,94,'verde oscuro','20/80','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2434857123) ,ROW('29204590','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Orosio','Javier','Delao','Delao','1945-05-04','hermano',ROW(58,2434994586) ), ROW('Gracia','Berenice','Bocanegra','Rizo','1945-05-04','primo',ROW(58,2435538720) )]::familiar_ty[], ARRAY[ ROW('73017145','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática','Máster','Ciberseguridad')]::nivel_educativo_ty[],null,'5'),</t>
+  </si>
+  <si>
+    <t>('Inocencia','Adria','Maldonado','Mojica','1988-06-13',152,70,'azul oscuro','20/63','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2814145692) ,ROW('39362717','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Emily','Mireya','Tellez','Cabrera','1945-06-24','hermano',ROW(58,2811971136) ), ROW('Esperanza','Ana','Corona','Granados','1945-06-24','tío',ROW(58,2816049060) )]::familiar_ty[], ARRAY[ ROW('84127445','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Comunicación','Máster','Lexicografía')]::nivel_educativo_ty[],null,'6'),</t>
+  </si>
+  <si>
+    <t>('Diego','Cesar','Bueno','Conde','1989-02-08',180,92,'azul claro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2342579684) ,ROW('33183782','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Hilda','Bernarda','Tamez','Cuellar','1954-08-20','abuelo',ROW(58,2346799099) ), ROW('Mirella','Zamira','Machuca','Magallon','1954-08-20','padre',ROW(58,2346278063) )]::familiar_ty[], ARRAY[ ROW('93293709','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Enfermería','Máster','Investigación de Medicamentos')]::nivel_educativo_ty[],null,'7'),</t>
+  </si>
+  <si>
+    <t>('Venancio','Justin','Miramontes','Verduzco','1989-04-24',164,82,'marrón claro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2613290793) ,ROW('69989933','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Octavio',null,'Villanueva','Valles','1955-07-02','abuelo',ROW(58,2619009418) ), ROW('Vicente','Agustin','Rosas','Arguello','1955-07-02','madre',ROW(58,2612445256) )]::familiar_ty[], ARRAY[ ROW('95406587','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ','Máster','Relaciones Internacionales')]::nivel_educativo_ty[],null,'8'),</t>
+  </si>
+  <si>
+    <t>('Camilo','Marcos','Melgoza','Roa','1990-09-14',154,91,'marrón oscuro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2447891200) ,ROW('41865427','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Julio',null,'Avelar','Conde','1955-12-31','primo',ROW(58,2448486109) ), ROW('Octavia','Eduviges','Mena','Alcantara','1955-12-31','hermano',ROW(58,2445134022) )]::familiar_ty[], ARRAY[ ROW('59445668','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Economía','Máster','Auditoria Financiera y Riegos')]::nivel_educativo_ty[],null,'9'),</t>
+  </si>
+  <si>
+    <t>('Florentina','Mariluz','Landa','Heredia','1993-03-05',161,89,'verde claro','20/25','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4142094288) ,ROW('47972673','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Araceli',null,'Alcantara','Candelaria','1960-06-01','tío',ROW(58,4142425192) ), ROW('Calixtrato','Vicente','Quintanilla','Estrada','1960-06-01','hermano',ROW(58,4143867961) )]::familiar_ty[], ARRAY[ ROW('99068674','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Economía','Máster','Finanzas')]::nivel_educativo_ty[],null,'10'),</t>
+  </si>
+  <si>
+    <t>('Valentin','Kevin','Machuca','Tello','1993-08-25',184,92,'verde oscuro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4121455710) ,ROW('19117661','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Bibiana',null,'Monge','Ruano','1962-10-16','padre',ROW(58,4121601151) ), ROW('Brandon','Constantino','Razo','Casillas','1962-10-16','abuelo',ROW(58,4124445947) )]::familiar_ty[], ARRAY[ ROW('62441714','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática','Máster','Ingeniería de Datos Masivos')]::nivel_educativo_ty[],null,'11'),</t>
+  </si>
+  <si>
+    <t>('Bienvenido','Vivaldo','Martines','Luis','1994-05-26',182,92,'azul oscuro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2124958380) ,ROW('13771285','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Gracia',null,'Sanchez','Simon','1963-06-08','madre',ROW(58,2124951705) ), ROW('Anthony','Amilcar','Tafoya','Buenrostro','1963-06-08','primo',ROW(58,2123745003) )]::familiar_ty[], ARRAY[ ROW('34819751','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Comunicación','Máster','Comunicación Corporativa')]::nivel_educativo_ty[],null,'12'),</t>
+  </si>
+  <si>
+    <t>('Donatila','Melania','Michel','Zambrano','1994-06-22',170,79,'azul claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4243750313) ,ROW('50988775','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Santiago',null,'Lozada','Ledesma','1964-03-10','hermano',ROW(58,4245858507) ), ROW('Libertad','Eliana','Garces','Casanova','1964-03-10','tío',ROW(58,4244590501) )]::familiar_ty[], ARRAY[ ROW('34853345','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ','Máster','Acción Internacional Humanitaria')]::nivel_educativo_ty[],null,'13'),</t>
+  </si>
+  <si>
+    <t>('Haydee','Gladys','Caldera','Fabian','1995-07-22',166,71,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4123563899) ,ROW('31478228','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Haydee',null,'Solis','Villeda','1965-12-24','hermano',ROW(58,4127818505) ), ROW('Ignacio','Chistopher','Concepcion','Teran','1965-12-24','padre',ROW(58,4123689163) )]::familiar_ty[], ARRAY[ ROW('20327835','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Derecho','Máster','Asesoría Fiscal')]::nivel_educativo_ty[],null,'14'),</t>
+  </si>
+  <si>
+    <t>('Elizabeth','Eduviges','Henriquez','Hinojosa','1996-09-20',182,88,'marrón oscuro','20/63','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2126980381) ,ROW('11277977','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Caligula',null,'Estevez','Cifuentes','1970-06-29','abuelo',ROW(58,2125575592) ), ROW('Fidel','Juan','Regalado','Machuca','1970-06-29','madre',ROW(58,2122997654) )]::familiar_ty[], ARRAY[ ROW('13520502','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Criminología','Máster','Química Orgánica')]::nivel_educativo_ty[],null,'15'),</t>
+  </si>
+  <si>
+    <t>('Regulo','Pastor','Coria','Valverde','1996-11-15',168,68,'verde claro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4243567797) ,ROW('85714130','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Marco',null,'Armijo','Jimenez','1970-12-22','primo',ROW(58,4249521203) ), ROW('Emperatriz',null,'Angulo','Valdivia','1970-12-22','hermano',ROW(58,4241258245) )]::familiar_ty[], ARRAY[ ROW('16199949','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Psicología','Máster','Inteligencia Emocional')]::nivel_educativo_ty[],null,'16'),</t>
+  </si>
+  <si>
+    <t>('Ives','Victor','Valerio','Alejo','1997-08-10',166,78,'verde oscuro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2875285022) ,ROW('43829620','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Cesarino',null,'Delrio','Caldera','1971-06-23','tío',ROW(58,2879854253) ), ROW('Vilma',null,'Monreal','Toscano','1971-06-23','hermano',ROW(58,2877688785) )]::familiar_ty[], ARRAY[ ROW('61383080','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null)]::nivel_educativo_ty[],null,'17'),</t>
+  </si>
+  <si>
+    <t>('Jayden','Emilio','Amezcua','Maya','1997-10-10',151,95,'azul oscuro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2439873411) ,ROW('45438410','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Luciana',null,'Garibay','Contreras','1973-05-18','padre',ROW(58,2433772809) ), ROW('Luna',null,'Castrejon','Narvaez','1973-05-18','abuelo',ROW(58,2436186574) )]::familiar_ty[], ARRAY[ ROW('18253976','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'18'),</t>
+  </si>
+  <si>
+    <t>('Teodora','Abigail','Nolasco','Armendariz','1997-12-15',158,66,'azul claro','20/25','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2818008388) ,ROW('47483559','Uganda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Fermin',null,'Figueroa','Cordova','1973-11-14','madre',ROW(58,2814660089) ), ROW('Hugo',null,'Serrato','Barrios','1973-11-14','abuelo',ROW(58,2817903326) )]::familiar_ty[], ARRAY[ ROW('22211258','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'19'),</t>
+  </si>
+  <si>
+    <t>('Jane','Amanda','Tenorio','Roberts','1999-09-14',183,84,'azul claro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2345075333) ,ROW('17050257','Uganda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Felicio',null,'Meneses','Ward','1975-10-18','hermano',ROW(58,2345678011) ), ROW('Luis',null,'Oliva','Arias','1975-10-18','primo',ROW(58,2346076744) )]::familiar_ty[], ARRAY[ ROW('35149591','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null)]::nivel_educativo_ty[],null,'20'),</t>
+  </si>
+  <si>
+    <t>('Feliciano','Cristian','Guzman','Roman','1999-09-20',174,78,'marrón claro','20/16','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2611307734) ,ROW('64009947','Uganda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Irma',null,'Barahona','Maldonado','1976-03-18','hermano',ROW(58,2611941374) ), ROW('Klement',null,'Montiel','Salguero','1976-03-18','hermano',ROW(58,2613126106) )]::familiar_ty[], ARRAY[ ROW('92195511','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'21'),</t>
+  </si>
+  <si>
+    <t>('Jiovani','Julian','Villeda','Barahona','2000-04-29',161,89,'marrón oscuro','20/12.5','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2448714563) ,ROW('61855262','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Amada',null,'Rendon','Ochoa','1976-07-16','abuelo',ROW(58,2445147556) ), ROW('Rosalia',null,'Valles','Montes','1976-07-16','hermano',ROW(58,2441237483) )]::familiar_ty[], ARRAY[ ROW('16580658','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'22'),</t>
+  </si>
+  <si>
+    <t>('Brenda','Fabia','Baltazar','Antonio','2000-05-31',164,73,'verde claro','20/32','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4149687206) ,ROW('18670389','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Naomi',null,'Powell','Butler','1979-05-22','abuelo',ROW(58,4145043313) ), ROW('Griselda',null,'Pedraza','Lozano','1979-05-22','abuelo',ROW(58,4142374521) )]::familiar_ty[], ARRAY[ ROW('34367738','Zimbabue'),row('63001508','Australia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null)]::nivel_educativo_ty[],null,'23'),</t>
+  </si>
+  <si>
+    <t>('Emperatriz','Georgia','Castanon','Castillo','2000-08-09',151,81,'verde oscuro','20/25','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4126531713) ,ROW('30174074','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Adrian',null,'Price','Becerra','1981-01-22','primo',ROW(58,4125508815) ), ROW('Daniel',null,'Price','Gallardo','1981-01-22','abuelo',ROW(58,4126927123) )]::familiar_ty[], ARRAY[ ROW('12940976','Zimbabue'),row('96306101','Australia') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null)]::nivel_educativo_ty[],null,'24'),</t>
+  </si>
+  <si>
+    <t>('Nikita','Victoria','Sanabria','Monreal','2000-10-29',161,84,'azul oscuro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2123353462) ,ROW('71585425','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Poncio',null,'Alcala','Falcon','1981-02-02','tío',ROW(58,2127632689) ), ROW('Silvester',null,'Morris','Serrato','1981-02-02','primo',ROW(58,2128436640) )]::familiar_ty[], ARRAY[ ROW('11562137','Australia'),row('95700493','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'25'),</t>
+  </si>
+  <si>
+    <t>('Yves','Cornelio','Avina','Camarena','1983-09-14',152,81,'azul claro','20/16','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4245814103) ,ROW('70928200','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Sebastian',null,'Cabral','Cedillo','1936-02-14','padre',ROW(58,4246202519) ), ROW('Magali',null,'Salmeron','Izquierdo','1936-02-14','tío',ROW(58,4248729797) )]::familiar_ty[], ARRAY[ ROW('93903188','Australia'),row('67756251','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null)]::nivel_educativo_ty[],null,'26'),</t>
+  </si>
+  <si>
+    <t>('Adria','Cloe','Armijo','Hall','1984-05-21',172,74,'marrón claro','20/12.5','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4128289542) ,ROW('45833447','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Marlene',null,'Maravilla','Merino','1938-07-26','madre',ROW(58,4128816666) ), ROW('Emiliana',null,'Mariscal','Lora','1938-07-26','padre',ROW(58,4128253996) )]::familiar_ty[], ARRAY[ ROW('32060343','Australia'),row('58248198','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null)]::nivel_educativo_ty[],null,'27'),</t>
+  </si>
+  <si>
+    <t>('Eleazar','Silvio','Calderon','Maciel','1984-12-22',182,82,'marrón oscuro','20/10','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2125793712) ,ROW('24695015','Irlanda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Aleyda','Donatila','Nolasco','Salgado','1938-11-18','hermano',ROW(58,2126450035) ), ROW('Pamela',null,'Guevara','Zapata','1938-11-18','madre',ROW(58,2129900330) )]::familiar_ty[], ARRAY[ ROW('70704051','Irlanda'),row('39090612','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null)]::nivel_educativo_ty[],null,'1'),</t>
+  </si>
+  <si>
+    <t>('Eleazar','Francisco','Abreu','Alba','1986-05-02',159,66,'verde claro','20/125','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4241465178) ,ROW('59684106','Irlanda'),ARRAY['español','inglés','hindi','francés']::varchar(50)[], ARRAY[ ROW('Lionel','Vivaldo','Martinez','Elias','1940-07-21','hermano',ROW(58,4246173709) ), ROW('Feliciano',null,'Hurtado','Baca','1940-07-21','hermano',ROW(58,4245080207) )]::familiar_ty[], ARRAY[ ROW('61988709','Irlanda'),row('72383008','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null)]::nivel_educativo_ty[],null,'2'),</t>
+  </si>
+  <si>
+    <t>('Ulises','Jhoan','Delgadillo','Vera','1988-12-01',180,93,'verde oscuro','20/100','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2874634001) ,ROW('99669216','Irlanda'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Valerio','Carmona','Solis','Sarabia','1942-07-22','abuelo',ROW(58,2871562518) ), ROW('Eloisa',null,'Nolasco','White','1942-07-22','hermano',ROW(58,2876821183) )]::familiar_ty[], ARRAY[ ROW('97661622','Irlanda'),row('13569238','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null)]::nivel_educativo_ty[],null,'3'),</t>
+  </si>
+  <si>
+    <t>('Bertrudis','Damaris','Mandujano','Sosa','1989-01-03',165,89,'azul oscuro','20/80','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2437594386) ,ROW('25068878','Holanda'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Alma','Moira','Moreno','Batista','1944-06-08','primo',ROW(58,2439022371) ), ROW('Cayetano',null,'Guillen','Miramontes','1944-06-08','abuelo',ROW(58,2439639965) )]::familiar_ty[], ARRAY[ ROW('74564854','Holanda'),row('48858747','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null)]::nivel_educativo_ty[],null,'4'),</t>
+  </si>
+  <si>
+    <t>('Faustino','Margarito','Quinones','Mena','1989-12-16',163,73,'azul claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2818697892) ,ROW('92617623','Holanda'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Emiliana','Constanza','Renteria','Almaguer','1944-12-12','primo',ROW(58,2816075980) ), ROW('Constantino',null,'Bustos','Lima','1944-12-12','primo',ROW(58,2814005963) )]::familiar_ty[], ARRAY[ ROW('10354839','Holanda'),row('87700913','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null)]::nivel_educativo_ty[],null,'5'),</t>
+  </si>
+  <si>
+    <t>('Marcos','Alfredo','Solorio','Roldan','1990-02-05',150,77,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2341341136) ,ROW('25826696','Holanda'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Fernanda','Amelia','Ruano','Quintanilla','1946-12-07','tío',ROW(58,2342485216) ), ROW('Antonio',null,'Pinto','Cordero','1946-12-07','tío',ROW(58,2345133086) )]::familiar_ty[], ARRAY[ ROW('80715775','Holanda'),row('69774530','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null)]::nivel_educativo_ty[],null,'6'),</t>
+  </si>
+  <si>
+    <t>('Constancia','Sheila','Olivo','Cifuentes','1990-08-28',160,94,'marrón claro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2619608583) ,ROW('22659292','Groenlandia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Javier','Valentin','Aguirre','Covarrubias','1954-01-12','padre',ROW(58,2618154782) ), ROW('Dulcinea',null,'Pizarro','Santiago','1954-01-12','padre',ROW(58,2619229031) )]::familiar_ty[], ARRAY[ ROW('27618646','Groenlandia'),row('71114445','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null)]::nivel_educativo_ty[],null,'7'),</t>
+  </si>
+  <si>
+    <t>('Ema','Chantal','Ramirez','Mendez','1991-01-31',160,79,'marrón oscuro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2446142571) ,ROW('96062323','Groenlandia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Amelia','Veronica','Huerta','Quesada','1955-01-04','madre',ROW(58,2444737974) ), ROW('Marsello',null,'Carpio','Thomas','1955-01-04','madre',ROW(58,2445979984) )]::familiar_ty[], ARRAY[ ROW('26026403','Groenlandia'),row('31916772','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Ingeniería Informática','Máster','Inteligencia Artificial') ]::nivel_educativo_ty[],null,'8'),</t>
+  </si>
+  <si>
+    <t>('Waldetrudis','Lucila','Angulo','Barajas','1991-05-25',160,76,'verde claro','20/25','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4146573985) ,ROW('22902243','Groenlandia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Rafael','Amador','Solis','Garcia','1955-09-08','hermano',ROW(58,4142613934) ), ROW('Antonio',null,'Recinos','Santacruz','1955-09-08','hermano',ROW(58,4141479096) )]::familiar_ty[], ARRAY[ ROW('40318646','Groenlandia'),row('25371743','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Comunicación','Máster','Comunicación Intercultural') ]::nivel_educativo_ty[],null,'9'),</t>
+  </si>
+  <si>
+    <t>('Santiago','Andres','Izaguirre','Giron','1992-05-02',175,80,'verde oscuro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4121043060) ,ROW('85888773','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Pablo','Emiliano','Santana','Almeida','1956-04-21','hermano',ROW(58,4122348111) ), ROW('Greta',null,'Valdivia','Cruz','1956-04-21','hermano',ROW(58,4124377095) )]::familiar_ty[], ARRAY[ ROW('76400923','Argentina'),row('67879369','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null), ROW('Ingeniería Industrial','Máster','Dirección de Empresas') ]::nivel_educativo_ty[],null,'10'),</t>
+  </si>
+  <si>
+    <t>('Silvio','Fidel','Avelar','Mojica','1992-05-29',187,78,'azul oscuro','20/16','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2129459276) ,ROW('36992521','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Julian','Cornelio','Ceja','Castro','1957-07-10','abuelo',ROW(58,2128244059) ), ROW('Marcela',null,'Galdamez','Rogers','1957-07-10','abuelo',ROW(58,2124501472) )]::familiar_ty[], ARRAY[ ROW('53894820','Argentina'),row('13761981','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null), ROW('Derecho','Máster','Abogacía') ]::nivel_educativo_ty[],null,'11'),</t>
+  </si>
+  <si>
+    <t>('Breno','Marcial','Acuna','Lewis','1993-05-13',169,85,'azul claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4248681020) ,ROW('93832502','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Sabina','Perla','Guevara','Morris','1959-09-04','abuelo',ROW(58,4247086898) ), ROW('Pamela','Veronica','Torres','Diaz','1959-09-04','abuelo',ROW(58,4243140552) )]::familiar_ty[], ARRAY[ ROW('88995319','Argentina'),row('98357809','Australia') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null), ROW('Ingeniería Informática','Máster','Ciberseguridad') ]::nivel_educativo_ty[],null,'12'),</t>
+  </si>
+  <si>
+    <t>('Rosaura','Sharon','Zelaya','Rico','1993-10-08',177,89,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4129114842) ,ROW('64320668','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Mario','Marcelo','Alexander','Roberts','1960-08-26','primo',ROW(58,4126906904) ), ROW('Cayetano','Fulgencio','Marquez','Infante','1960-08-26','primo',ROW(58,4125148340) )]::familiar_ty[], ARRAY[ ROW('71825301','Taiwán'),row('69629809','Australia') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null), ROW('Comunicación','Máster','Lexicografía') ]::nivel_educativo_ty[],null,'13'),</t>
+  </si>
+  <si>
+    <t>('Eneida','America','Guerrero','Mireles','1995-01-08',175,75,'marrón oscuro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2129359873) ,ROW('74221894','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Javier','Breno','Benitez','Zayas','1963-01-23','tío',ROW(58,2127077137) ), ROW('Jhoan','Dante','Lucero','Orona','1963-01-23','madre',ROW(58,2121879763) )]::familiar_ty[], ARRAY[ ROW('13176107','Taiwán'),row('90717265','Australia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null), ROW('Enfermería','Máster','Investigación de Medicamentos') ]::nivel_educativo_ty[],null,'14'),</t>
+  </si>
+  <si>
+    <t>('Tarsicio','Carlos','Garza','Ochoa','1995-07-24',178,84,'verde claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4249199338) ,ROW('90635546','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Patricia','Maricruz','Miller','Amador','1965-03-19','padre',ROW(58,4124193391) ), ROW('Elidio','Jonathan','Puentes','Ozuna','1965-03-19','hermano',ROW(58,4123796507) )]::familiar_ty[], ARRAY[ ROW('74815026','Taiwán'),row('83704252','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null), ROW('Ciencias Sociales ','Máster','Relaciones Internacionales') ]::nivel_educativo_ty[],null,'15'),</t>
+  </si>
+  <si>
+    <t>('Eladio','Silvestre','Arteaga','Camarena','1998-03-19',166,65,'verde oscuro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2876851006) ,ROW('67235731','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Anastasia','Melina','Pelayo','Veliz','1967-09-23','madre',ROW(58,2127618769) ), ROW('Gloria','Eneida','Duque','Uribe','1967-09-23','hermano',ROW(58,2123434353) )]::familiar_ty[], ARRAY[ ROW('12185352','Malasia'),row('71417456','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null), ROW('Economía','Máster','Auditoria Financiera y Riegos') ]::nivel_educativo_ty[],null,'16'),</t>
+  </si>
+  <si>
+    <t>('Mariam','Mireya','Orellana','Manzano','1998-04-22',166,66,'azul oscuro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2435390861) ,ROW('51394192','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Marisol','Trinidad','Escobedo','Pinon','1970-08-26','hermano',ROW(58,4247825523) ), ROW('Jennifer','Valentina','Vigil','Aviles','1970-08-26','abuelo',ROW(58,4243381923) )]::familiar_ty[], ARRAY[ ROW('81486521','Malasia'),row('76089156','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null), ROW('Economía','Máster','Finanzas') ]::nivel_educativo_ty[],null,'17'),</t>
+  </si>
+  <si>
+    <t>('Thais','Cloe','Kelly','Santacruz','1998-06-26',178,92,'azul claro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2811044117) ,ROW('18228807','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Mario','David','Barrientos','Montesdeoca','1975-06-22','hermano',ROW(58,2879261272) ), ROW('Claudio','Lincoln','Sullivan','Tafoya','1975-06-22','abuelo',ROW(58,2877212855) )]::familiar_ty[], ARRAY[ ROW('48791176','Malasia'),row('98834983','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Ingeniería Informática','Máster','Ingeniería de Datos Masivos') ]::nivel_educativo_ty[],null,'18'),</t>
+  </si>
+  <si>
+    <t>('Atenea','Mariana','Escalante','Garay','1998-11-20',153,70,'marrón claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2347285068) ,ROW('34263661','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Camilo','Margarito','Aguayo','Giraldo','1976-03-16','abuelo',ROW(58,2435841763) ), ROW('Fabian','Melchor','Deltoro','Lucero','1976-03-16','primo',ROW(58,2433772408) )]::familiar_ty[], ARRAY[ ROW('99837345','Uganda'),row('52083147','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Comunicación','Máster','Comunicación Corporativa') ]::nivel_educativo_ty[],null,'19'),</t>
+  </si>
+  <si>
+    <t>('Poncio',null,'Parker','Palafox','1998-12-02',169,85,'marrón claro','20/200','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4126906680) ,ROW('79005439','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Peregrino','William','Reyes','Ruiz','1977-04-02','primo',ROW(58,2816399931) ), ROW('Daniela','Aidana','Avelar','Recinos','1977-04-02','hermano',ROW(58,2811988078) )]::familiar_ty[], ARRAY[ ROW('61391805','Uganda'),row('37321437','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null), ROW('Ciencias Sociales ','Máster','Acción Internacional Humanitaria') ]::nivel_educativo_ty[],null,'20'),</t>
+  </si>
+  <si>
+    <t>('Alba',null,'Cortez','Alegria','2000-03-08',177,82,'marrón oscuro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2125410031) ,ROW('95370181','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Georgina','Julia','Lazaro','Perales','1979-02-20','primo',ROW(58,2348155511) ), ROW('Pilar','Inocencia','Antonio','Cepeda','1979-02-20','hermano',ROW(58,2347490544) )]::familiar_ty[], ARRAY[ ROW('87604886','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null), ROW('Derecho','Máster','Asesoría Fiscal') ]::nivel_educativo_ty[],null,'21'),</t>
+  </si>
+  <si>
+    <t>('Erika',null,'Ordaz','Tolentino','2000-07-22',169,81,'verde claro','20/125','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4248026444) ,ROW('60663919','Zimbabue'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Emma','Audrey','Verduzco','Gallegos','1980-07-05','tío',ROW(58,2618613576) ), ROW('Flor','Esperanza','Peterson','Sarmiento','1980-07-05','abuelo',ROW(58,2618873728) )]::familiar_ty[], ARRAY[ ROW('68903180','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null), ROW('Criminología','Máster','Química Orgánica') ]::nivel_educativo_ty[],null,'22'),</t>
+  </si>
+  <si>
+    <t>('Carla',null,'Mojica','Campbell','2000-08-27',170,94,'verde oscuro','20/100','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2872184673) ,ROW('55875178','Zimbabue'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Ives','Jorge','Narvaez','Tolentino','1980-09-16','padre',ROW(58,2444007482) ), ROW('Nicolas','Abelardo','Tafoya','Peralta','1980-09-16','abuelo',ROW(58,2441824205) )]::familiar_ty[], ARRAY[ ROW('64316903','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null), ROW('Psicología','Máster','Inteligencia Emocional') ]::nivel_educativo_ty[],null,'23'),</t>
+  </si>
+  <si>
+    <t>('Carmona',null,'Martinez','Olivarez','1996-09-21',160,78,'azul oscuro','20/80','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2439631405) ,ROW('21297551','Zimbabue'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Arturo',null,'Lovato','Hernandes','1938-03-06','madre',ROW(58,4142709232) ), ROW('Aidana','Consuelo','Hidalgo','Rodrigues','1938-03-06','primo',ROW(58,4143519115) )]::familiar_ty[], ARRAY[ ROW('16008566','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'24'),</t>
+  </si>
+  <si>
+    <t>('Sylvia',null,'Caraballo','Velarde','1996-11-16',187,91,'azul claro','20/63','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2816354344) ,ROW('87335595','Australia'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Anunciacion',null,'Osuna','Barcenas','1938-06-18','hermano',ROW(58,4124993684) ), ROW('Juan','Gregorio','Madrid','Larios','1938-06-18','tío',ROW(58,4127625912) )]::familiar_ty[], ARRAY[ ROW('82001914','Australia') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null), ROW('Derecho',null,null) ]::nivel_educativo_ty[],null,'25'),</t>
+  </si>
+  <si>
+    <t>('Maximo',null,'Moncada','Resendez','1997-08-11',156,78,'marrón claro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2345358448) ,ROW('57449563','Australia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Hilda',null,'Landa','Trejo','1942-09-24','hermano',ROW(58,2122343753) ), ROW('Ivan','Vivaldo','Monge','Orozco','1942-09-24','padre',ROW(58,2129315660) )]::familiar_ty[], ARRAY[ ROW('81740777','Australia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null), ROW('Criminología',null,null) ]::nivel_educativo_ty[],null,'26'),</t>
+  </si>
+  <si>
+    <t>('Adolfo',null,'Quinonez','Garces','1997-10-11',163,72,'marrón oscuro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2617363769) ,ROW('82145974','Australia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Atenea',null,'Amaya','Patino','1943-03-10','abuelo',ROW(58,4247245054) ), ROW('Andres','Caligula','Salguero','Cantu','1943-03-10','madre',ROW(58,4249722651) )]::familiar_ty[], ARRAY[ ROW('68985593','Australia') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null), ROW('Psicología',null,null) ]::nivel_educativo_ty[],null,'27'),</t>
+  </si>
+  <si>
+    <t>('Sebastian',null,'Mitchell','Hill','1997-12-16',176,88,'verde claro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2445232015) ,ROW('40398535','Irlanda'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Arturo',null,'Villa','Tejeda','1945-07-24','abuelo',ROW(58,4122758832) ), ROW('Mia','Caridad','Avalos','Castaneda','1945-07-24','hermano',ROW(58,4127852567) )]::familiar_ty[], ARRAY[ ROW('83866017','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'1'),</t>
+  </si>
+  <si>
+    <t>('Heidi',null,'Luciano','Aguayo','1999-09-15',160,75,'verde oscuro','20/25','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4145463103) ,ROW('10430416','Irlanda'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Johanna',null,'Ayala','Bocanegra','1946-05-25','primo',ROW(58,2127534915) ), ROW('Camilo','Breno','Larios','Irizarry','1946-05-25','hermano',ROW(58,2128191465) )]::familiar_ty[], ARRAY[ ROW('57966263','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'2'),</t>
+  </si>
+  <si>
+    <t>('Faustino',null,'Camarillo','Carreno','1999-09-21',158,69,'azul oscuro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4123863122) ,ROW('10358006','Irlanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Ignacio',null,'Gallardo','Corrales','1947-09-12','tío',ROW(58,4249740961) ), ROW('Foster','Hercules','Palma','Palomino','1947-09-12','abuelo',ROW(58,4244723816) )]::familiar_ty[], ARRAY[ ROW('47573672','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null), ROW('Ingeniería Industrial',null,null) ]::nivel_educativo_ty[],null,'3'),</t>
+  </si>
+  <si>
+    <t>('Benigno',null,'Lozano','Garay','2000-04-30',150,93,'azul claro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2128971308) ,ROW('29701057','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Julian',null,'Quezada','Badillo','1948-11-18','padre',ROW(58,2874597150) ), ROW('Ophelia','Genesis','Roman','Reza','1948-11-18','primo',ROW(58,2874240050) )]::familiar_ty[], ARRAY[ ROW('18271133','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null), ROW('Derecho',null,null) ]::nivel_educativo_ty[],null,'4'),</t>
+  </si>
+  <si>
+    <t>('Isabel',null,'Rueda','Carmona','2000-05-30',173,93,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4248454658) ,ROW('63933958','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Cornelio',null,'Ceja','Jaimes','1949-10-09','madre',ROW(58,2435165127) ), ROW('Gladys','Guadalupe','Nelson','Collazo','1949-10-09','tío',ROW(58,2434924208) )]::familiar_ty[], ARRAY[ ROW('24814266','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'5'),</t>
+  </si>
+  <si>
+    <t>('Sharon',null,'Beltran','Gallardo','2000-08-10',190,68,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4122372568) ,ROW('26665609','Holanda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Liliana',null,'Cavazos','Coronado','1949-10-16','hermano',ROW(58,2817829077) ), ROW('Dulce','Aleyda','Jacobo','Farias','1949-10-16','padre',ROW(58,2813321363) )]::familiar_ty[], ARRAY[ ROW('71006982','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'6'),</t>
+  </si>
+  <si>
+    <t>('Constancia',null,'Oviedo','Aguilera','2000-10-30',168,95,'marrón oscuro','20/63','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2125968194) ,ROW('79780068','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Cecilio',null,'Maravilla','Soria','1950-05-20','hermano',ROW(58,2348596344) ), ROW('Ramon','Cesar','Soliz','Alvarenga','1950-05-20','madre',ROW(58,2348248367) )]::familiar_ty[], ARRAY[ ROW('53444396','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null), ROW('Enfermería',null,null) ]::nivel_educativo_ty[],null,'7'),</t>
+  </si>
+  <si>
+    <t>('Cesarino',null,'Zuniga','Anderson','1983-09-15',189,67,'verde claro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4245181326) ,ROW('46812581','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('William',null,'Tellez','Cedillo','1953-04-17','abuelo',ROW(58,2612008037) ), ROW('Margarito','Leopoldo','Araujo','Villarreal','1953-04-17','hermano',ROW(58,2614417755) )]::familiar_ty[], ARRAY[ ROW('19393759','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null), ROW('Ciencias Sociales ',null,null) ]::nivel_educativo_ty[],null,'8'),</t>
+  </si>
+  <si>
+    <t>('Valerio','Adan','Bahena','Deltoro','1984-05-22',189,93,'verde oscuro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2877573363) ,ROW('30832239','Groenlandia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Luisa',null,'Menjivar','Velasquez','1955-08-29','primo',ROW(58,2449524807) ), ROW('Vitalicio','Calixtrato','Medina','Sanabria','1955-08-29','hermano',ROW(58,2442495966) )]::familiar_ty[], ARRAY[ ROW('73035432','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null), ROW('Economía',null,null) ]::nivel_educativo_ty[],null,'9'),</t>
+  </si>
+  <si>
+    <t>('Kevin','Matias','Edwards','Peterson','1984-12-23',164,93,'azul oscuro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2437068602) ,ROW('72328457','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Bertrudis','Lorena','Valerio','Serna','1960-06-20','primo',ROW(58,4147315933) ), ROW('Elba','Amparo','Bejarano','Barboza','1960-06-20','abuelo',ROW(58,4142696192) )]::familiar_ty[], ARRAY[ ROW('76638798','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null), ROW('Economía',null,null) ]::nivel_educativo_ty[],null,'10'),</t>
+  </si>
+  <si>
+    <t>('Soledad','Esmeralda','Moreno','Sullivan','1986-05-03',168,88,'azul claro','20/25','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2812587010) ,ROW('35425090','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Eliana','Dulcinea','Ocampo','Mitchell','1961-09-09','tío',ROW(58,4127044870) ), ROW('Damaris','Corania','Benavides','Cook','1961-09-09','abuelo',ROW(58,4121733860) )]::familiar_ty[], ARRAY[ ROW('48323236','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'11'),</t>
+  </si>
+  <si>
+    <t>('Fiona','Adriana','Soriano','Pedraza','1988-12-02',156,85,'marrón claro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2345817342) ,ROW('13440263','Argentina'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Pedro','Dante','Paez','Ramos','1963-10-06','padre',ROW(58,2129310915) ), ROW('Victor','Leon','Sorto','Velasquez','1963-10-06','primo',ROW(58,2123813639) )]::familiar_ty[], ARRAY[ ROW('75578308','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'12'),</t>
+  </si>
+  <si>
+    <t>('Facundo','Cristian','Ventura','Valladares','1989-01-04',158,73,'marrón oscuro','20/16','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2614299918) ,ROW('84407844','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Agustin','Hugo','Maldonado','Estrella','1965-09-12','madre',ROW(58,4249854877) ), ROW('Silvio','Maximiliano','Granados','Cordova','1965-09-12','madre',ROW(58,4242848593) )]::familiar_ty[], ARRAY[ ROW('58448833','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null), ROW('Ciencias Sociales ',null,null) ]::nivel_educativo_ty[],null,'13'),</t>
+  </si>
+  <si>
+    <t>('Vitalicio','Benjamin','Bennett','Rios','1989-12-17',184,68,'verde claro','20/12.5','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2442568654) ,ROW('70803179','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Yovanni','Ivan','Barbosa','Orosco','1965-11-26','hermano',ROW(58,4125443076) ), ROW('Ayala','Adria','Arriaga','Cota','1965-11-26','hermano',ROW(58,4126156422) )]::familiar_ty[], ARRAY[ ROW('78074279','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null), ROW('Derecho',null,null) ]::nivel_educativo_ty[],null,'14'),</t>
+  </si>
+  <si>
+    <t>('Paula','Laila','Serna','Mora','1990-02-06',188,92,'verde oscuro','20/32','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4146791127) ,ROW('37161273','Taiwán'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Celeste','Jessica','Maravilla','Quiroga','1969-05-14','hermano',ROW(58,2123903684) ), ROW('Perla','Gloria','Lima','Valentin','1969-05-14','hermano',ROW(58,2127207828) )]::familiar_ty[], ARRAY[ ROW('58563573','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null), ROW('Criminología',null,null) ]::nivel_educativo_ty[],null,'15'),</t>
+  </si>
+  <si>
+    <t>('Melina','Bonita','Cardenas','Hill','1990-08-29',176,92,'azul oscuro','20/25','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4126131157) ,ROW('46408339','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Jessica','Brenda','Garcia','Anguiano','1970-11-02','abuelo',ROW(58,4245717595) ), ROW('Ayala','Haydee','Sauceda','Mares','1970-11-02','abuelo',ROW(58,4249805510) )]::familiar_ty[], ARRAY[ ROW('77329158','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null), ROW('Psicología',null,null) ]::nivel_educativo_ty[],null,'16'),</t>
+  </si>
+  <si>
+    <t>('Facunda','Alvara','Prado','Sarmiento','1991-01-29',156,74,'azul claro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2123652151) ,ROW('55725343','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Constantino','Leon','Marte','Recinos','1973-02-13','abuelo',ROW(58,2875640986) ), ROW('Salvador','Eleazar','Madrid','Moore','1973-02-13','abuelo',ROW(58,2872028053) )]::familiar_ty[], ARRAY[ ROW('20057774','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null), ROW('Psicología',null,null) ]::nivel_educativo_ty[],null,'17'),</t>
+  </si>
+  <si>
+    <t>('Matias','Orosio','Segura','Alvarenga','1991-05-26',171,90,'marrón claro','20/16','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4246018945) ,ROW('97301802','Malasia'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Valentin','Fermin','Burgos','Caraballo','1976-01-07','primo',ROW(58,2432604312) ), ROW('Lucrecia','Margarita','Alonzo','Saenz','1976-01-07','primo',ROW(58,2438942180) )]::familiar_ty[], ARRAY[ ROW('96491452','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'18'),</t>
+  </si>
+  <si>
+    <t>('Sabina','Ada','Johnson','Caballero','1992-05-03',173,82,'marrón oscuro','20/12.5','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4123889624) ,ROW('41892711','Uganda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Patricia','Victoria','Munguia','Garcia','1978-09-06','tío',ROW(58,2817601605) ), ROW('Pablo','Orosio','Avendano','Marroquin','1978-09-06','hermano',ROW(58,2812205758) )]::familiar_ty[], ARRAY[ ROW('52453020','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null), ROW('Ingeniería Industrial',null,null) ]::nivel_educativo_ty[],null,'19'),</t>
+  </si>
+  <si>
+    <t>('Jorge','Rafael','Ocampo','Landeros','1992-05-30',166,79,'verde claro','20/10','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2129378742) ,ROW('43907352','Uganda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Pilar','Nathaly','Olmos','Melo','1979-12-29','padre',ROW(58,2347562250) ), ROW('Andres','Orosio','Pichardo','Castanon','1979-12-29','hermano',ROW(58,2342533904) )]::familiar_ty[], ARRAY[ ROW('89222500','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null), ROW('Ciencias Sociales ',null,null) ]::nivel_educativo_ty[],null,'20'),</t>
+  </si>
+  <si>
+    <t>('William','Lorenzo','Miranda','Rueda','1993-05-14',154,80,'verde oscuro','20/125','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4248849646) ,ROW('83638543','Uganda'),ARRAY['inglés','árabe','portugués','francés']::varchar(50)[], ARRAY[ ROW('Maria','Belinda','Angeles','Paniagua','1980-08-09','madre',ROW(58,2613180757) ), ROW('Leonardo','Klement','Bedolla','Bocanegra','1980-08-09','abuelo',ROW(58,2614285356) )]::familiar_ty[], ARRAY[ ROW('34400802','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Derecho',null,null) ]::nivel_educativo_ty[],null,'21'),</t>
+  </si>
+  <si>
+    <t>('Luis','Marcus','Wilson','Tejeda','1993-10-09',152,71,'azul oscuro','20/100','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2876061671) ,ROW('20591543','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Italo','Florindo','Barragan','Salinas','1936-11-09','hermano',ROW(58,2444726599) ), ROW('Genesis','Ana','Davis','Vicente','1936-11-09','abuelo',ROW(58,2444364695) )]::familiar_ty[], ARRAY[ ROW('83831276','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Criminología',null,null) ]::nivel_educativo_ty[],null,'22'),</t>
+  </si>
+  <si>
+    <t>('Constancia','Alma','Payan','Moya','1995-01-09',162,77,'azul claro','20/80','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2439623889) ,ROW('78827566','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Maricruz','Viviana','Moore','Zamora','1936-12-24','hermano',ROW(58,4146736229) ), ROW('Ignacio','Maximo','Wright','Resendez','1936-12-24','primo',ROW(58,4147208172) )]::familiar_ty[], ARRAY[ ROW('88714610','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null), ROW('Psicología',null,null) ]::nivel_educativo_ty[],null,'23'),</t>
+  </si>
+  <si>
+    <t>('Jacobo','Elian','Person','Bianco','1995-07-25',168,90,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2818628825) ,ROW('78760111','Zimbabue'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Cristiano','Fabiano','Toledo','Bustos','1941-01-27','abuelo',ROW(58,4125757111) ), ROW('Eduardo','Juan','Roybal','Escamilla','1941-01-27','tío',ROW(58,4126864181) )]::familiar_ty[], ARRAY[ ROW('69725719','Zimbabue') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'24'),</t>
+  </si>
+  <si>
+    <t>('Klement','Julian','Alonzo','Michel','1998-03-20',162,84,'marrón claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2349771854) ,ROW('26513443','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Eleazar','Cesarino','Pina','Watson','1946-02-25','primo',ROW(58,2121831072) ), ROW('Gloria','Lorena','Valdez','Orozco','1946-02-25','padre',ROW(58,2125162537) )]::familiar_ty[], ARRAY[ ROW('71936329','Australia') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'25'),</t>
+  </si>
+  <si>
+    <t>('Ludmila','Facunda','Almonte','Frias','1998-04-23',150,75,'marrón oscuro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2611966319) ,ROW('37651192','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Felix','Petronilo','Abarca','Melo','1946-05-22','primo',ROW(58,4248943178) ), ROW('Inocencia','Carolina','Menendez','Saldana','1946-05-22','madre',ROW(58,4244701838) )]::familiar_ty[], ARRAY[ ROW('47663659','Australia') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null), ROW('Ingeniería Industrial',null,null) ]::nivel_educativo_ty[],null,'26'),</t>
+  </si>
+  <si>
+    <t>('Imelda','Genesis','Salmeron','Baca','1998-06-27',154,69,'verde claro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2441394891) ,ROW('50097496','Australia'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Celina','Mafalda','Smith','Alcantar','1948-02-28','tío',ROW(58,4129148238) ), ROW('Hermione','Mariluz','Manzanares','Chavez','1948-02-28','hermano',ROW(58,4128491678) )]::familiar_ty[], ARRAY[ ROW('44349776','Australia') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null), ROW('Derecho',null,null) ]::nivel_educativo_ty[],null,'27'),</t>
+  </si>
+  <si>
+    <t>('Libertad','Virginia','Casas','Cornejo','1998-11-21',185,89,'verde oscuro','20/25','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4147719221) ,ROW('38259708','Irlanda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Jesus','Juliano','Gallegos','Curiel','1949-10-23','padre',ROW(58,2124370102) ), ROW('Fabian','Benjamin','Jara','Arguello','1949-10-23','hermano',ROW(58,2123466423) )]::familiar_ty[], ARRAY[ ROW('92025688','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null), ROW('Ingeniería Informática',null,null) ]::nivel_educativo_ty[],null,'1'),</t>
+  </si>
+  <si>
+    <t>('Bruno','Magnus','Quiroga','Ornelas','1998-12-03',157,84,'azul oscuro','20/20','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4124569664) ,ROW('41684975','Irlanda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Cecilio','Owen','Alexander','Adams','1950-10-03','madre',ROW(58,4125599273) ), ROW('Juan','Felix','Najera','Echevarria','1950-10-03','abuelo',ROW(58,4127764031) )]::familiar_ty[], ARRAY[ ROW('85167097','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null), ROW('Comunicación',null,null) ]::nivel_educativo_ty[],null,'2'),</t>
+  </si>
+  <si>
+    <t>('Margarito','Juvenal','Nevarez','Galarza','2000-03-09',178,69,'azul claro','20/16','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2123254147) ,ROW('31161781','Irlanda'),ARRAY['español','inglés','portugués','francés']::varchar(50)[], ARRAY[ ROW('Consolacion','Maximina','Maciel','Robledo','1953-11-30','hermano',ROW(58,2123902078) ), ROW('Tito','Julian','Vallejo','Pinon','1953-11-30','primo',ROW(58,2125157653) )]::familiar_ty[], ARRAY[ ROW('51692195','Irlanda') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null), ROW('Enfermería',null,null) ]::nivel_educativo_ty[],null,'3'),</t>
+  </si>
+  <si>
+    <t>('Clarence','Marsello','Angel','Campos','2000-07-23',150,72,'marrón claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4247746747) ,ROW('95461455','Holanda'),ARRAY['español','inglés','hindi','francés']::varchar(50)[], ARRAY[ ROW('Liliana','Luisa','Carrillo','Cartagena','1956-12-09','hermano',ROW(58,4248753644) ), ROW('Ava','Guadalupe','Suarez','Caballero','1956-12-09','tío',ROW(58,4243759702) )]::familiar_ty[], ARRAY[ ROW('89070480','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null), ROW('Ciencias Sociales ',null,null) ]::nivel_educativo_ty[],null,'4'),</t>
+  </si>
+  <si>
+    <t>('Juliana','Heidi','Archuleta','Sanchez','2000-08-28',183,83,'marrón oscuro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4128605347) ,ROW('70397579','Holanda'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Nadia','Monica','Flores','Correa','1958-01-04','abuelo',ROW(58,2871833565) ), ROW('Victoria','Donatila','Vidal','Gastelum','1958-01-04','padre',ROW(58,2871015224) )]::familiar_ty[], ARRAY[ ROW('21682753','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null), ROW('Economía',null,null) ]::nivel_educativo_ty[],null,'5'),</t>
+  </si>
+  <si>
+    <t>('Ramona','Amelia','Viramontes','Ascencio','1996-09-22',165,65,'verde claro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2126336892) ,ROW('24324067','Holanda'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Marcos','Venancio','Caldera','Alcantara','1959-04-26','abuelo',ROW(58,2437489343) ), ROW('Michael',null,'Montero','Mora','1959-04-26','madre',ROW(58,2439002304) )]::familiar_ty[], ARRAY[ ROW('99331974','Holanda') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null)]::nivel_educativo_ty[],null,'6'),</t>
+  </si>
+  <si>
+    <t>('Elidio','Pablo','Carreno','Villarreal','1996-11-17',185,68,'verde oscuro','20/20','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4243247141) ,ROW('55996693','Groenlandia'),ARRAY['español','inglés','hindi','ruso']::varchar(50)[], ARRAY[ ROW('Jorge','Silvester','Rodrigues','Baez','1959-10-09','primo',ROW(58,2818289334) ), ROW('Lincoln',null,'Alvarenga','Elizondo','1959-10-09','hermano',ROW(58,2811451567) )]::familiar_ty[], ARRAY[ ROW('19951985','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null)]::nivel_educativo_ty[],null,'7'),</t>
+  </si>
+  <si>
+    <t>('Cristian','Feliciano','Montero','Arango','1999-09-22',151,70,'azul oscuro','20/20','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2878878754) ,ROW('57184391','Groenlandia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Constantino','Ciceron','Perez','Manriquez','1960-08-31','tío',ROW(58,2342555652) ), ROW('Alba',null,'Arriola','Duenas','1960-08-31','hermano',ROW(58,2341258931) )]::familiar_ty[], ARRAY[ ROW('77761964','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null)]::nivel_educativo_ty[],null,'8'),</t>
+  </si>
+  <si>
+    <t>('Eneida','Matilde','Velasco','Estevez','2000-04-20',184,81,'azul claro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2436400788) ,ROW('60496679','Groenlandia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Miranda','Maximina','Alonso','Zamora','1961-03-27','padre',ROW(58,2618143518) ), ROW('Pilar',null,'Alvarado','Contreras','1961-03-27','abuelo',ROW(58,2619603694) )]::familiar_ty[], ARRAY[ ROW('87273372','Groenlandia') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null)]::nivel_educativo_ty[],null,'9'),</t>
+  </si>
+  <si>
+    <t>('Bernarda','Anunciacion','Preciado','Botello','2000-05-20',184,85,'marrón claro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2816005098) ,ROW('43182015','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Romeo','Adrian','Damian','Vallejo','1962-06-17','madre',ROW(58,2445730230) ), ROW('Marina',null,'Elizondo','Nunez','1962-06-17','abuelo',ROW(58,2448719411) )]::familiar_ty[], ARRAY[ ROW('10966383','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null)]::nivel_educativo_ty[],null,'10'),</t>
+  </si>
+  <si>
+    <t>('Emperatriz',null,'Farias','Rincon','2000-08-11',160,69,'marrón claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2349745195) ,ROW('96100620','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Amanda','Viviana','Delrio','Solorzano','1963-02-19','hermano',ROW(58,4145248876) ), ROW('Justiniano','Foster','Olivares','Ellis','1963-02-19','primo',ROW(58,4142398177) )]::familiar_ty[], ARRAY[ ROW('83242281','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null)]::nivel_educativo_ty[],null,'11'),</t>
+  </si>
+  <si>
+    <t>('Michael',null,'Moreno','Acuna','2000-10-19',161,77,'marrón oscuro','20/200','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4127567943) ,ROW('53262124','Argentina'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Maximiliano','Pastor','Candelaria','Oropeza','1966-10-10','hermano',ROW(58,4129600176) ), ROW('Alba','Celia','Salcedo','Machado','1966-10-10','madre',ROW(58,4126336569) )]::familiar_ty[], ARRAY[ ROW('45135653','Argentina') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Industrial',null,null)]::nivel_educativo_ty[],null,'12'),</t>
+  </si>
+  <si>
+    <t>('Gabriela',null,'Vallejo','Holguin','1983-09-16',185,69,'verde claro','20/160','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2127249577) ,ROW('61773635','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Gabriel','Caligula','Batista','Moreno','1967-09-29','abuelo',ROW(58,2127118170) ), ROW('Benicio','Victor','Morris','Gray','1967-09-29','hermano',ROW(58,2129537339) )]::familiar_ty[], ARRAY[ ROW('24424049','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Derecho',null,null)]::nivel_educativo_ty[],null,'13'),</t>
+  </si>
+  <si>
+    <t>('Benedicto',null,'Melgar','Arevalo','1984-05-23',171,91,'verde oscuro','20/125','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4247276595) ,ROW('60764539','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Ciceron','Regulo','Luevano','Samaniego','1967-10-01','primo',ROW(58,4243087632) ), ROW('Santiago','Angel','Magallanes','Catalan','1967-10-01','hermano',ROW(58,4244057072) )]::familiar_ty[], ARRAY[ ROW('27164255','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Criminología',null,null)]::nivel_educativo_ty[],null,'14'),</t>
+  </si>
+  <si>
+    <t>('Marcelo',null,'Parada','Alcantar','1984-12-24',170,70,'azul oscuro','20/100','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2878327028) ,ROW('67960470','Taiwán'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Irma','Natividad','Cordova','Torrez','1971-01-05','primo',ROW(58,4129775083) ), ROW('Samuel','Tulio','Rolon','Henderson','1971-01-05','abuelo',ROW(58,4123465129) )]::familiar_ty[], ARRAY[ ROW('66971826','Taiwán') ]::identificacion_ty[], ARRAY[ ROW('Psicología',null,null)]::nivel_educativo_ty[],null,'15'),</t>
+  </si>
+  <si>
+    <t>('Jonathan',null,'Caballero','Hidalgo','1986-05-04',154,92,'azul claro','20/80','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2435512191) ,ROW('19701191','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Vicente','Juliano','Bello','Osuna','1978-12-06','tío',ROW(58,2123813556) ), ROW('Ophelia','Isabella','Pabon','Zambrano','1978-12-06','abuelo',ROW(58,2128236433) )]::familiar_ty[], ARRAY[ ROW('40643665','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Enfermería',null,null)]::nivel_educativo_ty[],null,'16'),</t>
+  </si>
+  <si>
+    <t>('Adria',null,'Hermosillo','Barboza','1988-12-03',181,71,'marrón claro','20/63','confidencial','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2813238222) ,ROW('22224488','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín']::varchar(50)[], ARRAY[ ROW('Marco','Maximiliano','Valadez','Thompson','1979-04-04','padre',ROW(58,4247496491) ), ROW('Paciano','Jose','Lima','Beltran','1979-04-04','primo',ROW(58,4246522598) )]::familiar_ty[], ARRAY[ ROW('26257055','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Ciencias Sociales ',null,null)]::nivel_educativo_ty[],null,'17'),</t>
+  </si>
+  <si>
+    <t>('Alfredo',null,'Flores','Velazquez','1989-01-05',186,83,'marrón oscuro','20/50','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2342317542) ,ROW('73360534','Malasia'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Ana','Carola','Olivares','Rubio','1979-08-01','madre',ROW(58,2872442235) ), ROW('Marcelo','Vicente','Montez','Walker','1979-08-01','hermano',ROW(58,2875732746) )]::familiar_ty[], ARRAY[ ROW('70400497','Malasia') ]::identificacion_ty[], ARRAY[ ROW('Economía',null,null)]::nivel_educativo_ty[],null,'18'),</t>
+  </si>
+  <si>
+    <t>('Tito',null,'Serna','Suarez','1989-12-18',159,83,'verde claro','20/40','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2616448433) ,ROW('85524423','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Carla',null,'Larios','Mazariegos','1980-12-04','hermano',ROW(58,2436426688) ), ROW('Natividad','Fabiola','Samaniego','Castellanos','1980-12-04','hermano',ROW(58,2436435943) )]::familiar_ty[], ARRAY[ ROW('76764416','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Filosofía',null,null)]::nivel_educativo_ty[],null,'19'),</t>
+  </si>
+  <si>
+    <t>('Dulcinea',null,'Angeles','Ordonez','1990-02-07',157,74,'verde oscuro','20/32','no_clasificado','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,2449651706) ,ROW('87801934','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Camila',null,'Garibay','Valle','1936-09-25','hermano',ROW(58,2818305941) ), ROW('Rosa','Mariana','Quiroz','Escobedo','1936-09-25','abuelo',ROW(58,2814604223) )]::familiar_ty[], ARRAY[ ROW('10603633','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Ingeniería Informática',null,null)]::nivel_educativo_ty[],null,'20'),</t>
+  </si>
+  <si>
+    <t>('Amara',null,'Saldana','Delao','1990-08-30',161,88,'azul oscuro','20/25','top_secret','personal_inteligencia_data/foto.png','personal_inteligencia_data/huella_digital.png','personal_inteligencia_data/huella_retina.png',ROW(58,4143413069) ,ROW('35655663','Uganda'),ARRAY['español','inglés','hindi','ruso','mandarín','bengalí']::varchar(50)[], ARRAY[ ROW('Jorge',null,'James','Lopez','1937-04-10','abuelo',ROW(58,2344095037) ), ROW('Myriam','Zoe','Serrano','Ochoa','1937-04-10','abuelo',ROW(58,2347115200) )]::familiar_ty[], ARRAY[ ROW('62452902','Uganda') ]::identificacion_ty[], ARRAY[ ROW('Comunicación',null,null)]::nivel_educativo_ty[],null,'21');</t>
+  </si>
+  <si>
+    <t>&lt;--PERSONAL</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>ESTA MALO</t>
+  </si>
+  <si>
+    <t>INSERT INTO personal_inteligencia (primer_nombre, segundo_nombre, primer_apellido, segundo_apellido, fecha_nacimiento, altura_cm, peso_kg, color_ojos, vision, class_seguridad, fotografia, huella_retina, huella_digital, telefono, licencia_manejo, idiomas, familiares, identificaciones, nivel_educativo, aliases, fk_lugar_ciudad) VALUES</t>
+  </si>
+  <si>
+    <t>Consecuencias de problemas politicos</t>
+  </si>
+  <si>
+    <t>2034-01-06</t>
+  </si>
+  <si>
+    <t>2034-01-09</t>
+  </si>
+  <si>
+    <t>2034-01-20</t>
+  </si>
+  <si>
+    <t>2034-02-14</t>
+  </si>
+  <si>
+    <t>2034-02-09</t>
+  </si>
+  <si>
+    <t>2034-06-09</t>
+  </si>
+  <si>
+    <t>2035-06-09</t>
+  </si>
+  <si>
+    <t>2036-06-09</t>
+  </si>
+  <si>
+    <t>2034-01-10</t>
+  </si>
+  <si>
+    <t>2034-01-07</t>
+  </si>
+  <si>
+    <t>2034-01-21</t>
+  </si>
+  <si>
+    <t>2034-02-15</t>
+  </si>
+  <si>
+    <t>2034-02-10</t>
+  </si>
+  <si>
+    <t>2034-06-10</t>
+  </si>
+  <si>
+    <t>2035-06-10</t>
+  </si>
+  <si>
+    <t>2036-06-10</t>
+  </si>
+  <si>
+    <t>secreta</t>
+  </si>
+  <si>
+    <t>Problemas politicos</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>crudo_contenido/imagen2.jpg</t>
+  </si>
+  <si>
+    <t>crudo_contenido/imagen.jpg</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>2034-01-24</t>
+  </si>
+  <si>
+    <t>2034-06-13</t>
+  </si>
+  <si>
+    <t>2036-06-13</t>
+  </si>
+  <si>
+    <t>2035-03-09</t>
+  </si>
+  <si>
+    <t>2036-03-09</t>
+  </si>
+  <si>
+    <t>2035-10-10</t>
+  </si>
+  <si>
+    <t>2035-11-11</t>
+  </si>
+  <si>
+    <t>2034-12-24</t>
+  </si>
+  <si>
+    <t>2034-03-21</t>
+  </si>
+  <si>
+    <t>2036-09-19</t>
+  </si>
+  <si>
+    <t>2036-08-19</t>
+  </si>
+  <si>
+    <t>2035-11-21</t>
+  </si>
+  <si>
+    <t>2035-05-21</t>
+  </si>
+  <si>
+    <t>2034-03-02</t>
+  </si>
+  <si>
+    <t>2034-12-01</t>
+  </si>
+  <si>
+    <t>2035-08-06</t>
+  </si>
+  <si>
+    <t>2034-08-09</t>
+  </si>
+  <si>
+    <t>2036-03-14</t>
+  </si>
+  <si>
+    <t>2034-10-24</t>
+  </si>
+  <si>
+    <t>abierta</t>
+  </si>
+  <si>
+    <t>tecnica</t>
+  </si>
+  <si>
+    <t>Conflictos entre paises por poder</t>
+  </si>
+  <si>
+    <t>Resultados de los conflictos</t>
+  </si>
+  <si>
+    <t>2035-11-14</t>
+  </si>
+  <si>
+    <t>2034-03-24</t>
+  </si>
+  <si>
+    <t>2035-11-24</t>
+  </si>
+  <si>
+    <t>2036-08-23</t>
+  </si>
+  <si>
+    <t>2035-11-22</t>
+  </si>
+  <si>
+    <t>2035-05-22</t>
+  </si>
+  <si>
+    <t>2034-03-22</t>
+  </si>
+  <si>
+    <t>2034-08-13</t>
+  </si>
+  <si>
+    <t>2036-03-17</t>
+  </si>
+  <si>
+    <t>2034-10-29</t>
+  </si>
+  <si>
+    <t>2035-03-10</t>
+  </si>
+  <si>
+    <t>2035-10-11</t>
+  </si>
+  <si>
+    <t>2035-11-12</t>
+  </si>
+  <si>
+    <t>2034-12-25</t>
+  </si>
+  <si>
+    <t>2036-03-10</t>
+  </si>
+  <si>
+    <t>2036-09-20</t>
+  </si>
+  <si>
+    <t>2036-08-20</t>
+  </si>
+  <si>
+    <t>2034-03-03</t>
+  </si>
+  <si>
+    <t>2034-12-02</t>
+  </si>
+  <si>
+    <t>2035-08-07</t>
+  </si>
+  <si>
+    <t>2034-08-10</t>
+  </si>
+  <si>
+    <t>2036-03-15</t>
+  </si>
+  <si>
+    <t>2034-10-25</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>Conflictos en calle con individuos</t>
+  </si>
+  <si>
+    <t>crudo_contenido/texto2.txt</t>
+  </si>
+  <si>
+    <t>crudo_contenido/texto.txt</t>
+  </si>
+  <si>
+    <t>crudo_contenido/audio.mp3</t>
+  </si>
+  <si>
+    <t>crudo_contenido/formulas.mp4</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>crudo_contenido/imagen3.png</t>
+  </si>
+  <si>
+    <t>crudo_contenido/planos.png</t>
+  </si>
+  <si>
+    <t>Formulas para las empresas</t>
+  </si>
+  <si>
+    <t>Investigacion de planos para construcción</t>
+  </si>
+  <si>
+    <t>Planificación de marketing</t>
   </si>
 </sst>
 </file>
@@ -7633,7 +8254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7647,9 +8268,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8890,7 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="J26" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:C46"/>
     </sheetView>
   </sheetViews>
@@ -11349,10 +11974,10 @@
       <c r="C3" t="s">
         <v>2503</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>2390</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="I3" t="s">
         <v>2502</v>
       </c>
@@ -13179,8 +13804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13227,6 +13852,9 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>205</v>
       </c>
@@ -13272,6 +13900,9 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I30" si="1">CONCATENATE("('",A4,"', ",B4,", ",D4,", ",F4,"),")</f>
         <v>('Est. Dublin', 1, 11, 10),</v>
@@ -13324,6 +13955,10 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="H5">
+        <f>H4+1</f>
+        <v>2</v>
+      </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>('Est. Cork', 1, 12, 11),</v>
@@ -13378,6 +14013,10 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H30" si="7">H5+1</f>
+        <v>3</v>
+      </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>('Est. Galway', 1, 13, 12),</v>
@@ -13417,7 +14056,7 @@
         <v>Est. Amsterdam</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B30" si="7">B4+1</f>
+        <f t="shared" ref="B7:B30" si="8">B4+1</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -13432,6 +14071,10 @@
       </c>
       <c r="G7" t="s">
         <v>27</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
@@ -13472,7 +14115,7 @@
         <v>Est. Roterdam</v>
       </c>
       <c r="B8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -13487,6 +14130,10 @@
       </c>
       <c r="G8" t="s">
         <v>28</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
@@ -13527,7 +14174,7 @@
         <v>Est. Haarlam</v>
       </c>
       <c r="B9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -13542,6 +14189,10 @@
       </c>
       <c r="G9" t="s">
         <v>29</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
@@ -13583,7 +14234,7 @@
         <v>Est. Nuuk</v>
       </c>
       <c r="B10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -13598,6 +14249,10 @@
       </c>
       <c r="G10" t="s">
         <v>30</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
@@ -13639,7 +14294,7 @@
         <v>Est. Qaqortoq</v>
       </c>
       <c r="B11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -13654,6 +14309,10 @@
       </c>
       <c r="G11" t="s">
         <v>31</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
@@ -13695,7 +14354,7 @@
         <v xml:space="preserve">Est. Sisimiut </v>
       </c>
       <c r="B12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -13710,6 +14369,10 @@
       </c>
       <c r="G12" t="s">
         <v>32</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
@@ -13750,7 +14413,7 @@
         <v>Est. Buenos Aires</v>
       </c>
       <c r="B13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C13" t="s">
@@ -13765,6 +14428,10 @@
       </c>
       <c r="G13" t="s">
         <v>33</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
@@ -13804,7 +14471,7 @@
         <v>Est. Ciudad de Cordoba</v>
       </c>
       <c r="B14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C14" t="s">
@@ -13819,6 +14486,10 @@
       </c>
       <c r="G14" t="s">
         <v>34</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
@@ -13831,7 +14502,7 @@
         <v>Est. Rosario</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C15" t="s">
@@ -13846,6 +14517,10 @@
       </c>
       <c r="G15" t="s">
         <v>35</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
@@ -13858,7 +14533,7 @@
         <v>Est. Taipei</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C16" t="s">
@@ -13873,6 +14548,10 @@
       </c>
       <c r="G16" t="s">
         <v>36</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
@@ -13885,7 +14564,7 @@
         <v>Est. Tainan</v>
       </c>
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C17" t="s">
@@ -13900,6 +14579,10 @@
       </c>
       <c r="G17" t="s">
         <v>37</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
@@ -13912,7 +14595,7 @@
         <v>Est. Kaohsiung</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -13927,6 +14610,10 @@
       </c>
       <c r="G18" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
@@ -13939,7 +14626,7 @@
         <v>Est. Kuala Lumpur</v>
       </c>
       <c r="B19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C19" t="s">
@@ -13954,6 +14641,10 @@
       </c>
       <c r="G19" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
@@ -13966,7 +14657,7 @@
         <v>Est. Malaca</v>
       </c>
       <c r="B20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C20" t="s">
@@ -13981,6 +14672,10 @@
       </c>
       <c r="G20" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
@@ -13993,7 +14688,7 @@
         <v>Est. Pulau Pinang</v>
       </c>
       <c r="B21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C21" t="s">
@@ -14008,6 +14703,10 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
@@ -14020,7 +14719,7 @@
         <v>Est. Kampala</v>
       </c>
       <c r="B22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C22" t="s">
@@ -14035,6 +14734,10 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
@@ -14047,7 +14750,7 @@
         <v>Est. Entebbe</v>
       </c>
       <c r="B23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C23" t="s">
@@ -14062,6 +14765,10 @@
       </c>
       <c r="G23" t="s">
         <v>43</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
@@ -14074,7 +14781,7 @@
         <v>Est. Kasese</v>
       </c>
       <c r="B24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C24" t="s">
@@ -14089,6 +14796,10 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
@@ -14101,7 +14812,7 @@
         <v>Est. Harare</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C25" t="s">
@@ -14116,6 +14827,10 @@
       </c>
       <c r="G25" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
@@ -14128,7 +14843,7 @@
         <v>Est. Bulawayo</v>
       </c>
       <c r="B26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C26" t="s">
@@ -14143,6 +14858,10 @@
       </c>
       <c r="G26" t="s">
         <v>46</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
@@ -14155,7 +14874,7 @@
         <v>Est. Chitungwiza</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C27" t="s">
@@ -14170,6 +14889,10 @@
       </c>
       <c r="G27" t="s">
         <v>47</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
@@ -14182,7 +14905,7 @@
         <v>Est. Sidney</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C28" t="s">
@@ -14197,6 +14920,10 @@
       </c>
       <c r="G28" t="s">
         <v>48</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
@@ -14209,7 +14936,7 @@
         <v>Est. Perth</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C29" t="s">
@@ -14224,6 +14951,10 @@
       </c>
       <c r="G29" t="s">
         <v>49</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -14236,7 +14967,7 @@
         <v>Est. Gold Coast</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C30" t="s">
@@ -14251,6 +14982,10 @@
       </c>
       <c r="G30" t="s">
         <v>50</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -14268,7 +15003,7 @@
   <dimension ref="A3:M147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26581,10 +27316,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L591"/>
+  <dimension ref="A1:M591"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M385" sqref="M385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26593,7 +27328,7 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -39467,7 +40202,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>816</v>
       </c>
@@ -39502,7 +40237,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>816</v>
       </c>
@@ -39537,7 +40272,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>816</v>
       </c>
@@ -39572,7 +40307,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>816</v>
       </c>
@@ -39607,7 +40342,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>816</v>
       </c>
@@ -39642,7 +40377,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>816</v>
       </c>
@@ -39677,7 +40412,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>816</v>
       </c>
@@ -39712,7 +40447,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>816</v>
       </c>
@@ -39747,7 +40482,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>816</v>
       </c>
@@ -39782,7 +40517,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>816</v>
       </c>
@@ -39817,7 +40552,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>816</v>
       </c>
@@ -39852,7 +40587,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>816</v>
       </c>
@@ -39887,7 +40622,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>816</v>
       </c>
@@ -39922,7 +40657,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>816</v>
       </c>
@@ -39957,7 +40692,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>816</v>
       </c>
@@ -39992,7 +40727,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>816</v>
       </c>
@@ -40025,6 +40760,12 @@
       </c>
       <c r="K384" t="s">
         <v>819</v>
+      </c>
+      <c r="L384" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M384" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -47280,10 +48021,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47296,6 +48037,10 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -47308,6 +48053,11 @@
         <v>2354</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2628</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
@@ -47349,6 +48099,12 @@
       </c>
       <c r="B6" t="s">
         <v>2365</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>48651</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -47356,166 +48112,1284 @@
         <f>A6+1</f>
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C7">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2033</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A33" si="0">A7+1</f>
         <v>3</v>
       </c>
+      <c r="B8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C26" si="1">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>123123</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>123123</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B10" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>213</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(D11)</f>
+        <v>12123</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B11" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="9">
+        <v>12123</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(D11)</f>
+        <v>12123</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B12" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12123</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B13" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12312</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B14" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="9">
+        <v>312</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B15" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>312</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A27+1</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>H29+1</f>
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" ref="H31:H94" si="2">H30+1</f>
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I84" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" ref="H95:H130" si="3">H94+1</f>
+        <v>67</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="I109" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I127" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="I129" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47523,12 +49397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
@@ -47540,6 +49415,7 @@
     <col min="16" max="16" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -47628,12 +49504,67 @@
         <v>209</v>
       </c>
       <c r="U4" t="s">
-        <v>209</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>2631</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>2640</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="str">
+        <f>CONCATENATE("('",B5,"','",C5,"','",D5,"','",E5,"',",F5,",",G5,", ",H5," ,'",I5,"','",J5,"',",K5,",",L5,",",M5,",",N5,",",O5,",",P5,",",Q5,",'",R5,"',",S5,"),")</f>
+        <v>('crudo_contenido/imagen.jpg','imagen','Problemas politicos','secreta',null,85,  ,'2034-01-06','2034-01-10',2,1,1,1,1,1,1,'2034-01-07',1),</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -47641,207 +49572,1576 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
+      <c r="B6" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>2632</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f>N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="S6">
+        <f>S5+2</f>
+        <v>3</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" ref="U6:U28" si="0">CONCATENATE("('",B6,"','",C6,"','",D6,"','",E6,"',",F6,",",G6,", ",H6," ,'",I6,"','",J6,"',",K6,",",L6,",",M6,",",N6,",",O6,",",P6,",",Q6,",'",R6,"',",S6,"),")</f>
+        <v>('crudo_contenido/imagen.jpg','imagen','Problemas politicos','secreta',null,30,  ,'2034-01-09','null',2,7,2,2,1,1,1,'2034-01-10',3),</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A39" si="0">A6+1</f>
+        <f t="shared" ref="A7:A39" si="1">A6+1</f>
         <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>85</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:N22" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>2641</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S28" si="3">S6+2</f>
+        <v>5</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>('crudo_contenido/imagen.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2034-01-20','2034-01-24',2,8,3,3,1,1,1,'2034-01-21',5),</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="U8" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>('crudo_contenido/imagen.jpg','imagen','Consecuencias de problemas politicos','secreta',null,50,  ,'2034-02-14','null',2,9,4,4,2,2,1,'2034-02-15',7),</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>2643</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="U9" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,60,  ,'2034-02-09','null',2,9,5,5,2,2,1,'2034-02-10',9),</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>85</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>2644</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2034-06-09','2034-06-13',2,8,6,6,2,2,1,'2034-06-10',11),</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>2637</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>2645</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="U11" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,35,  ,'2035-06-09','null',3,9,7,7,3,3,2,'2035-06-10',13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>85</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>2638</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>2646</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2036-06-09','2036-06-13',3,9,8,8,3,3,2,'2036-06-10',15),</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>2656</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>2686</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="U13" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','abierta',null,90,  ,'2035-03-09','null',2,1,1,9,3,3,2,'2035-03-10',17),</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>M13+1</f>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <f>O11+1</f>
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <f>P11+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>2687</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','tecnica',null,75,  ,'2035-10-10','null',2,1,2,10,4,4,2,'2035-10-11',19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="4">M14+1</f>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <f>O12+1</f>
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f>P12+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','secreta',null,100,  ,'2035-11-11','2035-11-14',2,1,3,11,4,4,2,'2035-11-12',21),</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>85</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="5">M15+1</f>
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <f>O13+1</f>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f>P13+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>2689</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="U16" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/texto2.txt','texto','Resultados de los conflictos','abierta',null,85,  ,'2034-12-24','null',2,8,4,12,4,4,2,'2034-12-25',23),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>2677</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="6">M16+1</f>
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:P28" si="7">O14+1</f>
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>2682</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="U17" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','tecnica',null,90,  ,'2034-03-21','2034-03-24',2,8,5,13,5,5,3,'2034-03-22',25),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18" si="8">M17+1</f>
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>2690</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="U18" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','secreta',null,70,  ,'2036-03-09','null',2,1,6,14,5,5,3,'2036-03-10',27),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="9">M18+1</f>
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>2691</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="U19" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','abierta',null,60,  ,'2036-09-19','null',3,8,7,15,5,5,3,'2036-09-20',29),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>2663</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="10">M19+1</f>
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="U20" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','tecnica',null,100,  ,'2036-08-19','2036-08-23',3,2,8,16,6,6,3,'2036-08-20',31),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>2664</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>2678</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>2680</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="U21" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','secreta',null,90,  ,'2035-11-21','2035-11-24',2,2,1,17,6,6,3,'2035-11-22',33),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f>M21+1</f>
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>2681</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="U22" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','abierta',null,30,  ,'2035-05-21','null',2,2,2,18,6,6,3,'2035-05-22',35),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>2666</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23" si="11">M22+1</f>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N29" si="12">N22+1</f>
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>2693</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="U23" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/formulas.mp4','video','Formulas para las empresas','tecnica',null,40,  ,'2034-03-02','null',2,4,3,19,7,7,4,'2034-03-03',37),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24" si="13">M23+1</f>
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>2694</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="U24" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/imagen3.png','imagen','Planificación de marketing','secreta',null,50,  ,'2034-12-01','null',2,3,4,20,7,7,4,'2034-12-02',39),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>2668</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="14">M24+1</f>
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>2695</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="U25" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/planos.png','imagen','Investigacion de planos para construcción','abierta',null,45,  ,'2035-08-06','null',2,8,5,21,7,7,4,'2035-08-07',41),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>95</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>2683</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="15">M25+1</f>
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>2696</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="U26" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/planos.png','imagen','Planificación de marketing','tecnica',null,95,  ,'2034-08-09','2034-08-13',2,3,6,22,8,8,4,'2034-08-10',43),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>90</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>2684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="16">M26+1</f>
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>2697</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="U27" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/imagen3.png','imagen','Planificación de marketing','abierta',null,90,  ,'2036-03-14','2036-03-17',3,3,7,23,8,8,4,'2036-03-15',45),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>85</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28" si="17">M27+1</f>
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>2698</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="U28" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>('crudo_contenido/planos.png','imagen','Investigacion de planos para construcción','abierta',null,85,  ,'2034-10-24','2034-10-29',3,8,8,24,8,8,4,'2034-10-25',47),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>2673</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47850,7 +51150,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8433" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8525" uniqueCount="2752">
   <si>
     <t>id</t>
   </si>
@@ -7943,9 +7943,6 @@
     <t>INICIO</t>
   </si>
   <si>
-    <t>ESTA MALO</t>
-  </si>
-  <si>
     <t>INSERT INTO personal_inteligencia (primer_nombre, segundo_nombre, primer_apellido, segundo_apellido, fecha_nacimiento, altura_cm, peso_kg, color_ojos, vision, class_seguridad, fotografia, huella_retina, huella_digital, telefono, licencia_manejo, idiomas, familiares, identificaciones, nivel_educativo, aliases, fk_lugar_ciudad) VALUES</t>
   </si>
   <si>
@@ -8190,6 +8187,132 @@
   </si>
   <si>
     <t>Planificación de marketing</t>
+  </si>
+  <si>
+    <t>2034-04-09</t>
+  </si>
+  <si>
+    <t>2035-04-09</t>
+  </si>
+  <si>
+    <t>2036-05-21</t>
+  </si>
+  <si>
+    <t>2034-03-13</t>
+  </si>
+  <si>
+    <t>2034-03-14</t>
+  </si>
+  <si>
+    <t>2034-04-9</t>
+  </si>
+  <si>
+    <t>2034-08-21</t>
+  </si>
+  <si>
+    <t>2034-09-12</t>
+  </si>
+  <si>
+    <t>2035-01-20</t>
+  </si>
+  <si>
+    <t>2035-03-02</t>
+  </si>
+  <si>
+    <t>2034-11-11</t>
+  </si>
+  <si>
+    <t>2034-10-10</t>
+  </si>
+  <si>
+    <t>2036-08-06</t>
+  </si>
+  <si>
+    <t>2036-08-09</t>
+  </si>
+  <si>
+    <t>2036-10-10</t>
+  </si>
+  <si>
+    <t>2034-02-01</t>
+  </si>
+  <si>
+    <t>2034-05-27</t>
+  </si>
+  <si>
+    <t>agente de campo encargado del informante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal_inteligencia o empleado confidente. Con arco </t>
+  </si>
+  <si>
+    <t>2034-09-14</t>
+  </si>
+  <si>
+    <t>2035-01-25</t>
+  </si>
+  <si>
+    <t>2035-03-06</t>
+  </si>
+  <si>
+    <t>2034-10-17</t>
+  </si>
+  <si>
+    <t>2034-12-11</t>
+  </si>
+  <si>
+    <t>2035-01-06</t>
+  </si>
+  <si>
+    <t>2036-08-15</t>
+  </si>
+  <si>
+    <t>2036-08-16</t>
+  </si>
+  <si>
+    <t>2036-10-15</t>
+  </si>
+  <si>
+    <t>2034-02-19</t>
+  </si>
+  <si>
+    <t>2034-02-05</t>
+  </si>
+  <si>
+    <t>2034-05-30</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>16-18</t>
+  </si>
+  <si>
+    <t>19-21</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>25-27</t>
+  </si>
+  <si>
+    <t>oficina</t>
+  </si>
+  <si>
+    <t>estacion</t>
   </si>
 </sst>
 </file>
@@ -8254,7 +8377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8268,13 +8391,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11974,10 +12098,10 @@
       <c r="C3" t="s">
         <v>2503</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>2390</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12"/>
       <c r="I3" t="s">
         <v>2502</v>
       </c>
@@ -12411,7 +12535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -13804,8 +13928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48021,10 +48145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A14"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48043,22 +48167,32 @@
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>2728</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -48092,8 +48226,11 @@
       <c r="K5" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -48103,11 +48240,36 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
-        <v>48651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="str">
+        <f>CONCATENATE("('",B6,"', ",C6,", '",D6,"', ",E6,", ",F6,", ",G6,", ",H6,", ",I6,", ",J6,", ",K6,"),")</f>
+        <v>('Ameamezersali', 1, '2034-03-13', 1, 1, 11, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>2</v>
@@ -48116,343 +48278,958 @@
         <v>2504</v>
       </c>
       <c r="C7">
-        <f>C6+1</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" ref="O7:O26" si="0">CONCATENATE("('",B7,"', ",C7,", '",D7,"', ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7,"),")</f>
+        <v>('Cuente', 1, '2034-03-14', 1, 1, 11, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A33" si="0">A7+1</f>
+        <f t="shared" ref="A8:A33" si="1">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>2505</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C26" si="1">C7+1</f>
+        <f>C6+2</f>
         <v>3</v>
       </c>
-      <c r="D8" s="9">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E8">
+        <f>E6+1</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <f>F6+1</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>G7+1</f>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>('Tipini', 3, '2034-04-9', 2, 2, 12, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>2506</v>
       </c>
       <c r="C9">
+        <f>C7+2</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E9">
+        <f>E7+1</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
+        <f>F7+1</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>G7+1</f>
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>('Matella', 3, '2034-04-09', 2, 2, 12, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="9">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>2507</v>
       </c>
       <c r="C10">
+        <f t="shared" ref="C10:C26" si="2">C8+2</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:G26" si="3">E8+1</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G26" si="4">G9+1</f>
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>('Criola', 5, '2035-04-09', 3, 3, 13, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D10" s="9">
-        <v>213</v>
-      </c>
-      <c r="E10" t="str">
-        <f>CONCATENATE(D11)</f>
-        <v>12123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>2508</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>('Mentino', 5, '2036-05-21', 3, 3, 13, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D11" s="9">
-        <v>12123</v>
-      </c>
-      <c r="E11" t="str">
-        <f>CONCATENATE(D11)</f>
-        <v>12123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>2509</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G26" si="5">G11+1</f>
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>('Traccion', 7, '2034-01-06', 4, 4, 14, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12" s="9">
-        <v>12123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>2510</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2750</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2751</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>('Oversta', 7, '2034-08-21', 4, 4, 14, null, null, null, null),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D13" s="9">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>2511</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O14" t="str">
+        <f>CONCATENATE("('",B14,"', ",C14,", '",D14,"', ",E14,", ",F14,", ",G14,", ",H14,", '",I14,"', ",J14,", ",K14,"),")</f>
+        <v>('Inforaza', 9, '2034-09-12', 5, 5, null, 1, '2034-09-14', 11, 4),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D14" s="9">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>2512</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f>H14+1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>2644</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>L14+1</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" ref="O15:O26" si="6">CONCATENATE("('",B15,"', ",C15,", '",D15,"', ",E15,", ",F15,", ",G15,", ",H15,", '",I15,"', ",J15,", ",K15,"),")</f>
+        <v>('Endora', 9, '2035-06-09', 5, 5, null, 2, '2035-06-10', 7, 3),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>2513</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H26" si="7">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L22" si="8">L15+1</f>
+        <v>3</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>2743</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>('Chalida', 11, '2035-01-20', 6, 6, null, 3, '2035-01-25', 10, 4),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D16" s="9">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>2514</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="J17">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>2744</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="6"/>
+        <v>('Trustora', 11, '2035-03-02', 6, 6, null, 4, '2035-03-06', 27, 9),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D17" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>2515</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>('Impaza', 13, '2034-10-10', 7, 7, null, 5, '2034-10-17', 25, 9),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D18" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>2516</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>('Clari', 13, '2034-11-11', 7, 7, null, 6, '2034-12-11', 12, 4),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D19" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>2517</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>2734</v>
+      </c>
+      <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>2747</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>('Monerte', 15, '2034-12-24', 8, 8, null, 7, '2035-01-06', 13, 5),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D20" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>2518</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>2748</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>('Accuenti', 15, '2036-08-06', 8, 8, null, 8, '2036-08-15', 14, 5),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D21" s="9">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>2519</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>('Advazon', 17, '2036-08-09', 9, 9, null, 9, '2036-08-16', 15, 5),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D22" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>2520</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>('Promante', 17, '2036-10-10', 9, 9, null, 10, '2036-10-15', 1, 1),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D23" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>2521</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>2738</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>('Evantino', 19, '2034-02-14', 10, 10, null, 11, '2034-02-19', 4, 2),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D24" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>2522</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>('Advinco', 19, '2034-02-01', 10, 10, null, 12, '2034-02-05', 20, 7),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D25" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>2523</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>2740</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>('Inforwer', 21, '2034-05-27', 11, 11, null, 13, '2034-05-30', 23, 8),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A27+1</f>
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H29">
@@ -48462,9 +49239,9 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H30">
@@ -48475,26 +49252,26 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H94" si="2">H30+1</f>
+        <f t="shared" ref="H31:H94" si="9">H30+1</f>
         <v>3</v>
       </c>
       <c r="I31" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -48503,11 +49280,11 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I33" t="s">
@@ -48516,7 +49293,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I34" t="s">
@@ -48525,7 +49302,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I35" t="s">
@@ -48534,7 +49311,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I36" t="s">
@@ -48543,7 +49320,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I37" t="s">
@@ -48552,7 +49329,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I38" t="s">
@@ -48561,7 +49338,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I39" t="s">
@@ -48570,7 +49347,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I40" t="s">
@@ -48579,7 +49356,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I41" t="s">
@@ -48588,7 +49365,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I42" t="s">
@@ -48597,7 +49374,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I43" t="s">
@@ -48606,7 +49383,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I44" t="s">
@@ -48615,7 +49392,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I45" t="s">
@@ -48624,7 +49401,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I46" t="s">
@@ -48633,7 +49410,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I47" t="s">
@@ -48642,7 +49419,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I48" t="s">
@@ -48651,7 +49428,7 @@
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I49" t="s">
@@ -48660,7 +49437,7 @@
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I50" t="s">
@@ -48669,7 +49446,7 @@
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I51" t="s">
@@ -48678,7 +49455,7 @@
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I52" t="s">
@@ -48687,7 +49464,7 @@
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I53" t="s">
@@ -48696,7 +49473,7 @@
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I54" t="s">
@@ -48705,7 +49482,7 @@
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I55" t="s">
@@ -48714,7 +49491,7 @@
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I56" t="s">
@@ -48723,7 +49500,7 @@
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I57" t="s">
@@ -48732,7 +49509,7 @@
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I58" t="s">
@@ -48741,7 +49518,7 @@
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I59" t="s">
@@ -48750,7 +49527,7 @@
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I60" t="s">
@@ -48759,7 +49536,7 @@
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I61" t="s">
@@ -48768,7 +49545,7 @@
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I62" t="s">
@@ -48777,7 +49554,7 @@
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I63" t="s">
@@ -48786,7 +49563,7 @@
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I64" t="s">
@@ -48795,7 +49572,7 @@
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I65" t="s">
@@ -48804,7 +49581,7 @@
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I66" t="s">
@@ -48813,7 +49590,7 @@
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I67" t="s">
@@ -48822,7 +49599,7 @@
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I68" t="s">
@@ -48831,7 +49608,7 @@
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I69" t="s">
@@ -48840,7 +49617,7 @@
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I70" t="s">
@@ -48849,7 +49626,7 @@
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I71" t="s">
@@ -48858,7 +49635,7 @@
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I72" t="s">
@@ -48867,7 +49644,7 @@
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="I73" t="s">
@@ -48876,7 +49653,7 @@
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="I74" t="s">
@@ -48885,7 +49662,7 @@
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="I75" t="s">
@@ -48894,7 +49671,7 @@
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="I76" t="s">
@@ -48903,7 +49680,7 @@
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="I77" t="s">
@@ -48912,7 +49689,7 @@
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="I78" t="s">
@@ -48921,7 +49698,7 @@
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="I79" t="s">
@@ -48930,7 +49707,7 @@
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="I80" t="s">
@@ -48939,7 +49716,7 @@
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="I81" t="s">
@@ -48948,7 +49725,7 @@
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="I82" t="s">
@@ -48957,7 +49734,7 @@
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="I83" t="s">
@@ -48966,7 +49743,7 @@
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="I84" t="s">
@@ -48975,7 +49752,7 @@
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="I85" t="s">
@@ -48984,7 +49761,7 @@
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="I86" t="s">
@@ -48993,7 +49770,7 @@
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="I87" t="s">
@@ -49002,7 +49779,7 @@
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="I88" t="s">
@@ -49011,7 +49788,7 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="I89" t="s">
@@ -49020,7 +49797,7 @@
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="I90" t="s">
@@ -49029,7 +49806,7 @@
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="I91" t="s">
@@ -49038,7 +49815,7 @@
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="I92" t="s">
@@ -49047,7 +49824,7 @@
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="I93" t="s">
@@ -49056,7 +49833,7 @@
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="I94" t="s">
@@ -49065,7 +49842,7 @@
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95">
-        <f t="shared" ref="H95:H130" si="3">H94+1</f>
+        <f t="shared" ref="H95:H130" si="10">H94+1</f>
         <v>67</v>
       </c>
       <c r="I95" t="s">
@@ -49074,7 +49851,7 @@
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="I96" t="s">
@@ -49083,7 +49860,7 @@
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="I97" t="s">
@@ -49092,7 +49869,7 @@
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="I98" t="s">
@@ -49101,7 +49878,7 @@
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="I99" t="s">
@@ -49110,7 +49887,7 @@
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="I100" t="s">
@@ -49119,7 +49896,7 @@
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="I101" t="s">
@@ -49128,7 +49905,7 @@
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="I102" t="s">
@@ -49137,7 +49914,7 @@
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="I103" t="s">
@@ -49146,7 +49923,7 @@
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="I104" t="s">
@@ -49155,7 +49932,7 @@
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="I105" t="s">
@@ -49164,7 +49941,7 @@
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="I106" t="s">
@@ -49173,7 +49950,7 @@
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="I107" t="s">
@@ -49182,7 +49959,7 @@
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="I108" t="s">
@@ -49191,7 +49968,7 @@
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="I109" t="s">
@@ -49200,7 +49977,7 @@
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="I110" t="s">
@@ -49209,7 +49986,7 @@
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="I111" t="s">
@@ -49218,7 +49995,7 @@
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="I112" t="s">
@@ -49227,7 +50004,7 @@
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="I113" t="s">
@@ -49236,7 +50013,7 @@
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="I114" t="s">
@@ -49245,7 +50022,7 @@
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="I115" t="s">
@@ -49254,7 +50031,7 @@
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="I116" t="s">
@@ -49263,7 +50040,7 @@
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="I117" t="s">
@@ -49272,7 +50049,7 @@
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="I118" t="s">
@@ -49281,7 +50058,7 @@
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="I119" t="s">
@@ -49290,7 +50067,7 @@
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="I120" t="s">
@@ -49299,7 +50076,7 @@
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="I121" t="s">
@@ -49308,7 +50085,7 @@
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="I122" t="s">
@@ -49317,7 +50094,7 @@
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="I123" t="s">
@@ -49326,7 +50103,7 @@
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="I124" t="s">
@@ -49335,7 +50112,7 @@
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="I125" t="s">
@@ -49344,7 +50121,7 @@
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="I126" t="s">
@@ -49353,7 +50130,7 @@
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="I127" t="s">
@@ -49362,7 +50139,7 @@
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="I128" t="s">
@@ -49371,7 +50148,7 @@
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="I129" t="s">
@@ -49380,7 +50157,7 @@
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="I130" t="s">
@@ -49388,6 +50165,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -49397,8 +50178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21:U28"/>
+    <sheetView topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49511,17 +50292,17 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>2648</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>2647</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -49529,11 +50310,11 @@
       <c r="G5">
         <v>85</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>2631</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>2639</v>
+      <c r="I5" s="10" t="s">
+        <v>2630</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>2638</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -49556,15 +50337,15 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>2640</v>
+      <c r="R5" s="11" t="s">
+        <v>2639</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="U5" t="str">
-        <f>CONCATENATE("('",B5,"','",C5,"','",D5,"','",E5,"',",F5,",",G5,", ",H5," ,'",I5,"','",J5,"',",K5,",",L5,",",M5,",",N5,",",O5,",",P5,",",Q5,",'",R5,"',",S5,"),")</f>
-        <v>('crudo_contenido/imagen.jpg','imagen','Problemas politicos','secreta',null,85,  ,'2034-01-06','2034-01-10',2,1,1,1,1,1,1,'2034-01-07',1),</v>
+        <f>CONCATENATE("('",B5,"', '",C5,"', '",D5,"', '",E5,"', ",F5,", ",G5,", ",H5," , '",I5,"', '",J5,"', ",K5,", ",L5,", ",M5,", ",N5,", ",O5,", ",P5,", ",Q5,", '",R5,"', ",S5,"),")</f>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', null, 85,  , '2034-01-06', '2034-01-10', 2, 1, 1, 1, 1, 1, 1, '2034-01-07', 1),</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -49572,17 +50353,17 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>2648</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>2647</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -49590,10 +50371,10 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>2632</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K6">
@@ -49619,34 +50400,34 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" s="12" t="s">
-        <v>2639</v>
+      <c r="R6" s="10" t="s">
+        <v>2638</v>
       </c>
       <c r="S6">
         <f>S5+2</f>
         <v>3</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U28" si="0">CONCATENATE("('",B6,"','",C6,"','",D6,"','",E6,"',",F6,",",G6,", ",H6," ,'",I6,"','",J6,"',",K6,",",L6,",",M6,",",N6,",",O6,",",P6,",",Q6,",'",R6,"',",S6,"),")</f>
-        <v>('crudo_contenido/imagen.jpg','imagen','Problemas politicos','secreta',null,30,  ,'2034-01-09','null',2,7,2,2,1,1,1,'2034-01-10',3),</v>
+        <f>CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', ",J6,", ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', null, 30,  , '2034-01-09', null, 2, 7, 2, 2, 1, 1, 1, '2034-01-10', 3),</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A39" si="1">A6+1</f>
+        <f t="shared" ref="A7:A39" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>2647</v>
+      <c r="B7" s="9" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -49654,11 +50435,11 @@
       <c r="G7">
         <v>85</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>2633</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>2653</v>
+      <c r="I7" s="10" t="s">
+        <v>2632</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>2652</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -49667,11 +50448,11 @@
         <v>8</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:N22" si="2">M6+1</f>
+        <f t="shared" ref="M7:M28" si="1">M6+1</f>
         <v>3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M7:N22" si="2">N6+1</f>
         <v>3</v>
       </c>
       <c r="O7">
@@ -49683,34 +50464,34 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" s="12" t="s">
-        <v>2641</v>
+      <c r="R7" s="10" t="s">
+        <v>2640</v>
       </c>
       <c r="S7">
         <f t="shared" ref="S7:S28" si="3">S6+2</f>
         <v>5</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2034-01-20','2034-01-24',2,8,3,3,1,1,1,'2034-01-21',5),</v>
+        <f t="shared" ref="U6:U28" si="4">CONCATENATE("('",B7,"', '",C7,"', '",D7,"', '",E7,"', ",F7,", ",G7,", ",H7," , '",I7,"', '",J7,"', ",K7,", ",L7,", ",M7,", ",N7,", ",O7,", ",P7,", ",Q7,", '",R7,"', ",S7,"),")</f>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2034-01-20', '2034-01-24', 2, 8, 3, 3, 1, 1, 1, '2034-01-21', 5),</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>2647</v>
+      <c r="B8" s="9" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -49718,10 +50499,10 @@
       <c r="G8">
         <v>50</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>2634</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="10" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K8">
@@ -49731,7 +50512,7 @@
         <v>9</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N8">
@@ -49747,34 +50528,34 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>2642</v>
+      <c r="R8" s="10" t="s">
+        <v>2641</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen.jpg','imagen','Consecuencias de problemas politicos','secreta',null,50,  ,'2034-02-14','null',2,9,4,4,2,2,1,'2034-02-15',7),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 50,  , '2034-02-14', 'null', 2, 9, 4, 4, 2, 2, 1, '2034-02-15', 7),</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>2647</v>
+      <c r="C9" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -49782,10 +50563,10 @@
       <c r="G9">
         <v>60</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>2635</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="10" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K9">
@@ -49795,7 +50576,7 @@
         <v>9</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N9">
@@ -49811,34 +50592,34 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>2643</v>
+      <c r="R9" s="10" t="s">
+        <v>2642</v>
       </c>
       <c r="S9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,60,  ,'2034-02-09','null',2,9,5,5,2,2,1,'2034-02-10',9),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 60,  , '2034-02-09', 'null', 2, 9, 5, 5, 2, 2, 1, '2034-02-10', 9),</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>2647</v>
+      <c r="C10" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -49846,11 +50627,11 @@
       <c r="G10">
         <v>85</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>2636</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>2654</v>
+      <c r="I10" s="10" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>2653</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -49859,7 +50640,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N10">
@@ -49875,34 +50656,34 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>2644</v>
+      <c r="R10" s="10" t="s">
+        <v>2643</v>
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2034-06-09','2034-06-13',2,8,6,6,2,2,1,'2034-06-10',11),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2034-06-09', '2034-06-13', 2, 8, 6, 6, 2, 2, 1, '2034-06-10', 11),</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>2647</v>
+      <c r="C11" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -49910,10 +50691,10 @@
       <c r="G11">
         <v>35</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>2637</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="10" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K11">
@@ -49923,7 +50704,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N11">
@@ -49939,34 +50720,34 @@
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="R11" s="12" t="s">
-        <v>2645</v>
+      <c r="R11" s="10" t="s">
+        <v>2644</v>
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,35,  ,'2035-06-09','null',3,9,7,7,3,3,2,'2035-06-10',13),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 35,  , '2035-06-09', 'null', 3, 9, 7, 7, 3, 3, 2, '2035-06-10', 13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>2647</v>
+      <c r="C12" s="9" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2646</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -49974,11 +50755,11 @@
       <c r="G12">
         <v>85</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>2638</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>2655</v>
+      <c r="I12" s="10" t="s">
+        <v>2637</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>2654</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -49987,7 +50768,7 @@
         <v>9</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N12">
@@ -50003,55 +50784,56 @@
       <c r="Q12">
         <v>2</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>2646</v>
+      <c r="R12" s="10" t="s">
+        <v>2645</v>
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen2.jpg','imagen','Consecuencias de problemas politicos','secreta',null,85,  ,'2036-06-09','2036-06-13',3,9,8,8,3,3,2,'2036-06-10',15),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2036-06-09', '2036-06-13', 3, 9, 8, 8, 3, 3, 2, '2036-06-10', 15),</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>2655</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2674</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>90</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>2656</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
@@ -50066,825 +50848,826 @@
       <c r="Q13">
         <v>2</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>2686</v>
+      <c r="R13" s="10" t="s">
+        <v>2685</v>
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','abierta',null,90,  ,'2035-03-09','null',2,1,1,9,3,3,2,'2035-03-10',17),</v>
+        <f>CONCATENATE("('",B13,"', '",C13,"', '",D13,"', '",E13,"', ",F13,", ",G13,", ",H13," , '",I13,"', ",J13,", ",K13,", ",L13,", ",M13,", ",N13,", ",O13,", ",P13,", ",Q13,", '",R13,"', ",S13,"),")</f>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'abierta', null, 90,  , '2035-03-09', null, 2, 1, 9, 9, 3, 3, 2, '2035-03-10', 17),</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2674</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>75</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>2658</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f>M13+1</f>
-        <v>2</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O14">
-        <f>O11+1</f>
+        <f t="shared" ref="O14:P16" si="5">O11+1</f>
         <v>4</v>
       </c>
       <c r="P14">
-        <f>P11+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
-      <c r="R14" s="12" t="s">
-        <v>2687</v>
+      <c r="R14" s="10" t="s">
+        <v>2686</v>
       </c>
       <c r="S14">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','tecnica',null,75,  ,'2035-10-10','null',2,1,2,10,4,4,2,'2035-10-11',19),</v>
+        <f>CONCATENATE("('",B14,"', '",C14,"', '",D14,"', '",E14,"', ",F14,", ",G14,", ",H14," , '",I14,"', ",J14,", ",K14,", ",L14,", ",M14,", ",N14,", ",O14,", ",P14,", ",Q14,", '",R14,"', ",S14,"),")</f>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'tecnica', null, 75,  , '2035-10-10', null, 2, 1, 10, 10, 4, 4, 2, '2035-10-11', 19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>2675</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2674</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>2659</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>2676</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15" si="4">M14+1</f>
-        <v>3</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O15">
-        <f>O12+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P15">
-        <f>P12+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
-      <c r="R15" s="12" t="s">
-        <v>2688</v>
+      <c r="R15" s="10" t="s">
+        <v>2687</v>
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto2.txt','texto','Conflictos entre paises por poder','secreta',null,100,  ,'2035-11-11','2035-11-14',2,1,3,11,4,4,2,'2035-11-12',21),</v>
+        <f>CONCATENATE("('",B15,"', '",C15,"', '",D15,"', '",E15,"', ",F15,", ",G15,", ",H15," , '",I15,"', ",J15,", ",K15,", ",L15,", ",M15,", ",N15,", ",O15,", ",P15,", ",Q15,", '",R15,"', ",S15,"),")</f>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'secreta', null, 100,  , '2035-11-11', 2035-11-14, 2, 1, 11, 11, 4, 4, 2, '2035-11-12', 21),</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>85</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>12</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>85</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>2660</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16" si="5">M15+1</f>
-        <v>4</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O16">
-        <f>O13+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P16">
-        <f>P13+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>2689</v>
+      <c r="R16" s="10" t="s">
+        <v>2688</v>
       </c>
       <c r="S16">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto2.txt','texto','Resultados de los conflictos','abierta',null,85,  ,'2034-12-24','null',2,8,4,12,4,4,2,'2034-12-25',23),</v>
+        <f>CONCATENATE("('",B16,"', '",C16,"', '",D16,"', '",E16,"', ",F16,", ",G16,", ",H16," , '",I16,"', ",J16,", ",K16,", ",L16,", ",M16,", ",N16,", ",O16,", ",P16,", ",Q16,", '",R16,"', ",S16,"),")</f>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos', 'abierta', null, 85,  , '2034-12-24', null, 2, 8, 12, 12, 4, 4, 2, '2034-12-25', 23),</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>13</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>90</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>2661</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>2677</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17" si="6">M16+1</f>
-        <v>5</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:P28" si="7">O14+1</f>
+        <f t="shared" ref="O17:P28" si="6">O14+1</f>
         <v>5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q17">
         <v>3</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>2682</v>
+      <c r="R17" s="10" t="s">
+        <v>2681</v>
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','tecnica',null,90,  ,'2034-03-21','2034-03-24',2,8,5,13,5,5,3,'2034-03-22',25),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'tecnica', null, 90,  , '2034-03-21', '2034-03-24', 2, 8, 13, 13, 5, 5, 3, '2034-03-22', 25),</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>2656</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>14</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>70</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>2657</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ref="M18" si="8">M17+1</f>
-        <v>6</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q18">
         <v>3</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>2690</v>
+      <c r="R18" s="10" t="s">
+        <v>2689</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','secreta',null,70,  ,'2036-03-09','null',2,1,6,14,5,5,3,'2036-03-10',27),</v>
+        <f>CONCATENATE("('",B18,"', '",C18,"', '",D18,"', '",E18,"', ",F18,", ",G18,", ",H18," , '",I18,"', ",J18,", ",K18,", ",L18,", ",M18,", ",N18,", ",O18,", ",P18,", ",Q18,", '",R18,"', ",S18,"),")</f>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'secreta', null, 70,  , '2036-03-09', null, 2, 1, 14, 14, 5, 5, 3, '2036-03-10', 27),</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>60</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>2662</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ref="M19" si="9">M18+1</f>
-        <v>7</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>2691</v>
+      <c r="R19" s="10" t="s">
+        <v>2690</v>
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/texto.txt','texto','Resultados de los conflictos','abierta',null,60,  ,'2036-09-19','null',3,8,7,15,5,5,3,'2036-09-20',29),</v>
+        <f>CONCATENATE("('",B19,"', '",C19,"', '",D19,"', '",E19,"', ",F19,", ",G19,", ",H19," , '",I19,"', ",J19,", ",K19,", ",L19,", ",M19,", ",N19,", ",O19,", ",P19,", ",Q19,", '",R19,"', ",S19,"),")</f>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'abierta', null, 60,  , '2036-09-19', null, 3, 8, 15, 15, 5, 5, 3, '2036-09-20', 29),</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>2678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>2663</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>2679</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="10">M19+1</f>
-        <v>8</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="O20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>2692</v>
+      <c r="R20" s="10" t="s">
+        <v>2691</v>
       </c>
       <c r="S20">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','tecnica',null,100,  ,'2036-08-19','2036-08-23',3,2,8,16,6,6,3,'2036-08-20',31),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'tecnica', null, 100,  , '2036-08-19', '2036-08-23', 3, 2, 16, 16, 6, 6, 3, '2036-08-20', 31),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>2663</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>2677</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>17</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>90</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>2664</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>2678</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="O21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
-      <c r="R21" s="12" t="s">
-        <v>2680</v>
+      <c r="R21" s="10" t="s">
+        <v>2679</v>
       </c>
       <c r="S21">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','secreta',null,90,  ,'2035-11-21','2035-11-24',2,2,1,17,6,6,3,'2035-11-22',33),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'secreta', null, 90,  , '2035-11-21', '2035-11-24', 2, 2, 17, 17, 6, 6, 3, '2035-11-22', 33),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>2664</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>18</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>2665</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <f>M21+1</f>
-        <v>2</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q22">
         <v>3</v>
       </c>
-      <c r="R22" s="12" t="s">
-        <v>2681</v>
+      <c r="R22" s="10" t="s">
+        <v>2680</v>
       </c>
       <c r="S22">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/audio.mp3','audio','Conflictos en calle con individuos','abierta',null,30,  ,'2035-05-21','null',2,2,2,18,6,6,3,'2035-05-22',35),</v>
+        <f>CONCATENATE("('",B22,"', '",C22,"', '",D22,"', '",E22,"', ",F22,", ",G22,", ",H22," , '",I22,"', ",J22,", ",K22,", ",L22,", ",M22,", ",N22,", ",O22,", ",P22,", ",Q22,", '",R22,"', ",S22,"),")</f>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'abierta', null, 30,  , '2035-05-21', null, 2, 2, 18, 18, 6, 6, 3, '2035-05-22', 35),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2705</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2708</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>40</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>2666</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ref="M23" si="11">M22+1</f>
-        <v>3</v>
-      </c>
       <c r="N23">
-        <f t="shared" ref="N23:N29" si="12">N22+1</f>
+        <f t="shared" ref="N23:N29" si="7">N22+1</f>
         <v>19</v>
       </c>
       <c r="O23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q23">
         <v>4</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>2693</v>
+      <c r="R23" s="10" t="s">
+        <v>2692</v>
       </c>
       <c r="S23">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/formulas.mp4','video','Formulas para las empresas','tecnica',null,40,  ,'2034-03-02','null',2,4,3,19,7,7,4,'2034-03-03',37),</v>
+        <f>CONCATENATE("('",B23,"', '",C23,"', '",D23,"', '",E23,"', ",F23,", ",G23,", ",H23," , '",I23,"', ",J23,", ",K23,", ",L23,", ",M23,", ",N23,", ",O23,", ",P23,", ",Q23,", '",R23,"', ",S23,"),")</f>
+        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', null, 40,  , '2034-03-02', null, 2, 4, 19, 19, 7, 7, 4, '2034-03-03', 37),</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>2666</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>2706</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2710</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>2667</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ref="M24" si="13">M23+1</f>
-        <v>4</v>
-      </c>
       <c r="N24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q24">
         <v>4</v>
       </c>
-      <c r="R24" s="12" t="s">
-        <v>2694</v>
+      <c r="R24" s="10" t="s">
+        <v>2693</v>
       </c>
       <c r="S24">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen3.png','imagen','Planificación de marketing','secreta',null,50,  ,'2034-12-01','null',2,3,4,20,7,7,4,'2034-12-02',39),</v>
+        <f>CONCATENATE("('",B24,"', '",C24,"', '",D24,"', '",E24,"', ",F24,", ",G24,", ",H24," , '",I24,"', ",J24,", ",K24,", ",L24,", ",M24,", ",N24,", ",O24,", ",P24,", ",Q24,", '",R24,"', ",S24,"),")</f>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'secreta', null, 50,  , '2034-12-01', null, 2, 3, 20, 20, 7, 7, 4, '2034-12-02', 39),</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>2707</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2709</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>45</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>2668</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>8</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ref="M25" si="14">M24+1</f>
-        <v>5</v>
-      </c>
       <c r="N25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q25">
         <v>4</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>2695</v>
+      <c r="R25" s="10" t="s">
+        <v>2694</v>
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/planos.png','imagen','Investigacion de planos para construcción','abierta',null,45,  ,'2035-08-06','null',2,8,5,21,7,7,4,'2035-08-07',41),</v>
+        <f>CONCATENATE("('",B25,"', '",C25,"', '",D25,"', '",E25,"', ",F25,", ",G25,", ",H25," , '",I25,"', ",J25,", ",K25,", ",L25,", ",M25,", ",N25,", ",O25,", ",P25,", ",Q25,", '",R25,"', ",S25,"),")</f>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 45,  , '2035-08-06', null, 2, 8, 21, 21, 7, 7, 4, '2035-08-07', 41),</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>2707</v>
+      <c r="B26" s="9" t="s">
+        <v>2706</v>
       </c>
       <c r="C26" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D26" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="E26" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -50892,11 +51675,11 @@
       <c r="G26">
         <v>95</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>2669</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>2683</v>
+      <c r="I26" s="10" t="s">
+        <v>2668</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>2682</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -50905,52 +51688,51 @@
         <v>3</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="15">M25+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q26">
         <v>4</v>
       </c>
-      <c r="R26" s="12" t="s">
-        <v>2696</v>
+      <c r="R26" s="10" t="s">
+        <v>2695</v>
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/planos.png','imagen','Planificación de marketing','tecnica',null,95,  ,'2034-08-09','2034-08-13',2,3,6,22,8,8,4,'2034-08-10',43),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Planificación de marketing', 'tecnica', null, 95,  , '2034-08-09', '2034-08-13', 2, 3, 2, 22, 8, 8, 4, '2034-08-10', 43),</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2706</v>
+      <c r="B27" s="9" t="s">
+        <v>2705</v>
       </c>
       <c r="C27" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D27" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="E27" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -50958,11 +51740,11 @@
       <c r="G27">
         <v>90</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>2670</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>2684</v>
+      <c r="I27" s="10" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>2683</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -50971,52 +51753,51 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="16">M26+1</f>
         <v>7</v>
       </c>
       <c r="N27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q27">
         <v>4</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>2697</v>
+      <c r="R27" s="10" t="s">
+        <v>2696</v>
       </c>
       <c r="S27">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/imagen3.png','imagen','Planificación de marketing','abierta',null,90,  ,'2036-03-14','2036-03-17',3,3,7,23,8,8,4,'2036-03-15',45),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'abierta', null, 90,  , '2036-03-14', '2036-03-17', 3, 3, 7, 23, 8, 8, 4, '2036-03-15', 45),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>2707</v>
+      <c r="B28" s="9" t="s">
+        <v>2706</v>
       </c>
       <c r="C28" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D28" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="E28" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -51024,11 +51805,11 @@
       <c r="G28">
         <v>85</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>2671</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>2685</v>
+      <c r="I28" s="10" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>2684</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -51037,15 +51818,14 @@
         <v>8</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28" si="17">M27+1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P28">
@@ -51054,88 +51834,88 @@
       <c r="Q28">
         <v>4</v>
       </c>
-      <c r="R28" s="12" t="s">
-        <v>2698</v>
+      <c r="R28" s="10" t="s">
+        <v>2697</v>
       </c>
       <c r="S28">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="0"/>
-        <v>('crudo_contenido/planos.png','imagen','Investigacion de planos para construcción','abierta',null,85,  ,'2034-10-24','2034-10-29',3,8,8,24,8,8,4,'2034-10-25',47),</v>
+        <f t="shared" si="4"/>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85,  , '2034-10-24', '2034-10-29', 3, 8, 10, 24, 8, 8, 4, '2034-10-25', 47),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="N29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\bases-dos\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8525" uniqueCount="2752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8501" uniqueCount="2752">
   <si>
     <t>id</t>
   </si>
@@ -8394,11 +8394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12098,10 +12098,10 @@
       <c r="C3" t="s">
         <v>2503</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>2390</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="14"/>
       <c r="I3" t="s">
         <v>2502</v>
       </c>
@@ -48147,7 +48147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
@@ -48178,19 +48178,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>2727</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>2728</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -48246,10 +48246,10 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>11</v>
       </c>
       <c r="H6" t="s">
@@ -48286,10 +48286,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>11</v>
       </c>
       <c r="H7" t="s">
@@ -48305,7 +48305,7 @@
         <v>9</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ref="O7:O26" si="0">CONCATENATE("('",B7,"', ",C7,", '",D7,"', ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7,"),")</f>
+        <f t="shared" ref="O7:O13" si="0">CONCATENATE("('",B7,"', ",C7,", '",D7,"', ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7,"),")</f>
         <v>('Cuente', 1, '2034-03-14', 1, 1, 11, null, null, null, null),</v>
       </c>
     </row>
@@ -48328,7 +48328,7 @@
         <f>E6+1</f>
         <v>2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f>F6+1</f>
         <v>2</v>
       </c>
@@ -48372,7 +48372,7 @@
         <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>F7+1</f>
         <v>2</v>
       </c>
@@ -48416,12 +48416,12 @@
         <f t="shared" ref="E10:G26" si="3">E8+1</f>
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G26" si="4">G9+1</f>
+        <f t="shared" ref="G10" si="4">G9+1</f>
         <v>13</v>
       </c>
       <c r="H10" t="s">
@@ -48460,7 +48460,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -48504,12 +48504,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G26" si="5">G11+1</f>
+        <f t="shared" ref="G12" si="5">G11+1</f>
         <v>14</v>
       </c>
       <c r="H12" t="s">
@@ -48548,7 +48548,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -48598,7 +48598,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -48647,7 +48647,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -48698,7 +48698,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -48749,7 +48749,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -48800,7 +48800,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -48851,7 +48851,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -48902,7 +48902,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -48953,7 +48953,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -49004,7 +49004,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -49055,7 +49055,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -49099,7 +49099,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -49143,7 +49143,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -49187,7 +49187,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -50178,8 +50178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="R6" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50304,12 +50304,15 @@
       <c r="E5" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="F5">
+        <v>500</v>
       </c>
       <c r="G5">
         <v>85</v>
       </c>
+      <c r="H5">
+        <v>85</v>
+      </c>
       <c r="I5" s="10" t="s">
         <v>2630</v>
       </c>
@@ -50345,7 +50348,7 @@
       </c>
       <c r="U5" t="str">
         <f>CONCATENATE("('",B5,"', '",C5,"', '",D5,"', '",E5,"', ",F5,", ",G5,", ",H5," , '",I5,"', '",J5,"', ",K5,", ",L5,", ",M5,", ",N5,", ",O5,", ",P5,", ",Q5,", '",R5,"', ",S5,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', null, 85,  , '2034-01-06', '2034-01-10', 2, 1, 1, 1, 1, 1, 1, '2034-01-07', 1),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', 500, 85, 85 , '2034-01-06', '2034-01-10', 2, 1, 1, 1, 1, 1, 1, '2034-01-07', 1),</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -50365,11 +50368,14 @@
       <c r="E6" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="F6">
+        <v>550</v>
       </c>
       <c r="G6">
         <v>30</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>2631</v>
@@ -50409,7 +50415,7 @@
       </c>
       <c r="U6" t="str">
         <f>CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', ",J6,", ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', null, 30,  , '2034-01-09', null, 2, 7, 2, 2, 1, 1, 1, '2034-01-10', 3),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos', 'secreta', 550, 30, 10 , '2034-01-09', null, 2, 7, 2, 2, 1, 1, 1, '2034-01-10', 3),</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -50429,12 +50435,16 @@
       <c r="E7" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="F7">
+        <f>F6+10</f>
+        <v>560</v>
       </c>
       <c r="G7">
         <v>85</v>
       </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
       <c r="I7" s="10" t="s">
         <v>2632</v>
       </c>
@@ -50448,11 +50458,11 @@
         <v>8</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M28" si="1">M6+1</f>
+        <f t="shared" ref="M7:M25" si="1">M6+1</f>
         <v>3</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="M7:N22" si="2">N6+1</f>
+        <f t="shared" ref="N7:N22" si="2">N6+1</f>
         <v>3</v>
       </c>
       <c r="O7">
@@ -50472,8 +50482,8 @@
         <v>5</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U6:U28" si="4">CONCATENATE("('",B7,"', '",C7,"', '",D7,"', '",E7,"', ",F7,", ",G7,", ",H7," , '",I7,"', '",J7,"', ",K7,", ",L7,", ",M7,", ",N7,", ",O7,", ",P7,", ",Q7,", '",R7,"', ",S7,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2034-01-20', '2034-01-24', 2, 8, 3, 3, 1, 1, 1, '2034-01-21', 5),</v>
+        <f t="shared" ref="U7:U28" si="4">CONCATENATE("('",B7,"', '",C7,"', '",D7,"', '",E7,"', ",F7,", ",G7,", ",H7," , '",I7,"', '",J7,"', ",K7,", ",L7,", ",M7,", ",N7,", ",O7,", ",P7,", ",Q7,", '",R7,"', ",S7,"),")</f>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 560, 85, 90 , '2034-01-20', '2034-01-24', 2, 8, 3, 3, 1, 1, 1, '2034-01-21', 5),</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -50493,11 +50503,15 @@
       <c r="E8" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="F8">
+        <f t="shared" ref="F8:F28" si="5">F7+10</f>
+        <v>570</v>
       </c>
       <c r="G8">
         <v>50</v>
+      </c>
+      <c r="H8">
+        <v>85</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>2633</v>
@@ -50537,7 +50551,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 50,  , '2034-02-14', 'null', 2, 9, 4, 4, 2, 2, 1, '2034-02-15', 7),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 570, 50, 85 , '2034-02-14', 'null', 2, 9, 4, 4, 2, 2, 1, '2034-02-15', 7),</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -50557,11 +50571,15 @@
       <c r="E9" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>580</v>
       </c>
       <c r="G9">
         <v>60</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>2634</v>
@@ -50601,7 +50619,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 60,  , '2034-02-09', 'null', 2, 9, 5, 5, 2, 2, 1, '2034-02-10', 9),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 580, 60, 90 , '2034-02-09', 'null', 2, 9, 5, 5, 2, 2, 1, '2034-02-10', 9),</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -50621,11 +50639,15 @@
       <c r="E10" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>590</v>
       </c>
       <c r="G10">
         <v>85</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>2635</v>
@@ -50665,7 +50687,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2034-06-09', '2034-06-13', 2, 8, 6, 6, 2, 2, 1, '2034-06-10', 11),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 590, 85, 60 , '2034-06-09', '2034-06-13', 2, 8, 6, 6, 2, 2, 1, '2034-06-10', 11),</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -50685,11 +50707,15 @@
       <c r="E11" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="G11">
         <v>35</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>2636</v>
@@ -50729,7 +50755,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 35,  , '2035-06-09', 'null', 3, 9, 7, 7, 3, 3, 2, '2035-06-10', 13),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 600, 35, 60 , '2035-06-09', 'null', 3, 9, 7, 7, 3, 3, 2, '2035-06-10', 13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -50749,11 +50775,15 @@
       <c r="E12" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>610</v>
       </c>
       <c r="G12">
         <v>85</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>2637</v>
@@ -50793,7 +50823,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', null, 85,  , '2036-06-09', '2036-06-13', 3, 9, 8, 8, 3, 3, 2, '2036-06-10', 15),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos', 'secreta', 610, 85, 70 , '2036-06-09', '2036-06-13', 3, 9, 8, 8, 3, 3, 2, '2036-06-10', 15),</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -50813,10 +50843,14 @@
       <c r="E13" t="s">
         <v>2671</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>620</v>
       </c>
       <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="H13">
         <v>90</v>
       </c>
       <c r="I13" s="10" t="s">
@@ -50857,7 +50891,7 @@
       </c>
       <c r="U13" t="str">
         <f>CONCATENATE("('",B13,"', '",C13,"', '",D13,"', '",E13,"', ",F13,", ",G13,", ",H13," , '",I13,"', ",J13,", ",K13,", ",L13,", ",M13,", ",N13,", ",O13,", ",P13,", ",Q13,", '",R13,"', ",S13,"),")</f>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'abierta', null, 90,  , '2035-03-09', null, 2, 1, 9, 9, 3, 3, 2, '2035-03-10', 17),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'abierta', 620, 90, 90 , '2035-03-09', null, 2, 1, 9, 9, 3, 3, 2, '2035-03-10', 17),</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -50877,11 +50911,15 @@
       <c r="E14" t="s">
         <v>2672</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>630</v>
       </c>
       <c r="G14">
         <v>75</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>2657</v>
@@ -50904,11 +50942,11 @@
         <v>10</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:P16" si="5">O11+1</f>
+        <f t="shared" ref="O14:P16" si="6">O11+1</f>
         <v>4</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q14">
@@ -50923,7 +50961,7 @@
       </c>
       <c r="U14" t="str">
         <f>CONCATENATE("('",B14,"', '",C14,"', '",D14,"', '",E14,"', ",F14,", ",G14,", ",H14," , '",I14,"', ",J14,", ",K14,", ",L14,", ",M14,", ",N14,", ",O14,", ",P14,", ",Q14,", '",R14,"', ",S14,"),")</f>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'tecnica', null, 75,  , '2035-10-10', null, 2, 1, 10, 10, 4, 4, 2, '2035-10-11', 19),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'tecnica', 630, 75, 80 , '2035-10-10', null, 2, 1, 10, 10, 4, 4, 2, '2035-10-11', 19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -50943,11 +50981,15 @@
       <c r="E15" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>640</v>
       </c>
       <c r="G15">
         <v>100</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>2658</v>
@@ -50970,11 +51012,11 @@
         <v>11</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q15">
@@ -50989,7 +51031,7 @@
       </c>
       <c r="U15" t="str">
         <f>CONCATENATE("('",B15,"', '",C15,"', '",D15,"', '",E15,"', ",F15,", ",G15,", ",H15," , '",I15,"', ",J15,", ",K15,", ",L15,", ",M15,", ",N15,", ",O15,", ",P15,", ",Q15,", '",R15,"', ",S15,"),")</f>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'secreta', null, 100,  , '2035-11-11', 2035-11-14, 2, 1, 11, 11, 4, 4, 2, '2035-11-12', 21),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder', 'secreta', 640, 100, 80 , '2035-11-11', 2035-11-14, 2, 1, 11, 11, 4, 4, 2, '2035-11-12', 21),</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -51009,10 +51051,14 @@
       <c r="E16" t="s">
         <v>2671</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>650</v>
       </c>
       <c r="G16">
+        <v>85</v>
+      </c>
+      <c r="H16">
         <v>85</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -51036,11 +51082,11 @@
         <v>12</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q16">
@@ -51055,7 +51101,7 @@
       </c>
       <c r="U16" t="str">
         <f>CONCATENATE("('",B16,"', '",C16,"', '",D16,"', '",E16,"', ",F16,", ",G16,", ",H16," , '",I16,"', ",J16,", ",K16,", ",L16,", ",M16,", ",N16,", ",O16,", ",P16,", ",Q16,", '",R16,"', ",S16,"),")</f>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos', 'abierta', null, 85,  , '2034-12-24', null, 2, 8, 12, 12, 4, 4, 2, '2034-12-25', 23),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos', 'abierta', 650, 85, 85 , '2034-12-24', null, 2, 8, 12, 12, 4, 4, 2, '2034-12-25', 23),</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -51075,11 +51121,15 @@
       <c r="E17" t="s">
         <v>2672</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>660</v>
       </c>
       <c r="G17">
         <v>90</v>
+      </c>
+      <c r="H17">
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>2660</v>
@@ -51102,11 +51152,11 @@
         <v>13</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:P28" si="6">O14+1</f>
+        <f t="shared" ref="O17:P28" si="7">O14+1</f>
         <v>5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q17">
@@ -51121,7 +51171,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'tecnica', null, 90,  , '2034-03-21', '2034-03-24', 2, 8, 13, 13, 5, 5, 3, '2034-03-22', 25),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'tecnica', 660, 90, 95 , '2034-03-21', '2034-03-24', 2, 8, 13, 13, 5, 5, 3, '2034-03-22', 25),</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -51141,11 +51191,15 @@
       <c r="E18" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>670</v>
       </c>
       <c r="G18">
         <v>70</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2656</v>
@@ -51168,11 +51222,11 @@
         <v>14</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q18">
@@ -51187,7 +51241,7 @@
       </c>
       <c r="U18" t="str">
         <f>CONCATENATE("('",B18,"', '",C18,"', '",D18,"', '",E18,"', ",F18,", ",G18,", ",H18," , '",I18,"', ",J18,", ",K18,", ",L18,", ",M18,", ",N18,", ",O18,", ",P18,", ",Q18,", '",R18,"', ",S18,"),")</f>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'secreta', null, 70,  , '2036-03-09', null, 2, 1, 14, 14, 5, 5, 3, '2036-03-10', 27),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'secreta', 670, 70, 60 , '2036-03-09', null, 2, 1, 14, 14, 5, 5, 3, '2036-03-10', 27),</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -51207,10 +51261,14 @@
       <c r="E19" t="s">
         <v>2671</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>680</v>
       </c>
       <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
         <v>60</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -51234,11 +51292,11 @@
         <v>15</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q19">
@@ -51253,7 +51311,7 @@
       </c>
       <c r="U19" t="str">
         <f>CONCATENATE("('",B19,"', '",C19,"', '",D19,"', '",E19,"', ",F19,", ",G19,", ",H19," , '",I19,"', ",J19,", ",K19,", ",L19,", ",M19,", ",N19,", ",O19,", ",P19,", ",Q19,", '",R19,"', ",S19,"),")</f>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'abierta', null, 60,  , '2036-09-19', null, 3, 8, 15, 15, 5, 5, 3, '2036-09-20', 29),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos', 'abierta', 680, 60, 60 , '2036-09-19', null, 3, 8, 15, 15, 5, 5, 3, '2036-09-20', 29),</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -51273,10 +51331,14 @@
       <c r="E20" t="s">
         <v>2672</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>690</v>
       </c>
       <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
         <v>100</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -51300,11 +51362,11 @@
         <v>16</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q20">
@@ -51319,7 +51381,7 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'tecnica', null, 100,  , '2036-08-19', '2036-08-23', 3, 2, 16, 16, 6, 6, 3, '2036-08-20', 31),</v>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'tecnica', 690, 100, 100 , '2036-08-19', '2036-08-23', 3, 2, 16, 16, 6, 6, 3, '2036-08-20', 31),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -51339,11 +51401,15 @@
       <c r="E21" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F21" t="s">
-        <v>9</v>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>700</v>
       </c>
       <c r="G21">
         <v>90</v>
+      </c>
+      <c r="H21">
+        <v>85</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>2663</v>
@@ -51366,11 +51432,11 @@
         <v>17</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q21">
@@ -51385,7 +51451,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'secreta', null, 90,  , '2035-11-21', '2035-11-24', 2, 2, 17, 17, 6, 6, 3, '2035-11-22', 33),</v>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'secreta', 700, 90, 85 , '2035-11-21', '2035-11-24', 2, 2, 17, 17, 6, 6, 3, '2035-11-22', 33),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -51405,10 +51471,14 @@
       <c r="E22" t="s">
         <v>2671</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>710</v>
       </c>
       <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
         <v>30</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -51432,11 +51502,11 @@
         <v>18</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q22">
@@ -51451,7 +51521,7 @@
       </c>
       <c r="U22" t="str">
         <f>CONCATENATE("('",B22,"', '",C22,"', '",D22,"', '",E22,"', ",F22,", ",G22,", ",H22," , '",I22,"', ",J22,", ",K22,", ",L22,", ",M22,", ",N22,", ",O22,", ",P22,", ",Q22,", '",R22,"', ",S22,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'abierta', null, 30,  , '2035-05-21', null, 2, 2, 18, 18, 6, 6, 3, '2035-05-22', 35),</v>
+        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'abierta', 710, 30, 30 , '2035-05-21', null, 2, 2, 18, 18, 6, 6, 3, '2035-05-22', 35),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -51471,11 +51541,15 @@
       <c r="E23" t="s">
         <v>2672</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>720</v>
       </c>
       <c r="G23">
         <v>40</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>2665</v>
@@ -51494,15 +51568,15 @@
         <v>19</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N29" si="7">N22+1</f>
+        <f t="shared" ref="N23:N29" si="8">N22+1</f>
         <v>19</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="P23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q23">
@@ -51517,7 +51591,7 @@
       </c>
       <c r="U23" t="str">
         <f>CONCATENATE("('",B23,"', '",C23,"', '",D23,"', '",E23,"', ",F23,", ",G23,", ",H23," , '",I23,"', ",J23,", ",K23,", ",L23,", ",M23,", ",N23,", ",O23,", ",P23,", ",Q23,", '",R23,"', ",S23,"),")</f>
-        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', null, 40,  , '2034-03-02', null, 2, 4, 19, 19, 7, 7, 4, '2034-03-03', 37),</v>
+        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 720, 40, 35 , '2034-03-02', null, 2, 4, 19, 19, 7, 7, 4, '2034-03-03', 37),</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -51537,11 +51611,15 @@
       <c r="E24" s="9" t="s">
         <v>2646</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>730</v>
       </c>
       <c r="G24">
         <v>50</v>
+      </c>
+      <c r="H24">
+        <v>66</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>2666</v>
@@ -51560,15 +51638,15 @@
         <v>20</v>
       </c>
       <c r="N24">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q24">
@@ -51583,7 +51661,7 @@
       </c>
       <c r="U24" t="str">
         <f>CONCATENATE("('",B24,"', '",C24,"', '",D24,"', '",E24,"', ",F24,", ",G24,", ",H24," , '",I24,"', ",J24,", ",K24,", ",L24,", ",M24,", ",N24,", ",O24,", ",P24,", ",Q24,", '",R24,"', ",S24,"),")</f>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'secreta', null, 50,  , '2034-12-01', null, 2, 3, 20, 20, 7, 7, 4, '2034-12-02', 39),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'secreta', 730, 50, 66 , '2034-12-01', null, 2, 3, 20, 20, 7, 7, 4, '2034-12-02', 39),</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -51603,10 +51681,14 @@
       <c r="E25" t="s">
         <v>2671</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>740</v>
       </c>
       <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="H25">
         <v>45</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -51626,15 +51708,15 @@
         <v>21</v>
       </c>
       <c r="N25">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q25">
@@ -51649,7 +51731,7 @@
       </c>
       <c r="U25" t="str">
         <f>CONCATENATE("('",B25,"', '",C25,"', '",D25,"', '",E25,"', ",F25,", ",G25,", ",H25," , '",I25,"', ",J25,", ",K25,", ",L25,", ",M25,", ",N25,", ",O25,", ",P25,", ",Q25,", '",R25,"', ",S25,"),")</f>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 45,  , '2035-08-06', null, 2, 8, 21, 21, 7, 7, 4, '2035-08-07', 41),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 740, 45, 45 , '2035-08-06', null, 2, 8, 21, 21, 7, 7, 4, '2035-08-07', 41),</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -51669,12 +51751,16 @@
       <c r="E26" t="s">
         <v>2672</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>750</v>
       </c>
       <c r="G26">
         <v>95</v>
       </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
       <c r="I26" s="10" t="s">
         <v>2668</v>
       </c>
@@ -51691,15 +51777,15 @@
         <v>2</v>
       </c>
       <c r="N26">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Q26">
@@ -51714,7 +51800,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Planificación de marketing', 'tecnica', null, 95,  , '2034-08-09', '2034-08-13', 2, 3, 2, 22, 8, 8, 4, '2034-08-10', 43),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Planificación de marketing', 'tecnica', 750, 95, 90 , '2034-08-09', '2034-08-13', 2, 3, 2, 22, 8, 8, 4, '2034-08-10', 43),</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -51734,12 +51820,16 @@
       <c r="E27" t="s">
         <v>2671</v>
       </c>
-      <c r="F27" t="s">
-        <v>9</v>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>760</v>
       </c>
       <c r="G27">
         <v>90</v>
       </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
       <c r="I27" s="10" t="s">
         <v>2669</v>
       </c>
@@ -51756,15 +51846,15 @@
         <v>7</v>
       </c>
       <c r="N27">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Q27">
@@ -51779,7 +51869,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'abierta', null, 90,  , '2036-03-14', '2036-03-17', 3, 3, 7, 23, 8, 8, 4, '2036-03-15', 45),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificación de marketing', 'abierta', 760, 90, 90 , '2036-03-14', '2036-03-17', 3, 3, 7, 23, 8, 8, 4, '2036-03-15', 45),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -51799,12 +51889,16 @@
       <c r="E28" t="s">
         <v>2671</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>770</v>
       </c>
       <c r="G28">
         <v>85</v>
       </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
       <c r="I28" s="10" t="s">
         <v>2670</v>
       </c>
@@ -51821,11 +51915,11 @@
         <v>10</v>
       </c>
       <c r="N28">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P28">
@@ -51843,7 +51937,7 @@
       </c>
       <c r="U28" t="str">
         <f t="shared" si="4"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85,  , '2034-10-24', '2034-10-29', 3, 8, 10, 24, 8, 8, 4, '2034-10-25', 47),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 770, 85, 80 , '2034-10-24', '2034-10-29', 3, 8, 10, 24, 8, 8, 4, '2034-10-25', 47),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -51855,7 +51949,7 @@
         <v>2672</v>
       </c>
       <c r="N29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8501" uniqueCount="2752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8501" uniqueCount="2753">
   <si>
     <t>id</t>
   </si>
@@ -8313,6 +8313,9 @@
   </si>
   <si>
     <t>estacion</t>
+  </si>
+  <si>
+    <t>INSERT INTO informante (nombre_clave, fk_personal_inteligencia_encargado, fk_fecha_inicio_encargado, fk_estacion_encargado, fk_oficina_principal_encargado, fk_empleado_jefe_confidente, fk_personal_inteligencia_confidente, fk_fecha_inicio_confidente, fk_estacion_confidente, fk_oficina_principal_confidente) VALUES</t>
   </si>
 </sst>
 </file>
@@ -48147,8 +48150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48227,7 +48230,7 @@
         <v>2364</v>
       </c>
       <c r="O5" t="s">
-        <v>2354</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -50178,8 +50181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U28"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="2923">
   <si>
     <t>id</t>
   </si>
@@ -7140,9 +7140,6 @@
   </si>
   <si>
     <t>CRUDO</t>
-  </si>
-  <si>
-    <t>INSERT INTO (contenido, tipo_contenido, resumen, fuente, valor_apreciacion, nivel_confiabilidad_inicial, nivel_confiabilidad_final, fecha_obtencion, fecha_verificacion_final, cant_analistas_verifican, fk_clas_tema, fk_informante, fk_estacion_pertenece, fk_oficina_principal_pertenece, fk_estacion_agente, fk_oficina_principal_agente, fk_fecha_inicio_agente, fk_personal_inteligencia_agente) VALUES</t>
   </si>
   <si>
     <t>contenido</t>
@@ -7966,9 +7963,6 @@
     <t>tecnica</t>
   </si>
   <si>
-    <t>audio</t>
-  </si>
-  <si>
     <t>Conflictos en calle con individuos</t>
   </si>
   <si>
@@ -8674,9 +8668,6 @@
     <t>2035-03-09 07:00:00</t>
   </si>
   <si>
-    <t>2035-03-12 07:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">2035-03-09 07:00:00 </t>
   </si>
   <si>
@@ -8830,7 +8821,16 @@
     <t>fk_informante</t>
   </si>
   <si>
-    <t>INSERT INTO transaccion_pago_alt (fecha_hora, monto_pago, fk_crudo, fk_informante) VALUES</t>
+    <t>INSERT INTO crudo (contenido, tipo_contenido, resumen, fuente, valor_apreciacion, nivel_confiabilidad_inicial, nivel_confiabilidad_final, fecha_obtencion, fecha_verificacion_final, cant_analistas_verifican, fk_clas_tema, fk_informante, fk_estacion_pertenece, fk_oficina_principal_pertenece, fk_estacion_agente, fk_oficina_principal_agente, fk_fecha_inicio_agente, fk_personal_inteligencia_agente) VALUES</t>
+  </si>
+  <si>
+    <t>fk_fecha_inicio_confidente, fk_personal_inteligencia_confidente, fk_estacion_confidente, fk_oficina_principal_confidente)=(2034-01-06 01:00:00, 17, 5, 2)</t>
+  </si>
+  <si>
+    <t>sonido</t>
+  </si>
+  <si>
+    <t>INSERT INTO transaccion_pago (fecha_hora, monto_pago, fk_crudo, fk_informante) VALUES</t>
   </si>
 </sst>
 </file>
@@ -8842,7 +8842,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="\.\o\rg\.\ve"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8897,6 +8897,11 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -8958,7 +8963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8984,6 +8989,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8996,14 +9011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10246,7 +10254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O5" sqref="O5:O26"/>
     </sheetView>
   </sheetViews>
@@ -10277,18 +10285,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>2646</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="D4" s="21" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>2644</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10326,7 +10334,7 @@
         <v>2364</v>
       </c>
       <c r="O5" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -10340,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -10374,14 +10382,14 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C7" s="11">
         <f>C6+2</f>
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10415,14 +10423,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ref="C8:C16" si="2">C7+2</f>
         <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E8">
         <f>E6+1</f>
@@ -10458,14 +10466,14 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E9">
         <f>E7+1</f>
@@ -10501,14 +10509,14 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:G26" si="3">E8+1</f>
@@ -10544,14 +10552,14 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -10587,14 +10595,14 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -10630,14 +10638,14 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -10663,10 +10671,10 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="M13" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -10679,14 +10687,14 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -10701,8 +10709,8 @@
       <c r="H14">
         <v>17</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>2868</v>
+      <c r="I14" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -10714,11 +10722,11 @@
         <v>1</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="O14" t="str">
         <f>CONCATENATE("('",B14,"', ",C14,", '",D14,"', ",E14,", ",F14,", ",G14,", ",H14,", '",I14,"', ",J14,", ",K14,"),")</f>
-        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 17, '2034-01-06 01:00:00', 5, 2),</v>
+        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10727,14 +10735,14 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
@@ -10749,8 +10757,8 @@
       <c r="H15">
         <v>19</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>2867</v>
+      <c r="I15" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -10763,11 +10771,11 @@
         <v>2</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" ref="O15:O26" si="6">CONCATENATE("('",B15,"', ",C15,", '",D15,"', ",E15,", ",F15,", ",G15,", ",H15,", '",I15,"', ",J15,", ",K15,"),")</f>
-        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 19, '2034-01-05 01:00:00', 5, 2),</v>
+        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 19, '2034-01-06 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10776,14 +10784,14 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
@@ -10798,8 +10806,8 @@
       <c r="H16">
         <v>21</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>2868</v>
+      <c r="I16" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -10812,11 +10820,11 @@
         <v>3</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="6"/>
-        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 21, '2034-01-06 01:00:00', 6, 2),</v>
+        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 21, '2034-01-05 01:00:00', 6, 2),</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10825,13 +10833,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="C17" s="14">
         <v>101</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -10846,7 +10854,7 @@
         <v>101</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J17">
         <v>27</v>
@@ -10859,7 +10867,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="6"/>
@@ -10872,13 +10880,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>2870</v>
+      <c r="D18" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -10890,10 +10898,10 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>2870</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -10906,11 +10914,11 @@
         <v>5</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="6"/>
-        <v>('Impaza', 1, '2035-03-12 07:00:00', 1, 1, null, 2, '2035-03-12 07:00:00', 1, 1),</v>
+        <v>('Impaza', 1, '2034-01-05 01:00:00', 1, 1, null, 1, '2034-01-05 01:00:00', 1, 1),</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10919,14 +10927,14 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C19" s="11">
         <f>C18+2</f>
         <v>3</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>2869</v>
+      <c r="D19" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -10937,12 +10945,12 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="11">
         <f>H18+2</f>
-        <v>4</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>2869</v>
+        <v>3</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -10955,11 +10963,11 @@
         <v>6</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="6"/>
-        <v>('Clari', 3, '2035-03-09 07:00:00', 1, 1, null, 4, '2035-03-09 07:00:00', 1, 1),</v>
+        <v>('Clari', 3, '2034-01-06 01:00:00', 1, 1, null, 3, '2034-01-06 01:00:00', 1, 1),</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -10968,14 +10976,14 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" ref="C20:C26" si="8">C19+2</f>
         <v>5</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>2870</v>
+      <c r="D20" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -10987,12 +10995,12 @@
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="11">
         <f t="shared" ref="H20:H26" si="9">H19+2</f>
-        <v>6</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>2870</v>
+        <v>5</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J20">
         <f t="shared" ref="J20" si="10">J18+1</f>
@@ -11006,11 +11014,11 @@
         <v>7</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="6"/>
-        <v>('Monerte', 5, '2035-03-12 07:00:00', 2, 1, null, 6, '2035-03-12 07:00:00', 2, 1),</v>
+        <v>('Monerte', 5, '2034-01-05 01:00:00', 2, 1, null, 5, '2034-01-05 01:00:00', 2, 1),</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -11019,14 +11027,14 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>2869</v>
+      <c r="D21" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
@@ -11038,12 +11046,12 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="11">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>2869</v>
+        <v>7</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21" si="11">J19+1</f>
@@ -11057,11 +11065,11 @@
         <v>8</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="6"/>
-        <v>('Accuenti', 7, '2035-03-09 07:00:00', 2, 1, null, 8, '2035-03-09 07:00:00', 2, 1),</v>
+        <v>('Accuenti', 7, '2034-01-06 01:00:00', 2, 1, null, 7, '2034-01-06 01:00:00', 2, 1),</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -11070,14 +11078,14 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>2870</v>
+      <c r="D22" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
@@ -11089,12 +11097,12 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>2870</v>
+        <v>9</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="12">J20+1</f>
@@ -11108,11 +11116,11 @@
         <v>9</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="6"/>
-        <v>('Advazon', 9, '2035-03-12 07:00:00', 3, 1, null, 10, '2035-03-12 07:00:00', 3, 1),</v>
+        <v>('Advazon', 9, '2034-01-05 01:00:00', 3, 1, null, 9, '2034-01-05 01:00:00', 3, 1),</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -11121,14 +11129,14 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>2869</v>
+      <c r="D23" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
@@ -11140,12 +11148,12 @@
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="11">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>2869</v>
+        <v>11</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23" si="13">J21+1</f>
@@ -11156,7 +11164,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" si="6"/>
-        <v>('Promante', 11, '2035-03-09 07:00:00', 3, 1, null, 12, '2035-03-09 07:00:00', 3, 1),</v>
+        <v>('Promante', 11, '2034-01-06 01:00:00', 3, 1, null, 11, '2034-01-06 01:00:00', 3, 1),</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11165,42 +11173,42 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>2870</v>
+      <c r="D24" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="11">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>2870</v>
+        <v>13</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24" si="14">J22+1</f>
         <v>4</v>
       </c>
       <c r="K24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="6"/>
-        <v>('Evantino', 13, '2035-03-12 07:00:00', 4, 1, null, 14, '2035-03-12 07:00:00', 4, 1),</v>
+        <v>('Evantino', 13, '2034-01-05 01:00:00', 4, 2, null, 13, '2034-01-05 01:00:00', 4, 2),</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11209,14 +11217,14 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>2869</v>
+      <c r="D25" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
@@ -11228,12 +11236,12 @@
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="11">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>2869</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>2866</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25" si="15">J23+1</f>
@@ -11244,7 +11252,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="6"/>
-        <v>('Advinco', 15, '2035-03-09 07:00:00', 4, 2, null, 16, '2035-03-09 07:00:00', 4, 2),</v>
+        <v>('Advinco', 15, '2034-01-06 01:00:00', 4, 2, null, 15, '2034-01-06 01:00:00', 4, 2),</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11253,14 +11261,14 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>2870</v>
+      <c r="D26" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
@@ -11272,12 +11280,12 @@
       <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="11">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>2870</v>
+        <v>17</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>2865</v>
       </c>
       <c r="J26">
         <f t="shared" ref="J26" si="16">J24+1</f>
@@ -11288,7 +11296,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="6"/>
-        <v>('Inforwer', 17, '2035-03-12 07:00:00', 5, 2, null, 18, '2035-03-12 07:00:00', 5, 2),</v>
+        <v>('Inforwer', 17, '2034-01-05 01:00:00', 5, 2, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11303,7 +11311,7 @@
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11312,13 +11320,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -11327,14 +11335,14 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="H30">
         <f>H29+1</f>
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -11343,14 +11351,14 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H94" si="17">H30+1</f>
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -11359,14 +11367,14 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="H32">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -11375,1698 +11383,1698 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="H33">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="H34">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="H35">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="H36">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="H37">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="H38">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="H39">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="H40">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="H41">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="H42">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="H43">
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="H44">
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="H45">
         <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="H46">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="H47">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="H48">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="H49">
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="H50">
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="H51">
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="H52">
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="H53">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="H54">
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="H55">
         <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="H56">
         <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="H57">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="H58">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="H59">
         <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="H60">
         <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="H61">
         <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="H62">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="H63">
         <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="H64">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="H65">
         <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="H66">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="I66" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="H67">
         <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="H68">
         <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="H69">
         <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="I69" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="H70">
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="I70" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="H71">
         <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="H72">
         <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="I72" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="H73">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="I73" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="H74">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="H75">
         <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="H76">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="H77">
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="I77" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="H78">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="I78" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="H79">
         <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="I79" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="H80">
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="I80" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="H81">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
       <c r="I81" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="H82">
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="I82" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="H83">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="I83" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="H84">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="I84" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="H85">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="I85" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="H86">
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="I86" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="H87">
         <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="I87" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="H88">
         <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="I88" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="H89">
         <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="I89" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="H90">
         <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="I90" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="H91">
         <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="H92">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="I92" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="H93">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="I93" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="H94">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="I94" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="H95">
         <f t="shared" ref="H95:H130" si="18">H94+1</f>
         <v>67</v>
       </c>
       <c r="I95" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="H96">
         <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="I96" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="H97">
         <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="I97" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="H98">
         <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="I98" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="H99">
         <f t="shared" si="18"/>
         <v>71</v>
       </c>
       <c r="I99" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="H100">
         <f t="shared" si="18"/>
         <v>72</v>
       </c>
       <c r="I100" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="H101">
         <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="I101" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="H102">
         <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="I102" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="H103">
         <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="I103" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="H104">
         <f t="shared" si="18"/>
         <v>76</v>
       </c>
       <c r="I104" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="H105">
         <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="I105" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="H106">
         <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="I106" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="H107">
         <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="I107" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="H108">
         <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="H109">
         <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="H110">
         <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="I110" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="H111">
         <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="I111" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="H112">
         <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="I112" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="H113">
         <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="I113" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="H114">
         <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="I114" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="H115">
         <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="I115" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="H116">
         <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="I116" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="H117">
         <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="I117" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="H118">
         <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="H119">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="I119" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="H120">
         <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="I120" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="H121">
         <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="I121" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="H122">
         <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="I122" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="H123">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="I123" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="H124">
         <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="I124" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="H125">
         <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="I125" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="H126">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="I126" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="H127">
         <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="I127" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="H128">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I128" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="H129">
         <f t="shared" si="18"/>
         <v>101</v>
       </c>
       <c r="I129" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="H130">
         <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="I130" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
   </sheetData>
@@ -13083,8 +13091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13112,93 +13120,93 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>2367</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="H3" t="s">
         <v>2386</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>2387</v>
       </c>
-      <c r="J3" t="s">
-        <v>2388</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>2873</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18" t="s">
-        <v>2872</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
+      <c r="N3" s="22" t="s">
+        <v>2870</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22" t="s">
+        <v>2869</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C4" t="s">
         <v>2368</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2369</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2370</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2371</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>2372</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>2373</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>2374</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>2375</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>2376</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>2377</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>2378</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>2379</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>2380</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>2381</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>2382</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>2383</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>2384</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2385</v>
       </c>
       <c r="T4" t="s">
         <v>209</v>
       </c>
       <c r="U4" t="s">
-        <v>2367</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13206,16 +13214,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -13227,10 +13235,10 @@
         <v>85</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>2892</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>2868</v>
+        <v>2889</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13254,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -13270,16 +13278,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F6">
         <v>550</v>
@@ -13291,10 +13299,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>2867</v>
+        <v>2890</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -13319,10 +13327,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S28" si="2">S5+2</f>
+        <f t="shared" ref="S6:S27" si="2">S5+2</f>
         <v>3</v>
       </c>
       <c r="U6" t="str">
@@ -13336,16 +13344,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F28" si="4">F6+10</f>
@@ -13358,10 +13366,10 @@
         <v>90</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>2892</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>2867</v>
+        <v>2889</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13388,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
@@ -13405,16 +13413,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
@@ -13427,10 +13435,10 @@
         <v>85</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>2868</v>
+        <v>2890</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -13456,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
@@ -13473,16 +13481,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
@@ -13495,10 +13503,10 @@
         <v>90</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>2894</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>2867</v>
+        <v>2891</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -13518,14 +13526,14 @@
         <v>1</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" ref="P9:P28" si="5">P7+1</f>
+        <f t="shared" ref="P9:P27" si="5">P7+1</f>
         <v>3</v>
       </c>
       <c r="Q9" s="16">
         <v>1</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
@@ -13542,16 +13550,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
@@ -13564,10 +13572,10 @@
         <v>60</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>2867</v>
+        <v>2890</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -13593,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
@@ -13610,16 +13618,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
@@ -13632,7 +13640,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>9</v>
@@ -13662,7 +13670,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
@@ -13679,16 +13687,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
@@ -13701,10 +13709,10 @@
         <v>70</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>2896</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>2867</v>
+        <v>2893</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13730,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
@@ -13747,16 +13755,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="C13" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D13" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="E13" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
@@ -13769,10 +13777,10 @@
         <v>90</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>2897</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>2867</v>
+        <v>2894</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -13798,7 +13806,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
@@ -13815,16 +13823,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="C14" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E14" t="s">
         <v>2632</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2885</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2633</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
@@ -13837,10 +13845,10 @@
         <v>80</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>2898</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>2867</v>
+        <v>2895</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13866,7 +13874,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -13883,16 +13891,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="C15" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D15" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
@@ -13905,10 +13913,10 @@
         <v>80</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>2899</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>2868</v>
+        <v>2896</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13933,14 +13941,14 @@
         <v>2</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="3"/>
@@ -13953,16 +13961,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="C16" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D16" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="E16" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
@@ -13975,10 +13983,10 @@
         <v>85</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>2868</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>2868</v>
+        <v>2866</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -13997,14 +14005,14 @@
         <f>O13+1</f>
         <v>3</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="17">
         <v>27</v>
       </c>
       <c r="Q16">
         <v>9</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S16" s="14">
         <v>101</v>
@@ -14020,16 +14028,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C17" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E17" t="s">
         <v>2632</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2884</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2633</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
@@ -14042,10 +14050,10 @@
         <v>95</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>2867</v>
+        <v>2890</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -14071,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -14087,16 +14095,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D18" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
@@ -14109,10 +14117,10 @@
         <v>60</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>2900</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>2867</v>
+        <v>2897</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -14136,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S18" s="11">
         <f>S17+2</f>
@@ -14153,16 +14161,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C19" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D19" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="E19" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
@@ -14175,10 +14183,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>2901</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>2868</v>
+        <v>2898</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -14204,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" ref="S19:S25" si="6">S18+2</f>
@@ -14221,16 +14229,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="C20" t="s">
-        <v>2634</v>
+        <v>2921</v>
       </c>
       <c r="D20" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="E20" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
@@ -14243,7 +14251,7 @@
         <v>100</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>9</v>
@@ -14272,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" si="6"/>
@@ -14280,7 +14288,7 @@
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE("('",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", ",G20,", ",H20," , '",I20,"', ",J20,", ",K20,", ",L20,", ",M20,", ",N20,", ",O20,", ",P20,", ",Q20,", '",R20,"', ",S20,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 100, 100 , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 100, 100 , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14289,16 +14297,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="C21" t="s">
-        <v>2634</v>
+        <v>2921</v>
       </c>
       <c r="D21" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
@@ -14311,10 +14319,10 @@
         <v>85</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>2903</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>2868</v>
+        <v>2900</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14339,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S21" s="11">
         <f t="shared" si="6"/>
@@ -14347,7 +14355,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Agresion de grupo de personas en la via publica', 'secreta', 700, 90, 85 , '2034-03-12 01:00:00', '2034-01-06 01:00:00', 2, 2, 11, 6, 2, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 700, 90, 85 , '2034-03-12 01:00:00', '2034-01-06 01:00:00', 2, 2, 11, 6, 2, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14356,16 +14364,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="C22" t="s">
-        <v>2634</v>
+        <v>2921</v>
       </c>
       <c r="D22" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="E22" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
@@ -14378,10 +14386,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>2904</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>2868</v>
+        <v>2901</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -14407,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="6"/>
@@ -14415,7 +14423,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'audio', 'Conflictos en calle con individuos', 'abierta', 710, 30, 30 , '2035-01-06 01:00:00', '2034-01-06 01:00:00', 2, 2, null, 7, 3, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 710, 30, 30 , '2035-01-06 01:00:00', '2034-01-06 01:00:00', 2, 2, null, 7, 3, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14424,16 +14432,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C23" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D23" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="E23" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
@@ -14446,10 +14454,10 @@
         <v>35</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>2905</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>2868</v>
+        <v>2902</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -14475,7 +14483,7 @@
         <v>2</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" si="6"/>
@@ -14492,16 +14500,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C24" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D24" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
@@ -14514,10 +14522,10 @@
         <v>66</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>2897</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>2868</v>
+        <v>2894</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -14542,7 +14550,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" si="6"/>
@@ -14559,16 +14567,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D25" t="s">
         <v>2642</v>
       </c>
-      <c r="C25" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2644</v>
-      </c>
       <c r="E25" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
@@ -14581,10 +14589,10 @@
         <v>45</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>2906</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>2868</v>
+        <v>2903</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -14610,7 +14618,7 @@
         <v>2</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" si="6"/>
@@ -14627,16 +14635,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="C26" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D26" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="E26" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
@@ -14649,10 +14657,10 @@
         <v>90</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>2907</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>2868</v>
+        <v>2904</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>2866</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -14678,7 +14686,7 @@
         <v>2</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
@@ -14695,16 +14703,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C27" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D27" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="E27" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -14717,7 +14725,7 @@
         <v>90</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>9</v>
@@ -14746,7 +14754,7 @@
         <v>2</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
@@ -14763,16 +14771,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D28" t="s">
         <v>2642</v>
       </c>
-      <c r="C28" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2644</v>
-      </c>
       <c r="E28" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
@@ -14785,10 +14793,10 @@
         <v>80</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>2909</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>2867</v>
+        <v>2906</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>2865</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -14813,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -14829,7 +14837,7 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="N29">
         <f t="shared" ref="N29" si="8">N28+1</f>
@@ -14910,60 +14918,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="17" t="s">
-        <v>2914</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="21" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>2912</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2913</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="H3" t="s">
         <v>2915</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>2916</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2917</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2918</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>2867</v>
+      <c r="B4" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -14971,13 +14979,13 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>2867</v>
+      <c r="E4" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
       <c r="H4">
@@ -14993,8 +15001,8 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>2868</v>
+      <c r="B5" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -15002,13 +15010,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>2868</v>
+      <c r="E5" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="H5">
@@ -15024,8 +15032,8 @@
         <f t="shared" ref="A6:A51" si="1">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>2867</v>
+      <c r="B6" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -15033,13 +15041,13 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>2867</v>
+      <c r="E6" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
       <c r="H6">
@@ -15055,8 +15063,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>2867</v>
+      <c r="B7" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -15064,13 +15072,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>2867</v>
+      <c r="E7" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>2</v>
       </c>
       <c r="H7">
@@ -15086,8 +15094,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>2868</v>
+      <c r="B8" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C8">
         <v>85</v>
@@ -15095,13 +15103,13 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>2868</v>
+      <c r="E8" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>2</v>
       </c>
       <c r="H8">
@@ -15117,8 +15125,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>2867</v>
+      <c r="B9" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -15126,13 +15134,13 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>2867</v>
+      <c r="E9" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>5</v>
       </c>
       <c r="H9">
@@ -15148,8 +15156,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>2867</v>
+      <c r="B10" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -15157,13 +15165,13 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>2867</v>
+      <c r="E10" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>3</v>
       </c>
       <c r="H10">
@@ -15179,8 +15187,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>2868</v>
+      <c r="B11" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -15188,13 +15196,13 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>2868</v>
+      <c r="E11" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>3</v>
       </c>
       <c r="H11">
@@ -15210,8 +15218,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>2867</v>
+      <c r="B12" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -15219,13 +15227,13 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>2867</v>
+      <c r="E12" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F12">
         <v>14</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>4</v>
       </c>
       <c r="H12">
@@ -15241,8 +15249,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>2867</v>
+      <c r="B13" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -15250,13 +15258,13 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>2867</v>
+      <c r="E13" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13">
@@ -15272,8 +15280,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>2868</v>
+      <c r="B14" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -15281,13 +15289,13 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>2868</v>
+      <c r="E14" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F14">
         <v>16</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="17">
         <v>4</v>
       </c>
       <c r="H14">
@@ -15303,8 +15311,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>2867</v>
+      <c r="B15" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C15">
         <v>85</v>
@@ -15312,13 +15320,13 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>2867</v>
+      <c r="E15" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <v>5</v>
       </c>
       <c r="H15">
@@ -15334,8 +15342,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>2868</v>
+      <c r="B16" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -15343,13 +15351,13 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>2868</v>
+      <c r="E16" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="17">
         <v>5</v>
       </c>
       <c r="H16">
@@ -15365,8 +15373,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>2868</v>
+      <c r="B17" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C17">
         <v>45</v>
@@ -15374,13 +15382,13 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>2868</v>
+      <c r="E17" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="17">
         <v>3</v>
       </c>
       <c r="H17">
@@ -15396,8 +15404,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>2867</v>
+      <c r="B18" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C18">
         <v>85</v>
@@ -15405,13 +15413,13 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>2867</v>
+      <c r="E18" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F18">
         <v>102</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="17">
         <v>27</v>
       </c>
       <c r="H18">
@@ -15427,8 +15435,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>2867</v>
+      <c r="B19" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C19">
         <v>85</v>
@@ -15436,13 +15444,13 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>2867</v>
+      <c r="E19" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="17">
         <v>3</v>
       </c>
       <c r="H19">
@@ -15458,8 +15466,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>2867</v>
+      <c r="B20" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -15467,13 +15475,13 @@
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>2867</v>
+      <c r="E20" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="17">
         <v>2</v>
       </c>
       <c r="H20">
@@ -15489,8 +15497,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>2867</v>
+      <c r="B21" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -15498,13 +15506,13 @@
       <c r="D21">
         <v>9</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>2867</v>
+      <c r="E21" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>1</v>
       </c>
       <c r="H21">
@@ -15520,8 +15528,8 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>2867</v>
+      <c r="B22" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C22">
         <v>95</v>
@@ -15529,13 +15537,13 @@
       <c r="D22">
         <v>9</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>2867</v>
+      <c r="E22" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="17">
         <v>2</v>
       </c>
       <c r="H22">
@@ -15551,8 +15559,8 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>2868</v>
+      <c r="B23" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C23">
         <v>75</v>
@@ -15560,13 +15568,13 @@
       <c r="D23">
         <v>10</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>2868</v>
+      <c r="E23" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="17">
         <v>5</v>
       </c>
       <c r="H23">
@@ -15582,8 +15590,8 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>2867</v>
+      <c r="B24" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C24">
         <v>80</v>
@@ -15591,13 +15599,13 @@
       <c r="D24">
         <v>10</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>2867</v>
+      <c r="E24" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="17">
         <v>6</v>
       </c>
       <c r="H24">
@@ -15613,8 +15621,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>2867</v>
+      <c r="B25" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C25">
         <v>90</v>
@@ -15622,13 +15630,13 @@
       <c r="D25">
         <v>11</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>2867</v>
+      <c r="E25" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F25">
         <v>26</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="17">
         <v>7</v>
       </c>
       <c r="H25">
@@ -15644,8 +15652,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>2868</v>
+      <c r="B26" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -15653,13 +15661,13 @@
       <c r="D26">
         <v>11</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>2868</v>
+      <c r="E26" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F26">
         <v>28</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="17">
         <v>7</v>
       </c>
       <c r="H26">
@@ -15675,8 +15683,8 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>2867</v>
+      <c r="B27" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C27">
         <v>85</v>
@@ -15684,13 +15692,13 @@
       <c r="D27">
         <v>12</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>2867</v>
+      <c r="E27" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="17">
         <v>8</v>
       </c>
       <c r="H27">
@@ -15706,8 +15714,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>2868</v>
+      <c r="B28" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C28">
         <v>85</v>
@@ -15715,13 +15723,13 @@
       <c r="D28">
         <v>12</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>2868</v>
+      <c r="E28" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F28">
         <v>32</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <v>8</v>
       </c>
       <c r="H28">
@@ -15737,8 +15745,8 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>2868</v>
+      <c r="B29" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C29">
         <v>90</v>
@@ -15746,13 +15754,13 @@
       <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>2868</v>
+      <c r="E29" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F29">
         <v>40</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="17">
         <v>10</v>
       </c>
       <c r="H29">
@@ -15768,8 +15776,8 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>2867</v>
+      <c r="B30" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C30">
         <v>85</v>
@@ -15777,13 +15785,13 @@
       <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>2867</v>
+      <c r="E30" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F30">
         <v>42</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="17">
         <v>11</v>
       </c>
       <c r="H30">
@@ -15799,8 +15807,8 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>2868</v>
+      <c r="B31" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C31">
         <v>70</v>
@@ -15808,13 +15816,13 @@
       <c r="D31">
         <v>14</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>2868</v>
+      <c r="E31" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F31">
         <v>44</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="17">
         <v>11</v>
       </c>
       <c r="H31">
@@ -15830,8 +15838,8 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>2867</v>
+      <c r="B32" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -15839,13 +15847,13 @@
       <c r="D32">
         <v>14</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>2867</v>
+      <c r="E32" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F32">
         <v>46</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="17">
         <v>12</v>
       </c>
       <c r="H32">
@@ -15861,8 +15869,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>2868</v>
+      <c r="B33" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -15870,13 +15878,13 @@
       <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>2868</v>
+      <c r="E33" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F33">
         <v>48</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="17">
         <v>12</v>
       </c>
       <c r="H33">
@@ -15892,8 +15900,8 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>2867</v>
+      <c r="B34" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -15901,13 +15909,13 @@
       <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>2867</v>
+      <c r="E34" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="17">
         <v>13</v>
       </c>
       <c r="H34">
@@ -15923,8 +15931,8 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>2868</v>
+      <c r="B35" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C35">
         <v>85</v>
@@ -15932,13 +15940,13 @@
       <c r="D35">
         <v>15</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>2868</v>
+      <c r="E35" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F35">
         <v>52</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="17">
         <v>13</v>
       </c>
       <c r="H35">
@@ -15954,8 +15962,8 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>2868</v>
+      <c r="B36" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C36">
         <v>85</v>
@@ -15963,8 +15971,8 @@
       <c r="D36">
         <v>17</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>2868</v>
+      <c r="E36" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F36">
         <v>40</v>
@@ -15985,8 +15993,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>2868</v>
+      <c r="B37" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C37">
         <v>80</v>
@@ -15994,8 +16002,8 @@
       <c r="D37">
         <v>17</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>2868</v>
+      <c r="E37" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -16016,8 +16024,8 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>2867</v>
+      <c r="B38" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C38">
         <v>30</v>
@@ -16025,8 +16033,8 @@
       <c r="D38">
         <v>18</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>2867</v>
+      <c r="E38" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -16047,8 +16055,8 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>2868</v>
+      <c r="B39" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -16056,8 +16064,8 @@
       <c r="D39">
         <v>18</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>2868</v>
+      <c r="E39" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -16078,8 +16086,8 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>2867</v>
+      <c r="B40" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C40">
         <v>40</v>
@@ -16087,8 +16095,8 @@
       <c r="D40">
         <v>19</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>2867</v>
+      <c r="E40" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F40">
         <v>22</v>
@@ -16109,8 +16117,8 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>2868</v>
+      <c r="B41" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -16118,8 +16126,8 @@
       <c r="D41">
         <v>19</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>2868</v>
+      <c r="E41" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -16140,8 +16148,8 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>2867</v>
+      <c r="B42" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C42">
         <v>70</v>
@@ -16149,8 +16157,8 @@
       <c r="D42">
         <v>20</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>2867</v>
+      <c r="E42" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -16171,8 +16179,8 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>2868</v>
+      <c r="B43" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C43">
         <v>70</v>
@@ -16180,8 +16188,8 @@
       <c r="D43">
         <v>20</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>2868</v>
+      <c r="E43" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -16202,8 +16210,8 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>2867</v>
+      <c r="B44" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C44">
         <v>60</v>
@@ -16211,8 +16219,8 @@
       <c r="D44">
         <v>21</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>2867</v>
+      <c r="E44" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -16233,8 +16241,8 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>2868</v>
+      <c r="B45" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C45">
         <v>80</v>
@@ -16242,8 +16250,8 @@
       <c r="D45">
         <v>21</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>2868</v>
+      <c r="E45" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F45">
         <v>12</v>
@@ -16264,8 +16272,8 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>2868</v>
+      <c r="B46" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C46">
         <v>95</v>
@@ -16273,8 +16281,8 @@
       <c r="D46">
         <v>22</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>2868</v>
+      <c r="E46" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F46">
         <v>24</v>
@@ -16295,8 +16303,8 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>2868</v>
+      <c r="B47" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C47">
         <v>96</v>
@@ -16304,8 +16312,8 @@
       <c r="D47">
         <v>22</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>2868</v>
+      <c r="E47" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F47">
         <v>40</v>
@@ -16326,8 +16334,8 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>2867</v>
+      <c r="B48" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C48">
         <v>80</v>
@@ -16335,8 +16343,8 @@
       <c r="D48">
         <v>23</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>2867</v>
+      <c r="E48" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -16357,8 +16365,8 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>2868</v>
+      <c r="B49" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C49">
         <v>95</v>
@@ -16366,8 +16374,8 @@
       <c r="D49">
         <v>23</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>2868</v>
+      <c r="E49" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -16388,8 +16396,8 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>2867</v>
+      <c r="B50" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -16397,8 +16405,8 @@
       <c r="D50">
         <v>23</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>2867</v>
+      <c r="E50" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -16419,8 +16427,8 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>2867</v>
+      <c r="B51" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C51">
         <v>80</v>
@@ -16428,8 +16436,8 @@
       <c r="D51">
         <v>24</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>2867</v>
+      <c r="E51" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -16455,10 +16463,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I19"/>
+  <dimension ref="A3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16472,16 +16480,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C3" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="D3" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="E3" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="I3" t="s">
         <v>2922</v>
@@ -16492,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="C4">
         <v>250</v>
@@ -16517,7 +16525,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="C5">
         <f>C4+10</f>
@@ -16544,10 +16552,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C15" si="3">C5+10</f>
+        <f t="shared" ref="C6:C11" si="3">C5+10</f>
         <v>270</v>
       </c>
       <c r="D6" s="15">
@@ -16558,7 +16566,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G12" si="4">G5+10</f>
+        <f t="shared" ref="G6:G11" si="4">G5+10</f>
         <v>560</v>
       </c>
       <c r="I6" t="str">
@@ -16572,7 +16580,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -16600,7 +16608,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -16628,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -16656,7 +16664,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -16684,7 +16692,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -16712,7 +16720,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="C12">
         <v>320</v>
@@ -16737,7 +16745,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="C13">
         <v>335</v>
@@ -16762,7 +16770,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="C14">
         <v>350</v>
@@ -16787,7 +16795,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="C15">
         <v>365</v>
@@ -16821,6 +16829,11 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2920</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22162,7 +22175,7 @@
         <v>251</v>
       </c>
       <c r="F29" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -23256,7 +23269,7 @@
         <v>316</v>
       </c>
       <c r="F93" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -23616,7 +23629,7 @@
         <v>337</v>
       </c>
       <c r="F114" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -33521,7 +33534,7 @@
         <v>819</v>
       </c>
       <c r="L51" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -34259,7 +34272,7 @@
         <v>819</v>
       </c>
       <c r="L72" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -45182,10 +45195,10 @@
         <v>819</v>
       </c>
       <c r="L384" t="s">
+        <v>2624</v>
+      </c>
+      <c r="M384" t="s">
         <v>2625</v>
-      </c>
-      <c r="M384" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -52467,18 +52480,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="J2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K2" t="s">
         <v>2451</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -52486,28 +52499,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2417</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" t="s">
         <v>2418</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2419</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2420</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2421</v>
       </c>
-      <c r="G3" t="s">
-        <v>2422</v>
-      </c>
       <c r="H3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="I3" t="s">
         <v>2449</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2450</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
@@ -52522,7 +52535,7 @@
         <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -52540,7 +52553,7 @@
         <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="U3" t="s">
         <v>59</v>
@@ -52549,7 +52562,7 @@
         <v>4126909350</v>
       </c>
       <c r="AC3" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -52557,7 +52570,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>CONCATENATE(B4,".org.ve")</f>
@@ -52596,7 +52609,7 @@
         <v>116</v>
       </c>
       <c r="N4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="O4">
         <v>58.412170570100002</v>
@@ -52614,19 +52627,19 @@
         <v>198</v>
       </c>
       <c r="T4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="U4">
         <v>58.4127728311</v>
       </c>
       <c r="Z4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AA4" t="s">
         <v>2444</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>2445</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>2446</v>
       </c>
       <c r="AC4" t="s">
         <v>113</v>
@@ -52638,7 +52651,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>CONCATENATE(B5,".com")</f>
@@ -52677,7 +52690,7 @@
         <v>120</v>
       </c>
       <c r="N5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="O5">
         <v>58.4147468253</v>
@@ -52695,13 +52708,13 @@
         <v>923</v>
       </c>
       <c r="T5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="U5">
         <v>58.414589720400002</v>
       </c>
       <c r="Z5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="AC5" t="s">
         <v>114</v>
@@ -52713,7 +52726,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" ref="C6" si="3">CONCATENATE(B6,".org.ve")</f>
@@ -52752,7 +52765,7 @@
         <v>123</v>
       </c>
       <c r="N6" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="O6">
         <v>58.414888170499999</v>
@@ -52770,7 +52783,7 @@
         <v>927</v>
       </c>
       <c r="T6" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="U6">
         <v>58.412519919300003</v>
@@ -52789,7 +52802,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" ref="C7" si="4">CONCATENATE(B7,".com")</f>
@@ -52828,7 +52841,7 @@
         <v>127</v>
       </c>
       <c r="N7" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="O7">
         <v>58.4124534802</v>
@@ -52846,7 +52859,7 @@
         <v>931</v>
       </c>
       <c r="T7" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="U7">
         <v>58.414775928600001</v>
@@ -52861,7 +52874,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" ref="C8" si="5">CONCATENATE(B8,".org.ve")</f>
@@ -52900,7 +52913,7 @@
         <v>131</v>
       </c>
       <c r="N8" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="O8">
         <v>58.4149820142</v>
@@ -52918,7 +52931,7 @@
         <v>935</v>
       </c>
       <c r="T8" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="U8">
         <v>58.412789610600001</v>
@@ -52930,7 +52943,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" ref="C9" si="6">CONCATENATE(B9,".com")</f>
@@ -52969,7 +52982,7 @@
         <v>135</v>
       </c>
       <c r="N9" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="O9">
         <v>58.4167928205</v>
@@ -52987,7 +53000,7 @@
         <v>940</v>
       </c>
       <c r="T9" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="U9">
         <v>58.416559593999999</v>
@@ -53002,7 +53015,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ref="C10" si="7">CONCATENATE(B10,".org.ve")</f>
@@ -53041,7 +53054,7 @@
         <v>138</v>
       </c>
       <c r="N10" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="O10">
         <v>58.412587435699997</v>
@@ -53059,7 +53072,7 @@
         <v>944</v>
       </c>
       <c r="T10" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="U10">
         <v>58.416771389200001</v>
@@ -53071,7 +53084,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" ref="C11" si="8">CONCATENATE(B11,".com")</f>
@@ -53110,7 +53123,7 @@
         <v>141</v>
       </c>
       <c r="N11" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="O11">
         <v>58.412811793499998</v>
@@ -53128,7 +53141,7 @@
         <v>949</v>
       </c>
       <c r="T11" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="U11">
         <v>58.414220691899999</v>
@@ -53140,7 +53153,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" ref="C12" si="9">CONCATENATE(B12,".org.ve")</f>
@@ -53179,7 +53192,7 @@
         <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="O12">
         <v>58.412587112499999</v>
@@ -53197,7 +53210,7 @@
         <v>954</v>
       </c>
       <c r="T12" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="U12">
         <v>58.412933160400001</v>
@@ -53209,7 +53222,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" ref="C13" si="10">CONCATENATE(B13,".com")</f>
@@ -53248,7 +53261,7 @@
         <v>147</v>
       </c>
       <c r="N13" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="O13">
         <v>58.416726166899998</v>
@@ -53266,7 +53279,7 @@
         <v>959</v>
       </c>
       <c r="T13" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="U13">
         <v>58.412210942999998</v>
@@ -53278,7 +53291,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" ref="C14" si="11">CONCATENATE(B14,".org.ve")</f>
@@ -53317,7 +53330,7 @@
         <v>150</v>
       </c>
       <c r="N14" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="O14">
         <v>58.412355995399999</v>
@@ -53335,7 +53348,7 @@
         <v>964</v>
       </c>
       <c r="T14" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="U14">
         <v>58.414233825799997</v>
@@ -53347,7 +53360,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C15" s="8" t="str">
         <f t="shared" ref="C15" si="12">CONCATENATE(B15,".com")</f>
@@ -53386,7 +53399,7 @@
         <v>154</v>
       </c>
       <c r="N15" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="O15">
         <v>58.412416803900001</v>
@@ -53404,7 +53417,7 @@
         <v>969</v>
       </c>
       <c r="T15" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="U15">
         <v>58.416655106599997</v>
@@ -53416,7 +53429,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C16" s="8" t="str">
         <f t="shared" ref="C16" si="13">CONCATENATE(B16,".org.ve")</f>
@@ -53455,7 +53468,7 @@
         <v>158</v>
       </c>
       <c r="N16" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O16">
         <v>58.416737206599997</v>
@@ -53473,7 +53486,7 @@
         <v>974</v>
       </c>
       <c r="T16" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="U16">
         <v>58.424756259699997</v>
@@ -53485,7 +53498,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C17" s="8" t="str">
         <f t="shared" ref="C17" si="14">CONCATENATE(B17,".com")</f>
@@ -53524,7 +53537,7 @@
         <v>162</v>
       </c>
       <c r="N17" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="O17">
         <v>58.4166612681</v>
@@ -53542,7 +53555,7 @@
         <v>977</v>
       </c>
       <c r="T17" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="U17">
         <v>58.424139376699998</v>
@@ -53554,7 +53567,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C18" s="8" t="str">
         <f t="shared" ref="C18" si="15">CONCATENATE(B18,".org.ve")</f>
@@ -53593,7 +53606,7 @@
         <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="O18">
         <v>58.424890065200003</v>
@@ -53611,7 +53624,7 @@
         <v>982</v>
       </c>
       <c r="T18" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="U18">
         <v>58.412934825299999</v>
@@ -53623,7 +53636,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C19" s="8" t="str">
         <f t="shared" ref="C19" si="16">CONCATENATE(B19,".com")</f>
@@ -53662,7 +53675,7 @@
         <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="O19">
         <v>58.414843861900003</v>
@@ -53680,7 +53693,7 @@
         <v>986</v>
       </c>
       <c r="T19" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="U19">
         <v>58.424248006100001</v>
@@ -53692,7 +53705,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C20" s="8" t="str">
         <f t="shared" ref="C20" si="17">CONCATENATE(B20,".org.ve")</f>
@@ -53731,7 +53744,7 @@
         <v>153</v>
       </c>
       <c r="N20" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O20">
         <v>58.424318175800003</v>
@@ -53749,7 +53762,7 @@
         <v>991</v>
       </c>
       <c r="T20" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="U20">
         <v>58.416721111100003</v>
@@ -53761,7 +53774,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C21" s="8" t="str">
         <f t="shared" ref="C21" si="18">CONCATENATE(B21,".com")</f>
@@ -53800,7 +53813,7 @@
         <v>137</v>
       </c>
       <c r="N21" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O21">
         <v>58.416770937599999</v>
@@ -53818,7 +53831,7 @@
         <v>995</v>
       </c>
       <c r="T21" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="U21">
         <v>58.416678392100003</v>
@@ -53830,7 +53843,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C22" s="8" t="str">
         <f t="shared" ref="C22" si="19">CONCATENATE(B22,".org.ve")</f>
@@ -53869,7 +53882,7 @@
         <v>915</v>
       </c>
       <c r="N22" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O22">
         <v>58.424344319699998</v>
@@ -53887,7 +53900,7 @@
         <v>1000</v>
       </c>
       <c r="T22" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="U22">
         <v>58.414495988799999</v>
@@ -53899,7 +53912,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C23" s="8" t="str">
         <f t="shared" ref="C23" si="20">CONCATENATE(B23,".com")</f>
@@ -53938,7 +53951,7 @@
         <v>919</v>
       </c>
       <c r="N23" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="O23">
         <v>58.416551178299997</v>
@@ -53956,7 +53969,7 @@
         <v>1003</v>
       </c>
       <c r="T23" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="U23">
         <v>58.412474327799998</v>
@@ -53968,7 +53981,7 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -53983,7 +53996,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -54886,10 +54899,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -54897,17 +54910,17 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="I3" t="s">
         <v>2500</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2502</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>2389</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="I3" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -54924,7 +54937,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="I4" t="str">
         <f>CONCATENATE("(",B4,", ",C4,"),")</f>
@@ -54949,7 +54962,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I23" si="0">CONCATENATE("(",B5,", ",C5,"),")</f>
@@ -54974,7 +54987,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -54999,7 +55012,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -55024,7 +55037,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -55049,7 +55062,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -55074,7 +55087,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -55099,7 +55112,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -55124,7 +55137,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -55351,7 +55364,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -55362,13 +55375,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D4" t="s">
         <v>2391</v>
       </c>
-      <c r="D4" t="s">
-        <v>2392</v>
-      </c>
       <c r="E4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -55376,13 +55389,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D5" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E5" t="str">
         <f>CONCATENATE("('",B5,"', '",C5,"', '",D5,"'),",)</f>
@@ -55395,13 +55408,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C6" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D6" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ref="E6:E13" si="0">CONCATENATE("('",B6,"', '",C6,"', '",D6,"'),",)</f>
@@ -55414,13 +55427,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C7" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D7" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -55433,13 +55446,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C8" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D8" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -55452,13 +55465,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C9" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D9" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -55471,13 +55484,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C10" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D10" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -55490,13 +55503,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C11" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D11" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -55509,13 +55522,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C12" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D12" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -55528,13 +55541,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C13" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D13" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8902" uniqueCount="2930">
   <si>
     <t>id</t>
   </si>
@@ -8831,6 +8831,27 @@
   </si>
   <si>
     <t>INSERT INTO transaccion_pago (fecha_hora, monto_pago, fk_crudo, fk_informante) VALUES</t>
+  </si>
+  <si>
+    <t>Empresa en quiebra por problemas economicos</t>
+  </si>
+  <si>
+    <t>crudo_contenido/images.png</t>
+  </si>
+  <si>
+    <t>Empresa en quiebra por malas decisiones del directivo part I</t>
+  </si>
+  <si>
+    <t>Empresa en quiebra por malas decisiones del directivo part II</t>
+  </si>
+  <si>
+    <t>2035-01-09 01:00:00</t>
+  </si>
+  <si>
+    <t>2035-01-20 01:00:00</t>
+  </si>
+  <si>
+    <t>2035-01-11 01:00:00</t>
   </si>
 </sst>
 </file>
@@ -8999,6 +9020,9 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9010,9 +9034,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10254,8 +10275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O26"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10285,18 +10306,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>2643</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>2644</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10709,7 +10730,7 @@
       <c r="H14">
         <v>17</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J14">
@@ -10757,7 +10778,7 @@
       <c r="H15">
         <v>19</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="J15">
@@ -10806,7 +10827,7 @@
       <c r="H16">
         <v>21</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J16">
@@ -10885,7 +10906,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="E18">
@@ -10900,7 +10921,7 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J18">
@@ -10933,7 +10954,7 @@
         <f>C18+2</f>
         <v>3</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="E19">
@@ -10949,7 +10970,7 @@
         <f>H18+2</f>
         <v>3</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="J19">
@@ -10982,7 +11003,7 @@
         <f t="shared" ref="C20:C26" si="8">C19+2</f>
         <v>5</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="E20">
@@ -10999,7 +11020,7 @@
         <f t="shared" ref="H20:H26" si="9">H19+2</f>
         <v>5</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J20">
@@ -11033,7 +11054,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="E21">
@@ -11050,7 +11071,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="J21">
@@ -11084,7 +11105,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="E22">
@@ -11101,7 +11122,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J22">
@@ -11135,7 +11156,7 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="E23">
@@ -11152,7 +11173,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="J23">
@@ -11179,7 +11200,7 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="E24">
@@ -11196,7 +11217,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J24">
@@ -11223,7 +11244,7 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="E25">
@@ -11240,7 +11261,7 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="J25">
@@ -11267,7 +11288,7 @@
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="E26">
@@ -11284,7 +11305,7 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="J26">
@@ -13091,8 +13112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U29"/>
+    <sheetView topLeftCell="T12" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13133,16 +13154,16 @@
       <c r="J3" t="s">
         <v>2387</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="23" t="s">
         <v>2870</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="23" t="s">
         <v>2869</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -13334,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U28" si="3">CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', '",J6,"', ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
+        <f t="shared" ref="U6:U33" si="3">CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', '",J6,"', ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
         <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam II', 'secreta', 550, 30, 10 , '2034-01-09 01:00:00', '2034-01-05 01:00:00', 2, 7, 2, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
@@ -14836,12 +14857,64 @@
         <f t="shared" ref="A29:A39" si="7">A28+1</f>
         <v>25</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2923</v>
+      </c>
       <c r="E29" t="s">
         <v>2632</v>
+      </c>
+      <c r="F29">
+        <v>600</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>85</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>2866</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
       </c>
       <c r="N29">
         <f t="shared" ref="N29" si="8">N28+1</f>
         <v>11</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>1</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>2866</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2034-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -14849,56 +14922,303 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
+      <c r="B30" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F30">
+        <v>630</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>2901</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" ref="P30:P32" si="9">P28+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>2</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" ref="S30:S32" si="10">S29+2</f>
+        <v>13</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2034-01-05 01:00:00', 2, 6, 1, 7, 3, 2, 2, '2034-01-05 01:00:00', 13),</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
+      <c r="B31" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F31">
+        <v>680</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="11">
+        <f>M30+2</f>
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>2</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>2866</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2034-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F32">
+        <v>720</v>
+      </c>
+      <c r="G32">
+        <v>90</v>
+      </c>
+      <c r="H32">
+        <v>85</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>2928</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>2866</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" ref="M32:M34" si="11">M31+2</f>
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>2</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2034-01-06 01:00:00', 2, 8, 5, 9, 4, 3, 2, '2034-01-05 01:00:00', 17),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F33">
+        <v>630</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>2929</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2034-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="7"/>
         <v>35</v>
@@ -14916,10 +15236,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14930,12 +15250,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>2911</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -15023,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K51" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
+        <f t="shared" ref="K5:K61" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
         <v>('2034-01-06 01:00:00', 85, 1, '2034-01-06 01:00:00',4,1,1),</v>
       </c>
     </row>
@@ -16451,6 +16771,276 @@
       <c r="K51" t="str">
         <f t="shared" si="0"/>
         <v>('2034-01-05 01:00:00', 80, 24, '2034-01-05 01:00:00',30,8,3),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 60, 25, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 30, 26, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>26</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-06 01:00:00', 85, 27, '2034-01-06 01:00:00',8,2,1),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F57">
+        <v>18</v>
+      </c>
+      <c r="G57" s="17">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" s="17">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 50, 28, '2034-01-05 01:00:00',10,3,1),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C59">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" s="17">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F60">
+        <v>14</v>
+      </c>
+      <c r="G60" s="17">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 60, 29, '2034-01-05 01:00:00',14,4,2),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C61">
+        <v>70</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
   </sheetData>
@@ -54915,10 +55505,10 @@
       <c r="C3" t="s">
         <v>2501</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>2388</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
       <c r="I3" t="s">
         <v>2500</v>
       </c>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -13112,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="T12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
@@ -14965,8 +14965,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" ref="P30:P32" si="9">P28+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="16">
         <v>2</v>
@@ -14975,12 +14974,12 @@
         <v>2865</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" ref="S30:S32" si="10">S29+2</f>
+        <f t="shared" ref="S30:S32" si="9">S29+2</f>
         <v>13</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2034-01-05 01:00:00', 2, 6, 1, 7, 3, 2, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2034-01-05 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -15032,7 +15031,7 @@
         <v>3</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P30:P32" si="10">P29+1</f>
         <v>4</v>
       </c>
       <c r="Q31" s="16">
@@ -15042,7 +15041,7 @@
         <v>2866</v>
       </c>
       <c r="S31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="U31" t="str">
@@ -15089,18 +15088,18 @@
         <v>8</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" ref="M32:M34" si="11">M31+2</f>
+        <f t="shared" ref="M32:M33" si="11">M31+2</f>
         <v>5</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="Q32" s="16">
         <v>2</v>
@@ -15109,12 +15108,12 @@
         <v>2865</v>
       </c>
       <c r="S32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2034-01-06 01:00:00', 2, 8, 5, 9, 4, 3, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2034-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15238,7 +15237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K61"/>
     </sheetView>
   </sheetViews>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8902" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8905" uniqueCount="2930">
   <si>
     <t>id</t>
   </si>
@@ -13112,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J11" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
@@ -13657,8 +13657,8 @@
       <c r="G11">
         <v>35</v>
       </c>
-      <c r="H11">
-        <v>60</v>
+      <c r="H11" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>2892</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="U11" t="str">
         <f>CONCATENATE("('",B11,"', '",C11,"', '",D11,"', '",E11,"', ",F11,", ",G11,", ",H11," , '",I11,"', ",J11,", ",K11,", ",L11,", ",M11,", ",N11,", ",O11,", ",P11,", ",Q11,", '",R11,"', ",S11,"),")</f>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', 600, 35, 60 , '2034-01-11 01:00:00', null, 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', 600, 35, null , '2034-01-11 01:00:00', null, 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -14268,8 +14268,8 @@
       <c r="G20">
         <v>100</v>
       </c>
-      <c r="H20">
-        <v>100</v>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>2899</v>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE("('",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", ",G20,", ",H20," , '",I20,"', ",J20,", ",K20,", ",L20,", ",M20,", ",N20,", ",O20,", ",P20,", ",Q20,", '",R20,"', ",S20,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 100, 100 , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14742,8 +14742,8 @@
       <c r="G27">
         <v>90</v>
       </c>
-      <c r="H27">
-        <v>90</v>
+      <c r="H27" t="s">
+        <v>9</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>2905</v>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="U27" t="str">
         <f>CONCATENATE("('",B27,"', '",C27,"', '",D27,"', '",E27,"', ",F27,", ",G27,", ",H27," , '",I27,"', ",J27,", ",K27,", ",L27,", ",M27,", ",N27,", ",O27,", ",P27,", ",Q27,", '",R27,"', ",S27,"),")</f>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 760, 90, 90 , '2034-11-11 01:00:00', null, 3, 3, null, 9, 3, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 760, 90, null , '2034-11-11 01:00:00', null, 3, 3, null, 9, 3, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -15031,7 +15031,7 @@
         <v>3</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P30:P32" si="10">P29+1</f>
+        <f t="shared" ref="P31:P32" si="10">P29+1</f>
         <v>4</v>
       </c>
       <c r="Q31" s="16">

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8905" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8908" uniqueCount="2930">
   <si>
     <t>id</t>
   </si>
@@ -13112,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" workbookViewId="0">
+    <sheetView topLeftCell="J9" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
@@ -13259,7 +13259,7 @@
         <v>2889</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="U5" t="str">
         <f>CONCATENATE("('",B5,"', '",C5,"', '",D5,"', '",E5,"', ",F5,", ",G5,", ",H5," , '",I5,"', '",J5,"', ",K5,", ",L5,", ",M5,", ",N5,", ",O5,", ",P5,", ",Q5,", '",R5,"', ",S5,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam I', 'secreta', 500, 85, 85 , '2034-01-08 01:00:00', '2034-01-06 01:00:00', 2, 1, 1, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam I', 'secreta', 500, 85, 85 , '2034-01-08 01:00:00', '2035-01-06 01:00:00', 2, 1, 1, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -13323,7 +13323,7 @@
         <v>2890</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" ref="U6:U33" si="3">CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', '",J6,"', ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam II', 'secreta', 550, 30, 10 , '2034-01-09 01:00:00', '2034-01-05 01:00:00', 2, 7, 2, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam II', 'secreta', 550, 30, 10 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 7, 2, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -13390,7 +13390,7 @@
         <v>2889</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos por territorio', 'secreta', 560, 85, 90 , '2034-01-08 01:00:00', '2034-01-05 01:00:00', 2, 8, 3, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos por territorio', 'secreta', 560, 85, 90 , '2034-01-08 01:00:00', '2035-01-05 01:00:00', 2, 8, 3, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>2890</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por cambio de leyes', 'secreta', 570, 50, 85 , '2034-01-09 01:00:00', '2034-01-06 01:00:00', 2, 9, 4, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por cambio de leyes', 'secreta', 570, 50, 85 , '2034-01-09 01:00:00', '2035-01-06 01:00:00', 2, 9, 4, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -13527,7 +13527,7 @@
         <v>2891</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos por petroleo en otros territorios', 'secreta', 580, 60, 90 , '2034-01-10 01:00:00', '2034-01-05 01:00:00', 2, 9, 5, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos por petroleo en otros territorios', 'secreta', 580, 60, 90 , '2034-01-10 01:00:00', '2035-01-05 01:00:00', 2, 9, 5, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
         <v>2890</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Resultado de guerras entre paises ', 'secreta', 590, 85, 60 , '2034-01-09 01:00:00', '2034-01-05 01:00:00', 2, 8, 6, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Resultado de guerras entre paises ', 'secreta', 590, 85, 60 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, 6, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -13650,9 +13650,8 @@
       <c r="E11" s="9" t="s">
         <v>2627</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>600</v>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
       <c r="G11">
         <v>35</v>
@@ -13699,7 +13698,7 @@
       </c>
       <c r="U11" t="str">
         <f>CONCATENATE("('",B11,"', '",C11,"', '",D11,"', '",E11,"', ",F11,", ",G11,", ",H11," , '",I11,"', ",J11,", ",K11,", ",L11,", ",M11,", ",N11,", ",O11,", ",P11,", ",Q11,", '",R11,"', ",S11,"),")</f>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', 600, 35, null , '2034-01-11 01:00:00', null, 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', null, 35, null , '2034-01-11 01:00:00', null, 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -13720,8 +13719,8 @@
         <v>2627</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
-        <v>610</v>
+        <f>F10</f>
+        <v>590</v>
       </c>
       <c r="G12">
         <v>85</v>
@@ -13733,7 +13732,7 @@
         <v>2893</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13767,7 +13766,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por digustos de una población por el abuso de poder', 'secreta', 610, 85, 70 , '2034-02-10 01:00:00', '2034-01-05 01:00:00', 3, 9, 8, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por digustos de una población por el abuso de poder', 'secreta', 590, 85, 70 , '2034-02-10 01:00:00', '2035-01-05 01:00:00', 3, 9, 8, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -13789,7 +13788,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="G13">
         <v>90</v>
@@ -13801,7 +13800,7 @@
         <v>2894</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -13835,7 +13834,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'abierta', 620, 90, 90 , '2034-03-05 01:00:00', '2034-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'abierta', 600, 90, 90 , '2034-03-05 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -13857,7 +13856,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="G14">
         <v>75</v>
@@ -13869,7 +13868,7 @@
         <v>2895</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13903,7 +13902,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 630, 75, 80 , '2034-05-06 01:00:00', '2034-01-05 01:00:00', 2, 1, null, 6, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 610, 75, 80 , '2034-05-06 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 6, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -13925,7 +13924,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -13937,7 +13936,7 @@
         <v>2896</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13973,7 +13972,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Tension entre paises y sus consecuencias', 'secreta', 640, 100, 80 , '2034-06-05 01:00:00', '2034-01-06 01:00:00', 2, 1, 9, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Tension entre paises y sus consecuencias', 'secreta', 620, 100, 80 , '2034-06-05 01:00:00', '2035-01-06 01:00:00', 2, 1, 9, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -13995,7 +13994,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="G16">
         <v>85</v>
@@ -14007,7 +14006,7 @@
         <v>2866</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -14040,7 +14039,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 650, 85, 85 , '2034-01-06 01:00:00', '2034-01-06 01:00:00', 2, 8, null, 7, 3, 27, 9, '2034-01-05 01:00:00', 101),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 630, 85, 85 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 7, 3, 27, 9, '2034-01-05 01:00:00', 101),</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -14062,7 +14061,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="G17">
         <v>90</v>
@@ -14074,7 +14073,7 @@
         <v>2890</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -14107,7 +14106,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 660, 90, 95 , '2034-01-09 01:00:00', '2034-01-05 01:00:00', 2, 8, null, 8, 3, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 640, 90, 95 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, null, 8, 3, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -14129,7 +14128,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="G18">
         <v>70</v>
@@ -14141,7 +14140,7 @@
         <v>2897</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -14173,7 +14172,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 670, 70, 60 , '2034-01-20 01:00:00', '2034-01-05 01:00:00', 2, 1, 10, 5, 2, 1, 1, '2034-01-06 01:00:00', 3),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 650, 70, 60 , '2034-01-20 01:00:00', '2035-01-05 01:00:00', 2, 1, 10, 5, 2, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -14195,7 +14194,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="G19">
         <v>60</v>
@@ -14207,7 +14206,7 @@
         <v>2898</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -14241,7 +14240,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 680, 60, 60 , '2034-02-14 01:00:00', '2034-01-06 01:00:00', 3, 8, null, 6, 2, 2, 1, '2034-01-05 01:00:00', 5),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 660, 60, 60 , '2034-02-14 01:00:00', '2035-01-06 01:00:00', 3, 8, null, 6, 2, 2, 1, '2034-01-05 01:00:00', 5),</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -14261,9 +14260,8 @@
       <c r="E20" t="s">
         <v>2632</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>690</v>
+      <c r="F20" t="s">
+        <v>9</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -14309,7 +14307,7 @@
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE("('",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", ",G20,", ",H20," , '",I20,"', ",J20,", ",K20,", ",L20,", ",M20,", ",N20,", ",O20,", ",P20,", ",Q20,", '",R20,"', ",S20,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', null, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14330,8 +14328,8 @@
         <v>2627</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <f>F19</f>
+        <v>660</v>
       </c>
       <c r="G21">
         <v>90</v>
@@ -14343,7 +14341,7 @@
         <v>2900</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14376,7 +14374,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 700, 90, 85 , '2034-03-12 01:00:00', '2034-01-06 01:00:00', 2, 2, 11, 6, 2, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 660, 90, 85 , '2034-03-12 01:00:00', '2035-01-06 01:00:00', 2, 2, 11, 6, 2, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14398,7 +14396,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -14410,7 +14408,7 @@
         <v>2901</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -14444,7 +14442,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 710, 30, 30 , '2035-01-06 01:00:00', '2034-01-06 01:00:00', 2, 2, null, 7, 3, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 670, 30, 30 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 2, null, 7, 3, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14466,7 +14464,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -14478,7 +14476,7 @@
         <v>2902</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -14512,7 +14510,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 720, 40, 35 , '2035-02-14 01:00:00', '2034-01-06 01:00:00', 2, 4, null, 8, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 680, 40, 35 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 4, null, 8, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -14534,7 +14532,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -14546,7 +14544,7 @@
         <v>2894</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -14579,7 +14577,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 730, 50, 66 , '2034-03-05 01:00:00', '2034-01-06 01:00:00', 2, 3, 12, 6, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 690, 50, 66 , '2034-03-05 01:00:00', '2035-01-06 01:00:00', 2, 3, 12, 6, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -14601,7 +14599,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="G25">
         <v>45</v>
@@ -14613,7 +14611,7 @@
         <v>2903</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -14647,7 +14645,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 740, 45, 45 , '2035-01-05 01:00:00', '2034-01-06 01:00:00', 2, 8, null, 7, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 700, 45, 45 , '2035-01-05 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 7, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -14669,7 +14667,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="G26">
         <v>95</v>
@@ -14681,7 +14679,7 @@
         <v>2904</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -14715,7 +14713,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 750, 95, 90 , '2034-12-24 01:00:00', '2034-01-06 01:00:00', 2, 3, null, 8, 3, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 710, 95, 90 , '2034-12-24 01:00:00', '2035-01-06 01:00:00', 2, 3, null, 8, 3, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -14737,19 +14735,19 @@
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G27">
         <v>90</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
+      <c r="H27">
+        <v>89</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>2905</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>9</v>
+      <c r="J27" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -14782,8 +14780,8 @@
         <v>21</v>
       </c>
       <c r="U27" t="str">
-        <f>CONCATENATE("('",B27,"', '",C27,"', '",D27,"', '",E27,"', ",F27,", ",G27,", ",H27," , '",I27,"', ",J27,", ",K27,", ",L27,", ",M27,", ",N27,", ",O27,", ",P27,", ",Q27,", '",R27,"', ",S27,"),")</f>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 760, 90, null , '2034-11-11 01:00:00', null, 3, 3, null, 9, 3, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <f>CONCATENATE("('",B27,"', '",C27,"', '",D27,"', '",E27,"', ",F27,", ",G27,", ",H27," , '",I27,"', '",J27,"', ",K27,", ",L27,", ",M27,", ",N27,", ",O27,", ",P27,", ",Q27,", '",R27,"', ",S27,"),")</f>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 720, 90, 89 , '2034-11-11 01:00:00', '2035-01-05 01:00:00', 3, 3, null, 9, 3, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -14803,21 +14801,20 @@
       <c r="E28" t="s">
         <v>2907</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>770</v>
+      <c r="F28" t="s">
+        <v>9</v>
       </c>
       <c r="G28">
         <v>85</v>
       </c>
-      <c r="H28">
-        <v>80</v>
+      <c r="H28" t="s">
+        <v>9</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>2906</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>2865</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -14848,8 +14845,8 @@
         <v>1</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 770, 85, 80 , '2035-01-30 01:00:00', '2034-01-05 01:00:00', 3, 8, null, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <f>CONCATENATE("('",B28,"', '",C28,"', '",D28,"', '",E28,"', ",F28,", ",G28,", ",H28," , '",I28,"', ",J28,", ",K28,", ",L28,", ",M28,", ",N28,", ",O28,", ",P28,", ",Q28,", '",R28,"', ",S28,"),")</f>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85, null , '2035-01-30 01:00:00', null, 3, 8, null, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -14882,7 +14879,7 @@
         <v>2902</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -14914,7 +14911,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2034-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -14947,7 +14944,7 @@
         <v>2901</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>2865</v>
+        <v>2901</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -14979,7 +14976,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2034-01-05 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -15012,7 +15009,7 @@
         <v>2927</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -15046,7 +15043,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2034-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2035-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -15079,7 +15076,7 @@
         <v>2928</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>2866</v>
+        <v>2901</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -15113,7 +15110,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2034-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2035-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15146,7 +15143,7 @@
         <v>2929</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>2865</v>
+        <v>2903</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -15178,7 +15175,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2034-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2035-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -15237,7 +15234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K61"/>
     </sheetView>
   </sheetViews>
@@ -15320,8 +15317,8 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>2866</v>
+      <c r="B5" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -15343,7 +15340,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K61" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
-        <v>('2034-01-06 01:00:00', 85, 1, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2035-01-06 01:00:00', 85, 1, '2034-01-06 01:00:00',4,1,1),</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15382,8 +15379,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>2865</v>
+      <c r="B7" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -15405,7 +15402,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 2, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2035-01-05 01:00:00', 30, 2, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15444,8 +15441,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>2865</v>
+      <c r="B9" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -15467,7 +15464,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 3, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2035-01-05 01:00:00', 90, 3, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15506,8 +15503,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>2866</v>
+      <c r="B11" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -15529,7 +15526,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 60, 4, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2035-01-06 01:00:00', 60, 4, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15568,8 +15565,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>2865</v>
+      <c r="B13" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -15591,7 +15588,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 70, 5, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2035-01-05 01:00:00', 70, 5, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15630,8 +15627,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>2865</v>
+      <c r="B15" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C15">
         <v>85</v>
@@ -15653,7 +15650,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 6, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2035-01-05 01:00:00', 85, 6, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15785,8 +15782,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>2865</v>
+      <c r="B20" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -15808,7 +15805,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2035-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -15847,8 +15844,8 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>2865</v>
+      <c r="B22" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C22">
         <v>95</v>
@@ -15870,7 +15867,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 95, 9, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2035-01-05 01:00:00', 95, 9, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -15909,8 +15906,8 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>2865</v>
+      <c r="B24" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C24">
         <v>80</v>
@@ -15932,7 +15929,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',22,6,2),</v>
+        <v>('2035-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',22,6,2),</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -15971,8 +15968,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>2866</v>
+      <c r="B26" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -15994,7 +15991,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 90, 11, '2034-01-06 01:00:00',28,7,3),</v>
+        <v>('2035-01-06 01:00:00', 90, 11, '2034-01-06 01:00:00',28,7,3),</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -16033,8 +16030,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>2866</v>
+      <c r="B28" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C28">
         <v>85</v>
@@ -16056,7 +16053,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 12, '2034-01-06 01:00:00',32,8,3),</v>
+        <v>('2035-01-06 01:00:00', 85, 12, '2034-01-06 01:00:00',32,8,3),</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -16095,8 +16092,8 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>2865</v>
+      <c r="B30" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C30">
         <v>85</v>
@@ -16118,7 +16115,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 13, '2034-01-05 01:00:00',42,11,4),</v>
+        <v>('2035-01-05 01:00:00', 85, 13, '2034-01-05 01:00:00',42,11,4),</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -16157,8 +16154,8 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>2865</v>
+      <c r="B32" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -16180,7 +16177,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 75, 14, '2034-01-05 01:00:00',46,12,4),</v>
+        <v>('2035-01-05 01:00:00', 75, 14, '2034-01-05 01:00:00',46,12,4),</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16250,8 +16247,8 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>2866</v>
+      <c r="B35" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C35">
         <v>85</v>
@@ -16273,7 +16270,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 15, '2034-01-06 01:00:00',52,13,5),</v>
+        <v>('2035-01-06 01:00:00', 85, 15, '2034-01-06 01:00:00',52,13,5),</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16312,8 +16309,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>2866</v>
+      <c r="B37" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C37">
         <v>80</v>
@@ -16335,7 +16332,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 80, 17, '2034-01-06 01:00:00',20,5,2),</v>
+        <v>('2035-01-06 01:00:00', 80, 17, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16374,8 +16371,8 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>2866</v>
+      <c r="B39" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -16397,7 +16394,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 100, 18, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2035-01-06 01:00:00', 100, 18, '2034-01-06 01:00:00',4,1,1),</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -16436,8 +16433,8 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>2866</v>
+      <c r="B41" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -16459,7 +16456,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 40, 19, '2034-01-06 01:00:00',20,5,2),</v>
+        <v>('2035-01-06 01:00:00', 40, 19, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -16498,8 +16495,8 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>2866</v>
+      <c r="B43" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C43">
         <v>70</v>
@@ -16521,7 +16518,7 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 70, 20, '2034-01-06 01:00:00',8,2,1),</v>
+        <v>('2035-01-06 01:00:00', 70, 20, '2034-01-06 01:00:00',8,2,1),</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -16560,8 +16557,8 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>2866</v>
+      <c r="B45" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C45">
         <v>80</v>
@@ -16583,7 +16580,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 80, 21, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2035-01-06 01:00:00', 80, 21, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -16622,8 +16619,8 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>2866</v>
+      <c r="B47" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C47">
         <v>96</v>
@@ -16645,7 +16642,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 96, 22, '2034-01-06 01:00:00',40,10,4),</v>
+        <v>('2035-01-06 01:00:00', 96, 22, '2034-01-06 01:00:00',40,10,4),</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -16715,8 +16712,8 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>2865</v>
+      <c r="B50" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -16738,7 +16735,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 23, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2035-01-05 01:00:00', 90, 23, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -16800,8 +16797,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>2866</v>
+      <c r="B53" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -16823,7 +16820,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2035-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -16854,8 +16851,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>2865</v>
+      <c r="B55" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C55">
         <v>30</v>
@@ -16877,7 +16874,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2035-01-06 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -16908,8 +16905,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>2865</v>
+      <c r="B57" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C57">
         <v>90</v>
@@ -16931,7 +16928,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2035-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -16962,8 +16959,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
-        <v>2866</v>
+      <c r="B59" s="20" t="s">
+        <v>2901</v>
       </c>
       <c r="C59">
         <v>60</v>
@@ -16985,7 +16982,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2035-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -17016,8 +17013,8 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
-        <v>2865</v>
+      <c r="B61" s="20" t="s">
+        <v>2903</v>
       </c>
       <c r="C61">
         <v>70</v>
@@ -17039,7 +17036,7 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2035-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8908" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8914" uniqueCount="2933">
   <si>
     <t>id</t>
   </si>
@@ -8852,6 +8852,15 @@
   </si>
   <si>
     <t>2035-01-11 01:00:00</t>
+  </si>
+  <si>
+    <t>INFORMANTE</t>
+  </si>
+  <si>
+    <t>2036-01-06 01:00:00</t>
+  </si>
+  <si>
+    <t>2036-01-05 01:00:00</t>
   </si>
 </sst>
 </file>
@@ -13112,7 +13121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="J9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
@@ -13154,6 +13163,9 @@
       <c r="J3" t="s">
         <v>2387</v>
       </c>
+      <c r="M3" t="s">
+        <v>2930</v>
+      </c>
       <c r="N3" s="23" t="s">
         <v>2870</v>
       </c>
@@ -13377,7 +13389,7 @@
         <v>2627</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F28" si="4">F6+10</f>
+        <f t="shared" ref="F7:F27" si="4">F6+10</f>
         <v>560</v>
       </c>
       <c r="G7">
@@ -14879,7 +14891,7 @@
         <v>2902</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -14911,7 +14923,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2036-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -14944,7 +14956,7 @@
         <v>2901</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -14976,7 +14988,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2036-01-06 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -15009,7 +15021,7 @@
         <v>2927</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>2903</v>
+        <v>2932</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -15043,7 +15055,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2035-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2036-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -15076,7 +15088,7 @@
         <v>2928</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -15110,7 +15122,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2035-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2036-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15155,7 @@
         <v>2929</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>2903</v>
+        <v>2932</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -15175,7 +15187,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2035-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2036-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -15232,9 +15244,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K61"/>
+  <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K61"/>
     </sheetView>
   </sheetViews>
@@ -16798,7 +16810,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -16820,7 +16832,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2036-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -16852,7 +16864,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="C55">
         <v>30</v>
@@ -16874,7 +16886,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2036-01-06 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -16906,7 +16918,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
-        <v>2903</v>
+        <v>2932</v>
       </c>
       <c r="C57">
         <v>90</v>
@@ -16928,7 +16940,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2036-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -16960,7 +16972,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
-        <v>2901</v>
+        <v>2931</v>
       </c>
       <c r="C59">
         <v>60</v>
@@ -16982,7 +16994,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2036-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -17014,7 +17026,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
-        <v>2903</v>
+        <v>2932</v>
       </c>
       <c r="C61">
         <v>70</v>
@@ -17036,7 +17048,32 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2036-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>2932</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -8872,7 +8872,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="\.\o\rg\.\ve"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8935,6 +8935,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8993,7 +9000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9032,6 +9039,11 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10315,18 +10327,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>2643</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>2644</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -13121,8 +13133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U33"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13166,16 +13178,16 @@
       <c r="M3" t="s">
         <v>2930</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="26" t="s">
         <v>2870</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="26" t="s">
         <v>2869</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -13559,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" ref="P9:P27" si="5">P7+1</f>
+        <f t="shared" ref="N9:P27" si="5">P7+1</f>
         <v>3</v>
       </c>
       <c r="Q9" s="16">
@@ -13892,14 +13904,12 @@
         <v>9</v>
       </c>
       <c r="N14">
-        <f>N13+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q14" s="16">
@@ -13914,7 +13924,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 610, 75, 80 , '2034-05-06 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 6, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 610, 75, 80 , '2034-05-06 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -14030,12 +14040,10 @@
         <v>9</v>
       </c>
       <c r="N16">
-        <f>N15+1</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O16">
-        <f>O13+1</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P16" s="17">
         <v>27</v>
@@ -14051,7 +14059,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 630, 85, 85 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 7, 3, 27, 9, '2034-01-05 01:00:00', 101),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 630, 85, 85 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 27, 9, 27, 9, '2034-01-05 01:00:00', 101),</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -14096,13 +14104,11 @@
       <c r="M17" t="s">
         <v>9</v>
       </c>
-      <c r="N17">
-        <f>N16+1</f>
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <f>O14+1</f>
-        <v>3</v>
+      <c r="N17" s="15">
+        <v>1</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1</v>
       </c>
       <c r="P17" s="15">
         <v>1</v>
@@ -14118,7 +14124,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 640, 90, 95 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, null, 8, 3, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 640, 90, 95 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -14163,11 +14169,11 @@
       <c r="M18">
         <v>10</v>
       </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1</v>
       </c>
       <c r="P18" s="15">
         <v>1</v>
@@ -14184,7 +14190,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 650, 70, 60 , '2034-01-20 01:00:00', '2035-01-05 01:00:00', 2, 1, 10, 5, 2, 1, 1, '2034-01-06 01:00:00', 3),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 650, 70, 60 , '2034-01-20 01:00:00', '2035-01-05 01:00:00', 2, 1, 10, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -14229,12 +14235,12 @@
       <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="N19">
-        <f>N18+1</f>
-        <v>6</v>
-      </c>
-      <c r="O19">
+      <c r="N19" s="15">
+        <f>N17+1</f>
         <v>2</v>
+      </c>
+      <c r="O19" s="16">
+        <v>1</v>
       </c>
       <c r="P19" s="15">
         <f>P17+1</f>
@@ -14252,7 +14258,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 660, 60, 60 , '2034-02-14 01:00:00', '2035-01-06 01:00:00', 3, 8, null, 6, 2, 2, 1, '2034-01-05 01:00:00', 5),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 660, 60, 60 , '2034-02-14 01:00:00', '2035-01-06 01:00:00', 3, 8, null, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -14296,12 +14302,12 @@
       <c r="M20" t="s">
         <v>9</v>
       </c>
-      <c r="N20">
-        <f>N19+1</f>
-        <v>7</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
+      <c r="N20" s="15">
+        <f>N18+1</f>
+        <v>2</v>
+      </c>
+      <c r="O20" s="16">
+        <v>1</v>
       </c>
       <c r="P20" s="15">
         <f>P18+1</f>
@@ -14319,7 +14325,7 @@
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE("('",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", ",G20,", ",H20," , '",I20,"', ",J20,", ",K20,", ",L20,", ",M20,", ",N20,", ",O20,", ",P20,", ",Q20,", '",R20,"', ",S20,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', null, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 7, 3, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', null, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14364,11 +14370,12 @@
       <c r="M21">
         <v>11</v>
       </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
+      <c r="N21" s="15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="5"/>
@@ -14386,7 +14393,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 660, 90, 85 , '2034-03-12 01:00:00', '2035-01-06 01:00:00', 2, 2, 11, 6, 2, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 660, 90, 85 , '2034-03-12 01:00:00', '2035-01-06 01:00:00', 2, 2, 11, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14431,12 +14438,12 @@
       <c r="M22" t="s">
         <v>9</v>
       </c>
-      <c r="N22">
-        <f>N21+1</f>
-        <v>7</v>
-      </c>
-      <c r="O22">
+      <c r="N22" s="15">
+        <f t="shared" si="5"/>
         <v>3</v>
+      </c>
+      <c r="O22" s="16">
+        <v>1</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="5"/>
@@ -14454,7 +14461,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 670, 30, 30 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 2, null, 7, 3, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 670, 30, 30 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 2, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14499,12 +14506,12 @@
       <c r="M23" t="s">
         <v>9</v>
       </c>
-      <c r="N23">
-        <f>N22+1</f>
-        <v>8</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
+      <c r="N23" s="15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O23" s="16">
+        <v>2</v>
       </c>
       <c r="P23" s="15">
         <f t="shared" si="5"/>
@@ -14522,7 +14529,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 680, 40, 35 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 4, null, 8, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 680, 40, 35 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 4, null, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -14567,10 +14574,11 @@
       <c r="M24">
         <v>12</v>
       </c>
-      <c r="N24">
-        <v>6</v>
-      </c>
-      <c r="O24">
+      <c r="N24" s="15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O24" s="16">
         <v>2</v>
       </c>
       <c r="P24" s="15">
@@ -14589,7 +14597,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 690, 50, 66 , '2034-03-05 01:00:00', '2035-01-06 01:00:00', 2, 3, 12, 6, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 690, 50, 66 , '2034-03-05 01:00:00', '2035-01-06 01:00:00', 2, 3, 12, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -14634,12 +14642,12 @@
       <c r="M25" t="s">
         <v>9</v>
       </c>
-      <c r="N25">
-        <f>N24+1</f>
-        <v>7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
+      <c r="N25" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O25" s="16">
+        <v>2</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" si="5"/>
@@ -14657,7 +14665,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 700, 45, 45 , '2035-01-05 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 7, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 700, 45, 45 , '2035-01-05 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -14702,12 +14710,12 @@
       <c r="M26" t="s">
         <v>9</v>
       </c>
-      <c r="N26">
-        <f>N25+1</f>
-        <v>8</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
+      <c r="N26" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="16">
+        <v>2</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="5"/>
@@ -14725,7 +14733,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 710, 95, 90 , '2034-12-24 01:00:00', '2035-01-06 01:00:00', 2, 3, null, 8, 3, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 710, 95, 90 , '2034-12-24 01:00:00', '2035-01-06 01:00:00', 2, 3, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -14770,12 +14778,12 @@
       <c r="M27" t="s">
         <v>9</v>
       </c>
-      <c r="N27">
-        <f>N26+1</f>
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
+      <c r="N27" s="15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O27" s="16">
+        <v>2</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="5"/>
@@ -14793,7 +14801,7 @@
       </c>
       <c r="U27" t="str">
         <f>CONCATENATE("('",B27,"', '",C27,"', '",D27,"', '",E27,"', ",F27,", ",G27,", ",H27," , '",I27,"', '",J27,"', ",K27,", ",L27,", ",M27,", ",N27,", ",O27,", ",P27,", ",Q27,", '",R27,"', ",S27,"),")</f>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 720, 90, 89 , '2034-11-11 01:00:00', '2035-01-05 01:00:00', 3, 3, null, 9, 3, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 720, 90, 89 , '2034-11-11 01:00:00', '2035-01-05 01:00:00', 3, 3, null, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -14837,12 +14845,11 @@
       <c r="M28" t="s">
         <v>9</v>
       </c>
-      <c r="N28">
-        <f>N27+1</f>
-        <v>10</v>
+      <c r="N28" s="15">
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
@@ -14858,7 +14865,7 @@
       </c>
       <c r="U28" t="str">
         <f>CONCATENATE("('",B28,"', '",C28,"', '",D28,"', '",E28,"', ",F28,", ",G28,", ",H28," , '",I28,"', ",J28,", ",K28,", ",L28,", ",M28,", ",N28,", ",O28,", ",P28,", ",Q28,", '",R28,"', ",S28,"),")</f>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85, null , '2035-01-30 01:00:00', null, 3, 8, null, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85, null , '2035-01-30 01:00:00', null, 3, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -14903,11 +14910,10 @@
         <v>9</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29" si="8">N28+1</f>
-        <v>11</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O29" s="16">
+        <v>1</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -14923,7 +14929,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2036-01-06 01:00:00', 2, 8, null, 11, 4, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2036-01-06 01:00:00', 2, 8, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -14967,11 +14973,11 @@
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="N30">
-        <v>7</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
+      <c r="N30" s="15">
+        <v>4</v>
+      </c>
+      <c r="O30" s="16">
+        <v>2</v>
       </c>
       <c r="P30" s="15">
         <v>4</v>
@@ -14983,12 +14989,12 @@
         <v>2865</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" ref="S30:S32" si="9">S29+2</f>
+        <f t="shared" ref="S30:S32" si="8">S29+2</f>
         <v>13</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2036-01-06 01:00:00', 2, 6, 1, 7, 3, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2036-01-06 01:00:00', 2, 6, 1, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -15033,14 +15039,15 @@
         <f>M30+2</f>
         <v>3</v>
       </c>
-      <c r="N31">
-        <v>8</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
+      <c r="N31" s="15">
+        <f t="shared" ref="N31:P32" si="9">N29+1</f>
+        <v>4</v>
+      </c>
+      <c r="O31" s="16">
+        <v>2</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31:P32" si="10">P29+1</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q31" s="16">
@@ -15050,12 +15057,12 @@
         <v>2866</v>
       </c>
       <c r="S31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2036-01-05 01:00:00', 2, 3, 3, 8, 3, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2036-01-05 01:00:00', 2, 3, 3, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -15097,17 +15104,18 @@
         <v>8</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" ref="M32:M33" si="11">M31+2</f>
+        <f t="shared" ref="M32:M33" si="10">M31+2</f>
         <v>5</v>
       </c>
-      <c r="N32">
-        <v>9</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
+      <c r="N32" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O32" s="16">
+        <v>2</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q32" s="16">
@@ -15117,12 +15125,12 @@
         <v>2865</v>
       </c>
       <c r="S32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2036-01-06 01:00:00', 2, 8, 5, 9, 3, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2036-01-06 01:00:00', 2, 8, 5, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15164,14 +15172,14 @@
         <v>6</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="N33">
-        <v>10</v>
+      <c r="N33" s="15">
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P33" s="15">
         <v>1</v>
@@ -15187,7 +15195,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2036-01-05 01:00:00', 2, 6, 7, 10, 4, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2036-01-05 01:00:00', 2, 6, 7, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -15244,9 +15252,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K68"/>
+  <dimension ref="A2:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K61"/>
     </sheetView>
   </sheetViews>
@@ -15258,12 +15266,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>2911</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -15311,17 +15319,17 @@
         <v>2865</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE("('",B4,"', ",C4,", ",D4,", '",E4,"',",F4,",",G4,",",H4,"),")</f>
-        <v>('2034-01-05 01:00:00', 60, 1, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2034-01-05 01:00:00', 60, 1, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15335,24 +15343,24 @@
       <c r="C5">
         <v>85</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>2866</v>
+      <c r="E5" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K61" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
-        <v>('2035-01-06 01:00:00', 85, 1, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2035-01-06 01:00:00', 85, 1, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15369,21 +15377,21 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>2865</v>
+      <c r="E6" s="21" t="s">
+        <v>2866</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="23">
+        <v>3</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 2, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2034-01-05 01:00:00', 30, 2, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15397,7 +15405,7 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>2</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -15406,7 +15414,7 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
       <c r="H7">
@@ -15431,21 +15439,21 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>2866</v>
+      <c r="E8" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="23">
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 3, '2034-01-06 01:00:00',8,2,1),</v>
+        <v>('2034-01-06 01:00:00', 85, 3, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15459,7 +15467,7 @@
       <c r="C9">
         <v>90</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -15468,7 +15476,7 @@
       <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="23">
         <v>5</v>
       </c>
       <c r="H9">
@@ -15499,7 +15507,7 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="23">
         <v>3</v>
       </c>
       <c r="H10">
@@ -15521,24 +15529,24 @@
       <c r="C11">
         <v>60</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="22">
         <v>4</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>2866</v>
+      <c r="E11" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11" s="17">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="23">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 60, 4, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2035-01-06 01:00:00', 60, 4, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15561,7 +15569,7 @@
       <c r="F12">
         <v>14</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="23">
         <v>4</v>
       </c>
       <c r="H12">
@@ -15583,7 +15591,7 @@
       <c r="C13">
         <v>70</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="22">
         <v>5</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -15592,7 +15600,7 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="23">
         <v>1</v>
       </c>
       <c r="H13">
@@ -15623,7 +15631,7 @@
       <c r="F14">
         <v>16</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="23">
         <v>4</v>
       </c>
       <c r="H14">
@@ -15645,7 +15653,7 @@
       <c r="C15">
         <v>85</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="22">
         <v>6</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -15654,7 +15662,7 @@
       <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="23">
         <v>5</v>
       </c>
       <c r="H15">
@@ -15685,7 +15693,7 @@
       <c r="F16">
         <v>20</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="23">
         <v>5</v>
       </c>
       <c r="H16">
@@ -15707,7 +15715,7 @@
       <c r="C17">
         <v>45</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="22">
         <v>7</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -15716,7 +15724,7 @@
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="23">
         <v>3</v>
       </c>
       <c r="H17">
@@ -15747,7 +15755,7 @@
       <c r="F18">
         <v>102</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="23">
         <v>27</v>
       </c>
       <c r="H18">
@@ -15778,7 +15786,7 @@
       <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="23">
         <v>3</v>
       </c>
       <c r="H19">
@@ -15800,7 +15808,7 @@
       <c r="C20">
         <v>85</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="22">
         <v>8</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -15809,7 +15817,7 @@
       <c r="F20">
         <v>6</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="23">
         <v>2</v>
       </c>
       <c r="H20">
@@ -15840,7 +15848,7 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="23">
         <v>1</v>
       </c>
       <c r="H21">
@@ -15862,7 +15870,7 @@
       <c r="C22">
         <v>95</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="22">
         <v>9</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -15871,7 +15879,7 @@
       <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="23">
         <v>2</v>
       </c>
       <c r="H22">
@@ -15900,17 +15908,17 @@
         <v>2866</v>
       </c>
       <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 75, 10, '2034-01-06 01:00:00',20,5,2),</v>
+        <v>('2034-01-06 01:00:00', 75, 10, '2034-01-06 01:00:00',16,4,2),</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -15924,24 +15932,24 @@
       <c r="C24">
         <v>80</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="22">
         <v>10</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F24">
-        <v>22</v>
-      </c>
-      <c r="G24" s="17">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',22,6,2),</v>
+        <v>('2035-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -15964,7 +15972,7 @@
       <c r="F25">
         <v>26</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="23">
         <v>7</v>
       </c>
       <c r="H25">
@@ -15986,24 +15994,24 @@
       <c r="C26">
         <v>90</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="22">
         <v>11</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>2866</v>
+      <c r="E26" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F26">
-        <v>28</v>
-      </c>
-      <c r="G26" s="17">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="G26" s="23">
+        <v>8</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 90, 11, '2034-01-06 01:00:00',28,7,3),</v>
+        <v>('2035-01-06 01:00:00', 90, 11, '2034-01-05 01:00:00',30,8,3),</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -16026,7 +16034,7 @@
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="23">
         <v>8</v>
       </c>
       <c r="H27">
@@ -16048,24 +16056,24 @@
       <c r="C28">
         <v>85</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="22">
         <v>12</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F28">
-        <v>32</v>
-      </c>
-      <c r="G28" s="17">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="G28" s="23">
+        <v>9</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 85, 12, '2034-01-06 01:00:00',32,8,3),</v>
+        <v>('2035-01-06 01:00:00', 85, 12, '2034-01-05 01:00:00',34,9,3),</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -16088,7 +16096,7 @@
       <c r="F29">
         <v>40</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="23">
         <v>10</v>
       </c>
       <c r="H29">
@@ -16110,7 +16118,7 @@
       <c r="C30">
         <v>85</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="22">
         <v>13</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -16119,7 +16127,7 @@
       <c r="F30">
         <v>42</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="23">
         <v>11</v>
       </c>
       <c r="H30">
@@ -16150,7 +16158,7 @@
       <c r="F31">
         <v>44</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="23">
         <v>11</v>
       </c>
       <c r="H31">
@@ -16172,7 +16180,7 @@
       <c r="C32">
         <v>75</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="22">
         <v>14</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -16181,7 +16189,7 @@
       <c r="F32">
         <v>46</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="23">
         <v>12</v>
       </c>
       <c r="H32">
@@ -16192,7 +16200,7 @@
         <v>('2035-01-05 01:00:00', 75, 14, '2034-01-05 01:00:00',46,12,4),</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -16212,7 +16220,7 @@
       <c r="F33">
         <v>48</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="23">
         <v>12</v>
       </c>
       <c r="H33">
@@ -16223,7 +16231,7 @@
         <v>('2034-01-06 01:00:00', 90, 15, '2034-01-06 01:00:00',48,12,4),</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -16243,7 +16251,7 @@
       <c r="F34">
         <v>50</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="23">
         <v>13</v>
       </c>
       <c r="H34">
@@ -16254,7 +16262,7 @@
         <v>('2034-01-05 01:00:00', 90, 15, '2034-01-05 01:00:00',50,13,5),</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -16265,27 +16273,27 @@
       <c r="C35">
         <v>85</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="22">
         <v>15</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>2866</v>
+      <c r="E35" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F35">
-        <v>52</v>
-      </c>
-      <c r="G35" s="17">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="G35" s="23">
+        <v>14</v>
       </c>
       <c r="H35">
         <v>5</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 85, 15, '2034-01-06 01:00:00',52,13,5),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2035-01-06 01:00:00', 85, 15, '2034-01-05 01:00:00',54,14,5),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -16305,7 +16313,7 @@
       <c r="F36">
         <v>40</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="22">
         <v>10</v>
       </c>
       <c r="H36">
@@ -16316,7 +16324,7 @@
         <v>('2034-01-06 01:00:00', 85, 17, '2034-01-06 01:00:00',40,10,4),</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -16327,16 +16335,16 @@
       <c r="C37">
         <v>80</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="22">
         <v>17</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="21" t="s">
         <v>2866</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="22">
         <v>5</v>
       </c>
       <c r="H37">
@@ -16347,7 +16355,7 @@
         <v>('2035-01-06 01:00:00', 80, 17, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -16367,7 +16375,7 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="22">
         <v>1</v>
       </c>
       <c r="H38">
@@ -16378,224 +16386,252 @@
         <v>('2034-01-05 01:00:00', 30, 18, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>2901</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="24">
         <v>100</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="24">
         <v>18</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="24">
+        <v>8</v>
+      </c>
+      <c r="G39" s="22">
+        <v>2</v>
+      </c>
+      <c r="H39" s="24">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="str">
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 100, 18, '2034-01-06 01:00:00',4,1,1),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <v>('2035-01-06 01:00:00', 100, 18, '2034-01-06 01:00:00',8,2,1),</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="24">
         <v>40</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="24">
         <v>19</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="24">
         <v>22</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="22">
         <v>6</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="24">
         <v>2</v>
       </c>
-      <c r="K40" t="str">
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>('2034-01-05 01:00:00', 40, 19, '2034-01-05 01:00:00',22,6,2),</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>2901</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="24">
         <v>40</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="24">
         <v>19</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="24">
         <v>20</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="22">
         <v>5</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="24">
         <v>2</v>
       </c>
-      <c r="K41" t="str">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>('2035-01-06 01:00:00', 40, 19, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="24">
         <v>70</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="24">
         <v>20</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="24">
         <v>6</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="22">
         <v>2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="24">
         <v>1</v>
       </c>
-      <c r="K42" t="str">
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>('2034-01-05 01:00:00', 70, 20, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>2901</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="24">
         <v>70</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="24">
         <v>20</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F43">
-        <v>8</v>
-      </c>
-      <c r="G43">
+      <c r="E43" s="21" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F43" s="24">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="22">
         <v>1</v>
       </c>
-      <c r="K43" t="str">
+      <c r="H43" s="24">
+        <v>1</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 70, 20, '2034-01-06 01:00:00',8,2,1),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v>('2035-01-06 01:00:00', 70, 20, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="24">
         <v>60</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="24">
         <v>21</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="str">
+      <c r="E44" s="21" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F44" s="24">
+        <v>16</v>
+      </c>
+      <c r="G44" s="22">
+        <v>4</v>
+      </c>
+      <c r="H44" s="24">
+        <v>2</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 60, 21, '2034-01-05 01:00:00',10,3,1),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <v>('2034-01-05 01:00:00', 60, 21, '2034-01-06 01:00:00',16,4,2),</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>2901</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="24">
         <v>80</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="24">
         <v>21</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="24">
         <v>12</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="22">
         <v>3</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="24">
         <v>1</v>
       </c>
-      <c r="K45" t="str">
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24" t="str">
         <f t="shared" si="0"/>
         <v>('2035-01-06 01:00:00', 80, 21, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -16615,7 +16651,7 @@
       <c r="F46">
         <v>24</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="22">
         <v>6</v>
       </c>
       <c r="H46">
@@ -16626,7 +16662,7 @@
         <v>('2034-01-06 01:00:00', 95, 22, '2034-01-06 01:00:00',24,6,2),</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -16646,7 +16682,7 @@
       <c r="F47">
         <v>40</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="22">
         <v>10</v>
       </c>
       <c r="H47">
@@ -16657,7 +16693,7 @@
         <v>('2035-01-06 01:00:00', 96, 22, '2034-01-06 01:00:00',40,10,4),</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -16677,7 +16713,7 @@
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="22">
         <v>1</v>
       </c>
       <c r="H48">
@@ -16706,17 +16742,17 @@
         <v>2866</v>
       </c>
       <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G49" s="22">
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 95, 23, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2034-01-06 01:00:00', 95, 23, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -16739,7 +16775,7 @@
       <c r="F50">
         <v>6</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="22">
         <v>2</v>
       </c>
       <c r="H50">
@@ -16770,7 +16806,7 @@
       <c r="F51">
         <v>30</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="22">
         <v>8</v>
       </c>
       <c r="H51">
@@ -16797,7 +16833,7 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="23">
         <v>1</v>
       </c>
       <c r="H52">
@@ -16818,21 +16854,21 @@
       <c r="D53">
         <v>25</v>
       </c>
-      <c r="E53" s="19" t="s">
-        <v>2866</v>
+      <c r="E53" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53" s="23">
         <v>4</v>
       </c>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-06 01:00:00', 85, 25, '2034-01-06 01:00:00',4,1,1),</v>
+        <v>('2036-01-06 01:00:00', 85, 25, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -16851,7 +16887,7 @@
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="23">
         <v>1</v>
       </c>
       <c r="H54">
@@ -16878,7 +16914,7 @@
       <c r="F55">
         <v>6</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="23">
         <v>2</v>
       </c>
       <c r="H55">
@@ -16905,7 +16941,7 @@
       <c r="F56">
         <v>8</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="23">
         <v>2</v>
       </c>
       <c r="H56">
@@ -16932,7 +16968,7 @@
       <c r="F57">
         <v>18</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="23">
         <v>5</v>
       </c>
       <c r="H57">
@@ -16959,7 +16995,7 @@
       <c r="F58">
         <v>10</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="23">
         <v>3</v>
       </c>
       <c r="H58">
@@ -16981,20 +17017,20 @@
         <v>28</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F59">
-        <v>12</v>
-      </c>
-      <c r="G59" s="17">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="G59" s="23">
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-06 01:00:00', 60, 28, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2036-01-06 01:00:00', 60, 28, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -17013,7 +17049,7 @@
       <c r="F60">
         <v>14</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="23">
         <v>4</v>
       </c>
       <c r="H60">
@@ -17038,17 +17074,17 @@
         <v>2865</v>
       </c>
       <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61" s="17">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="23">
+        <v>3</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2036-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17081,6 +17117,7 @@
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55538,10 +55575,10 @@
       <c r="C3" t="s">
         <v>2501</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>2388</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="25"/>
       <c r="I3" t="s">
         <v>2500</v>
       </c>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8914" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8920" uniqueCount="2931">
   <si>
     <t>id</t>
   </si>
@@ -8749,42 +8749,21 @@
     <t>2034-03-05 01:00:00</t>
   </si>
   <si>
-    <t>2034-05-06 01:00:00</t>
-  </si>
-  <si>
     <t>2034-06-05 01:00:00</t>
   </si>
   <si>
     <t>2034-01-20 01:00:00</t>
   </si>
   <si>
-    <t>2034-02-14 01:00:00</t>
-  </si>
-  <si>
-    <t>2034-03-19 01:00:00</t>
-  </si>
-  <si>
     <t>2034-03-12 01:00:00</t>
   </si>
   <si>
     <t>2035-01-06 01:00:00</t>
   </si>
   <si>
-    <t>2035-02-14 01:00:00</t>
-  </si>
-  <si>
     <t>2035-01-05 01:00:00</t>
   </si>
   <si>
-    <t>2034-12-24 01:00:00</t>
-  </si>
-  <si>
-    <t>2034-11-11 01:00:00</t>
-  </si>
-  <si>
-    <t>2035-01-30 01:00:00</t>
-  </si>
-  <si>
     <t>abierta</t>
   </si>
   <si>
@@ -8845,15 +8824,6 @@
     <t>Empresa en quiebra por malas decisiones del directivo part II</t>
   </si>
   <si>
-    <t>2035-01-09 01:00:00</t>
-  </si>
-  <si>
-    <t>2035-01-20 01:00:00</t>
-  </si>
-  <si>
-    <t>2035-01-11 01:00:00</t>
-  </si>
-  <si>
     <t>INFORMANTE</t>
   </si>
   <si>
@@ -8861,6 +8831,30 @@
   </si>
   <si>
     <t>2036-01-05 01:00:00</t>
+  </si>
+  <si>
+    <t>2034-12-02 17:00:00</t>
+  </si>
+  <si>
+    <t>2034-05-19 07:00:00</t>
+  </si>
+  <si>
+    <t>2034-11-03 07:00:00</t>
+  </si>
+  <si>
+    <t>2034-10-04 02:00:00</t>
+  </si>
+  <si>
+    <t>2034-07-07 05:00:00</t>
+  </si>
+  <si>
+    <t>2034-02-28 07:00:00</t>
+  </si>
+  <si>
+    <t>2035-03-10 06:00:00</t>
+  </si>
+  <si>
+    <t>2034-07-04 02:00:00</t>
   </si>
 </sst>
 </file>
@@ -9000,7 +8994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9055,6 +9049,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13133,8 +13137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:Q33"/>
+    <sheetView topLeftCell="K14" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13146,7 +13150,7 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="10" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="15" max="15" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" customWidth="1"/>
@@ -13162,7 +13166,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>2919</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13172,11 +13176,11 @@
       <c r="H3" t="s">
         <v>2386</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>2387</v>
       </c>
       <c r="M3" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>2870</v>
@@ -13217,7 +13221,7 @@
       <c r="I4" t="s">
         <v>2374</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>2375</v>
       </c>
       <c r="K4" t="s">
@@ -13251,7 +13255,7 @@
         <v>209</v>
       </c>
       <c r="U4" t="s">
-        <v>2919</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13279,11 +13283,11 @@
       <c r="H5">
         <v>85</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>2889</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>2901</v>
+      <c r="I5" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>2923</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13314,7 +13318,7 @@
       </c>
       <c r="U5" t="str">
         <f>CONCATENATE("('",B5,"', '",C5,"', '",D5,"', '",E5,"', ",F5,", ",G5,", ",H5," , '",I5,"', '",J5,"', ",K5,", ",L5,", ",M5,", ",N5,", ",O5,", ",P5,", ",Q5,", '",R5,"', ",S5,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam I', 'secreta', 500, 85, 85 , '2034-01-08 01:00:00', '2035-01-06 01:00:00', 2, 1, 1, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam I', 'secreta', 500, 85, 85 , '2034-01-05 01:00:00', '2034-12-02 17:00:00', 2, 1, 1, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -13338,16 +13342,16 @@
         <v>550</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>2890</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>2903</v>
+      <c r="I6" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>2925</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -13380,7 +13384,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" ref="U6:U33" si="3">CONCATENATE("('",B6,"', '",C6,"', '",D6,"', '",E6,"', ",F6,", ",G6,", ",H6," , '",I6,"', '",J6,"', ",K6,", ",L6,", ",M6,", ",N6,", ",O6,", ",P6,", ",Q6,", '",R6,"', ",S6,"),")</f>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam II', 'secreta', 550, 30, 10 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 7, 2, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Problemas politicos en Vitnam II', 'secreta', 550, 87, 10 , '2034-01-05 01:00:00', '2034-11-03 07:00:00', 2, 7, 2, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -13401,20 +13405,20 @@
         <v>2627</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F27" si="4">F6+10</f>
+        <f t="shared" ref="F7:F33" si="4">F6+10</f>
         <v>560</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>90</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>2889</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>2903</v>
+      <c r="I7" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>2926</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13449,7 +13453,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos por territorio', 'secreta', 560, 85, 90 , '2034-01-08 01:00:00', '2035-01-05 01:00:00', 2, 8, 3, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
+        <v>('crudo_contenido/imagen.jpg', 'imagen', 'Consecuencias de problemas politicos por territorio', 'secreta', 560, 88, 90 , '2034-01-06 01:00:00', '2034-10-04 02:00:00', 2, 8, 3, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -13474,16 +13478,16 @@
         <v>570</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>85</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>2890</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>2901</v>
+      <c r="I8" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -13517,7 +13521,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por cambio de leyes', 'secreta', 570, 50, 85 , '2034-01-09 01:00:00', '2035-01-06 01:00:00', 2, 9, 4, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por cambio de leyes', 'secreta', 570, 85, 85 , '2034-01-05 01:00:00', '2035-01-06 01:00:00', 2, 9, 4, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -13542,16 +13546,16 @@
         <v>580</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H9">
         <v>90</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>2891</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>2903</v>
+      <c r="I9" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>2899</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -13586,7 +13590,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos por petroleo en otros territorios', 'secreta', 580, 60, 90 , '2034-01-10 01:00:00', '2035-01-05 01:00:00', 2, 9, 5, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos por petroleo en otros territorios', 'secreta', 580, 93, 90 , '2034-01-05 01:00:00', '2035-01-05 01:00:00', 2, 9, 5, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -13616,11 +13620,11 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>2890</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>2903</v>
+      <c r="I10" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>2927</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -13654,7 +13658,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Resultado de guerras entre paises ', 'secreta', 590, 85, 60 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, 6, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Resultado de guerras entre paises ', 'secreta', 590, 85, 60 , '2034-01-06 01:00:00', '2034-07-07 05:00:00', 2, 8, 6, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -13674,20 +13678,21 @@
       <c r="E11" s="9" t="s">
         <v>2627</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>2892</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>2925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13721,8 +13726,8 @@
         <v>13</v>
       </c>
       <c r="U11" t="str">
-        <f>CONCATENATE("('",B11,"', '",C11,"', '",D11,"', '",E11,"', ",F11,", ",G11,", ",H11," , '",I11,"', ",J11,", ",K11,", ",L11,", ",M11,", ",N11,", ",O11,", ",P11,", ",Q11,", '",R11,"', ",S11,"),")</f>
-        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', null, 35, null , '2034-01-11 01:00:00', null, 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/imagen2.jpg', 'imagen', 'Consecuencias de problemas politicos ', 'secreta', 600, 90, 90 , '2034-01-06 01:00:00', '2034-11-03 07:00:00', 3, 9, 7, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -13743,8 +13748,8 @@
         <v>2627</v>
       </c>
       <c r="F12">
-        <f>F10</f>
-        <v>590</v>
+        <f t="shared" si="4"/>
+        <v>610</v>
       </c>
       <c r="G12">
         <v>85</v>
@@ -13752,11 +13757,11 @@
       <c r="H12">
         <v>70</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>2903</v>
+      <c r="I12" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>2926</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13790,7 +13795,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por digustos de una población por el abuso de poder', 'secreta', 590, 85, 70 , '2034-02-10 01:00:00', '2035-01-05 01:00:00', 3, 9, 8, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/imagen4.jpg', 'imagen', 'Manifestaciones por digustos de una población por el abuso de poder', 'secreta', 610, 85, 70 , '2034-01-05 01:00:00', '2034-10-04 02:00:00', 3, 9, 8, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -13808,23 +13813,23 @@
         <v>2882</v>
       </c>
       <c r="E13" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <v>90</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>2894</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>2903</v>
+      <c r="I13" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>2899</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -13858,7 +13863,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'abierta', 600, 90, 90 , '2034-03-05 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'abierta', 620, 93, 90 , '2034-01-05 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -13880,19 +13885,19 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H14">
         <v>80</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>2895</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>2903</v>
+      <c r="I14" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>2899</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13924,7 +13929,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 610, 75, 80 , '2034-05-06 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Conflictos entre paises por poder II', 'tecnica', 630, 88, 80 , '2034-01-06 01:00:00', '2035-01-05 01:00:00', 2, 1, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -13946,19 +13951,19 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>2896</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>2901</v>
+      <c r="I15" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>2928</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13994,7 +13999,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Tension entre paises y sus consecuencias', 'secreta', 620, 100, 80 , '2034-06-05 01:00:00', '2035-01-06 01:00:00', 2, 1, 9, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Tension entre paises y sus consecuencias', 'secreta', 640, 90, 80 , '2034-01-05 01:00:00', '2034-02-28 07:00:00', 2, 1, 9, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -14012,11 +14017,11 @@
         <v>2880</v>
       </c>
       <c r="E16" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="G16">
         <v>85</v>
@@ -14024,11 +14029,11 @@
       <c r="H16">
         <v>85</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>2866</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>2901</v>
+      <c r="I16" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -14059,7 +14064,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 630, 85, 85 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 27, 9, 27, 9, '2034-01-05 01:00:00', 101),</v>
+        <v>('crudo_contenido/texto2.txt', 'texto', 'Resultados de los conflictos I', 'abierta', 650, 85, 85 , '2034-01-05 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 27, 9, 27, 9, '2034-01-05 01:00:00', 101),</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -14081,19 +14086,19 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="G17">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17">
         <v>95</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>2890</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>2903</v>
+      <c r="I17" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>2899</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -14124,7 +14129,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 640, 90, 95 , '2034-01-09 01:00:00', '2035-01-05 01:00:00', 2, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de los conflictos II', 'tecnica', 660, 88, 95 , '2034-01-06 01:00:00', '2035-01-05 01:00:00', 2, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -14146,19 +14151,19 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H18">
         <v>60</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>2897</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>2903</v>
+      <c r="I18" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>2899</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -14190,7 +14195,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 650, 70, 60 , '2034-01-20 01:00:00', '2035-01-05 01:00:00', 2, 1, 10, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas', 'secreta', 670, 94, 60 , '2034-01-06 01:00:00', '2035-01-05 01:00:00', 2, 1, 10, 1, 1, 1, 1, '2034-01-06 01:00:00', 3),</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -14208,23 +14213,23 @@
         <v>2884</v>
       </c>
       <c r="E19" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>60</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>2898</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>2901</v>
+      <c r="I19" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>2928</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -14258,7 +14263,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 660, 60, 60 , '2034-02-14 01:00:00', '2035-01-06 01:00:00', 3, 8, null, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
+        <v>('crudo_contenido/texto.txt', 'texto', 'Resultados de conflictos entre grupo de personas II', 'abierta', 680, 88, 60 , '2034-01-06 01:00:00', '2034-02-28 07:00:00', 3, 8, null, 2, 1, 2, 1, '2034-01-05 01:00:00', 5),</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -14270,7 +14275,7 @@
         <v>2636</v>
       </c>
       <c r="C20" t="s">
-        <v>2921</v>
+        <v>2914</v>
       </c>
       <c r="D20" t="s">
         <v>2888</v>
@@ -14278,20 +14283,21 @@
       <c r="E20" t="s">
         <v>2632</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>690</v>
       </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>2899</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>2929</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -14324,8 +14330,8 @@
         <v>7</v>
       </c>
       <c r="U20" t="str">
-        <f>CONCATENATE("('",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", ",G20,", ",H20," , '",I20,"', ",J20,", ",K20,", ",L20,", ",M20,", ",N20,", ",O20,", ",P20,", ",Q20,", '",R20,"', ",S20,"),")</f>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', null, 100, null , '2034-03-19 01:00:00', null, 3, 2, null, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'tecnica', 690, 90, 90 , '2034-01-05 01:00:00', '2035-03-10 06:00:00', 3, 2, null, 2, 1, 2, 1, '2034-01-06 01:00:00', 7),</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14337,7 +14343,7 @@
         <v>2636</v>
       </c>
       <c r="C21" t="s">
-        <v>2921</v>
+        <v>2914</v>
       </c>
       <c r="D21" t="s">
         <v>2888</v>
@@ -14346,20 +14352,20 @@
         <v>2627</v>
       </c>
       <c r="F21">
-        <f>F19</f>
-        <v>660</v>
+        <f t="shared" si="4"/>
+        <v>700</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>85</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>2900</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>2901</v>
+      <c r="I21" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14393,7 +14399,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 660, 90, 85 , '2034-03-12 01:00:00', '2035-01-06 01:00:00', 2, 2, 11, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Agresion de grupo de personas en la via publica', 'secreta', 700, 87, 85 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 2, 11, 3, 1, 3, 1, '2034-01-05 01:00:00', 9),</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14405,29 +14411,29 @@
         <v>2636</v>
       </c>
       <c r="C22" t="s">
-        <v>2921</v>
+        <v>2914</v>
       </c>
       <c r="D22" t="s">
         <v>2633</v>
       </c>
       <c r="E22" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H22">
         <v>30</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>2901</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>2901</v>
+      <c r="I22" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -14461,7 +14467,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 670, 30, 30 , '2035-01-06 01:00:00', '2035-01-06 01:00:00', 2, 2, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/audio.mp3', 'sonido', 'Conflictos en calle con individuos', 'abierta', 710, 95, 30 , '2034-01-05 01:00:00', '2035-01-06 01:00:00', 2, 2, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14483,19 +14489,19 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H23">
         <v>35</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>2902</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>2901</v>
+        <v>2865</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -14529,7 +14535,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 680, 40, 35 , '2035-02-14 01:00:00', '2035-01-06 01:00:00', 2, 4, null, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/formulas.mp4', 'video', 'Formulas para las empresas', 'tecnica', 720, 87, 35 , '2034-01-05 01:00:00', '2035-01-06 01:00:00', 2, 4, null, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -14551,19 +14557,19 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H24">
         <v>66</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>2894</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>2901</v>
+        <v>2865</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -14597,7 +14603,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 690, 50, 66 , '2034-03-05 01:00:00', '2035-01-06 01:00:00', 2, 3, 12, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Planificacin de marketing', 'secreta', 730, 93, 66 , '2034-01-05 01:00:00', '2035-01-06 01:00:00', 2, 3, 12, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -14615,23 +14621,23 @@
         <v>2642</v>
       </c>
       <c r="E25" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="G25">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H25">
         <v>45</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>2903</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>2901</v>
+        <v>2865</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>2927</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -14665,7 +14671,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 700, 45, 45 , '2035-01-05 01:00:00', '2035-01-06 01:00:00', 2, 8, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 740, 94, 45 , '2034-01-05 01:00:00', '2034-07-07 05:00:00', 2, 8, null, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -14687,19 +14693,19 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26">
         <v>90</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>2904</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>2901</v>
+      <c r="I26" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>2898</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -14733,7 +14739,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 710, 95, 90 , '2034-12-24 01:00:00', '2035-01-06 01:00:00', 2, 3, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Planificacion de marketing', 'tecnica', 750, 96, 90 , '2034-01-06 01:00:00', '2035-01-06 01:00:00', 2, 3, null, 5, 2, 5, 2, '2034-01-06 01:00:00', 19),</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -14751,23 +14757,23 @@
         <v>2885</v>
       </c>
       <c r="E27" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="G27">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27">
         <v>89</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>2905</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>2903</v>
+      <c r="I27" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>2930</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -14800,8 +14806,8 @@
         <v>21</v>
       </c>
       <c r="U27" t="str">
-        <f>CONCATENATE("('",B27,"', '",C27,"', '",D27,"', '",E27,"', ",F27,", ",G27,", ",H27," , '",I27,"', '",J27,"', ",K27,", ",L27,", ",M27,", ",N27,", ",O27,", ",P27,", ",Q27,", '",R27,"', ",S27,"),")</f>
-        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 720, 90, 89 , '2034-11-11 01:00:00', '2035-01-05 01:00:00', 3, 3, null, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/imagen3.png', 'imagen', 'Organizacion de marketing', 'abierta', 760, 88, 89 , '2034-01-05 01:00:00', '2034-07-04 02:00:00', 3, 3, null, 6, 2, 6, 2, '2034-01-05 01:00:00', 21),</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -14819,22 +14825,23 @@
         <v>2642</v>
       </c>
       <c r="E28" t="s">
-        <v>2907</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
+        <v>2900</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>770</v>
       </c>
       <c r="G28">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>2906</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="H28">
+        <v>88</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>2924</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -14864,8 +14871,8 @@
         <v>1</v>
       </c>
       <c r="U28" t="str">
-        <f>CONCATENATE("('",B28,"', '",C28,"', '",D28,"', '",E28,"', ",F28,", ",G28,", ",H28," , '",I28,"', ",J28,", ",K28,", ",L28,", ",M28,", ",N28,", ",O28,", ",P28,", ",Q28,", '",R28,"', ",S28,"),")</f>
-        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', null, 85, null , '2035-01-30 01:00:00', null, 3, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <f t="shared" si="3"/>
+        <v>('crudo_contenido/planos.png', 'imagen', 'Investigacion de planos para construcción', 'abierta', 770, 88, 88 , '2034-01-05 01:00:00', '2034-05-19 07:00:00', 3, 8, null, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -14874,31 +14881,32 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="C29" t="s">
         <v>2628</v>
       </c>
       <c r="D29" t="s">
-        <v>2923</v>
+        <v>2916</v>
       </c>
       <c r="E29" t="s">
         <v>2632</v>
       </c>
       <c r="F29">
-        <v>600</v>
+        <f t="shared" si="4"/>
+        <v>780</v>
       </c>
       <c r="G29">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>85</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>2902</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>2931</v>
+      <c r="I29" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>2921</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -14929,7 +14937,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 600, 80, 85 , '2035-02-14 01:00:00', '2036-01-06 01:00:00', 2, 8, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por problemas economicos', 'tecnica', 780, 90, 85 , '2034-01-05 01:00:00', '2036-01-06 01:00:00', 2, 8, null, 3, 1, 3, 1, '2034-01-06 01:00:00', 11),</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -14938,31 +14946,32 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="C30" t="s">
         <v>2628</v>
       </c>
       <c r="D30" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="E30" t="s">
         <v>2627</v>
       </c>
       <c r="F30">
-        <v>630</v>
+        <f t="shared" si="4"/>
+        <v>790</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>2901</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>2931</v>
+      <c r="I30" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>2921</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -14994,7 +15003,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 30, 10 , '2035-01-06 01:00:00', '2036-01-06 01:00:00', 2, 6, 1, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 790, 98, 10 , '2034-01-05 01:00:00', '2036-01-06 01:00:00', 2, 6, 1, 4, 2, 4, 2, '2034-01-05 01:00:00', 13),</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -15003,31 +15012,32 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="C31" t="s">
         <v>2628</v>
       </c>
       <c r="D31" t="s">
-        <v>2926</v>
+        <v>2919</v>
       </c>
       <c r="E31" t="s">
         <v>2627</v>
       </c>
       <c r="F31">
-        <v>680</v>
+        <f t="shared" si="4"/>
+        <v>800</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H31">
         <v>90</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>2927</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>2932</v>
+      <c r="I31" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>2922</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -15062,7 +15072,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 680, 70, 90 , '2035-01-09 01:00:00', '2036-01-05 01:00:00', 2, 3, 3, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part II', 'secreta', 800, 88, 90 , '2034-01-06 01:00:00', '2036-01-05 01:00:00', 2, 3, 3, 4, 2, 4, 2, '2034-01-06 01:00:00', 15),</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -15071,31 +15081,32 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="C32" t="s">
         <v>2628</v>
       </c>
       <c r="D32" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="E32" t="s">
         <v>2627</v>
       </c>
       <c r="F32">
-        <v>720</v>
+        <f t="shared" si="4"/>
+        <v>810</v>
       </c>
       <c r="G32">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>85</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>2928</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>2931</v>
+      <c r="I32" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>2921</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -15130,7 +15141,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 720, 90, 85 , '2035-01-20 01:00:00', '2036-01-06 01:00:00', 2, 8, 5, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 810, 98, 85 , '2034-01-05 01:00:00', '2036-01-06 01:00:00', 2, 8, 5, 5, 2, 5, 2, '2034-01-05 01:00:00', 17),</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15139,31 +15150,32 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="C33" t="s">
         <v>2628</v>
       </c>
       <c r="D33" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="E33" t="s">
         <v>2627</v>
       </c>
       <c r="F33">
-        <v>630</v>
+        <f t="shared" si="4"/>
+        <v>820</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H33">
         <v>90</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>2929</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>2932</v>
+      <c r="I33" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>2922</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -15195,7 +15207,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="3"/>
-        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 630, 50, 90 , '2035-01-11 01:00:00', '2036-01-05 01:00:00', 2, 6, 7, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
+        <v>('crudo_contenido/images.png', 'imagen', 'Empresa en quiebra por malas decisiones del directivo part I', 'secreta', 820, 88, 90 , '2034-01-05 01:00:00', '2036-01-05 01:00:00', 2, 6, 7, 1, 1, 1, 1, '2034-01-05 01:00:00', 1),</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -15204,7 +15216,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="M34" s="11"/>
       <c r="Q34" s="16"/>
@@ -15252,10 +15264,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M68"/>
+  <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K61"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15267,7 +15279,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" s="25" t="s">
-        <v>2911</v>
+        <v>2904</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -15278,28 +15290,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H3" t="s">
         <v>2908</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>2909</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2912</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2914</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2915</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15310,7 +15322,7 @@
         <v>2865</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -15329,7 +15341,7 @@
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE("('",B4,"', ",C4,", ",D4,", '",E4,"',",F4,",",G4,",",H4,"),")</f>
-        <v>('2034-01-05 01:00:00', 60, 1, '2034-01-05 01:00:00',10,3,1),</v>
+        <v>('2034-01-05 01:00:00', 85, 1, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15337,8 +15349,8 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>2901</v>
+      <c r="B5" s="30" t="s">
+        <v>2923</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -15359,20 +15371,20 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K61" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
-        <v>('2035-01-06 01:00:00', 85, 1, '2034-01-05 01:00:00',6,2,1),</v>
+        <f t="shared" ref="K5:K67" si="0">CONCATENATE("('",B5,"', ",C5,", ",D5,", '",E5,"',",F5,",",G5,",",H5,"),")</f>
+        <v>('2034-12-02 17:00:00', 85, 1, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A51" si="1">A5+1</f>
+        <f t="shared" ref="A6:A67" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -15391,7 +15403,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 2, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2034-01-05 01:00:00', 90, 2, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15399,11 +15411,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>2903</v>
+      <c r="B7" s="31" t="s">
+        <v>2925</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>2</v>
@@ -15422,7 +15434,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 30, 2, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2034-11-03 07:00:00', 85, 2, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15461,8 +15473,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>2903</v>
+      <c r="B9" s="31" t="s">
+        <v>2926</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -15484,7 +15496,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 90, 3, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2034-10-04 02:00:00', 90, 3, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15496,7 +15508,7 @@
         <v>2865</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -15515,7 +15527,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 50, 4, '2034-01-05 01:00:00',10,3,1),</v>
+        <v>('2034-01-05 01:00:00', 90, 4, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15524,10 +15536,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D11" s="22">
         <v>4</v>
@@ -15546,7 +15558,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 60, 4, '2034-01-05 01:00:00',14,4,2),</v>
+        <v>('2035-01-06 01:00:00', 80, 4, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15558,7 +15570,7 @@
         <v>2865</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -15577,7 +15589,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 60, 5, '2034-01-05 01:00:00',14,4,2),</v>
+        <v>('2034-01-05 01:00:00', 90, 5, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15586,10 +15598,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D13" s="22">
         <v>5</v>
@@ -15608,7 +15620,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 70, 5, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2035-01-05 01:00:00', 95, 5, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15620,7 +15632,7 @@
         <v>2866</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -15639,7 +15651,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 80, 6, '2034-01-06 01:00:00',16,4,2),</v>
+        <v>('2034-01-06 01:00:00', 85, 6, '2034-01-06 01:00:00',16,4,2),</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15647,8 +15659,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>2903</v>
+      <c r="B15" s="31" t="s">
+        <v>2927</v>
       </c>
       <c r="C15">
         <v>85</v>
@@ -15670,7 +15682,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 85, 6, '2034-01-05 01:00:00',18,5,2),</v>
+        <v>('2034-07-07 05:00:00', 85, 6, '2034-01-05 01:00:00',18,5,2),</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15682,7 +15694,7 @@
         <v>2866</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15701,7 +15713,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 35, 7, '2034-01-06 01:00:00',20,5,2),</v>
+        <v>('2034-01-06 01:00:00', 90, 7, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -15713,7 +15725,7 @@
         <v>2866</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22">
         <v>7</v>
@@ -15732,7 +15744,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 45, 7, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2034-01-06 01:00:00', 90, 7, '2034-01-06 01:00:00',12,3,1),</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15740,30 +15752,30 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="31" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18" s="22">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>2865</v>
       </c>
-      <c r="C18">
-        <v>85</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>2865</v>
-      </c>
       <c r="F18">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G18" s="23">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',102,27,9),</v>
+        <v>('2034-11-03 07:00:00', 90, 7, '2034-01-05 01:00:00',26,7,3),</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -15784,17 +15796,17 @@
         <v>2865</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G19" s="23">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',10,3,1),</v>
+        <v>('2034-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',102,27,9),</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -15802,30 +15814,30 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>2903</v>
+      <c r="B20" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C20">
         <v>85</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20">
         <v>8</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G20" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2034-01-05 01:00:00', 85, 8, '2034-01-05 01:00:00',10,3,1),</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -15833,30 +15845,30 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>2865</v>
+      <c r="B21" s="31" t="s">
+        <v>2926</v>
       </c>
       <c r="C21">
-        <v>90</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="D21" s="22">
+        <v>8</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="23">
         <v>2</v>
-      </c>
-      <c r="G21" s="23">
-        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 9, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2034-10-04 02:00:00', 85, 8, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -15864,30 +15876,30 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>2903</v>
+      <c r="B22" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C22">
-        <v>95</v>
-      </c>
-      <c r="D22" s="22">
+        <v>90</v>
+      </c>
+      <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 95, 9, '2034-01-05 01:00:00',6,2,1),</v>
+        <v>('2034-01-05 01:00:00', 90, 9, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -15895,30 +15907,30 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>2866</v>
+      <c r="B23" s="20" t="s">
+        <v>2899</v>
       </c>
       <c r="C23">
-        <v>75</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="D23" s="22">
+        <v>9</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G23" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 75, 10, '2034-01-06 01:00:00',16,4,2),</v>
+        <v>('2035-01-05 01:00:00', 95, 9, '2034-01-05 01:00:00',6,2,1),</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -15926,30 +15938,30 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>2903</v>
+      <c r="B24" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C24">
-        <v>80</v>
-      </c>
-      <c r="D24" s="22">
+        <v>95</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24" s="23">
+        <v>4</v>
+      </c>
+      <c r="H24">
         <v>2</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2034-01-06 01:00:00', 95, 10, '2034-01-06 01:00:00',16,4,2),</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -15957,30 +15969,30 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>2865</v>
+      <c r="B25" s="20" t="s">
+        <v>2899</v>
       </c>
       <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="D25" s="22">
+        <v>10</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G25" s="23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 11, '2034-01-05 01:00:00',26,7,3),</v>
+        <v>('2035-01-05 01:00:00', 80, 10, '2034-01-05 01:00:00',2,1,1),</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -15988,30 +16000,30 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>2901</v>
+      <c r="B26" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C26">
         <v>90</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G26" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 90, 11, '2034-01-05 01:00:00',30,8,3),</v>
+        <v>('2034-01-05 01:00:00', 90, 11, '2034-01-05 01:00:00',26,7,3),</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -16019,16 +16031,16 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>2865</v>
+      <c r="B27" s="29" t="s">
+        <v>2928</v>
       </c>
       <c r="C27">
-        <v>85</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="22">
+        <v>11</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="F27">
@@ -16042,7 +16054,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 85, 12, '2034-01-05 01:00:00',30,8,3),</v>
+        <v>('2034-02-28 07:00:00', 90, 11, '2034-01-05 01:00:00',30,8,3),</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -16050,30 +16062,30 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>2901</v>
+      <c r="B28" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C28">
         <v>85</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28">
         <v>12</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F28">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G28" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 85, 12, '2034-01-05 01:00:00',34,9,3),</v>
+        <v>('2034-01-05 01:00:00', 85, 12, '2034-01-05 01:00:00',30,8,3),</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -16081,30 +16093,30 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>2866</v>
+      <c r="B29" s="20" t="s">
+        <v>2898</v>
       </c>
       <c r="C29">
-        <v>90</v>
-      </c>
-      <c r="D29">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="D29" s="22">
+        <v>12</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G29" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 90, 13, '2034-01-06 01:00:00',40,10,4),</v>
+        <v>('2035-01-06 01:00:00', 85, 12, '2034-01-05 01:00:00',34,9,3),</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -16112,30 +16124,30 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>2903</v>
+      <c r="B30" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C30">
-        <v>85</v>
-      </c>
-      <c r="D30" s="22">
+        <v>90</v>
+      </c>
+      <c r="D30">
         <v>13</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F30">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>4</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 85, 13, '2034-01-05 01:00:00',42,11,4),</v>
+        <v>('2034-01-06 01:00:00', 90, 13, '2034-01-06 01:00:00',40,10,4),</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -16143,20 +16155,20 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>2866</v>
+      <c r="B31" s="20" t="s">
+        <v>2899</v>
       </c>
       <c r="C31">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="22">
+        <v>13</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" s="23">
         <v>11</v>
@@ -16166,7 +16178,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 70, 14, '2034-01-06 01:00:00',44,11,4),</v>
+        <v>('2035-01-05 01:00:00', 85, 13, '2034-01-05 01:00:00',42,11,4),</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -16174,30 +16186,30 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>2903</v>
+      <c r="B32" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C32">
-        <v>75</v>
-      </c>
-      <c r="D32" s="22">
+        <v>90</v>
+      </c>
+      <c r="D32">
         <v>14</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F32">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <v>4</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 75, 14, '2034-01-05 01:00:00',46,12,4),</v>
+        <v>('2034-01-06 01:00:00', 90, 14, '2034-01-06 01:00:00',44,11,4),</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -16205,20 +16217,20 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>2866</v>
+      <c r="B33" s="20" t="s">
+        <v>2899</v>
       </c>
       <c r="C33">
-        <v>90</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="D33" s="22">
+        <v>14</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="23">
         <v>12</v>
@@ -16228,7 +16240,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 90, 15, '2034-01-06 01:00:00',48,12,4),</v>
+        <v>('2035-01-05 01:00:00', 97, 14, '2034-01-05 01:00:00',46,12,4),</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -16237,7 +16249,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -16246,20 +16258,20 @@
         <v>15</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 90, 15, '2034-01-05 01:00:00',50,13,5),</v>
+        <v>('2034-01-06 01:00:00', 90, 15, '2034-01-06 01:00:00',48,12,4),</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -16267,30 +16279,30 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>2901</v>
+      <c r="B35" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C35">
-        <v>85</v>
-      </c>
-      <c r="D35" s="22">
+        <v>90</v>
+      </c>
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F35">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G35" s="23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>5</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 85, 15, '2034-01-05 01:00:00',54,14,5),</v>
+        <v>('2034-01-05 01:00:00', 90, 15, '2034-01-05 01:00:00',50,13,5),</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -16298,30 +16310,30 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>2866</v>
+      <c r="B36" s="29" t="s">
+        <v>2928</v>
       </c>
       <c r="C36">
         <v>85</v>
       </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>2866</v>
+      <c r="D36" s="22">
+        <v>15</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="F36">
-        <v>40</v>
-      </c>
-      <c r="G36" s="22">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="G36" s="23">
+        <v>14</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 17, '2034-01-06 01:00:00',40,10,4),</v>
+        <v>('2034-02-28 07:00:00', 85, 15, '2034-01-05 01:00:00',54,14,5),</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -16329,30 +16341,30 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>2901</v>
+      <c r="B37" s="21" t="s">
+        <v>2865</v>
       </c>
       <c r="C37">
-        <v>80</v>
-      </c>
-      <c r="D37" s="22">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="D37" s="24">
+        <v>16</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F37">
-        <v>20</v>
-      </c>
-      <c r="G37" s="22">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="G37" s="23">
+        <v>4</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 80, 17, '2034-01-06 01:00:00',20,5,2),</v>
+        <v>('2034-01-05 01:00:00', 90, 16, '2034-01-05 01:00:00',14,4,2),</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -16360,273 +16372,257 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>2865</v>
+      <c r="B38" s="21" t="s">
+        <v>2899</v>
       </c>
       <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>2865</v>
+        <v>90</v>
+      </c>
+      <c r="D38" s="24">
+        <v>16</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>2866</v>
       </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="22">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G38" s="23">
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 18, '2034-01-05 01:00:00',2,1,1),</v>
+        <v>('2035-01-05 01:00:00', 90, 16, '2034-01-06 01:00:00',28,7,3),</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C39" s="24">
+      <c r="B39" s="29" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39" s="22">
+        <v>16</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F39">
+        <v>42</v>
+      </c>
+      <c r="G39" s="23">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035-03-10 06:00:00', 90, 16, '2034-01-05 01:00:00',42,11,4),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>A36+1</f>
+        <v>34</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C40">
+        <v>85</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="22">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-06 01:00:00', 85, 17, '2034-01-06 01:00:00',40,10,4),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C41">
+        <v>88</v>
+      </c>
+      <c r="D41" s="22">
+        <v>17</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" s="22">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>('2035-01-06 01:00:00', 88, 17, '2034-01-06 01:00:00',20,5,2),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="22">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 90, 18, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C43" s="24">
         <v>100</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D43" s="24">
         <v>18</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F43" s="24">
         <v>8</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G43" s="22">
         <v>2</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H43" s="24">
         <v>1</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24" t="str">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>('2035-01-06 01:00:00', 100, 18, '2034-01-06 01:00:00',8,2,1),</v>
       </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C40" s="24">
-        <v>40</v>
-      </c>
-      <c r="D40" s="24">
-        <v>19</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F40" s="24">
-        <v>22</v>
-      </c>
-      <c r="G40" s="22">
-        <v>6</v>
-      </c>
-      <c r="H40" s="24">
-        <v>2</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 40, 19, '2034-01-05 01:00:00',22,6,2),</v>
-      </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C41" s="24">
-        <v>40</v>
-      </c>
-      <c r="D41" s="24">
+      <c r="B44" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C44" s="24">
+        <v>80</v>
+      </c>
+      <c r="D44" s="24">
         <v>19</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F41" s="24">
-        <v>20</v>
-      </c>
-      <c r="G41" s="22">
-        <v>5</v>
-      </c>
-      <c r="H41" s="24">
+      <c r="E44" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F44" s="24">
+        <v>22</v>
+      </c>
+      <c r="G44" s="22">
+        <v>6</v>
+      </c>
+      <c r="H44" s="24">
         <v>2</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24" t="str">
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 40, 19, '2034-01-06 01:00:00',20,5,2),</v>
-      </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+        <v>('2034-01-05 01:00:00', 80, 19, '2034-01-05 01:00:00',22,6,2),</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C42" s="24">
-        <v>70</v>
-      </c>
-      <c r="D42" s="24">
-        <v>20</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F42" s="24">
-        <v>6</v>
-      </c>
-      <c r="G42" s="22">
-        <v>2</v>
-      </c>
-      <c r="H42" s="24">
-        <v>1</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 70, 20, '2034-01-05 01:00:00',6,2,1),</v>
-      </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C43" s="24">
-        <v>70</v>
-      </c>
-      <c r="D43" s="24">
-        <v>20</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F43" s="24">
-        <v>2</v>
-      </c>
-      <c r="G43" s="22">
-        <v>1</v>
-      </c>
-      <c r="H43" s="24">
-        <v>1</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 70, 20, '2034-01-05 01:00:00',2,1,1),</v>
-      </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C44" s="24">
-        <v>60</v>
-      </c>
-      <c r="D44" s="24">
-        <v>21</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F44" s="24">
-        <v>16</v>
-      </c>
-      <c r="G44" s="22">
-        <v>4</v>
-      </c>
-      <c r="H44" s="24">
-        <v>2</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 60, 21, '2034-01-06 01:00:00',16,4,2),</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
       <c r="B45" s="20" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="C45" s="24">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D45" s="24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>2866</v>
       </c>
       <c r="F45" s="24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G45" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="24" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 80, 21, '2034-01-06 01:00:00',12,3,1),</v>
+        <v>('2035-01-06 01:00:00', 94, 19, '2034-01-06 01:00:00',20,5,2),</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -16634,198 +16630,218 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>2866</v>
-      </c>
-      <c r="C46">
-        <v>95</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F46">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C46" s="24">
+        <v>90</v>
+      </c>
+      <c r="D46" s="24">
+        <v>20</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F46" s="24">
+        <v>6</v>
       </c>
       <c r="G46" s="22">
-        <v>6</v>
-      </c>
-      <c r="H46">
         <v>2</v>
       </c>
+      <c r="H46" s="24">
+        <v>1</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 95, 22, '2034-01-06 01:00:00',24,6,2),</v>
-      </c>
+        <v>('2034-01-05 01:00:00', 90, 20, '2034-01-05 01:00:00',6,2,1),</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C47">
+        <v>2898</v>
+      </c>
+      <c r="C47" s="24">
         <v>96</v>
       </c>
-      <c r="D47">
-        <v>22</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F47">
-        <v>40</v>
+      <c r="D47" s="24">
+        <v>20</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F47" s="24">
+        <v>2</v>
       </c>
       <c r="G47" s="22">
-        <v>10</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H47" s="24">
+        <v>1</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-06 01:00:00', 96, 22, '2034-01-06 01:00:00',40,10,4),</v>
-      </c>
+        <v>('2035-01-06 01:00:00', 96, 20, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="C48">
-        <v>80</v>
-      </c>
-      <c r="D48">
-        <v>23</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F48">
+      <c r="C48" s="24">
+        <v>90</v>
+      </c>
+      <c r="D48" s="24">
+        <v>21</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F48" s="24">
+        <v>16</v>
+      </c>
+      <c r="G48" s="22">
+        <v>4</v>
+      </c>
+      <c r="H48" s="24">
         <v>2</v>
       </c>
-      <c r="G48" s="22">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 80, 23, '2034-01-05 01:00:00',2,1,1),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-01-05 01:00:00', 90, 21, '2034-01-06 01:00:00',16,4,2),</v>
+      </c>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C49" s="24">
+        <v>98</v>
+      </c>
+      <c r="D49" s="24">
+        <v>21</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="C49">
-        <v>95</v>
-      </c>
-      <c r="D49">
-        <v>23</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
+      <c r="F49" s="24">
+        <v>12</v>
       </c>
       <c r="G49" s="22">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H49" s="24">
+        <v>1</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 95, 23, '2034-01-06 01:00:00',20,5,2),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-07-07 05:00:00', 98, 21, '2034-01-06 01:00:00',12,3,1),</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>2903</v>
+        <v>44</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F50">
+        <v>24</v>
+      </c>
+      <c r="G50" s="22">
         <v>6</v>
       </c>
-      <c r="G50" s="22">
+      <c r="H50">
         <v>2</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
-        <v>('2035-01-05 01:00:00', 90, 23, '2034-01-05 01:00:00',6,2,1),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-01-06 01:00:00', 95, 22, '2034-01-06 01:00:00',24,6,2),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>2865</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>2898</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="F51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 80, 24, '2034-01-05 01:00:00',30,8,3),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2035-01-06 01:00:00', 96, 22, '2034-01-06 01:00:00',40,10,4),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
       <c r="B52" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="C52">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>2865</v>
@@ -16833,7 +16849,7 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>1</v>
       </c>
       <c r="H52">
@@ -16841,182 +16857,207 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 60, 25, '2034-01-05 01:00:00',2,1,1),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>2931</v>
+        <v>('2034-01-05 01:00:00', 80, 23, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="C53">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D53">
-        <v>25</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>2865</v>
+        <v>23</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>2866</v>
       </c>
       <c r="F53">
-        <v>14</v>
-      </c>
-      <c r="G53" s="23">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="22">
+        <v>5</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-06 01:00:00', 85, 25, '2034-01-05 01:00:00',14,4,2),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>2865</v>
+        <v>('2034-01-06 01:00:00', 95, 23, '2034-01-06 01:00:00',20,5,2),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>2930</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" s="22">
         <v>2</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 30, 26, '2034-01-05 01:00:00',2,1,1),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>2931</v>
+        <v>('2034-07-04 02:00:00', 90, 23, '2034-01-05 01:00:00',6,2,1),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A54+1</f>
+        <v>49</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>2865</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" s="23">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G55" s="22">
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-06 01:00:00', 30, 26, '2034-01-05 01:00:00',6,2,1),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-01-05 01:00:00', 80, 24, '2034-01-05 01:00:00',30,8,3),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ref="A56:A67" si="2">A55+1</f>
+        <v>50</v>
+      </c>
       <c r="B56" s="19" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>2866</v>
       </c>
-      <c r="C56">
-        <v>85</v>
-      </c>
-      <c r="D56">
-        <v>27</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>2866</v>
-      </c>
       <c r="F56">
-        <v>8</v>
-      </c>
-      <c r="G56" s="23">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="G56" s="22">
+        <v>3</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-06 01:00:00', 85, 27, '2034-01-06 01:00:00',8,2,1),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
-        <v>2932</v>
+        <v>('2034-03-05 01:00:00', 90, 24, '2034-01-06 01:00:00',12,3,1),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>2924</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>27</v>
-      </c>
-      <c r="E57" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="F57">
-        <v>18</v>
-      </c>
-      <c r="G57" s="23">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="G57" s="22">
+        <v>17</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-05-19 07:00:00', 95, 24, '2034-01-05 01:00:00',66,17,),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
       <c r="B58" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G58" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 50, 28, '2034-01-05 01:00:00',10,3,1),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-01-05 01:00:00', 95, 25, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
       <c r="B59" s="20" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D59">
-        <v>28</v>
-      </c>
-      <c r="E59" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>2865</v>
       </c>
       <c r="F59">
@@ -17030,86 +17071,280 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-06 01:00:00', 60, 28, '2034-01-05 01:00:00',14,4,2),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2036-01-06 01:00:00', 85, 25, '2034-01-05 01:00:00',14,4,2),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
       <c r="B60" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G60" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
-        <v>('2034-01-05 01:00:00', 60, 29, '2034-01-05 01:00:00',14,4,2),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>('2034-01-05 01:00:00', 97, 26, '2034-01-05 01:00:00',2,1,1),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
       <c r="B61" s="20" t="s">
-        <v>2932</v>
+        <v>2921</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>2865</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G61" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>('2036-01-05 01:00:00', 70, 29, '2034-01-05 01:00:00',10,3,1),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>('2036-01-06 01:00:00', 98, 26, '2034-01-05 01:00:00',6,2,1),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C62">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>27</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" s="23">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-06 01:00:00', 85, 27, '2034-01-06 01:00:00',8,2,1),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63">
+        <v>27</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F63">
+        <v>18</v>
+      </c>
+      <c r="G63" s="23">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036-01-05 01:00:00', 90, 27, '2034-01-05 01:00:00',18,5,2),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C64">
+        <v>97</v>
+      </c>
+      <c r="D64">
+        <v>28</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="23">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 97, 28, '2034-01-05 01:00:00',10,3,1),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
       <c r="B65" s="20" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+        <v>2921</v>
+      </c>
+      <c r="C65">
+        <v>98</v>
+      </c>
+      <c r="D65">
+        <v>28</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65" s="23">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036-01-06 01:00:00', 98, 28, '2034-01-05 01:00:00',14,4,2),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C66">
+        <v>89</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+      <c r="G66" s="23">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>('2034-01-05 01:00:00', 89, 29, '2034-01-05 01:00:00',14,4,2),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
       <c r="B67" s="20" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
-        <v>2932</v>
+        <v>2922</v>
+      </c>
+      <c r="C67">
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <v>29</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" s="23">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
+        <v>('2036-01-05 01:00:00', 87, 29, '2034-01-05 01:00:00',10,3,1),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>2922</v>
       </c>
     </row>
   </sheetData>
@@ -17140,19 +17375,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2908</v>
+        <v>2901</v>
       </c>
       <c r="C3" t="s">
-        <v>2917</v>
+        <v>2910</v>
       </c>
       <c r="D3" t="s">
-        <v>2910</v>
+        <v>2903</v>
       </c>
       <c r="E3" t="s">
-        <v>2918</v>
+        <v>2911</v>
       </c>
       <c r="I3" t="s">
-        <v>2922</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17380,7 +17615,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C12">
         <v>320</v>
@@ -17405,7 +17640,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C13">
         <v>335</v>
@@ -17430,7 +17665,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="C14">
         <v>350</v>
@@ -17492,7 +17727,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2920</v>
+        <v>2913</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8920" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8920" uniqueCount="2929">
   <si>
     <t>id</t>
   </si>
@@ -8665,12 +8665,6 @@
     <t>2034-01-06 01:00:00</t>
   </si>
   <si>
-    <t>2035-03-09 07:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2035-03-09 07:00:00 </t>
-  </si>
-  <si>
     <t>Agente encargado</t>
   </si>
   <si>
@@ -8866,7 +8860,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="\.\o\rg\.\ve"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8936,6 +8930,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8994,7 +9002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9038,6 +9046,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9050,15 +9068,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10300,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10331,18 +10345,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>2643</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>2644</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10393,13 +10407,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="11">
@@ -10434,13 +10448,13 @@
         <f>C6+2</f>
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="11">
@@ -10459,7 +10473,7 @@
         <v>9</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ref="O7:O13" si="0">CONCATENATE("('",B7,"', ",C7,", '",D7,"', ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7,"),")</f>
+        <f t="shared" ref="O7:O26" si="0">CONCATENATE("('",B7,"', ",C7,", '",D7,"', ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7,"),")</f>
         <v>('Cuente', 3, '2034-01-06 01:00:00', 1, 1, 11, null, null, null, null),</v>
       </c>
     </row>
@@ -10475,14 +10489,13 @@
         <f t="shared" ref="C8:C16" si="2">C7+2</f>
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E8">
-        <f>E6+1</f>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8">
@@ -10518,14 +10531,13 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E9">
-        <f>E7+1</f>
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9">
@@ -10561,18 +10573,17 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:G26" si="3">E8+1</f>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="4">G9+1</f>
+        <f t="shared" ref="G10" si="3">G9+1</f>
         <v>13</v>
       </c>
       <c r="H10" t="s">
@@ -10604,18 +10615,17 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E10:G26" si="4">G9+1</f>
         <v>13</v>
       </c>
       <c r="H11" t="s">
@@ -10647,14 +10657,13 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
       <c r="G12">
@@ -10690,18 +10699,17 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H13" t="s">
@@ -10739,27 +10747,26 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
+      <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="H14">
-        <v>17</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>2865</v>
+        <v>15</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>2866</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="11">
         <v>2</v>
@@ -10771,8 +10778,8 @@
         <v>2645</v>
       </c>
       <c r="O14" t="str">
-        <f>CONCATENATE("('",B14,"', ",C14,", '",D14,"', ",E14,", ",F14,", ",G14,", ",H14,", '",I14,"', ",J14,", ",K14,"),")</f>
-        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 15, 2034-01-06 01:00:00, 4, 2),</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10787,23 +10794,23 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
+      <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="11">
+        <f t="shared" ref="H15:H16" si="6">H14+2</f>
+        <v>17</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>2866</v>
       </c>
       <c r="J15">
@@ -10820,8 +10827,8 @@
         <v>2646</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" ref="O15:O26" si="6">CONCATENATE("('",B15,"', ",C15,", '",D15,"', ",E15,", ",F15,", ",G15,", ",H15,", '",I15,"', ",J15,", ",K15,"),")</f>
-        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 19, '2034-01-06 01:00:00', 5, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 17, 2034-01-06 01:00:00, 5, 2),</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10836,27 +10843,27 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
+      <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>2865</v>
+      <c r="H16" s="11">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>2866</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="11">
         <v>2</v>
@@ -10869,8 +10876,8 @@
         <v>2647</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 21, '2034-01-05 01:00:00', 6, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 19, 2034-01-06 01:00:00, 5, 2),</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10884,8 +10891,8 @@
       <c r="C17" s="14">
         <v>101</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>2868</v>
+      <c r="D17" s="33" t="s">
+        <v>2865</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -10896,11 +10903,11 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17">
-        <v>101</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>2867</v>
+      <c r="H17" s="34">
+        <v>99</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>2866</v>
       </c>
       <c r="J17">
         <v>27</v>
@@ -10916,8 +10923,8 @@
         <v>2648</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>('Trustora', 101, '2035-03-09 07:00:00 ', 27, 9, null, 101, '2035-03-09 07:00:00', 27, 9),</v>
+        <f t="shared" si="0"/>
+        <v>('Trustora', 101, '2034-01-05 01:00:00', 27, 9, null, 99, 2034-01-06 01:00:00, 27, 9),</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10931,29 +10938,29 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="11">
+        <v>17</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>2865</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
@@ -10963,8 +10970,8 @@
         <v>2649</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="6"/>
-        <v>('Impaza', 1, '2034-01-05 01:00:00', 1, 1, null, 1, '2034-01-05 01:00:00', 1, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Impaza', 1, '2034-01-05 01:00:00', 1, 1, null, 17, 2034-01-05 01:00:00, 5, 2),</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10979,30 +10986,29 @@
         <f>C18+2</f>
         <v>3</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="11">
-        <f>H18+2</f>
-        <v>3</v>
-      </c>
-      <c r="I19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>2866</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
@@ -11012,8 +11018,8 @@
         <v>2650</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="6"/>
-        <v>('Clari', 3, '2034-01-06 01:00:00', 1, 1, null, 3, '2034-01-06 01:00:00', 1, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Clari', 3, '2034-01-06 01:00:00', 1, 1, null, 15, 2034-01-06 01:00:00, 4, 2),</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -11025,35 +11031,32 @@
         <v>2515</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:C26" si="8">C19+2</f>
+        <f t="shared" ref="C20:C27" si="8">C19+2</f>
         <v>5</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" ref="H20:H26" si="9">H19+2</f>
-        <v>5</v>
-      </c>
-      <c r="I20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="33" t="s">
         <v>2865</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="10">J18+1</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="11">
         <v>2</v>
-      </c>
-      <c r="K20" s="11">
-        <v>1</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
@@ -11063,8 +11066,8 @@
         <v>2651</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v>('Monerte', 5, '2034-01-05 01:00:00', 2, 1, null, 5, '2034-01-05 01:00:00', 2, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Monerte', 5, '2034-01-05 01:00:00', 2, 1, null, 13, 2034-01-05 01:00:00, 4, 2),</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -11079,29 +11082,26 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
+      <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>2866</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="11">J19+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="11">
         <v>1</v>
@@ -11114,8 +11114,8 @@
         <v>2652</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="6"/>
-        <v>('Accuenti', 7, '2034-01-06 01:00:00', 2, 1, null, 7, '2034-01-06 01:00:00', 2, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Accuenti', 7, '2034-01-06 01:00:00', 2, 1, null, 11, 2034-01-06 01:00:00, 3, 1),</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -11130,28 +11130,25 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="33" t="s">
         <v>2865</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="12">J20+1</f>
         <v>3</v>
       </c>
       <c r="K22" s="11">
@@ -11165,8 +11162,8 @@
         <v>2653</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="6"/>
-        <v>('Advazon', 9, '2034-01-05 01:00:00', 3, 1, null, 9, '2034-01-05 01:00:00', 3, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Advazon', 9, '2034-01-05 01:00:00', 3, 1, null, 9, 2034-01-05 01:00:00, 3, 1),</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -11181,36 +11178,33 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
+      <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="I23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>2866</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="13">J21+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="11">
         <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="6"/>
-        <v>('Promante', 11, '2034-01-06 01:00:00', 3, 1, null, 11, '2034-01-06 01:00:00', 3, 1),</v>
+        <f t="shared" si="0"/>
+        <v>('Promante', 11, '2034-01-06 01:00:00', 3, 1, null, 7, 2034-01-06 01:00:00, 2, 1),</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11225,36 +11219,33 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="4">
         <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>2865</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="14">J22+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="6"/>
-        <v>('Evantino', 13, '2034-01-05 01:00:00', 4, 2, null, 13, '2034-01-05 01:00:00', 4, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Evantino', 13, '2034-01-05 01:00:00', 4, 2, null, 5, 2034-01-05 01:00:00, 2, 1),</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11269,36 +11260,33 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
+      <c r="E25" s="4">
         <v>4</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="4">
         <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="I25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="33" t="s">
         <v>2866</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="15">J23+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="6"/>
-        <v>('Advinco', 15, '2034-01-06 01:00:00', 4, 2, null, 15, '2034-01-06 01:00:00', 4, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Advinco', 15, '2034-01-06 01:00:00', 4, 2, null, 3, 2034-01-06 01:00:00, 1, 1),</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11313,36 +11301,33 @@
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
+      <c r="E26" s="4">
         <v>5</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="4">
         <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="I26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="33" t="s">
         <v>2865</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="16">J24+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="6"/>
-        <v>('Inforwer', 17, '2034-01-05 01:00:00', 5, 2, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
+        <f t="shared" si="0"/>
+        <v>('Inforwer', 17, '2034-01-05 01:00:00', 5, 2, null, 1, 2034-01-05 01:00:00, 1, 1),</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11350,6 +11335,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -11400,7 +11389,7 @@
         <v>2659</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H94" si="17">H30+1</f>
+        <f t="shared" ref="H31:H94" si="9">H30+1</f>
         <v>3</v>
       </c>
       <c r="I31" t="s">
@@ -11416,7 +11405,7 @@
         <v>2660</v>
       </c>
       <c r="H32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -11432,7 +11421,7 @@
         <v>2661</v>
       </c>
       <c r="H33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I33" t="s">
@@ -11444,7 +11433,7 @@
         <v>2662</v>
       </c>
       <c r="H34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I34" t="s">
@@ -11456,7 +11445,7 @@
         <v>2663</v>
       </c>
       <c r="H35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I35" t="s">
@@ -11468,7 +11457,7 @@
         <v>2664</v>
       </c>
       <c r="H36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I36" t="s">
@@ -11480,7 +11469,7 @@
         <v>2665</v>
       </c>
       <c r="H37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I37" t="s">
@@ -11492,7 +11481,7 @@
         <v>2666</v>
       </c>
       <c r="H38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I38" t="s">
@@ -11504,7 +11493,7 @@
         <v>2667</v>
       </c>
       <c r="H39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I39" t="s">
@@ -11516,7 +11505,7 @@
         <v>2668</v>
       </c>
       <c r="H40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I40" t="s">
@@ -11528,7 +11517,7 @@
         <v>2669</v>
       </c>
       <c r="H41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I41" t="s">
@@ -11540,7 +11529,7 @@
         <v>2670</v>
       </c>
       <c r="H42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I42" t="s">
@@ -11552,7 +11541,7 @@
         <v>2671</v>
       </c>
       <c r="H43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I43" t="s">
@@ -11564,7 +11553,7 @@
         <v>2672</v>
       </c>
       <c r="H44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I44" t="s">
@@ -11576,7 +11565,7 @@
         <v>2673</v>
       </c>
       <c r="H45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I45" t="s">
@@ -11588,7 +11577,7 @@
         <v>2674</v>
       </c>
       <c r="H46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I46" t="s">
@@ -11600,7 +11589,7 @@
         <v>2675</v>
       </c>
       <c r="H47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I47" t="s">
@@ -11612,7 +11601,7 @@
         <v>2676</v>
       </c>
       <c r="H48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I48" t="s">
@@ -11624,7 +11613,7 @@
         <v>2677</v>
       </c>
       <c r="H49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I49" t="s">
@@ -11636,7 +11625,7 @@
         <v>2678</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I50" t="s">
@@ -11648,7 +11637,7 @@
         <v>2679</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I51" t="s">
@@ -11660,7 +11649,7 @@
         <v>2680</v>
       </c>
       <c r="H52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I52" t="s">
@@ -11672,7 +11661,7 @@
         <v>2681</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I53" t="s">
@@ -11684,7 +11673,7 @@
         <v>2682</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I54" t="s">
@@ -11696,7 +11685,7 @@
         <v>2683</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I55" t="s">
@@ -11708,7 +11697,7 @@
         <v>2684</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I56" t="s">
@@ -11720,7 +11709,7 @@
         <v>2685</v>
       </c>
       <c r="H57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I57" t="s">
@@ -11732,7 +11721,7 @@
         <v>2686</v>
       </c>
       <c r="H58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I58" t="s">
@@ -11744,7 +11733,7 @@
         <v>2687</v>
       </c>
       <c r="H59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I59" t="s">
@@ -11756,7 +11745,7 @@
         <v>2688</v>
       </c>
       <c r="H60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I60" t="s">
@@ -11768,7 +11757,7 @@
         <v>2689</v>
       </c>
       <c r="H61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I61" t="s">
@@ -11780,7 +11769,7 @@
         <v>2690</v>
       </c>
       <c r="H62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I62" t="s">
@@ -11792,7 +11781,7 @@
         <v>2691</v>
       </c>
       <c r="H63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I63" t="s">
@@ -11804,7 +11793,7 @@
         <v>2692</v>
       </c>
       <c r="H64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I64" t="s">
@@ -11816,7 +11805,7 @@
         <v>2693</v>
       </c>
       <c r="H65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I65" t="s">
@@ -11828,7 +11817,7 @@
         <v>2694</v>
       </c>
       <c r="H66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I66" t="s">
@@ -11840,7 +11829,7 @@
         <v>2695</v>
       </c>
       <c r="H67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I67" t="s">
@@ -11852,7 +11841,7 @@
         <v>2696</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I68" t="s">
@@ -11864,7 +11853,7 @@
         <v>2697</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I69" t="s">
@@ -11876,7 +11865,7 @@
         <v>2698</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I70" t="s">
@@ -11888,7 +11877,7 @@
         <v>2699</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I71" t="s">
@@ -11900,7 +11889,7 @@
         <v>2700</v>
       </c>
       <c r="H72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I72" t="s">
@@ -11912,7 +11901,7 @@
         <v>2701</v>
       </c>
       <c r="H73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="I73" t="s">
@@ -11924,7 +11913,7 @@
         <v>2702</v>
       </c>
       <c r="H74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="I74" t="s">
@@ -11936,7 +11925,7 @@
         <v>2703</v>
       </c>
       <c r="H75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="I75" t="s">
@@ -11948,7 +11937,7 @@
         <v>2704</v>
       </c>
       <c r="H76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="I76" t="s">
@@ -11960,7 +11949,7 @@
         <v>2705</v>
       </c>
       <c r="H77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="I77" t="s">
@@ -11972,7 +11961,7 @@
         <v>2706</v>
       </c>
       <c r="H78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="I78" t="s">
@@ -11984,7 +11973,7 @@
         <v>2707</v>
       </c>
       <c r="H79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="I79" t="s">
@@ -11996,7 +11985,7 @@
         <v>2708</v>
       </c>
       <c r="H80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="I80" t="s">
@@ -12008,7 +11997,7 @@
         <v>2709</v>
       </c>
       <c r="H81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="I81" t="s">
@@ -12020,7 +12009,7 @@
         <v>2710</v>
       </c>
       <c r="H82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="I82" t="s">
@@ -12032,7 +12021,7 @@
         <v>2711</v>
       </c>
       <c r="H83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="I83" t="s">
@@ -12044,7 +12033,7 @@
         <v>2712</v>
       </c>
       <c r="H84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="I84" t="s">
@@ -12056,7 +12045,7 @@
         <v>2713</v>
       </c>
       <c r="H85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="I85" t="s">
@@ -12068,7 +12057,7 @@
         <v>2714</v>
       </c>
       <c r="H86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="I86" t="s">
@@ -12080,7 +12069,7 @@
         <v>2715</v>
       </c>
       <c r="H87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="I87" t="s">
@@ -12092,7 +12081,7 @@
         <v>2716</v>
       </c>
       <c r="H88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="I88" t="s">
@@ -12104,7 +12093,7 @@
         <v>2717</v>
       </c>
       <c r="H89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="I89" t="s">
@@ -12116,7 +12105,7 @@
         <v>2718</v>
       </c>
       <c r="H90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="I90" t="s">
@@ -12128,7 +12117,7 @@
         <v>2719</v>
       </c>
       <c r="H91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="I91" t="s">
@@ -12140,7 +12129,7 @@
         <v>2720</v>
       </c>
       <c r="H92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="I92" t="s">
@@ -12152,7 +12141,7 @@
         <v>2721</v>
       </c>
       <c r="H93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="I93" t="s">
@@ -12164,7 +12153,7 @@
         <v>2722</v>
       </c>
       <c r="H94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="I94" t="s">
@@ -12176,7 +12165,7 @@
         <v>2723</v>
       </c>
       <c r="H95">
-        <f t="shared" ref="H95:H130" si="18">H94+1</f>
+        <f t="shared" ref="H95:H130" si="10">H94+1</f>
         <v>67</v>
       </c>
       <c r="I95" t="s">
@@ -12188,7 +12177,7 @@
         <v>2724</v>
       </c>
       <c r="H96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="I96" t="s">
@@ -12200,7 +12189,7 @@
         <v>2725</v>
       </c>
       <c r="H97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="I97" t="s">
@@ -12212,7 +12201,7 @@
         <v>2726</v>
       </c>
       <c r="H98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="I98" t="s">
@@ -12224,7 +12213,7 @@
         <v>2727</v>
       </c>
       <c r="H99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="I99" t="s">
@@ -12236,7 +12225,7 @@
         <v>2728</v>
       </c>
       <c r="H100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="I100" t="s">
@@ -12248,7 +12237,7 @@
         <v>2729</v>
       </c>
       <c r="H101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="I101" t="s">
@@ -12260,7 +12249,7 @@
         <v>2730</v>
       </c>
       <c r="H102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="I102" t="s">
@@ -12272,7 +12261,7 @@
         <v>2731</v>
       </c>
       <c r="H103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="I103" t="s">
@@ -12284,7 +12273,7 @@
         <v>2732</v>
       </c>
       <c r="H104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="I104" t="s">
@@ -12296,7 +12285,7 @@
         <v>2733</v>
       </c>
       <c r="H105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="I105" t="s">
@@ -12308,7 +12297,7 @@
         <v>2734</v>
       </c>
       <c r="H106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="I106" t="s">
@@ -12320,7 +12309,7 @@
         <v>2735</v>
       </c>
       <c r="H107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="I107" t="s">
@@ -12332,7 +12321,7 @@
         <v>2736</v>
       </c>
       <c r="H108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="I108" t="s">
@@ -12344,7 +12333,7 @@
         <v>2737</v>
       </c>
       <c r="H109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="I109" t="s">
@@ -12356,7 +12345,7 @@
         <v>2738</v>
       </c>
       <c r="H110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="I110" t="s">
@@ -12368,7 +12357,7 @@
         <v>2739</v>
       </c>
       <c r="H111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="I111" t="s">
@@ -12380,7 +12369,7 @@
         <v>2740</v>
       </c>
       <c r="H112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="I112" t="s">
@@ -12392,7 +12381,7 @@
         <v>2741</v>
       </c>
       <c r="H113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="I113" t="s">
@@ -12404,7 +12393,7 @@
         <v>2742</v>
       </c>
       <c r="H114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="I114" t="s">
@@ -12416,7 +12405,7 @@
         <v>2743</v>
       </c>
       <c r="H115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="I115" t="s">
@@ -12428,7 +12417,7 @@
         <v>2744</v>
       </c>
       <c r="H116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="I116" t="s">
@@ -12440,7 +12429,7 @@
         <v>2745</v>
       </c>
       <c r="H117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="I117" t="s">
@@ -12452,7 +12441,7 @@
         <v>2746</v>
       </c>
       <c r="H118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="I118" t="s">
@@ -12464,7 +12453,7 @@
         <v>2747</v>
       </c>
       <c r="H119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="I119" t="s">
@@ -12476,7 +12465,7 @@
         <v>2748</v>
       </c>
       <c r="H120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="I120" t="s">
@@ -12488,7 +12477,7 @@
         <v>2749</v>
       </c>
       <c r="H121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="I121" t="s">
@@ -12500,7 +12489,7 @@
         <v>2750</v>
       </c>
       <c r="H122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="I122" t="s">
@@ -12512,7 +12501,7 @@
         <v>2751</v>
       </c>
       <c r="H123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="I123" t="s">
@@ -12524,7 +12513,7 @@
         <v>2752</v>
       </c>
       <c r="H124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="I124" t="s">
@@ -12536,7 +12525,7 @@
         <v>2753</v>
       </c>
       <c r="H125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="I125" t="s">
@@ -12548,7 +12537,7 @@
         <v>2754</v>
       </c>
       <c r="H126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="I126" t="s">
@@ -12560,7 +12549,7 @@
         <v>2755</v>
       </c>
       <c r="H127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="I127" t="s">
@@ -12572,7 +12561,7 @@
         <v>2756</v>
       </c>
       <c r="H128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="I128" t="s">
@@ -12584,7 +12573,7 @@
         <v>2757</v>
       </c>
       <c r="H129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="I129" t="s">
@@ -12596,7 +12585,7 @@
         <v>2758</v>
       </c>
       <c r="H130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="I130" t="s">
@@ -13137,8 +13126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="K14" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13166,7 +13155,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13180,18 +13169,18 @@
         <v>2387</v>
       </c>
       <c r="M3" t="s">
-        <v>2920</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>2870</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
-        <v>2869</v>
-      </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
+        <v>2918</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>2868</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -13255,7 +13244,7 @@
         <v>209</v>
       </c>
       <c r="U4" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13286,8 +13275,8 @@
       <c r="I5" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>2923</v>
+      <c r="J5" s="27" t="s">
+        <v>2921</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13350,8 +13339,8 @@
       <c r="I6" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J6" s="31" t="s">
-        <v>2925</v>
+      <c r="J6" s="27" t="s">
+        <v>2923</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -13399,7 +13388,7 @@
         <v>2628</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>2627</v>
@@ -13417,8 +13406,8 @@
       <c r="I7" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>2926</v>
+      <c r="J7" s="27" t="s">
+        <v>2924</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13462,13 +13451,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2628</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>2627</v>
@@ -13486,8 +13475,8 @@
       <c r="I8" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>2898</v>
+      <c r="J8" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -13536,7 +13525,7 @@
         <v>2628</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>2627</v>
@@ -13554,8 +13543,8 @@
       <c r="I9" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>2899</v>
+      <c r="J9" s="28" t="s">
+        <v>2897</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -13605,7 +13594,7 @@
         <v>2628</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>2627</v>
@@ -13623,8 +13612,8 @@
       <c r="I10" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>2927</v>
+      <c r="J10" s="27" t="s">
+        <v>2925</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -13673,7 +13662,7 @@
         <v>2628</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>2627</v>
@@ -13691,8 +13680,8 @@
       <c r="I11" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>2925</v>
+      <c r="J11" s="27" t="s">
+        <v>2923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13736,13 +13725,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>2628</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>2627</v>
@@ -13760,8 +13749,8 @@
       <c r="I12" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>2926</v>
+      <c r="J12" s="27" t="s">
+        <v>2924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13810,10 +13799,10 @@
         <v>2631</v>
       </c>
       <c r="D13" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="E13" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
@@ -13828,8 +13817,8 @@
       <c r="I13" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>2899</v>
+      <c r="J13" s="28" t="s">
+        <v>2897</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -13878,7 +13867,7 @@
         <v>2631</v>
       </c>
       <c r="D14" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="E14" t="s">
         <v>2632</v>
@@ -13896,8 +13885,8 @@
       <c r="I14" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>2899</v>
+      <c r="J14" s="28" t="s">
+        <v>2897</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13944,7 +13933,7 @@
         <v>2631</v>
       </c>
       <c r="D15" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>2627</v>
@@ -13962,8 +13951,8 @@
       <c r="I15" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J15" s="29" t="s">
-        <v>2928</v>
+      <c r="J15" s="25" t="s">
+        <v>2926</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13995,7 +13984,7 @@
         <v>21</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="3"/>
@@ -14014,10 +14003,10 @@
         <v>2631</v>
       </c>
       <c r="D16" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="E16" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
@@ -14032,8 +14021,8 @@
       <c r="I16" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>2898</v>
+      <c r="J16" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -14079,7 +14068,7 @@
         <v>2631</v>
       </c>
       <c r="D17" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="E17" t="s">
         <v>2632</v>
@@ -14097,8 +14086,8 @@
       <c r="I17" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>2899</v>
+      <c r="J17" s="28" t="s">
+        <v>2897</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -14144,7 +14133,7 @@
         <v>2631</v>
       </c>
       <c r="D18" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>2627</v>
@@ -14162,8 +14151,8 @@
       <c r="I18" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>2899</v>
+      <c r="J18" s="28" t="s">
+        <v>2897</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -14210,10 +14199,10 @@
         <v>2631</v>
       </c>
       <c r="D19" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="E19" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
@@ -14228,8 +14217,8 @@
       <c r="I19" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J19" s="29" t="s">
-        <v>2928</v>
+      <c r="J19" s="25" t="s">
+        <v>2926</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -14275,10 +14264,10 @@
         <v>2636</v>
       </c>
       <c r="C20" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D20" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="E20" t="s">
         <v>2632</v>
@@ -14296,8 +14285,8 @@
       <c r="I20" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>2929</v>
+      <c r="J20" s="25" t="s">
+        <v>2927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -14343,10 +14332,10 @@
         <v>2636</v>
       </c>
       <c r="C21" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D21" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>2627</v>
@@ -14364,8 +14353,8 @@
       <c r="I21" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>2898</v>
+      <c r="J21" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14411,13 +14400,13 @@
         <v>2636</v>
       </c>
       <c r="C22" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D22" t="s">
         <v>2633</v>
       </c>
       <c r="E22" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
@@ -14432,8 +14421,8 @@
       <c r="I22" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J22" s="32" t="s">
-        <v>2898</v>
+      <c r="J22" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -14500,8 +14489,8 @@
       <c r="I23" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>2898</v>
+      <c r="J23" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -14550,7 +14539,7 @@
         <v>2628</v>
       </c>
       <c r="D24" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>2627</v>
@@ -14568,8 +14557,8 @@
       <c r="I24" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>2898</v>
+      <c r="J24" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -14621,7 +14610,7 @@
         <v>2642</v>
       </c>
       <c r="E25" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
@@ -14636,8 +14625,8 @@
       <c r="I25" s="13" t="s">
         <v>2865</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>2927</v>
+      <c r="J25" s="27" t="s">
+        <v>2925</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -14686,7 +14675,7 @@
         <v>2628</v>
       </c>
       <c r="D26" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="E26" t="s">
         <v>2632</v>
@@ -14704,8 +14693,8 @@
       <c r="I26" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>2898</v>
+      <c r="J26" s="28" t="s">
+        <v>2896</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -14754,10 +14743,10 @@
         <v>2628</v>
       </c>
       <c r="D27" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="E27" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -14772,8 +14761,8 @@
       <c r="I27" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>2930</v>
+      <c r="J27" s="27" t="s">
+        <v>2928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -14825,7 +14814,7 @@
         <v>2642</v>
       </c>
       <c r="E28" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
@@ -14840,8 +14829,8 @@
       <c r="I28" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J28" s="29" t="s">
-        <v>2924</v>
+      <c r="J28" s="25" t="s">
+        <v>2922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -14881,13 +14870,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C29" t="s">
         <v>2628</v>
       </c>
       <c r="D29" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="E29" t="s">
         <v>2632</v>
@@ -14905,8 +14894,8 @@
       <c r="I29" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>2921</v>
+      <c r="J29" s="28" t="s">
+        <v>2919</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -14946,13 +14935,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C30" t="s">
         <v>2628</v>
       </c>
       <c r="D30" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="E30" t="s">
         <v>2627</v>
@@ -14970,8 +14959,8 @@
       <c r="I30" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>2921</v>
+      <c r="J30" s="28" t="s">
+        <v>2919</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -15012,13 +15001,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C31" t="s">
         <v>2628</v>
       </c>
       <c r="D31" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="E31" t="s">
         <v>2627</v>
@@ -15036,8 +15025,8 @@
       <c r="I31" s="19" t="s">
         <v>2866</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>2922</v>
+      <c r="J31" s="28" t="s">
+        <v>2920</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -15081,13 +15070,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C32" t="s">
         <v>2628</v>
       </c>
       <c r="D32" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="E32" t="s">
         <v>2627</v>
@@ -15105,8 +15094,8 @@
       <c r="I32" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>2921</v>
+      <c r="J32" s="28" t="s">
+        <v>2919</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -15150,13 +15139,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C33" t="s">
         <v>2628</v>
       </c>
       <c r="D33" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="E33" t="s">
         <v>2627</v>
@@ -15174,8 +15163,8 @@
       <c r="I33" s="19" t="s">
         <v>2865</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>2922</v>
+      <c r="J33" s="28" t="s">
+        <v>2920</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -15216,7 +15205,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="M34" s="11"/>
       <c r="Q34" s="16"/>
@@ -15266,7 +15255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K67"/>
     </sheetView>
   </sheetViews>
@@ -15278,40 +15267,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="25" t="s">
-        <v>2904</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="29" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D3" t="s">
         <v>2901</v>
       </c>
-      <c r="C3" t="s">
-        <v>2902</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="18" t="s">
         <v>2903</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G3" t="s">
         <v>2905</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>2906</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>2907</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2908</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15349,8 +15338,8 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>2923</v>
+      <c r="B5" s="26" t="s">
+        <v>2921</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -15377,7 +15366,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A67" si="1">A5+1</f>
+        <f t="shared" ref="A6:A54" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -15411,8 +15400,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>2925</v>
+      <c r="B7" s="27" t="s">
+        <v>2923</v>
       </c>
       <c r="C7">
         <v>85</v>
@@ -15473,8 +15462,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>2926</v>
+      <c r="B9" s="27" t="s">
+        <v>2924</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -15536,7 +15525,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C11">
         <v>80</v>
@@ -15598,7 +15587,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C13">
         <v>95</v>
@@ -15659,8 +15648,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>2927</v>
+      <c r="B15" s="27" t="s">
+        <v>2925</v>
       </c>
       <c r="C15">
         <v>85</v>
@@ -15752,8 +15741,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>2925</v>
+      <c r="B18" s="27" t="s">
+        <v>2923</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -15845,8 +15834,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>2926</v>
+      <c r="B21" s="27" t="s">
+        <v>2924</v>
       </c>
       <c r="C21">
         <v>85</v>
@@ -15908,7 +15897,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -15970,7 +15959,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C25">
         <v>80</v>
@@ -16031,8 +16020,8 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>2928</v>
+      <c r="B27" s="25" t="s">
+        <v>2926</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -16094,7 +16083,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C29">
         <v>85</v>
@@ -16156,7 +16145,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C31">
         <v>85</v>
@@ -16218,7 +16207,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C33">
         <v>97</v>
@@ -16310,8 +16299,8 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>2928</v>
+      <c r="B36" s="25" t="s">
+        <v>2926</v>
       </c>
       <c r="C36">
         <v>85</v>
@@ -16373,7 +16362,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C38">
         <v>90</v>
@@ -16403,8 +16392,8 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>2929</v>
+      <c r="B39" s="25" t="s">
+        <v>2927</v>
       </c>
       <c r="C39">
         <v>90</v>
@@ -16466,7 +16455,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C41">
         <v>88</v>
@@ -16528,7 +16517,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C43" s="24">
         <v>100</v>
@@ -16598,7 +16587,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C45" s="24">
         <v>94</v>
@@ -16668,7 +16657,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C47" s="24">
         <v>96</v>
@@ -16737,8 +16726,8 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>2927</v>
+      <c r="B49" s="27" t="s">
+        <v>2925</v>
       </c>
       <c r="C49" s="24">
         <v>98</v>
@@ -16804,7 +16793,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C51">
         <v>96</v>
@@ -16896,8 +16885,8 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>2930</v>
+      <c r="B54" s="27" t="s">
+        <v>2928</v>
       </c>
       <c r="C54">
         <v>90</v>
@@ -16959,7 +16948,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -16989,8 +16978,8 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>2924</v>
+      <c r="B57" s="25" t="s">
+        <v>2922</v>
       </c>
       <c r="C57">
         <v>95</v>
@@ -17049,7 +17038,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="C59">
         <v>85</v>
@@ -17111,7 +17100,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="C61">
         <v>98</v>
@@ -17173,7 +17162,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="C63">
         <v>90</v>
@@ -17235,7 +17224,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="C65">
         <v>98</v>
@@ -17297,7 +17286,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="C67">
         <v>87</v>
@@ -17324,27 +17313,27 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
   </sheetData>
@@ -17375,19 +17364,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D3" t="s">
         <v>2901</v>
       </c>
-      <c r="C3" t="s">
-        <v>2910</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2903</v>
-      </c>
       <c r="E3" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="I3" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17395,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="C4">
         <v>250</v>
@@ -17420,7 +17409,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="C5">
         <f>C4+10</f>
@@ -17447,7 +17436,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C11" si="3">C5+10</f>
@@ -17475,7 +17464,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -17503,7 +17492,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -17531,7 +17520,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -17559,7 +17548,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -17587,7 +17576,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -17615,7 +17604,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="C12">
         <v>320</v>
@@ -17640,7 +17629,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="C13">
         <v>335</v>
@@ -17665,7 +17654,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="C14">
         <v>350</v>
@@ -17690,7 +17679,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="C15">
         <v>365</v>
@@ -17727,7 +17716,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
   </sheetData>
@@ -55810,10 +55799,10 @@
       <c r="C3" t="s">
         <v>2501</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="29" t="s">
         <v>2388</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="29"/>
       <c r="I3" t="s">
         <v>2500</v>
       </c>

--- a/scripts/Script.xlsx
+++ b/scripts/Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -9056,6 +9056,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9067,12 +9073,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10314,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10345,18 +10345,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>2643</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
         <v>2644</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E6" s="4">
@@ -10448,7 +10448,7 @@
         <f>C6+2</f>
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E7" s="4">
@@ -10489,7 +10489,7 @@
         <f t="shared" ref="C8:C16" si="2">C7+2</f>
         <v>5</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E8" s="4">
@@ -10531,7 +10531,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E9" s="4">
@@ -10573,7 +10573,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E10" s="4">
@@ -10615,7 +10615,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E11" s="4">
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="E10:G26" si="4">G9+1</f>
+        <f t="shared" ref="G11:G13" si="4">G9+1</f>
         <v>13</v>
       </c>
       <c r="H11" t="s">
@@ -10657,7 +10657,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E12" s="4">
@@ -10699,7 +10699,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E13" s="4">
@@ -10747,7 +10747,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E14" s="4">
@@ -10762,7 +10762,7 @@
       <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J14">
@@ -10778,8 +10778,8 @@
         <v>2645</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="0"/>
-        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 15, 2034-01-06 01:00:00, 4, 2),</v>
+        <f>CONCATENATE("('",B14,"', ",C14,", '",D14,"', ",E14,", ",F14,", ",G14,", ",H14,", '",I14,"', ",J14,", ",K14,"),")</f>
+        <v>('Inforaza', 17, '2034-01-05 01:00:00', 5, 2, null, 15, '2034-01-06 01:00:00', 4, 2),</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10794,7 +10794,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E15" s="4">
@@ -10810,8 +10810,8 @@
         <f t="shared" ref="H15:H16" si="6">H14+2</f>
         <v>17</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>2866</v>
+      <c r="I15" s="29" t="s">
+        <v>2865</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -10827,8 +10827,8 @@
         <v>2646</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="0"/>
-        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 17, 2034-01-06 01:00:00, 5, 2),</v>
+        <f t="shared" ref="O15:O26" si="7">CONCATENATE("('",B15,"', ",C15,", '",D15,"', ",E15,", ",F15,", ",G15,", ",H15,", '",I15,"', ",J15,", ",K15,"),")</f>
+        <v>('Endora', 19, '2034-01-06 01:00:00', 5, 2, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10843,7 +10843,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E16" s="4">
@@ -10859,7 +10859,7 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J16">
@@ -10869,15 +10869,15 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L22" si="7">L15+1</f>
+        <f t="shared" ref="L16:L22" si="8">L15+1</f>
         <v>3</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>2647</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="0"/>
-        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 19, 2034-01-06 01:00:00, 5, 2),</v>
+        <f t="shared" si="7"/>
+        <v>('Chalida', 21, '2034-01-05 01:00:00', 6, 2, null, 19, '2034-01-06 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
       <c r="C17" s="14">
         <v>101</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E17">
@@ -10903,28 +10903,28 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="30">
         <v>99</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="11">
         <v>9</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>2648</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="0"/>
-        <v>('Trustora', 101, '2034-01-05 01:00:00', 27, 9, null, 99, 2034-01-06 01:00:00, 27, 9),</v>
+        <f t="shared" si="7"/>
+        <v>('Trustora', 101, '2034-01-05 01:00:00', 27, 9, null, 99, '2034-01-06 01:00:00', 26, 9),</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10938,7 +10938,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E18" s="4">
@@ -10953,7 +10953,7 @@
       <c r="H18" s="11">
         <v>17</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="J18">
@@ -10963,15 +10963,15 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>2649</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="0"/>
-        <v>('Impaza', 1, '2034-01-05 01:00:00', 1, 1, null, 17, 2034-01-05 01:00:00, 5, 2),</v>
+        <f t="shared" si="7"/>
+        <v>('Impaza', 1, '2034-01-05 01:00:00', 1, 1, null, 17, '2034-01-05 01:00:00', 5, 2),</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10986,7 +10986,7 @@
         <f>C18+2</f>
         <v>3</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E19" s="4">
@@ -11001,7 +11001,7 @@
       <c r="H19" s="11">
         <v>15</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J19">
@@ -11011,15 +11011,15 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>2650</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
-        <v>('Clari', 3, '2034-01-06 01:00:00', 1, 1, null, 15, 2034-01-06 01:00:00, 4, 2),</v>
+        <f t="shared" si="7"/>
+        <v>('Clari', 3, '2034-01-06 01:00:00', 1, 1, null, 15, '2034-01-06 01:00:00', 4, 2),</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -11031,10 +11031,10 @@
         <v>2515</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:C27" si="8">C19+2</f>
+        <f t="shared" ref="C20:C26" si="9">C19+2</f>
         <v>5</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E20" s="4">
@@ -11049,7 +11049,7 @@
       <c r="H20" s="11">
         <v>13</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="J20">
@@ -11059,15 +11059,15 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>2651</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
-        <v>('Monerte', 5, '2034-01-05 01:00:00', 2, 1, null, 13, 2034-01-05 01:00:00, 4, 2),</v>
+        <f t="shared" si="7"/>
+        <v>('Monerte', 5, '2034-01-05 01:00:00', 2, 1, null, 13, '2034-01-05 01:00:00', 4, 2),</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -11079,10 +11079,10 @@
         <v>2516</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E21" s="4">
@@ -11097,7 +11097,7 @@
       <c r="H21" s="11">
         <v>11</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J21">
@@ -11107,15 +11107,15 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>2652</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
-        <v>('Accuenti', 7, '2034-01-06 01:00:00', 2, 1, null, 11, 2034-01-06 01:00:00, 3, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Accuenti', 7, '2034-01-06 01:00:00', 2, 1, null, 11, '2034-01-06 01:00:00', 3, 1),</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -11127,43 +11127,43 @@
         <v>2517</v>
       </c>
       <c r="C22" s="11">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11">
+        <v>9</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>2865</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="11">
-        <v>9</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>2865</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
       <c r="M22" s="10" t="s">
         <v>2653</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
-        <v>('Advazon', 9, '2034-01-05 01:00:00', 3, 1, null, 9, 2034-01-05 01:00:00, 3, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Advazon', 9, '2034-01-05 01:00:00', 3, 1, null, 9, '2034-01-05 01:00:00', 3, 1),</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -11175,10 +11175,10 @@
         <v>2518</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E23" s="4">
@@ -11193,7 +11193,7 @@
       <c r="H23" s="11">
         <v>7</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J23">
@@ -11203,8 +11203,8 @@
         <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
-        <v>('Promante', 11, '2034-01-06 01:00:00', 3, 1, null, 7, 2034-01-06 01:00:00, 2, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Promante', 11, '2034-01-06 01:00:00', 3, 1, null, 7, '2034-01-06 01:00:00', 2, 1),</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11216,10 +11216,10 @@
         <v>2519</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E24" s="4">
@@ -11234,7 +11234,7 @@
       <c r="H24" s="11">
         <v>5</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="J24">
@@ -11244,8 +11244,8 @@
         <v>1</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
-        <v>('Evantino', 13, '2034-01-05 01:00:00', 4, 2, null, 5, 2034-01-05 01:00:00, 2, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Evantino', 13, '2034-01-05 01:00:00', 4, 2, null, 5, '2034-01-05 01:00:00', 2, 1),</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11257,10 +11257,10 @@
         <v>2520</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="E25" s="4">
@@ -11275,7 +11275,7 @@
       <c r="H25" s="11">
         <v>3</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="29" t="s">
         <v>2866</v>
       </c>
       <c r="J25">
@@ -11285,8 +11285,8 @@
         <v>1</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
-        <v>('Advinco', 15, '2034-01-06 01:00:00', 4, 2, null, 3, 2034-01-06 01:00:00, 1, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Advinco', 15, '2034-01-06 01:00:00', 4, 2, null, 3, '2034-01-06 01:00:00', 1, 1),</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11298,10 +11298,10 @@
         <v>2521</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="E26" s="4">
@@ -11316,7 +11316,7 @@
       <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="29" t="s">
         <v>2865</v>
       </c>
       <c r="J26">
@@ -11326,8 +11326,8 @@
         <v>1</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
-        <v>('Inforwer', 17, '2034-01-05 01:00:00', 5, 2, null, 1, 2034-01-05 01:00:00, 1, 1),</v>
+        <f t="shared" si="7"/>
+        <v>('Inforwer', 17, '2034-01-05 01:00:00', 5, 2, null, 1, '2034-01-05 01:00:00', 1, 1),</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -11389,7 +11389,7 @@
         <v>2659</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H94" si="9">H30+1</f>
+        <f t="shared" ref="H31:H94" si="10">H30+1</f>
         <v>3</v>
       </c>
       <c r="I31" t="s">
@@ -11405,7 +11405,7 @@
         <v>2660</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -11421,7 +11421,7 @@
         <v>2661</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I33" t="s">
@@ -11433,7 +11433,7 @@
         <v>2662</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I34" t="s">
@@ -11445,7 +11445,7 @@
         <v>2663</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I35" t="s">
@@ -11457,7 +11457,7 @@
         <v>2664</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I36" t="s">
@@ -11469,7 +11469,7 @@
         <v>2665</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="I37" t="s">
@@ -11481,7 +11481,7 @@
         <v>2666</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="I38" t="s">
@@ -11493,7 +11493,7 @@
         <v>2667</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I39" t="s">
@@ -11505,7 +11505,7 @@
         <v>2668</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="I40" t="s">
@@ -11517,7 +11517,7 @@
         <v>2669</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I41" t="s">
@@ -11529,7 +11529,7 @@
         <v>2670</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="I42" t="s">
@@ -11541,7 +11541,7 @@
         <v>2671</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I43" t="s">
@@ -11553,7 +11553,7 @@
         <v>2672</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="I44" t="s">
@@ -11565,7 +11565,7 @@
         <v>2673</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="I45" t="s">
@@ -11577,7 +11577,7 @@
         <v>2674</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="I46" t="s">
@@ -11589,7 +11589,7 @@
         <v>2675</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="I47" t="s">
@@ -11601,7 +11601,7 @@
         <v>2676</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="I48" t="s">
@@ -11613,7 +11613,7 @@
         <v>2677</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="I49" t="s">
@@ -11625,7 +11625,7 @@
         <v>2678</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I50" t="s">
@@ -11637,7 +11637,7 @@
         <v>2679</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="I51" t="s">
@@ -11649,7 +11649,7 @@
         <v>2680</v>
       </c>
       <c r="H52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I52" t="s">
@@ -11661,7 +11661,7 @@
         <v>2681</v>
       </c>
       <c r="H53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I53" t="s">
@@ -11673,7 +11673,7 @@
         <v>2682</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="I54" t="s">
@@ -11685,7 +11685,7 @@
         <v>2683</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="I55" t="s">
@@ -11697,7 +11697,7 @@
         <v>2684</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="I56" t="s">
@@ -11709,7 +11709,7 @@
         <v>2685</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="I57" t="s">
@@ -11721,7 +11721,7 @@
         <v>2686</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="I58" t="s">
@@ -11733,7 +11733,7 @@
         <v>2687</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="I59" t="s">
@@ -11745,7 +11745,7 @@
         <v>2688</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="I60" t="s">
@@ -11757,7 +11757,7 @@
         <v>2689</v>
       </c>
       <c r="H61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="I61" t="s">
@@ -11769,7 +11769,7 @@
         <v>2690</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="I62" t="s">
@@ -11781,7 +11781,7 @@
         <v>2691</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="I63" t="s">
@@ -11793,7 +11793,7 @@
         <v>2692</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="I64" t="s">
@@ -11805,7 +11805,7 @@
         <v>2693</v>
       </c>
       <c r="H65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="I65" t="s">
@@ -11817,7 +11817,7 @@
         <v>2694</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="I66" t="s">
@@ -11829,7 +11829,7 @@
         <v>2695</v>
       </c>
       <c r="H67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="I67" t="s">
@@ -11841,7 +11841,7 @@
         <v>2696</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="I68" t="s">
@@ -11853,7 +11853,7 @@
         <v>2697</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="I69" t="s">
@@ -11865,7 +11865,7 @@
         <v>2698</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="I70" t="s">
@@ -11877,7 +11877,7 @@
         <v>2699</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="I71" t="s">
@@ -11889,7 +11889,7 @@
         <v>2700</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="I72" t="s">
@@ -11901,7 +11901,7 @@
         <v>2701</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="I73" t="s">
@@ -11913,7 +11913,7 @@
         <v>2702</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="I74" t="s">
@@ -11925,7 +11925,7 @@
         <v>2703</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="I75" t="s">
@@ -11937,7 +11937,7 @@
         <v>2704</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="I76" t="s">
@@ -11949,7 +11949,7 @@
         <v>2705</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="I77" t="s">
@@ -11961,7 +11961,7 @@
         <v>2706</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="I78" t="s">
@@ -11973,7 +11973,7 @@
         <v>2707</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="I79" t="s">
@@ -11985,7 +11985,7 @@
         <v>2708</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="I80" t="s">
@@ -11997,7 +11997,7 @@
         <v>2709</v>
       </c>
       <c r="H81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="I81" t="s">
@@ -12009,7 +12009,7 @@
         <v>2710</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="I82" t="s">
@@ -12021,7 +12021,7 @@
         <v>2711</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="I83" t="s">
@@ -12033,7 +12033,7 @@
         <v>2712</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="I84" t="s">
@@ -12045,7 +12045,7 @@
         <v>2713</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="I85" t="s">
@@ -12057,7 +12057,7 @@
         <v>2714</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="I86" t="s">
@@ -12069,7 +12069,7 @@
         <v>2715</v>
       </c>
       <c r="H87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="I87" t="s">
@@ -12081,7 +12081,7 @@
         <v>2716</v>
       </c>
       <c r="H88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="I88" t="s">
@@ -12093,7 +12093,7 @@
         <v>2717</v>
       </c>
       <c r="H89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="I89" t="s">
@@ -12105,7 +12105,7 @@
         <v>2718</v>
       </c>
       <c r="H90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="I90" t="s">
@@ -12117,7 +12117,7 @@
         <v>2719</v>
       </c>
       <c r="H91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="I91" t="s">
@@ -12129,7 +12129,7 @@
         <v>2720</v>
       </c>
       <c r="H92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="I92" t="s">
@@ -12141,7 +12141,7 @@
         <v>2721</v>
       </c>
       <c r="H93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="I93" t="s">
@@ -12153,7 +12153,7 @@
         <v>2722</v>
       </c>
       <c r="H94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="I94" t="s">
@@ -12165,7 +12165,7 @@
         <v>2723</v>
       </c>
       <c r="H95">
-        <f t="shared" ref="H95:H130" si="10">H94+1</f>
+        <f t="shared" ref="H95:H130" si="11">H94+1</f>
         <v>67</v>
       </c>
       <c r="I95" t="s">
@@ -12177,7 +12177,7 @@
         <v>2724</v>
       </c>
       <c r="H96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="I96" t="s">
@@ -12189,7 +12189,7 @@
         <v>2725</v>
       </c>
       <c r="H97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="I97" t="s">
@@ -12201,7 +12201,7 @@
         <v>2726</v>
       </c>
       <c r="H98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="I98" t="s">
@@ -12213,7 +12213,7 @@
         <v>2727</v>
       </c>
       <c r="H99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="I99" t="s">
@@ -12225,7 +12225,7 @@
         <v>2728</v>
       </c>
       <c r="H100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="I100" t="s">
@@ -12237,7 +12237,7 @@
         <v>2729</v>
       </c>
       <c r="H101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="I101" t="s">
@@ -12249,7 +12249,7 @@
         <v>2730</v>
       </c>
       <c r="H102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="I102" t="s">
@@ -12261,7 +12261,7 @@
         <v>2731</v>
       </c>
       <c r="H103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="I103" t="s">
@@ -12273,7 +12273,7 @@
         <v>2732</v>
       </c>
       <c r="H104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="I104" t="s">
@@ -12285,7 +12285,7 @@
         <v>2733</v>
       </c>
       <c r="H105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="I105" t="s">
@@ -12297,7 +12297,7 @@
         <v>2734</v>
       </c>
       <c r="H106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="I106" t="s">
@@ -12309,7 +12309,7 @@
         <v>2735</v>
       </c>
       <c r="H107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="I107" t="s">
@@ -12321,7 +12321,7 @@
         <v>2736</v>
       </c>
       <c r="H108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I108" t="s">
@@ -12333,7 +12333,7 @@
         <v>2737</v>
       </c>
       <c r="H109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="I109" t="s">
@@ -12345,7 +12345,7 @@
         <v>2738</v>
       </c>
       <c r="H110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="I110" t="s">
@@ -12357,7 +12357,7 @@
         <v>2739</v>
       </c>
       <c r="H111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="I111" t="s">
@@ -12369,7 +12369,7 @@
         <v>2740</v>
       </c>
       <c r="H112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="I112" t="s">
@@ -12381,7 +12381,7 @@
         <v>2741</v>
       </c>
       <c r="H113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="I113" t="s">
@@ -12393,7 +12393,7 @@
         <v>2742</v>
       </c>
       <c r="H114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="I114" t="s">
@@ -12405,7 +12405,7 @@
         <v>2743</v>
       </c>
       <c r="H115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="I115" t="s">
@@ -12417,7 +12417,7 @@
         <v>2744</v>
       </c>
       <c r="H116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="I116" t="s">
@@ -12429,7 +12429,7 @@
         <v>2745</v>
       </c>
       <c r="H117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="I117" t="s">
@@ -12441,7 +12441,7 @@
         <v>2746</v>
       </c>
       <c r="H118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="I118" t="s">
@@ -12453,7 +12453,7 @@
         <v>2747</v>
       </c>
       <c r="H119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="I119" t="s">
@@ -12465,7 +12465,7 @@
         <v>2748</v>
       </c>
       <c r="H120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="I120" t="s">
@@ -12477,7 +12477,7 @@
         <v>2749</v>
       </c>
       <c r="H121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="I121" t="s">
@@ -12489,7 +12489,7 @@
         <v>2750</v>
       </c>
       <c r="H122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="I122" t="s">
@@ -12501,7 +12501,7 @@
         <v>2751</v>
       </c>
       <c r="H123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="I123" t="s">
@@ -12513,7 +12513,7 @@
         <v>2752</v>
       </c>
       <c r="H124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="I124" t="s">
@@ -12525,7 +12525,7 @@
         <v>2753</v>
       </c>
       <c r="H125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="I125" t="s">
@@ -12537,7 +12537,7 @@
         <v>2754</v>
       </c>
       <c r="H126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="I126" t="s">
@@ -12549,7 +12549,7 @@
         <v>2755</v>
       </c>
       <c r="H127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="I127" t="s">
@@ -12561,7 +12561,7 @@
         <v>2756</v>
       </c>
       <c r="H128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="I128" t="s">
@@ -12573,7 +12573,7 @@
         <v>2757</v>
       </c>
       <c r="H129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="I129" t="s">
@@ -12585,7 +12585,7 @@
         <v>2758</v>
       </c>
       <c r="H130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="I130" t="s">
@@ -13171,16 +13171,16 @@
       <c r="M3" t="s">
         <v>2918</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="32" t="s">
         <v>2868</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="32" t="s">
         <v>2867</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -15267,12 +15267,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>2902</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -55799,10 +55799,10 @@
       <c r="C3" t="s">
         <v>2501</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="31" t="s">
         <v>2388</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="31"/>
       <c r="I3" t="s">
         <v>2500</v>
       </c>
